--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -118,16 +118,16 @@
     <t>Sanfrecce Hiroshima</t>
   </si>
   <si>
+    <t>Cerezo Osaka</t>
+  </si>
+  <si>
     <t>Kyoto Sanga FC</t>
   </si>
   <si>
-    <t>Cerezo Osaka</t>
+    <t>Kashiwa Reysol</t>
   </si>
   <si>
     <t>Sagan Tosu</t>
-  </si>
-  <si>
-    <t>Kashiwa Reysol</t>
   </si>
   <si>
     <t>Shonan Bellmare</t>
@@ -136,13 +136,13 @@
     <t>Yokohama FMarinos</t>
   </si>
   <si>
-    <t>Avispa Fukuoka</t>
-  </si>
-  <si>
     <t>Gamba Osaka</t>
   </si>
   <si>
     <t>Consadole Sapporo</t>
+  </si>
+  <si>
+    <t>Avispa Fukuoka</t>
   </si>
   <si>
     <t>Nagoya Grampus</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC309"/>
+  <dimension ref="A1:AC313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6105290</v>
+        <v>6105291</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,43 +1082,43 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>4.5</v>
+      </c>
+      <c r="N7">
+        <v>1.95</v>
+      </c>
+      <c r="O7">
         <v>3.25</v>
       </c>
-      <c r="M7">
-        <v>2.15</v>
-      </c>
-      <c r="N7">
-        <v>3.4</v>
-      </c>
-      <c r="O7">
-        <v>3.3</v>
-      </c>
       <c r="P7">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
         <v>2.25</v>
@@ -1133,22 +1133,22 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y7">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6105291</v>
+        <v>6105290</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,43 +1171,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M8">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2.25</v>
@@ -1222,22 +1222,22 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6105286</v>
+        <v>6105283</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,70 +1260,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6105283</v>
+        <v>6105286</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,70 +1349,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6119662</v>
+        <v>6119663</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
+        <v>3.2</v>
+      </c>
+      <c r="N13">
+        <v>2.3</v>
+      </c>
+      <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
         <v>3.1</v>
       </c>
-      <c r="M13">
-        <v>2.6</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>2.55</v>
-      </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB13">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6119663</v>
+        <v>6119664</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N14">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4375</v>
+        <v>1.1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6119664</v>
+        <v>6119662</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,70 +1794,70 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>2.8</v>
+      </c>
+      <c r="L15">
+        <v>3.1</v>
+      </c>
+      <c r="M15">
+        <v>2.6</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15">
-        <v>2.3</v>
-      </c>
-      <c r="L15">
-        <v>3.5</v>
-      </c>
-      <c r="M15">
-        <v>2.875</v>
-      </c>
-      <c r="N15">
-        <v>2.4</v>
-      </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S15">
-        <v>2.1</v>
+        <v>2.075</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>44983.125</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2503,7 +2503,7 @@
         <v>44989.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2595,7 +2595,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2684,7 +2684,7 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2770,10 +2770,10 @@
         <v>44989.125</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>44989.125</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -2951,7 +2951,7 @@
         <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3215,10 +3215,10 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>44997.125</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -3571,7 +3571,7 @@
         <v>44997.125</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3663,7 +3663,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -3930,7 +3930,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4105,10 +4105,10 @@
         <v>45003.125</v>
       </c>
       <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
         <v>41</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4283,7 +4283,7 @@
         <v>45003.125</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>30</v>
@@ -4375,7 +4375,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -4553,7 +4553,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>45016.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4817,7 +4817,7 @@
         <v>45017.08333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4909,7 +4909,7 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45017.125</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
         <v>31</v>
@@ -5087,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5262,7 +5262,7 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -5351,7 +5351,7 @@
         <v>45017.29166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6173753</v>
+        <v>6173754</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45025.08333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L57">
         <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y57">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB57">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6173755</v>
+        <v>6173753</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45025.08333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
         <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6173754</v>
+        <v>6173755</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45025.08333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.9</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6173757</v>
+        <v>6173756</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45025.125</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N60">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
         <v>3.1</v>
       </c>
-      <c r="P60">
-        <v>2.8</v>
-      </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6173759</v>
+        <v>6173757</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>45025.125</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173758</v>
+        <v>6173759</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,58 +5974,58 @@
         <v>45025.125</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="N62">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
         <v>3.4</v>
       </c>
-      <c r="P62">
-        <v>2.2</v>
-      </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>2.025</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+      <c r="U62">
         <v>1.9</v>
       </c>
-      <c r="S62">
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
       <c r="W62">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6034,16 +6034,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>1.025</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6173756</v>
+        <v>6173758</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45025.125</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L63">
+        <v>3.75</v>
+      </c>
+      <c r="M63">
+        <v>1.75</v>
+      </c>
+      <c r="N63">
         <v>3.2</v>
       </c>
-      <c r="M63">
-        <v>3.25</v>
-      </c>
-      <c r="N63">
-        <v>2.45</v>
-      </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X63">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6152,7 +6152,7 @@
         <v>45025.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -6244,7 +6244,7 @@
         <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6597,10 +6597,10 @@
         <v>45031.125</v>
       </c>
       <c r="F69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
         <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6173769</v>
+        <v>6173767</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,73 +6775,73 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
+        <v>2.05</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
       <c r="W71">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6173767</v>
+        <v>6173768</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,55 +6864,55 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6921,16 +6921,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AB72">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6173768</v>
+        <v>6173769</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
         <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O73">
         <v>3.25</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6173772</v>
+        <v>6173774</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>45039.08333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
+        <v>1.8</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>4.5</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
         <v>3.4</v>
       </c>
-      <c r="L76">
-        <v>3.3</v>
-      </c>
-      <c r="M76">
-        <v>2.15</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>3.3</v>
-      </c>
       <c r="P76">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6173773</v>
+        <v>6173772</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,56 +7309,56 @@
         <v>45039.08333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
+        <v>2.15</v>
+      </c>
+      <c r="N77">
         <v>3</v>
-      </c>
-      <c r="N77">
-        <v>2.375</v>
       </c>
       <c r="O77">
         <v>3.3</v>
       </c>
       <c r="P77">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
         <v>2.25</v>
       </c>
       <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
@@ -7366,19 +7366,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6173771</v>
+        <v>6173773</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,73 +7398,73 @@
         <v>45039.08333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L78">
+        <v>3.2</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>2.375</v>
+      </c>
+      <c r="O78">
         <v>3.3</v>
       </c>
-      <c r="M78">
-        <v>3.6</v>
-      </c>
-      <c r="N78">
-        <v>1.8</v>
-      </c>
-      <c r="O78">
-        <v>3.5</v>
-      </c>
       <c r="P78">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6173774</v>
+        <v>6173771</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>45039.08333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
+        <v>2.05</v>
+      </c>
+      <c r="L79">
+        <v>3.3</v>
+      </c>
+      <c r="M79">
+        <v>3.6</v>
+      </c>
+      <c r="N79">
         <v>1.8</v>
       </c>
-      <c r="L79">
-        <v>3.6</v>
-      </c>
-      <c r="M79">
+      <c r="O79">
+        <v>3.5</v>
+      </c>
+      <c r="P79">
         <v>4.5</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-      <c r="O79">
-        <v>3.4</v>
-      </c>
-      <c r="P79">
-        <v>4</v>
       </c>
       <c r="Q79">
         <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T79">
         <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7846,7 +7846,7 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6173778</v>
+        <v>6173779</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>2.05</v>
-      </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6173779</v>
+        <v>6173778</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.05</v>
+      </c>
+      <c r="N85">
+        <v>3.2</v>
+      </c>
+      <c r="O85">
         <v>3.3</v>
       </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>3.75</v>
-      </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
+        <v>1.975</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
         <v>2.025</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.825</v>
       </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8110,10 +8110,10 @@
         <v>45045.125</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
         <v>29</v>
@@ -8469,7 +8469,7 @@
         <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8555,10 +8555,10 @@
         <v>45049.08333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>45049.08333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8733,7 +8733,7 @@
         <v>45049.08333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>44</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6173792</v>
+        <v>6173789</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,56 +8822,56 @@
         <v>45049.125</v>
       </c>
       <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s">
         <v>36</v>
       </c>
-      <c r="G94" t="s">
-        <v>39</v>
-      </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>47</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
         <v>3.6</v>
       </c>
-      <c r="M94">
-        <v>1.833</v>
-      </c>
       <c r="N94">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
+        <v>1.8</v>
+      </c>
+      <c r="S94">
+        <v>2.05</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
         <v>1.975</v>
       </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
-      <c r="U94">
-        <v>2</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
@@ -8879,16 +8879,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
+        <v>1.05</v>
+      </c>
+      <c r="AB94">
         <v>0.875</v>
-      </c>
-      <c r="AB94">
-        <v>1</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8911,7 +8911,7 @@
         <v>45049.125</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6173790</v>
+        <v>6173792</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,73 +9000,73 @@
         <v>45049.125</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6173789</v>
+        <v>6173790</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,73 +9089,73 @@
         <v>45049.125</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q97">
         <v>-0.25</v>
       </c>
       <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
         <v>1.8</v>
       </c>
-      <c r="S97">
-        <v>2.05</v>
-      </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9267,7 +9267,7 @@
         <v>45052.08333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9359,7 +9359,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9448,7 +9448,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6173799</v>
+        <v>6173798</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6173800</v>
+        <v>6173799</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K103">
+        <v>2.4</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>3.1</v>
+      </c>
+      <c r="N103">
+        <v>2.75</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
         <v>2.8</v>
-      </c>
-      <c r="L103">
-        <v>3.1</v>
-      </c>
-      <c r="M103">
-        <v>2.45</v>
-      </c>
-      <c r="N103">
-        <v>2.7</v>
-      </c>
-      <c r="O103">
-        <v>3.2</v>
-      </c>
-      <c r="P103">
-        <v>2.75</v>
       </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y103">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6173801</v>
+        <v>6173800</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104">
+        <v>2.8</v>
+      </c>
+      <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
+        <v>2.45</v>
+      </c>
+      <c r="N104">
+        <v>2.7</v>
+      </c>
+      <c r="O104">
+        <v>3.2</v>
+      </c>
+      <c r="P104">
+        <v>2.75</v>
+      </c>
+      <c r="Q104">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>48</v>
-      </c>
-      <c r="K104">
-        <v>1.4</v>
-      </c>
-      <c r="L104">
-        <v>4.333</v>
-      </c>
-      <c r="M104">
-        <v>7.5</v>
-      </c>
-      <c r="N104">
-        <v>1.4</v>
-      </c>
-      <c r="O104">
-        <v>4.5</v>
-      </c>
-      <c r="P104">
-        <v>8.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1.25</v>
-      </c>
       <c r="R104">
+        <v>1.925</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>1.925</v>
-      </c>
-      <c r="V104">
-        <v>1.925</v>
-      </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.925</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
-      <c r="AC104">
-        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6173798</v>
+        <v>6173801</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,40 +9801,40 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>48</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
         <v>4.333</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="N105">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O105">
         <v>4.5</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
         <v>1.85</v>
@@ -9843,16 +9843,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>0.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>45059.16666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6173811</v>
+        <v>6173808</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45060.0625</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
+        <v>2.7</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>2.7</v>
+      </c>
+      <c r="N112">
+        <v>3.2</v>
+      </c>
+      <c r="O112">
+        <v>3.1</v>
+      </c>
+      <c r="P112">
+        <v>2.4</v>
+      </c>
+      <c r="Q112">
+        <v>0.25</v>
+      </c>
+      <c r="R112">
         <v>1.85</v>
       </c>
-      <c r="L112">
-        <v>3.2</v>
-      </c>
-      <c r="M112">
-        <v>4.333</v>
-      </c>
-      <c r="N112">
-        <v>2.1</v>
-      </c>
-      <c r="O112">
-        <v>3.2</v>
-      </c>
-      <c r="P112">
-        <v>3.75</v>
-      </c>
-      <c r="Q112">
-        <v>-0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.775</v>
-      </c>
       <c r="S112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X112">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6173808</v>
+        <v>6173810</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,37 +10602,37 @@
         <v>45060.0625</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="N114">
         <v>3.2</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q114">
         <v>0.25</v>
@@ -10644,34 +10644,34 @@
         <v>2</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>0</v>
-      </c>
-      <c r="AC114">
-        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6173810</v>
+        <v>6173811</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45060.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
+        <v>4.333</v>
+      </c>
+      <c r="N115">
+        <v>2.1</v>
+      </c>
+      <c r="O115">
+        <v>3.2</v>
+      </c>
+      <c r="P115">
+        <v>3.75</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.775</v>
+      </c>
+      <c r="S115">
+        <v>2.1</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.8</v>
+      </c>
+      <c r="V115">
         <v>2.05</v>
       </c>
-      <c r="N115">
-        <v>3.2</v>
-      </c>
-      <c r="O115">
-        <v>3.3</v>
-      </c>
-      <c r="P115">
-        <v>2.3</v>
-      </c>
-      <c r="Q115">
-        <v>0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.85</v>
-      </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.85</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10869,10 +10869,10 @@
         <v>45065.3125</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45066.04166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11050,7 +11050,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -11492,7 +11492,7 @@
         <v>45066.20833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>45</v>
@@ -11581,7 +11581,7 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11670,7 +11670,7 @@
         <v>45073.04166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6173824</v>
+        <v>6173823</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,37 +11759,37 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>48</v>
       </c>
       <c r="K127">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N127">
         <v>1.7</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
         <v>-0.75</v>
@@ -11801,13 +11801,13 @@
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>0.7</v>
@@ -11825,10 +11825,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6173823</v>
+        <v>6173824</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,37 +11848,37 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N128">
         <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
         <v>-0.75</v>
@@ -11890,13 +11890,13 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
         <v>0.7</v>
@@ -11914,10 +11914,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11937,7 +11937,7 @@
         <v>45073.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12026,7 +12026,7 @@
         <v>45073.29166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>46</v>
@@ -12118,7 +12118,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12204,7 +12204,7 @@
         <v>45074.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>32</v>
@@ -12296,7 +12296,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12827,10 +12827,10 @@
         <v>45080.25</v>
       </c>
       <c r="F139" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s">
         <v>40</v>
-      </c>
-      <c r="G139" t="s">
-        <v>41</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12919,7 +12919,7 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13005,10 +13005,10 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13097,7 +13097,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13275,7 +13275,7 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13361,10 +13361,10 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13450,7 +13450,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13542,7 +13542,7 @@
         <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13631,7 +13631,7 @@
         <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13717,7 +13717,7 @@
         <v>45088.25</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -14073,10 +14073,10 @@
         <v>45101.08333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>45</v>
@@ -14251,7 +14251,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>32</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>44</v>
@@ -14785,7 +14785,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -14963,10 +14963,10 @@
         <v>45107.29166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15144,7 +15144,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15322,7 +15322,7 @@
         <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6173863</v>
+        <v>6173861</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F168" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" t="s">
         <v>36</v>
       </c>
-      <c r="G168" t="s">
-        <v>46</v>
-      </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
+        <v>2.1</v>
+      </c>
+      <c r="L168">
         <v>3.3</v>
       </c>
-      <c r="L168">
-        <v>3.1</v>
-      </c>
       <c r="M168">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N168">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q168">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6173861</v>
+        <v>6173863</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M170">
+        <v>2.3</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170">
         <v>3.6</v>
       </c>
-      <c r="N170">
-        <v>2.1</v>
-      </c>
-      <c r="O170">
-        <v>3.4</v>
-      </c>
       <c r="P170">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
         <v>2.5</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6173871</v>
+        <v>6173870</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,13 +16031,13 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16046,61 +16046,61 @@
         <v>48</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M175">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="N175">
+        <v>1.45</v>
+      </c>
+      <c r="O175">
+        <v>4.75</v>
+      </c>
+      <c r="P175">
+        <v>6</v>
+      </c>
+      <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
         <v>1.8</v>
       </c>
-      <c r="O175">
-        <v>3.6</v>
-      </c>
-      <c r="P175">
-        <v>4.5</v>
-      </c>
-      <c r="Q175">
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>2.025</v>
+      </c>
+      <c r="W175">
+        <v>0.45</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>1.05</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>0.4125</v>
+      </c>
+      <c r="AC175">
         <v>-0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
-      <c r="S175">
-        <v>2.025</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
-      <c r="U175">
-        <v>2.025</v>
-      </c>
-      <c r="V175">
-        <v>1.825</v>
-      </c>
-      <c r="W175">
-        <v>0.8</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
-      <c r="Z175">
-        <v>0.825</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
-      <c r="AC175">
-        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6173869</v>
+        <v>6173871</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,49 +16209,49 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
         <v>2.025</v>
@@ -16260,19 +16260,19 @@
         <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X177">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6173872</v>
+        <v>6173869</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,76 +16298,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M178">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O178">
         <v>3.4</v>
       </c>
       <c r="P178">
+        <v>3.2</v>
+      </c>
+      <c r="Q178">
+        <v>-0.25</v>
+      </c>
+      <c r="R178">
+        <v>1.975</v>
+      </c>
+      <c r="S178">
+        <v>1.875</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>2.025</v>
+      </c>
+      <c r="V178">
+        <v>1.825</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
         <v>2.4</v>
       </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
-      <c r="R178">
-        <v>1.775</v>
-      </c>
-      <c r="S178">
-        <v>2.1</v>
-      </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.975</v>
-      </c>
-      <c r="W178">
-        <v>1.9</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6173870</v>
+        <v>6173872</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,58 +16387,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>48</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16447,16 +16447,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,10 +16476,10 @@
         <v>45115.3125</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16565,7 +16565,7 @@
         <v>45122.04166666666</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16832,7 +16832,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16924,7 +16924,7 @@
         <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17010,10 +17010,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -17102,7 +17102,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17277,7 +17277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17636,7 +17636,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6173887</v>
+        <v>6173889</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,10 +17900,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17915,40 +17915,40 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N196">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P196">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q196">
         <v>0</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17957,19 +17957,19 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6173886</v>
+        <v>6173887</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N197">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O197">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P197">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>4.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6173888</v>
+        <v>6173886</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,55 +18078,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18135,19 +18135,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6173889</v>
+        <v>6173888</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,10 +18167,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18182,40 +18182,40 @@
         <v>47</v>
       </c>
       <c r="K199">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L199">
+        <v>3.3</v>
+      </c>
+      <c r="M199">
+        <v>3.4</v>
+      </c>
+      <c r="N199">
+        <v>2.2</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
         <v>3.2</v>
       </c>
-      <c r="M199">
-        <v>2.7</v>
-      </c>
-      <c r="N199">
-        <v>2.6</v>
-      </c>
-      <c r="O199">
-        <v>3.2</v>
-      </c>
-      <c r="P199">
-        <v>2.875</v>
-      </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -18224,19 +18224,19 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,10 +18256,10 @@
         <v>45150.08333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18434,7 +18434,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
         <v>32</v>
@@ -18615,7 +18615,7 @@
         <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18701,10 +18701,10 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18793,7 +18793,7 @@
         <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -19057,7 +19057,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
         <v>45</v>
@@ -19238,7 +19238,7 @@
         <v>44</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19324,10 +19324,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19416,7 +19416,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19591,7 +19591,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
         <v>38</v>
@@ -19772,7 +19772,7 @@
         <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6173914</v>
+        <v>6173915</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,52 +20128,52 @@
         <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>48</v>
       </c>
       <c r="K221">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L221">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M221">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N221">
         <v>2.75</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q221">
         <v>0</v>
       </c>
       <c r="R221">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
         <v>1.75</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6173915</v>
+        <v>6173913</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>49</v>
+      </c>
+      <c r="K222">
+        <v>1.95</v>
+      </c>
+      <c r="L222">
+        <v>3.8</v>
+      </c>
+      <c r="M222">
+        <v>3.6</v>
+      </c>
+      <c r="N222">
+        <v>1.8</v>
+      </c>
+      <c r="O222">
+        <v>4</v>
+      </c>
+      <c r="P222">
+        <v>4</v>
+      </c>
+      <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>2.025</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
+        <v>3.25</v>
+      </c>
+      <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
+        <v>1.9</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
         <v>3</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222" t="s">
-        <v>48</v>
-      </c>
-      <c r="K222">
-        <v>2.625</v>
-      </c>
-      <c r="L222">
-        <v>3.3</v>
-      </c>
-      <c r="M222">
-        <v>2.6</v>
-      </c>
-      <c r="N222">
-        <v>2.75</v>
-      </c>
-      <c r="O222">
-        <v>3.3</v>
-      </c>
-      <c r="P222">
-        <v>2.5</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>2</v>
-      </c>
-      <c r="S222">
-        <v>1.85</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>1.9</v>
-      </c>
-      <c r="V222">
-        <v>1.95</v>
-      </c>
-      <c r="W222">
-        <v>1.75</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB222">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6173913</v>
+        <v>6173914</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,7 +20303,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
         <v>42</v>
@@ -20312,67 +20312,67 @@
         <v>2</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N223">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X223">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA223">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20392,10 +20392,10 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20481,7 +20481,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
         <v>33</v>
@@ -20659,10 +20659,10 @@
         <v>45171.04166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H227">
         <v>4</v>
@@ -20926,7 +20926,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
         <v>33</v>
@@ -21015,7 +21015,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G231" t="s">
         <v>29</v>
@@ -21193,7 +21193,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
         <v>39</v>
@@ -21285,7 +21285,7 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21374,7 +21374,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21552,7 +21552,7 @@
         <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21641,7 +21641,7 @@
         <v>46</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21730,7 +21730,7 @@
         <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21816,7 +21816,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G240" t="s">
         <v>38</v>
@@ -21994,7 +21994,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
         <v>43</v>
@@ -22086,7 +22086,7 @@
         <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
         <v>45</v>
@@ -22353,7 +22353,7 @@
         <v>31</v>
       </c>
       <c r="G246" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H246">
         <v>3</v>
@@ -22442,7 +22442,7 @@
         <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22528,10 +22528,10 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22617,7 +22617,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
         <v>33</v>
@@ -22709,7 +22709,7 @@
         <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22973,7 +22973,7 @@
         <v>45193.20833333334</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G253" t="s">
         <v>46</v>
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23062,55 +23062,55 @@
         <v>45198.29166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G254" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
         <v>47</v>
       </c>
       <c r="K254">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M254">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N254">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O254">
         <v>3.8</v>
       </c>
       <c r="P254">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
+        <v>1.8</v>
+      </c>
+      <c r="S254">
         <v>2.05</v>
       </c>
-      <c r="S254">
-        <v>1.8</v>
-      </c>
       <c r="T254">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W254">
         <v>-1</v>
@@ -23119,19 +23119,19 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23139,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,56 +23151,56 @@
         <v>45198.29166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
         <v>47</v>
       </c>
       <c r="K255">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N255">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O255">
         <v>3.8</v>
       </c>
       <c r="P255">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
+        <v>2.05</v>
+      </c>
+      <c r="S255">
         <v>1.8</v>
       </c>
-      <c r="S255">
-        <v>2.05</v>
-      </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U255">
+        <v>2</v>
+      </c>
+      <c r="V255">
         <v>1.85</v>
       </c>
-      <c r="V255">
-        <v>2</v>
-      </c>
       <c r="W255">
         <v>-1</v>
       </c>
@@ -23208,19 +23208,19 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC255">
-        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23329,10 +23329,10 @@
         <v>45199.04166666666</v>
       </c>
       <c r="F257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23418,7 +23418,7 @@
         <v>45199.125</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G258" t="s">
         <v>44</v>
@@ -23507,7 +23507,7 @@
         <v>45199.25</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>38</v>
@@ -23596,10 +23596,10 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H260">
         <v>3</v>
@@ -23777,7 +23777,7 @@
         <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H262">
         <v>3</v>
@@ -23866,7 +23866,7 @@
         <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -23955,7 +23955,7 @@
         <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H264">
         <v>2</v>
@@ -24044,7 +24044,7 @@
         <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24219,7 +24219,7 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
         <v>43</v>
@@ -24400,7 +24400,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H269">
         <v>4</v>
@@ -24486,7 +24486,7 @@
         <v>45220.125</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G270" t="s">
         <v>38</v>
@@ -24578,7 +24578,7 @@
         <v>33</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>43</v>
       </c>
       <c r="G272" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -24753,7 +24753,7 @@
         <v>45227.04166666666</v>
       </c>
       <c r="F273" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G273" t="s">
         <v>32</v>
@@ -24830,7 +24830,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6472890</v>
+        <v>6473051</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24842,76 +24842,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G274" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H274">
         <v>0</v>
       </c>
       <c r="I274">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K274">
+        <v>2.4</v>
+      </c>
+      <c r="L274">
+        <v>3.1</v>
+      </c>
+      <c r="M274">
         <v>3</v>
       </c>
-      <c r="L274">
-        <v>3.4</v>
-      </c>
-      <c r="M274">
-        <v>2.3</v>
-      </c>
       <c r="N274">
+        <v>2.8</v>
+      </c>
+      <c r="O274">
         <v>3.1</v>
       </c>
-      <c r="O274">
-        <v>3.4</v>
-      </c>
       <c r="P274">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q274">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R274">
+        <v>1.975</v>
+      </c>
+      <c r="S274">
+        <v>1.875</v>
+      </c>
+      <c r="T274">
+        <v>2</v>
+      </c>
+      <c r="U274">
         <v>1.85</v>
       </c>
-      <c r="S274">
-        <v>2</v>
-      </c>
-      <c r="T274">
-        <v>2.75</v>
-      </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y274">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA274">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24919,7 +24919,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6473046</v>
+        <v>6472890</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24931,76 +24931,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G275" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K275">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L275">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M275">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N275">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O275">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P275">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S275">
+        <v>2</v>
+      </c>
+      <c r="T275">
+        <v>2.75</v>
+      </c>
+      <c r="U275">
+        <v>2</v>
+      </c>
+      <c r="V275">
         <v>1.85</v>
       </c>
-      <c r="T275">
-        <v>2.5</v>
-      </c>
-      <c r="U275">
-        <v>1.825</v>
-      </c>
-      <c r="V275">
-        <v>2.025</v>
-      </c>
       <c r="W275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC275">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6473051</v>
+        <v>6473046</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,76 +25020,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G276" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K276">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L276">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M276">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N276">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P276">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X276">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25109,7 +25109,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G277" t="s">
         <v>45</v>
@@ -25376,7 +25376,7 @@
         <v>45228.125</v>
       </c>
       <c r="F280" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G280" t="s">
         <v>29</v>
@@ -25453,7 +25453,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6480222</v>
+        <v>6480215</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25465,10 +25465,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25480,25 +25480,25 @@
         <v>49</v>
       </c>
       <c r="K281">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N281">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P281">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q281">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R281">
         <v>1.975</v>
@@ -25507,34 +25507,34 @@
         <v>1.875</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U281">
+        <v>1.9</v>
+      </c>
+      <c r="V281">
         <v>1.95</v>
       </c>
-      <c r="V281">
-        <v>1.9</v>
-      </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6480215</v>
+        <v>6480222</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,10 +25554,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -25569,25 +25569,25 @@
         <v>49</v>
       </c>
       <c r="K282">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L282">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
+        <v>3.1</v>
+      </c>
+      <c r="N282">
         <v>2.25</v>
       </c>
-      <c r="N282">
-        <v>3.8</v>
-      </c>
       <c r="O282">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q282">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
         <v>1.975</v>
@@ -25596,34 +25596,34 @@
         <v>1.875</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
+        <v>1.95</v>
+      </c>
+      <c r="V282">
         <v>1.9</v>
       </c>
-      <c r="V282">
-        <v>1.95</v>
-      </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25720,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6480218</v>
+        <v>6482813</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25732,55 +25732,55 @@
         <v>45241.125</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G284" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
         <v>47</v>
       </c>
       <c r="K284">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L284">
+        <v>3.6</v>
+      </c>
+      <c r="M284">
         <v>3.3</v>
       </c>
-      <c r="M284">
-        <v>2.9</v>
-      </c>
       <c r="N284">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O284">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W284">
         <v>-1</v>
@@ -25789,16 +25789,16 @@
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB284">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC284">
         <v>-1</v>
@@ -25824,7 +25824,7 @@
         <v>44</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25898,7 +25898,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6482813</v>
+        <v>6480218</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25910,56 +25910,56 @@
         <v>45241.125</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
         <v>47</v>
       </c>
       <c r="K286">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L286">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M286">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N286">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O286">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P286">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q286">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R286">
+        <v>1.925</v>
+      </c>
+      <c r="S286">
+        <v>1.925</v>
+      </c>
+      <c r="T286">
+        <v>2</v>
+      </c>
+      <c r="U286">
+        <v>1.975</v>
+      </c>
+      <c r="V286">
         <v>1.875</v>
       </c>
-      <c r="S286">
-        <v>1.975</v>
-      </c>
-      <c r="T286">
-        <v>2.5</v>
-      </c>
-      <c r="U286">
-        <v>1.825</v>
-      </c>
-      <c r="V286">
-        <v>2.025</v>
-      </c>
       <c r="W286">
         <v>-1</v>
       </c>
@@ -25967,16 +25967,16 @@
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z286">
         <v>-1</v>
       </c>
       <c r="AA286">
+        <v>0.925</v>
+      </c>
+      <c r="AB286">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB286">
-        <v>0.825</v>
       </c>
       <c r="AC286">
         <v>-1</v>
@@ -26002,7 +26002,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -26091,7 +26091,7 @@
         <v>29</v>
       </c>
       <c r="G288" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H288">
         <v>3</v>
@@ -26254,7 +26254,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26266,76 +26266,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K290">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L290">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M290">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N290">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O290">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P290">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R290">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S290">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T290">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U290">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V290">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W290">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB290">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26343,7 +26343,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26355,76 +26355,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I291">
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K291">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L291">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M291">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N291">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O291">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P291">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q291">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S291">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T291">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V291">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X291">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA291">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC291">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26444,10 +26444,10 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F292" t="s">
+        <v>36</v>
+      </c>
+      <c r="G292" t="s">
         <v>37</v>
-      </c>
-      <c r="G292" t="s">
-        <v>36</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -26521,7 +26521,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6504895</v>
+        <v>6501277</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26533,46 +26533,46 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K293">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M293">
+        <v>4</v>
+      </c>
+      <c r="N293">
+        <v>1.75</v>
+      </c>
+      <c r="O293">
+        <v>3.75</v>
+      </c>
+      <c r="P293">
         <v>4.5</v>
       </c>
-      <c r="N293">
-        <v>1.909</v>
-      </c>
-      <c r="O293">
-        <v>3.5</v>
-      </c>
-      <c r="P293">
-        <v>4.333</v>
-      </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R293">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
         <v>2.5</v>
@@ -26584,25 +26584,25 @@
         <v>1.8</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC293">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H295">
         <v>2</v>
@@ -26803,7 +26803,7 @@
         <v>33</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H296">
         <v>3</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6504894</v>
+        <v>6504895</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,40 +26889,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
         <v>47</v>
       </c>
       <c r="K297">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L297">
+        <v>3.6</v>
+      </c>
+      <c r="M297">
+        <v>4.5</v>
+      </c>
+      <c r="N297">
+        <v>1.909</v>
+      </c>
+      <c r="O297">
         <v>3.5</v>
       </c>
-      <c r="M297">
-        <v>2.6</v>
-      </c>
-      <c r="N297">
-        <v>2.75</v>
-      </c>
-      <c r="O297">
-        <v>4</v>
-      </c>
       <c r="P297">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q297">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
         <v>1.85</v>
@@ -26931,13 +26931,13 @@
         <v>2</v>
       </c>
       <c r="T297">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V297">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,7 +26946,7 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.15</v>
+        <v>3.333</v>
       </c>
       <c r="Z297">
         <v>-1</v>
@@ -26955,10 +26955,10 @@
         <v>1</v>
       </c>
       <c r="AB297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6501277</v>
+        <v>6504894</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,73 +26978,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J298" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K298">
+        <v>2.6</v>
+      </c>
+      <c r="L298">
+        <v>3.5</v>
+      </c>
+      <c r="M298">
+        <v>2.6</v>
+      </c>
+      <c r="N298">
+        <v>2.75</v>
+      </c>
+      <c r="O298">
+        <v>4</v>
+      </c>
+      <c r="P298">
+        <v>2.15</v>
+      </c>
+      <c r="Q298">
+        <v>0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.85</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="T298">
+        <v>3.25</v>
+      </c>
+      <c r="U298">
+        <v>1.9</v>
+      </c>
+      <c r="V298">
         <v>1.95</v>
       </c>
-      <c r="L298">
-        <v>3.4</v>
-      </c>
-      <c r="M298">
-        <v>4</v>
-      </c>
-      <c r="N298">
-        <v>1.75</v>
-      </c>
-      <c r="O298">
-        <v>3.75</v>
-      </c>
-      <c r="P298">
-        <v>4.5</v>
-      </c>
-      <c r="Q298">
-        <v>-0.75</v>
-      </c>
-      <c r="R298">
-        <v>2.025</v>
-      </c>
-      <c r="S298">
-        <v>1.825</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
-      </c>
-      <c r="U298">
-        <v>2.05</v>
-      </c>
-      <c r="V298">
-        <v>1.8</v>
-      </c>
       <c r="W298">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z298">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB298">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC298">
         <v>-1</v>
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6527773</v>
+        <v>6527615</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,76 +27067,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G299" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299">
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K299">
+        <v>1.6</v>
+      </c>
+      <c r="L299">
+        <v>4.1</v>
+      </c>
+      <c r="M299">
+        <v>5</v>
+      </c>
+      <c r="N299">
+        <v>1.833</v>
+      </c>
+      <c r="O299">
         <v>3.75</v>
       </c>
-      <c r="L299">
-        <v>3.8</v>
-      </c>
-      <c r="M299">
+      <c r="P299">
+        <v>4.333</v>
+      </c>
+      <c r="Q299">
+        <v>-0.5</v>
+      </c>
+      <c r="R299">
+        <v>1.8</v>
+      </c>
+      <c r="S299">
+        <v>2.05</v>
+      </c>
+      <c r="T299">
+        <v>2.5</v>
+      </c>
+      <c r="U299">
         <v>1.85</v>
       </c>
-      <c r="N299">
-        <v>3.6</v>
-      </c>
-      <c r="O299">
-        <v>3.8</v>
-      </c>
-      <c r="P299">
-        <v>1.85</v>
-      </c>
-      <c r="Q299">
-        <v>0.5</v>
-      </c>
-      <c r="R299">
-        <v>1.975</v>
-      </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>3</v>
-      </c>
-      <c r="U299">
-        <v>1.825</v>
-      </c>
       <c r="V299">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
+        <v>-1</v>
+      </c>
+      <c r="Z299">
+        <v>0.8</v>
+      </c>
+      <c r="AA299">
+        <v>-1</v>
+      </c>
+      <c r="AB299">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z299">
-        <v>-1</v>
-      </c>
-      <c r="AA299">
-        <v>0.875</v>
-      </c>
-      <c r="AB299">
-        <v>-1</v>
-      </c>
       <c r="AC299">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6527910</v>
+        <v>6527617</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,10 +27156,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G300" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -27171,40 +27171,40 @@
         <v>47</v>
       </c>
       <c r="K300">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L300">
         <v>3.6</v>
       </c>
       <c r="M300">
+        <v>1.8</v>
+      </c>
+      <c r="N300">
+        <v>5.25</v>
+      </c>
+      <c r="O300">
+        <v>3.8</v>
+      </c>
+      <c r="P300">
+        <v>1.615</v>
+      </c>
+      <c r="Q300">
+        <v>0.75</v>
+      </c>
+      <c r="R300">
+        <v>2.025</v>
+      </c>
+      <c r="S300">
+        <v>1.825</v>
+      </c>
+      <c r="T300">
+        <v>2.5</v>
+      </c>
+      <c r="U300">
         <v>2.05</v>
       </c>
-      <c r="N300">
-        <v>3.4</v>
-      </c>
-      <c r="O300">
-        <v>3.6</v>
-      </c>
-      <c r="P300">
-        <v>2</v>
-      </c>
-      <c r="Q300">
-        <v>0.5</v>
-      </c>
-      <c r="R300">
-        <v>1.875</v>
-      </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
-      <c r="T300">
-        <v>2.75</v>
-      </c>
-      <c r="U300">
-        <v>1.875</v>
-      </c>
       <c r="V300">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W300">
         <v>-1</v>
@@ -27213,19 +27213,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA300">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB300">
         <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6527782</v>
+        <v>6527616</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G301" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K301">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M301">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N301">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O301">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P301">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q301">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T301">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA301">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27334,7 +27334,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G302" t="s">
         <v>39</v>
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6527777</v>
+        <v>6527782</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,55 +27423,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H303">
         <v>0</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
         <v>47</v>
       </c>
       <c r="K303">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L303">
         <v>3.5</v>
       </c>
       <c r="M303">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N303">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O303">
         <v>3.6</v>
       </c>
       <c r="P303">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S303">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U303">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W303">
         <v>-1</v>
@@ -27480,19 +27480,19 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z303">
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB303">
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6527617</v>
+        <v>6527910</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27515,7 +27515,7 @@
         <v>40</v>
       </c>
       <c r="G304" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27527,40 +27527,40 @@
         <v>47</v>
       </c>
       <c r="K304">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L304">
         <v>3.6</v>
       </c>
       <c r="M304">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="N304">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O304">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="Q304">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R304">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V304">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
         <v>-1</v>
@@ -27569,19 +27569,19 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="Z304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27589,7 +27589,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6527616</v>
+        <v>6527773</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27601,76 +27601,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G305" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K305">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L305">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M305">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="N305">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O305">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P305">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q305">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W305">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z305">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27678,7 +27678,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6527615</v>
+        <v>6527777</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27690,76 +27690,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K306">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L306">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M306">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N306">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O306">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P306">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
+        <v>2.025</v>
+      </c>
+      <c r="S306">
+        <v>1.825</v>
+      </c>
+      <c r="T306">
+        <v>2.75</v>
+      </c>
+      <c r="U306">
+        <v>1.825</v>
+      </c>
+      <c r="V306">
+        <v>2.025</v>
+      </c>
+      <c r="W306">
+        <v>-1</v>
+      </c>
+      <c r="X306">
+        <v>-1</v>
+      </c>
+      <c r="Y306">
         <v>1.8</v>
       </c>
-      <c r="S306">
-        <v>2.05</v>
-      </c>
-      <c r="T306">
-        <v>2.5</v>
-      </c>
-      <c r="U306">
-        <v>1.85</v>
-      </c>
-      <c r="V306">
-        <v>2</v>
-      </c>
-      <c r="W306">
-        <v>0.833</v>
-      </c>
-      <c r="X306">
-        <v>-1</v>
-      </c>
-      <c r="Y306">
-        <v>-1</v>
-      </c>
       <c r="Z306">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>43</v>
       </c>
       <c r="G307" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27957,13 +27957,13 @@
         <v>3.2</v>
       </c>
       <c r="N309">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O309">
         <v>3</v>
       </c>
       <c r="P309">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q309">
         <v>0</v>
@@ -27978,10 +27978,10 @@
         <v>2</v>
       </c>
       <c r="U309">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -27996,6 +27996,302 @@
         <v>0</v>
       </c>
       <c r="AA309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>7624504</v>
+      </c>
+      <c r="C310" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45346.08333333334</v>
+      </c>
+      <c r="F310" t="s">
+        <v>42</v>
+      </c>
+      <c r="G310" t="s">
+        <v>41</v>
+      </c>
+      <c r="K310">
+        <v>2.55</v>
+      </c>
+      <c r="L310">
+        <v>3.2</v>
+      </c>
+      <c r="M310">
+        <v>2.8</v>
+      </c>
+      <c r="N310">
+        <v>2.625</v>
+      </c>
+      <c r="O310">
+        <v>3.2</v>
+      </c>
+      <c r="P310">
+        <v>2.75</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>1.875</v>
+      </c>
+      <c r="S310">
+        <v>1.975</v>
+      </c>
+      <c r="T310">
+        <v>2.5</v>
+      </c>
+      <c r="U310">
+        <v>2</v>
+      </c>
+      <c r="V310">
+        <v>1.85</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <v>0</v>
+      </c>
+      <c r="Z310">
+        <v>0</v>
+      </c>
+      <c r="AA310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>7624503</v>
+      </c>
+      <c r="C311" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45346.08333333334</v>
+      </c>
+      <c r="F311" t="s">
+        <v>37</v>
+      </c>
+      <c r="G311" t="s">
+        <v>45</v>
+      </c>
+      <c r="K311">
+        <v>3.2</v>
+      </c>
+      <c r="L311">
+        <v>3.25</v>
+      </c>
+      <c r="M311">
+        <v>2.25</v>
+      </c>
+      <c r="N311">
+        <v>3.2</v>
+      </c>
+      <c r="O311">
+        <v>3.25</v>
+      </c>
+      <c r="P311">
+        <v>2.25</v>
+      </c>
+      <c r="Q311">
+        <v>0.25</v>
+      </c>
+      <c r="R311">
+        <v>1.875</v>
+      </c>
+      <c r="S311">
+        <v>1.975</v>
+      </c>
+      <c r="T311">
+        <v>2.25</v>
+      </c>
+      <c r="U311">
+        <v>1.8</v>
+      </c>
+      <c r="V311">
+        <v>2.05</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>0</v>
+      </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
+      <c r="AA311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>7624191</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45346.125</v>
+      </c>
+      <c r="F312" t="s">
+        <v>38</v>
+      </c>
+      <c r="G312" t="s">
+        <v>29</v>
+      </c>
+      <c r="K312">
+        <v>3.75</v>
+      </c>
+      <c r="L312">
+        <v>3.6</v>
+      </c>
+      <c r="M312">
+        <v>1.909</v>
+      </c>
+      <c r="N312">
+        <v>3.75</v>
+      </c>
+      <c r="O312">
+        <v>3.6</v>
+      </c>
+      <c r="P312">
+        <v>1.909</v>
+      </c>
+      <c r="Q312">
+        <v>0.5</v>
+      </c>
+      <c r="R312">
+        <v>1.9</v>
+      </c>
+      <c r="S312">
+        <v>1.95</v>
+      </c>
+      <c r="T312">
+        <v>2.5</v>
+      </c>
+      <c r="U312">
+        <v>1.825</v>
+      </c>
+      <c r="V312">
+        <v>2.025</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>7624505</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45346.125</v>
+      </c>
+      <c r="F313" t="s">
+        <v>34</v>
+      </c>
+      <c r="G313" t="s">
+        <v>31</v>
+      </c>
+      <c r="K313">
+        <v>2.05</v>
+      </c>
+      <c r="L313">
+        <v>3.4</v>
+      </c>
+      <c r="M313">
+        <v>3.5</v>
+      </c>
+      <c r="N313">
+        <v>2.1</v>
+      </c>
+      <c r="O313">
+        <v>3.4</v>
+      </c>
+      <c r="P313">
+        <v>3.4</v>
+      </c>
+      <c r="Q313">
+        <v>-0.25</v>
+      </c>
+      <c r="R313">
+        <v>1.85</v>
+      </c>
+      <c r="S313">
+        <v>2</v>
+      </c>
+      <c r="T313">
+        <v>2.25</v>
+      </c>
+      <c r="U313">
+        <v>1.875</v>
+      </c>
+      <c r="V313">
+        <v>1.975</v>
+      </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
         <v>0</v>
       </c>
     </row>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6527773</v>
+        <v>6527782</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,55 +27076,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G299" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
         <v>50</v>
       </c>
       <c r="K299">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L299">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M299">
+        <v>2.75</v>
+      </c>
+      <c r="N299">
+        <v>2.8</v>
+      </c>
+      <c r="O299">
+        <v>3.6</v>
+      </c>
+      <c r="P299">
+        <v>2.3</v>
+      </c>
+      <c r="Q299">
+        <v>0.25</v>
+      </c>
+      <c r="R299">
         <v>1.85</v>
       </c>
-      <c r="N299">
-        <v>3.6</v>
-      </c>
-      <c r="O299">
-        <v>3.8</v>
-      </c>
-      <c r="P299">
-        <v>1.85</v>
-      </c>
-      <c r="Q299">
-        <v>0.5</v>
-      </c>
-      <c r="R299">
-        <v>1.975</v>
-      </c>
       <c r="S299">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T299">
         <v>3</v>
       </c>
       <c r="U299">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V299">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W299">
         <v>-1</v>
@@ -27133,19 +27133,19 @@
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6527782</v>
+        <v>6527773</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,55 +27165,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G300" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
         <v>50</v>
       </c>
       <c r="K300">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L300">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M300">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N300">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O300">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P300">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q300">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R300">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T300">
         <v>3</v>
       </c>
       <c r="U300">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V300">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
         <v>-1</v>
@@ -27222,19 +27222,19 @@
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z300">
         <v>-1</v>
       </c>
       <c r="AA300">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB300">
         <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27331,7 +27331,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6527910</v>
+        <v>6527615</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27343,76 +27343,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G302" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K302">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="L302">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M302">
+        <v>5</v>
+      </c>
+      <c r="N302">
+        <v>1.833</v>
+      </c>
+      <c r="O302">
+        <v>3.75</v>
+      </c>
+      <c r="P302">
+        <v>4.333</v>
+      </c>
+      <c r="Q302">
+        <v>-0.5</v>
+      </c>
+      <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
         <v>2.05</v>
       </c>
-      <c r="N302">
-        <v>3.4</v>
-      </c>
-      <c r="O302">
-        <v>3.6</v>
-      </c>
-      <c r="P302">
-        <v>2</v>
-      </c>
-      <c r="Q302">
-        <v>0.5</v>
-      </c>
-      <c r="R302">
-        <v>1.875</v>
-      </c>
-      <c r="S302">
-        <v>1.975</v>
-      </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC302">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27420,7 +27420,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6527615</v>
+        <v>6527910</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27432,76 +27432,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K303">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L303">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M303">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N303">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O303">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P303">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q303">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S303">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z303">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -28577,7 +28577,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7624187</v>
+        <v>7624508</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28589,40 +28589,40 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K316">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L316">
+        <v>3</v>
+      </c>
+      <c r="M316">
+        <v>2.6</v>
+      </c>
+      <c r="N316">
+        <v>2.1</v>
+      </c>
+      <c r="O316">
+        <v>3.2</v>
+      </c>
+      <c r="P316">
         <v>3.8</v>
       </c>
-      <c r="M316">
-        <v>1.666</v>
-      </c>
-      <c r="N316">
-        <v>4</v>
-      </c>
-      <c r="O316">
-        <v>4</v>
-      </c>
-      <c r="P316">
-        <v>1.8</v>
-      </c>
       <c r="Q316">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S316">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T316">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
         <v>2</v>
@@ -28651,7 +28651,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7624508</v>
+        <v>7624187</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28663,40 +28663,40 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G317" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K317">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L317">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M317">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="N317">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P317">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R317">
+        <v>1.8</v>
+      </c>
+      <c r="S317">
         <v>2.05</v>
       </c>
-      <c r="S317">
-        <v>1.8</v>
-      </c>
       <c r="T317">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
         <v>2</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6173853</v>
+        <v>6173854</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,76 +2245,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6173852</v>
+        <v>6173853</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,10 +2334,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2349,43 +2349,43 @@
         <v>52</v>
       </c>
       <c r="K21">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
         <v>1.975</v>
       </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2394,13 +2394,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173851</v>
+        <v>6173852</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,73 +2423,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.95</v>
-      </c>
-      <c r="AB22">
-        <v>0.875</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173850</v>
+        <v>6173849</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6173854</v>
+        <v>6173851</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,16 +2601,16 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
         <v>50</v>
@@ -2619,37 +2619,37 @@
         <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2658,19 +2658,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173849</v>
+        <v>6173850</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,76 +2690,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>-0.5</v>
       </c>
-      <c r="AA25">
-        <v>0.4125</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173868</v>
+        <v>6173869</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>51</v>
       </c>
       <c r="K41">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.975</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>2.025</v>
+      </c>
+      <c r="V41">
+        <v>1.825</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2.4</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.875</v>
-      </c>
-      <c r="V41">
-        <v>1.975</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>2.5</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6173872</v>
+        <v>6173870</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,58 +4203,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>52</v>
       </c>
       <c r="K42">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="N42">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P42">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4263,16 +4263,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6173870</v>
+        <v>6173872</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,58 +4381,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>52</v>
       </c>
       <c r="K44">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L44">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="N44">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4441,16 +4441,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6173869</v>
+        <v>6173868</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>51</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
+        <v>1.909</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45">
+        <v>4.2</v>
+      </c>
+      <c r="Q45">
+        <v>-0.5</v>
+      </c>
+      <c r="R45">
+        <v>1.85</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
         <v>2.25</v>
       </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
-      <c r="P45">
-        <v>3.2</v>
-      </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
-      <c r="R45">
+      <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
         <v>1.975</v>
       </c>
-      <c r="S45">
-        <v>1.875</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>2.025</v>
-      </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173877</v>
+        <v>6173881</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N50">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173876</v>
+        <v>6173878</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,73 +5004,73 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K51">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L51">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173878</v>
+        <v>6173877</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,76 +5182,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N53">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z53">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6173880</v>
+        <v>6173876</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5271,76 +5271,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6173881</v>
+        <v>6173880</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5360,40 +5360,40 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>52</v>
       </c>
       <c r="K55">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
         <v>1.925</v>
@@ -5402,16 +5402,16 @@
         <v>1.925</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>0.5329999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5420,16 +5420,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6174608</v>
+        <v>6173886</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
+        <v>2.025</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173886</v>
+        <v>6173887</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,55 +5983,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>50</v>
       </c>
       <c r="K62">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6040,19 +6040,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>4.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6173888</v>
+        <v>6174608</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,76 +6161,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N64">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y64">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6173887</v>
+        <v>6173888</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6250,10 +6250,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>50</v>
       </c>
       <c r="K65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>3.3</v>
@@ -6274,32 +6274,32 @@
         <v>3.4</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>1.95</v>
+      </c>
+      <c r="V65">
         <v>1.9</v>
       </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
@@ -6307,19 +6307,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6173892</v>
+        <v>6173893</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,76 +6517,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X68">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6173893</v>
+        <v>6174609</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
         <v>3.4</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6174609</v>
+        <v>6173892</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,76 +6784,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N71">
+        <v>2.6</v>
+      </c>
+      <c r="O71">
+        <v>3.25</v>
+      </c>
+      <c r="P71">
+        <v>2.8</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
         <v>2.25</v>
       </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
-      <c r="P71">
-        <v>3.2</v>
-      </c>
-      <c r="Q71">
-        <v>-0.25</v>
-      </c>
-      <c r="R71">
-        <v>2.025</v>
-      </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y71">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6173902</v>
+        <v>6173903</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,76 +7407,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K78">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N78">
         <v>1.95</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6173904</v>
+        <v>6173902</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,58 +7496,58 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O79">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7556,13 +7556,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7573,7 +7573,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6173903</v>
+        <v>6173904</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7585,40 +7585,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O80">
+        <v>3.3</v>
+      </c>
+      <c r="P80">
         <v>3.4</v>
       </c>
-      <c r="P80">
-        <v>4</v>
-      </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
         <v>1.95</v>
@@ -7636,25 +7636,25 @@
         <v>1.875</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6173911</v>
+        <v>6173913</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,49 +8208,49 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
         <v>1.95</v>
@@ -8262,22 +8262,22 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6173912</v>
+        <v>6173910</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,76 +8297,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>51</v>
       </c>
       <c r="K88">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q88">
         <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA88">
         <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6173915</v>
+        <v>6173911</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,76 +8386,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K89">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
         <v>3.3</v>
       </c>
       <c r="M89">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N89">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O89">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.9</v>
       </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
       <c r="W89">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6173913</v>
+        <v>6173912</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8475,10 +8475,10 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8490,58 +8490,58 @@
         <v>51</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
+        <v>2.2</v>
+      </c>
+      <c r="N90">
+        <v>3.2</v>
+      </c>
+      <c r="O90">
         <v>3.6</v>
       </c>
-      <c r="N90">
-        <v>1.8</v>
-      </c>
-      <c r="O90">
-        <v>4</v>
-      </c>
       <c r="P90">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
         <v>2.025</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA90">
+        <v>-0.5</v>
+      </c>
+      <c r="AB90">
         <v>0.825</v>
-      </c>
-      <c r="AB90">
-        <v>0.95</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6173910</v>
+        <v>6173915</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8564,76 +8564,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K91">
         <v>2.625</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M91">
         <v>2.6</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X91">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6173920</v>
+        <v>6173921</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,10 +8831,10 @@
         <v>45171.25</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8846,61 +8846,61 @@
         <v>51</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="N94">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
         <v>1.875</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.975</v>
       </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>2.025</v>
-      </c>
-      <c r="V94">
-        <v>1.825</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6173921</v>
+        <v>6173920</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,10 +8920,10 @@
         <v>45171.25</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8935,61 +8935,61 @@
         <v>51</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>2.025</v>
+      </c>
+      <c r="V95">
         <v>1.825</v>
       </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA95">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6173917</v>
+        <v>6173919</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,49 +9009,49 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K96">
+        <v>3.75</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>1.909</v>
+      </c>
+      <c r="N96">
         <v>3</v>
       </c>
-      <c r="L96">
-        <v>4</v>
-      </c>
-      <c r="M96">
-        <v>2.1</v>
-      </c>
-      <c r="N96">
-        <v>2.75</v>
-      </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q96">
         <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.925</v>
@@ -9060,25 +9060,25 @@
         <v>1.925</v>
       </c>
       <c r="W96">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6173919</v>
+        <v>6173922</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N97">
+        <v>2.3</v>
+      </c>
+      <c r="O97">
+        <v>3.5</v>
+      </c>
+      <c r="P97">
         <v>3</v>
       </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>2.375</v>
-      </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X97">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
+        <v>0.475</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="AB97">
-        <v>0.925</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6173924</v>
+        <v>6173917</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
+        <v>2.25</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
         <v>1.8</v>
       </c>
-      <c r="Q98">
-        <v>0.75</v>
-      </c>
-      <c r="R98">
-        <v>1.875</v>
-      </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>0.8</v>
       </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6173922</v>
+        <v>6173924</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,76 +9276,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N99">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6173925</v>
+        <v>6173932</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,76 +9899,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K106">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6173932</v>
+        <v>6173933</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,13 +9988,13 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10003,43 +10003,43 @@
         <v>52</v>
       </c>
       <c r="K107">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L107">
+        <v>3.2</v>
+      </c>
+      <c r="M107">
+        <v>2.375</v>
+      </c>
+      <c r="N107">
         <v>3.4</v>
       </c>
-      <c r="M107">
-        <v>3.4</v>
-      </c>
-      <c r="N107">
-        <v>2.05</v>
-      </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P107">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="V107">
-        <v>1.9</v>
-      </c>
       <c r="W107">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10048,7 +10048,7 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -10057,7 +10057,7 @@
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6173933</v>
+        <v>6173925</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,56 +11145,56 @@
         <v>45198.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>50</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
         <v>3.8</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,55 +11234,55 @@
         <v>45198.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>50</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O121">
         <v>3.8</v>
       </c>
       <c r="P121">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.8</v>
+      </c>
+      <c r="S121">
         <v>2.05</v>
       </c>
-      <c r="S121">
-        <v>1.8</v>
-      </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11291,19 +11291,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6173948</v>
+        <v>6173950</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,58 +11679,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11739,13 +11739,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6173950</v>
+        <v>6173948</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,58 +11768,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>52</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
         <v>3.6</v>
       </c>
-      <c r="M127">
-        <v>2.75</v>
-      </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,13 +11828,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173958</v>
+        <v>6173954</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,58 +12213,58 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>52</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L132">
         <v>3.2</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12273,16 +12273,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173953</v>
+        <v>6173957</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N133">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q133">
         <v>0</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.9</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6173954</v>
+        <v>6173958</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,58 +12391,58 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>52</v>
       </c>
       <c r="K134">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
         <v>3.2</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12451,16 +12451,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173957</v>
+        <v>6173953</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
         <v>1.95</v>
       </c>
-      <c r="S135">
+      <c r="T135">
+        <v>3.75</v>
+      </c>
+      <c r="U135">
         <v>1.9</v>
       </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>2.05</v>
-      </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
       <c r="AC135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6473046</v>
+        <v>6473051</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,76 +12925,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
         <v>1.85</v>
       </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6473051</v>
+        <v>6472889</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
         <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O141">
         <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
         <v>1.975</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.875</v>
       </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>1.85</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6472887</v>
+        <v>6473046</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,67 +13103,67 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N142">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O142">
         <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>1.85</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X142">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -13172,7 +13172,7 @@
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6472889</v>
+        <v>6472890</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,37 +13192,37 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>50</v>
       </c>
       <c r="K143">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>2.3</v>
+      </c>
+      <c r="N143">
         <v>3.1</v>
       </c>
-      <c r="M143">
-        <v>2.75</v>
-      </c>
-      <c r="N143">
+      <c r="O143">
         <v>3.4</v>
       </c>
-      <c r="O143">
-        <v>3.1</v>
-      </c>
       <c r="P143">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
@@ -13234,13 +13234,13 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13249,7 +13249,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13258,10 +13258,10 @@
         <v>1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6472890</v>
+        <v>6472887</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
         <v>1.85</v>
@@ -13335,22 +13335,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6482813</v>
+        <v>6480218</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,56 +13815,56 @@
         <v>45241.125</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M150">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N150">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P150">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.875</v>
       </c>
-      <c r="S150">
-        <v>1.975</v>
-      </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>2.025</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
@@ -13872,16 +13872,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
+        <v>0.925</v>
+      </c>
+      <c r="AB150">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB150">
-        <v>0.825</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6480216</v>
+        <v>6482813</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45241.125</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N151">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6480218</v>
+        <v>6480216</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45241.125</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O152">
         <v>3</v>
       </c>
       <c r="P152">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y152">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6480221</v>
+        <v>6480217</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,40 +14082,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.9</v>
@@ -14124,34 +14124,34 @@
         <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6480217</v>
+        <v>6480221</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,40 +14171,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
         <v>1.9</v>
@@ -14213,34 +14213,34 @@
         <v>1.95</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>51</v>
+      </c>
+      <c r="K157">
+        <v>1.7</v>
+      </c>
+      <c r="L157">
+        <v>4.2</v>
+      </c>
+      <c r="M157">
+        <v>4.333</v>
+      </c>
+      <c r="N157">
+        <v>1.65</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>5</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2.05</v>
+      </c>
+      <c r="T157">
         <v>3</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s">
-        <v>52</v>
-      </c>
-      <c r="K157">
-        <v>1.95</v>
-      </c>
-      <c r="L157">
-        <v>3.6</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>2.15</v>
-      </c>
-      <c r="O157">
-        <v>3.6</v>
-      </c>
-      <c r="P157">
-        <v>3.3</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.85</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6501896</v>
+        <v>6501277</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6504896</v>
+        <v>6501896</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,76 +14705,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K160">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
+        <v>1.85</v>
+      </c>
+      <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
+        <v>2.025</v>
+      </c>
+      <c r="V160">
         <v>1.825</v>
       </c>
-      <c r="S160">
-        <v>2.025</v>
-      </c>
-      <c r="T160">
-        <v>2.75</v>
-      </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
-      <c r="V160">
-        <v>1.975</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6504986</v>
+        <v>6504895</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,55 +14794,55 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>50</v>
       </c>
       <c r="K161">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L161">
+        <v>3.6</v>
+      </c>
+      <c r="M161">
+        <v>4.5</v>
+      </c>
+      <c r="N161">
+        <v>1.909</v>
+      </c>
+      <c r="O161">
         <v>3.5</v>
       </c>
-      <c r="M161">
-        <v>5.5</v>
-      </c>
-      <c r="N161">
-        <v>1.85</v>
-      </c>
-      <c r="O161">
-        <v>3.2</v>
-      </c>
       <c r="P161">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T161">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V161">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14851,19 +14851,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>3.75</v>
+        <v>3.333</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6504894</v>
+        <v>6504986</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,13 +14883,13 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14898,40 +14898,40 @@
         <v>50</v>
       </c>
       <c r="K162">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N162">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6501277</v>
+        <v>6504896</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,73 +14972,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N163">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P163">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R163">
+        <v>1.825</v>
+      </c>
+      <c r="S163">
         <v>2.025</v>
       </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB163">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6504895</v>
+        <v>6504894</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,40 +15061,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>50</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
         <v>1.85</v>
@@ -15103,13 +15103,13 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15118,7 +15118,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.333</v>
+        <v>1.15</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15127,10 +15127,10 @@
         <v>1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527617</v>
+        <v>6527616</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N166">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q166">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6527910</v>
+        <v>6527782</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,55 +15328,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>50</v>
       </c>
       <c r="K167">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O167">
         <v>3.6</v>
       </c>
       <c r="P167">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15385,19 +15385,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527782</v>
+        <v>6527910</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,55 +15417,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>50</v>
       </c>
       <c r="K168">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N168">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
         <v>3.6</v>
       </c>
       <c r="P168">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R168">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15474,19 +15474,19 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527616</v>
+        <v>6527617</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,76 +15506,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L169">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O169">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z169">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7624504</v>
+        <v>7624503</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N177">
         <v>3</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7624503</v>
+        <v>7624504</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
+        <v>2.55</v>
+      </c>
+      <c r="L178">
         <v>3.2</v>
       </c>
-      <c r="L178">
-        <v>3.25</v>
-      </c>
       <c r="M178">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
         <v>3</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S178">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7624984</v>
+        <v>7624191</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45346.125</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
+        <v>1.909</v>
+      </c>
+      <c r="N179">
+        <v>3.8</v>
+      </c>
+      <c r="O179">
         <v>3.6</v>
       </c>
-      <c r="N179">
-        <v>2.375</v>
-      </c>
-      <c r="O179">
-        <v>3.3</v>
-      </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7624505</v>
+        <v>7624984</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,55 +16485,55 @@
         <v>45346.125</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
       </c>
       <c r="K180">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N180">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O180">
         <v>3.3</v>
       </c>
       <c r="P180">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
         <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16548,13 +16548,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7624191</v>
+        <v>7624505</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,73 +16574,73 @@
         <v>45346.125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
+        <v>1.975</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB181">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16930,13 +16930,13 @@
         <v>4.333</v>
       </c>
       <c r="N185">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q185">
         <v>-0.75</v>
@@ -17016,10 +17016,10 @@
         <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
         <v>2.5</v>
@@ -17051,7 +17051,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7744592</v>
+        <v>7744593</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17063,46 +17063,46 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K187">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="N187">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O187">
         <v>3.5</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.975</v>
       </c>
-      <c r="S187">
+      <c r="V187">
         <v>1.875</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17125,7 +17125,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7744593</v>
+        <v>7624511</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17137,46 +17137,46 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K188">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
+        <v>2.875</v>
+      </c>
+      <c r="N188">
+        <v>2.3</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.8</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
         <v>2.1</v>
       </c>
-      <c r="N188">
-        <v>3.1</v>
-      </c>
-      <c r="O188">
-        <v>3.5</v>
-      </c>
-      <c r="P188">
-        <v>2</v>
-      </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
+      <c r="S188">
+        <v>1.775</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.825</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.925</v>
-      </c>
-      <c r="V188">
-        <v>1.925</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17199,7 +17199,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624511</v>
+        <v>7744592</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17211,46 +17211,46 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K189">
+        <v>1.533</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>5.2</v>
+      </c>
+      <c r="N189">
+        <v>1.909</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>3.75</v>
+      </c>
+      <c r="Q189">
+        <v>-0.5</v>
+      </c>
+      <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
         <v>2.25</v>
       </c>
-      <c r="L189">
-        <v>3.3</v>
-      </c>
-      <c r="M189">
-        <v>2.875</v>
-      </c>
-      <c r="N189">
-        <v>2.3</v>
-      </c>
-      <c r="O189">
-        <v>3.3</v>
-      </c>
-      <c r="P189">
-        <v>2.8</v>
-      </c>
-      <c r="Q189">
-        <v>-0.25</v>
-      </c>
-      <c r="R189">
-        <v>2.1</v>
-      </c>
-      <c r="S189">
-        <v>1.775</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17347,7 +17347,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624509</v>
+        <v>7624510</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17359,46 +17359,46 @@
         <v>45353.125</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K191">
+        <v>2.7</v>
+      </c>
+      <c r="L191">
+        <v>3.4</v>
+      </c>
+      <c r="M191">
+        <v>2.35</v>
+      </c>
+      <c r="N191">
+        <v>3.25</v>
+      </c>
+      <c r="O191">
+        <v>3.3</v>
+      </c>
+      <c r="P191">
         <v>2.1</v>
       </c>
-      <c r="L191">
-        <v>3.2</v>
-      </c>
-      <c r="M191">
-        <v>3.3</v>
-      </c>
-      <c r="N191">
-        <v>2.1</v>
-      </c>
-      <c r="O191">
-        <v>3.2</v>
-      </c>
-      <c r="P191">
-        <v>3.25</v>
-      </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17421,7 +17421,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7624510</v>
+        <v>7624509</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17433,46 +17433,46 @@
         <v>45353.125</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K192">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="N192">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O192">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P192">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17522,31 +17522,31 @@
         <v>7</v>
       </c>
       <c r="N193">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P193">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q193">
         <v>-1</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -130,10 +130,10 @@
     <t>Yokohama FMarinos</t>
   </si>
   <si>
-    <t>Sagan Tosu</t>
+    <t>Cerezo Osaka</t>
   </si>
   <si>
-    <t>Cerezo Osaka</t>
+    <t>Sagan Tosu</t>
   </si>
   <si>
     <t>Albirex Niigata</t>
@@ -824,7 +824,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6173841</v>
+        <v>6173840</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6173840</v>
+        <v>6173841</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2159,7 +2159,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6173854</v>
+        <v>6173849</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,49 +2245,49 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
+        <v>3.2</v>
+      </c>
+      <c r="M20">
+        <v>2.8</v>
+      </c>
+      <c r="N20">
         <v>2.3</v>
       </c>
-      <c r="L20">
-        <v>3.4</v>
-      </c>
-      <c r="M20">
+      <c r="O20">
+        <v>3.5</v>
+      </c>
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="N20">
-        <v>2.05</v>
-      </c>
-      <c r="O20">
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <v>3.2</v>
-      </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
         <v>1.95</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6173853</v>
+        <v>6173852</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,10 +2334,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2349,43 +2349,43 @@
         <v>52</v>
       </c>
       <c r="K21">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
         <v>1.875</v>
       </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2394,13 +2394,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173852</v>
+        <v>6173850</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>2.4</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>-0.5</v>
       </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
-      <c r="W22">
-        <v>0.95</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.95</v>
-      </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173849</v>
+        <v>6173854</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,49 +2512,49 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2.05</v>
+      </c>
+      <c r="O23">
+        <v>3.8</v>
+      </c>
+      <c r="P23">
         <v>3.2</v>
       </c>
-      <c r="M23">
-        <v>2.8</v>
-      </c>
-      <c r="N23">
-        <v>2.3</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
         <v>1.95</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2604,7 +2604,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173850</v>
+        <v>6173853</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,58 +2690,58 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>52</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
         <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N25">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P25">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.25</v>
       </c>
       <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
       <c r="W25">
-        <v>2.4</v>
+        <v>1.625</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2750,16 +2750,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>45107.29166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6173859</v>
+        <v>6173858</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,10 +3135,10 @@
         <v>45108.25</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3150,31 +3150,31 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.5</v>
@@ -3186,7 +3186,7 @@
         <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.625</v>
+        <v>2.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3195,7 +3195,7 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6173858</v>
+        <v>6173859</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,10 +3224,10 @@
         <v>45108.25</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3239,31 +3239,31 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.5</v>
@@ -3275,7 +3275,7 @@
         <v>1.9</v>
       </c>
       <c r="W31">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3284,7 +3284,7 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3568,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173862</v>
+        <v>6173863</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3580,76 +3580,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6173863</v>
+        <v>6173862</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3669,76 +3669,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>3.8</v>
+      </c>
+      <c r="M36">
         <v>3.3</v>
       </c>
-      <c r="L36">
-        <v>3.1</v>
-      </c>
-      <c r="M36">
-        <v>2.3</v>
-      </c>
       <c r="N36">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173869</v>
+        <v>6173872</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N41">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
+        <v>1.775</v>
+      </c>
+      <c r="S41">
+        <v>2.1</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="S41">
-        <v>1.875</v>
-      </c>
-      <c r="T41">
-        <v>2.75</v>
-      </c>
-      <c r="U41">
-        <v>2.025</v>
-      </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6173872</v>
+        <v>6173868</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,49 +4381,49 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K44">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
         <v>1.875</v>
@@ -4432,25 +4432,25 @@
         <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6173868</v>
+        <v>6173869</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>51</v>
       </c>
       <c r="K45">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.875</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>2.025</v>
+      </c>
+      <c r="V45">
+        <v>1.825</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>2.4</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>-0.5</v>
       </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
-      <c r="V45">
-        <v>1.975</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>2.5</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>-1</v>
-      </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,10 +4559,10 @@
         <v>45115.3125</v>
       </c>
       <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
         <v>38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173881</v>
+        <v>6173876</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M50">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N50">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W50">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173878</v>
+        <v>6173879</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,13 +5004,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5019,43 +5019,43 @@
         <v>52</v>
       </c>
       <c r="K51">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L51">
+        <v>3.4</v>
+      </c>
+      <c r="M51">
+        <v>3.4</v>
+      </c>
+      <c r="N51">
+        <v>2.1</v>
+      </c>
+      <c r="O51">
+        <v>3.4</v>
+      </c>
+      <c r="P51">
         <v>3.5</v>
       </c>
-      <c r="M51">
-        <v>1.909</v>
-      </c>
-      <c r="N51">
-        <v>3.75</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>2.1</v>
-      </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
+        <v>1.825</v>
+      </c>
+      <c r="S51">
         <v>2.025</v>
       </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>2.75</v>
+        <v>1.1</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5064,13 +5064,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173879</v>
+        <v>6173878</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,13 +5093,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5108,43 +5108,43 @@
         <v>52</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N52">
+        <v>3.75</v>
+      </c>
+      <c r="O52">
+        <v>3.3</v>
+      </c>
+      <c r="P52">
         <v>2.1</v>
       </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>3.5</v>
-      </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
+        <v>2.025</v>
+      </c>
+      <c r="S52">
         <v>1.825</v>
       </c>
-      <c r="S52">
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.825</v>
+      </c>
+      <c r="V52">
         <v>2.025</v>
       </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>2.05</v>
-      </c>
-      <c r="V52">
-        <v>1.8</v>
-      </c>
       <c r="W52">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5153,13 +5153,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
+        <v>1.025</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.825</v>
-      </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
-      <c r="AB52">
-        <v>1.05</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173877</v>
+        <v>6173881</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,76 +5182,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K53">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N53">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P53">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6173876</v>
+        <v>6173880</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5271,76 +5271,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54">
+        <v>3.2</v>
+      </c>
+      <c r="L54">
         <v>3</v>
       </c>
-      <c r="J54" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54">
-        <v>2.625</v>
-      </c>
-      <c r="L54">
-        <v>2.875</v>
-      </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N54">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6173880</v>
+        <v>6173877</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5360,76 +5360,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.8</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.925</v>
-      </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>-0.5</v>
-      </c>
-      <c r="AC55">
-        <v>0.45</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6173886</v>
+        <v>6173889</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,55 +5894,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>50</v>
       </c>
       <c r="K61">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5951,19 +5951,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>4.25</v>
+        <v>1.875</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6173889</v>
+        <v>6173886</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,55 +6072,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>50</v>
       </c>
       <c r="K63">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6129,19 +6129,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.875</v>
+        <v>4.25</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6250,7 +6250,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6342,7 +6342,7 @@
         <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6173893</v>
+        <v>6173892</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,76 +6517,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6174609</v>
+        <v>6173893</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
         <v>3.4</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O69">
+        <v>3.6</v>
+      </c>
+      <c r="P69">
         <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6173894</v>
+        <v>6174609</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,76 +6695,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
         <v>3.4</v>
       </c>
       <c r="P70">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>2.2</v>
+      </c>
+      <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>0.825</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.95</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.925</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-0.5</v>
-      </c>
-      <c r="AC70">
-        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6173892</v>
+        <v>6173894</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,76 +6784,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N71">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O71">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X71">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7321,7 +7321,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6173903</v>
+        <v>6173901</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,76 +7407,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N78">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O78">
         <v>3.4</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.925</v>
+      </c>
+      <c r="V78">
+        <v>1.925</v>
+      </c>
+      <c r="W78">
+        <v>2.5</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
+        <v>1.05</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
+        <v>0.4625</v>
+      </c>
+      <c r="AC78">
         <v>-0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>1.975</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>2.4</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
-      <c r="AC78">
-        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6173904</v>
+        <v>6173903</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7585,40 +7585,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K80">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N80">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
         <v>1.95</v>
@@ -7636,25 +7636,25 @@
         <v>1.875</v>
       </c>
       <c r="W80">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6173901</v>
+        <v>6173904</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,58 +7674,58 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>52</v>
       </c>
       <c r="K81">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
+        <v>3.3</v>
+      </c>
+      <c r="P81">
         <v>3.4</v>
       </c>
-      <c r="P81">
-        <v>2.05</v>
-      </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7734,16 +7734,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7855,7 +7855,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6173913</v>
+        <v>6173914</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,76 +8208,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X87">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6173910</v>
+        <v>6173915</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,73 +8300,73 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K88">
         <v>2.625</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
         <v>2.6</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6173911</v>
+        <v>6173910</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,67 +8386,67 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>51</v>
       </c>
       <c r="K89">
+        <v>2.625</v>
+      </c>
+      <c r="L89">
         <v>3.4</v>
       </c>
-      <c r="L89">
-        <v>3.3</v>
-      </c>
       <c r="M89">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
         <v>0.25</v>
       </c>
       <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>2.025</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>1.9</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AA89">
         <v>-0.5</v>
@@ -8455,7 +8455,7 @@
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6173915</v>
+        <v>6173913</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8564,73 +8564,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>51</v>
+      </c>
+      <c r="K91">
+        <v>1.95</v>
+      </c>
+      <c r="L91">
+        <v>3.8</v>
+      </c>
+      <c r="M91">
+        <v>3.6</v>
+      </c>
+      <c r="N91">
+        <v>1.8</v>
+      </c>
+      <c r="O91">
+        <v>4</v>
+      </c>
+      <c r="P91">
+        <v>4</v>
+      </c>
+      <c r="Q91">
+        <v>-0.75</v>
+      </c>
+      <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
+        <v>1.9</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>52</v>
-      </c>
-      <c r="K91">
-        <v>2.625</v>
-      </c>
-      <c r="L91">
-        <v>3.3</v>
-      </c>
-      <c r="M91">
-        <v>2.6</v>
-      </c>
-      <c r="N91">
-        <v>2.75</v>
-      </c>
-      <c r="O91">
-        <v>3.3</v>
-      </c>
-      <c r="P91">
-        <v>2.5</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
-      <c r="W91">
-        <v>1.75</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8641,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6173914</v>
+        <v>6173911</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8653,76 +8653,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L92">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6173922</v>
+        <v>6173924</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,73 +9101,73 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K97">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N97">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6173924</v>
+        <v>6173922</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9279,73 +9279,73 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N99">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
-      </c>
-      <c r="Q99">
-        <v>0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6173923</v>
+        <v>6173918</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,73 +9365,73 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6173918</v>
+        <v>6173923</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,73 +9454,73 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6173927</v>
+        <v>6173929</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,61 +9632,61 @@
         <v>45184.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>6.5</v>
+      </c>
+      <c r="N103">
+        <v>1.571</v>
+      </c>
+      <c r="O103">
+        <v>5.25</v>
+      </c>
+      <c r="P103">
+        <v>4.333</v>
+      </c>
+      <c r="Q103">
+        <v>-1</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
         <v>3.75</v>
       </c>
-      <c r="M103">
-        <v>5.25</v>
-      </c>
-      <c r="N103">
-        <v>1.666</v>
-      </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
-      <c r="P103">
-        <v>5</v>
-      </c>
-      <c r="Q103">
-        <v>-0.75</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9695,13 +9695,13 @@
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6173929</v>
+        <v>6173927</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,61 +9721,61 @@
         <v>45184.3125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L104">
+        <v>3.75</v>
+      </c>
+      <c r="M104">
+        <v>5.25</v>
+      </c>
+      <c r="N104">
+        <v>1.666</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
         <v>5</v>
       </c>
-      <c r="M104">
-        <v>6.5</v>
-      </c>
-      <c r="N104">
-        <v>1.571</v>
-      </c>
-      <c r="O104">
-        <v>5.25</v>
-      </c>
-      <c r="P104">
-        <v>4.333</v>
-      </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9784,13 +9784,13 @@
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9813,7 +9813,7 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6173942</v>
+        <v>6173940</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,10 +10611,10 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10626,43 +10626,43 @@
         <v>52</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10671,7 +10671,7 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10680,7 +10680,7 @@
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6173935</v>
+        <v>6173942</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,49 +10700,49 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
         <v>2.4</v>
       </c>
-      <c r="L115">
-        <v>3.1</v>
-      </c>
-      <c r="M115">
-        <v>3.1</v>
-      </c>
-      <c r="N115">
-        <v>2.375</v>
-      </c>
       <c r="O115">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
         <v>2</v>
@@ -10751,25 +10751,25 @@
         <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB115">
-        <v>1</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6173940</v>
+        <v>6173935</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>4.6</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P116">
+        <v>3.6</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.85</v>
+      </c>
+      <c r="T116">
         <v>1.75</v>
       </c>
-      <c r="Q116">
-        <v>0.75</v>
-      </c>
-      <c r="R116">
-        <v>1.925</v>
-      </c>
-      <c r="S116">
-        <v>1.925</v>
-      </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>3.6</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>45199.25</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -11679,7 +11679,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -12127,7 +12127,7 @@
         <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173954</v>
+        <v>6173953</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,37 +12213,37 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>52</v>
       </c>
       <c r="K132">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M132">
+        <v>3.75</v>
+      </c>
+      <c r="N132">
+        <v>2.45</v>
+      </c>
+      <c r="O132">
+        <v>4.2</v>
+      </c>
+      <c r="P132">
         <v>2.5</v>
-      </c>
-      <c r="N132">
-        <v>2.7</v>
-      </c>
-      <c r="O132">
-        <v>3.2</v>
-      </c>
-      <c r="P132">
-        <v>2.75</v>
       </c>
       <c r="Q132">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U132">
         <v>1.9</v>
@@ -12264,7 +12264,7 @@
         <v>1.95</v>
       </c>
       <c r="W132">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12279,10 +12279,10 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173957</v>
+        <v>6173954</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K133">
         <v>2.625</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
+        <v>2.7</v>
+      </c>
+      <c r="O133">
+        <v>3.2</v>
+      </c>
+      <c r="P133">
         <v>2.75</v>
       </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
-      <c r="P133">
-        <v>2.7</v>
-      </c>
       <c r="Q133">
         <v>0</v>
       </c>
       <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
         <v>1.9</v>
       </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>2.05</v>
-      </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6173958</v>
+        <v>6173957</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N134">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173953</v>
+        <v>6173958</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,13 +12480,13 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12495,43 +12495,43 @@
         <v>52</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12540,13 +12540,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12661,7 +12661,7 @@
         <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6473051</v>
+        <v>6473046</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,76 +12925,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6472889</v>
+        <v>6473051</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
         <v>3.1</v>
       </c>
       <c r="M141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O141">
         <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>2.25</v>
-      </c>
-      <c r="U141">
-        <v>1.975</v>
-      </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6473046</v>
+        <v>6472887</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,67 +13103,67 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
         <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
         <v>1.85</v>
       </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.825</v>
-      </c>
-      <c r="V142">
-        <v>2.025</v>
-      </c>
       <c r="W142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -13172,7 +13172,7 @@
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6472887</v>
+        <v>6472889</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K144">
+        <v>2.625</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>2.75</v>
+      </c>
+      <c r="N144">
         <v>3.4</v>
       </c>
-      <c r="L144">
-        <v>3.5</v>
-      </c>
-      <c r="M144">
-        <v>2.05</v>
-      </c>
-      <c r="N144">
-        <v>3.5</v>
-      </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
         <v>1.85</v>
@@ -13323,34 +13323,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6480218</v>
+        <v>6482813</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,55 +13815,55 @@
         <v>45241.125</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
         <v>3.3</v>
       </c>
-      <c r="M150">
-        <v>2.9</v>
-      </c>
       <c r="N150">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13872,16 +13872,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6482813</v>
+        <v>6480218</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,56 +13904,56 @@
         <v>45241.125</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>50</v>
       </c>
       <c r="K151">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M151">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.925</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
         <v>1.875</v>
       </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
-      <c r="V151">
-        <v>2.025</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
@@ -13961,16 +13961,16 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
+        <v>0.925</v>
+      </c>
+      <c r="AB151">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB151">
-        <v>0.825</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6480217</v>
+        <v>6480221</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,40 +14082,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M153">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
         <v>1.9</v>
@@ -14124,34 +14124,34 @@
         <v>1.95</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6480221</v>
+        <v>6480217</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,40 +14171,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N154">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
         <v>1.9</v>
@@ -14213,34 +14213,34 @@
         <v>1.95</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>51</v>
+      </c>
+      <c r="K156">
+        <v>1.7</v>
+      </c>
+      <c r="L156">
+        <v>4.2</v>
+      </c>
+      <c r="M156">
+        <v>4.333</v>
+      </c>
+      <c r="N156">
+        <v>1.65</v>
+      </c>
+      <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
+        <v>5</v>
+      </c>
+      <c r="Q156">
+        <v>-0.75</v>
+      </c>
+      <c r="R156">
+        <v>1.8</v>
+      </c>
+      <c r="S156">
+        <v>2.05</v>
+      </c>
+      <c r="T156">
         <v>3</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s">
-        <v>52</v>
-      </c>
-      <c r="K156">
-        <v>1.95</v>
-      </c>
-      <c r="L156">
-        <v>3.6</v>
-      </c>
-      <c r="M156">
-        <v>3.75</v>
-      </c>
-      <c r="N156">
-        <v>2.15</v>
-      </c>
-      <c r="O156">
-        <v>3.6</v>
-      </c>
-      <c r="P156">
-        <v>3.3</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>1.85</v>
-      </c>
-      <c r="S156">
-        <v>2</v>
-      </c>
-      <c r="T156">
-        <v>2.75</v>
-      </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6501277</v>
+        <v>6504986</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,73 +14527,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K158">
+        <v>1.7</v>
+      </c>
+      <c r="L158">
+        <v>3.5</v>
+      </c>
+      <c r="M158">
+        <v>5.5</v>
+      </c>
+      <c r="N158">
+        <v>1.85</v>
+      </c>
+      <c r="O158">
+        <v>3.2</v>
+      </c>
+      <c r="P158">
+        <v>4.75</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
         <v>1.95</v>
       </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
-      <c r="M158">
-        <v>4</v>
-      </c>
-      <c r="N158">
+      <c r="T158">
         <v>1.75</v>
       </c>
-      <c r="O158">
+      <c r="U158">
+        <v>1.75</v>
+      </c>
+      <c r="V158">
+        <v>2.05</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
         <v>3.75</v>
       </c>
-      <c r="P158">
-        <v>4.5</v>
-      </c>
-      <c r="Q158">
-        <v>-0.75</v>
-      </c>
-      <c r="R158">
-        <v>2.025</v>
-      </c>
-      <c r="S158">
-        <v>1.825</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>2.05</v>
-      </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
-      <c r="W158">
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>0.95</v>
+      </c>
+      <c r="AB158">
         <v>0.75</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.5125</v>
-      </c>
-      <c r="AA158">
-        <v>-0.5</v>
-      </c>
-      <c r="AB158">
-        <v>1.05</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504897</v>
+        <v>6501277</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,58 +14616,58 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>52</v>
       </c>
       <c r="K159">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
+        <v>1.75</v>
+      </c>
+      <c r="O159">
+        <v>3.75</v>
+      </c>
+      <c r="P159">
         <v>4.5</v>
       </c>
-      <c r="M159">
-        <v>7</v>
-      </c>
-      <c r="N159">
-        <v>1.5</v>
-      </c>
-      <c r="O159">
-        <v>4.5</v>
-      </c>
-      <c r="P159">
-        <v>6</v>
-      </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
         <v>1.825</v>
       </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14676,16 +14676,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6501896</v>
+        <v>6504894</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,40 +14705,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>50</v>
       </c>
       <c r="K160">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L160">
         <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
         <v>1.85</v>
@@ -14747,13 +14747,13 @@
         <v>2</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14762,7 +14762,7 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6504895</v>
+        <v>6504896</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,76 +14794,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F161" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" t="s">
         <v>39</v>
       </c>
-      <c r="G161" t="s">
-        <v>45</v>
-      </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
         <v>4.5</v>
       </c>
       <c r="N161">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y161">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6504986</v>
+        <v>6504897</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,76 +14883,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K162">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="L162">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M162">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N162">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O162">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q162">
+        <v>-1</v>
+      </c>
+      <c r="R162">
+        <v>1.825</v>
+      </c>
+      <c r="S162">
+        <v>2.025</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.925</v>
+      </c>
+      <c r="V162">
+        <v>1.925</v>
+      </c>
+      <c r="W162">
+        <v>0.5</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
+        <v>0.825</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
+        <v>0.4625</v>
+      </c>
+      <c r="AC162">
         <v>-0.5</v>
-      </c>
-      <c r="R162">
-        <v>1.9</v>
-      </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
-      <c r="T162">
-        <v>1.75</v>
-      </c>
-      <c r="U162">
-        <v>1.75</v>
-      </c>
-      <c r="V162">
-        <v>2.05</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>3.75</v>
-      </c>
-      <c r="Z162">
-        <v>-1</v>
-      </c>
-      <c r="AA162">
-        <v>0.95</v>
-      </c>
-      <c r="AB162">
-        <v>0.75</v>
-      </c>
-      <c r="AC162">
-        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6504896</v>
+        <v>6501896</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,76 +14972,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N163">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="S163">
-        <v>2.025</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.975</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6504894</v>
+        <v>6504895</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,40 +15061,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>50</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
+        <v>3.6</v>
+      </c>
+      <c r="M164">
+        <v>4.5</v>
+      </c>
+      <c r="N164">
+        <v>1.909</v>
+      </c>
+      <c r="O164">
         <v>3.5</v>
       </c>
-      <c r="M164">
-        <v>2.6</v>
-      </c>
-      <c r="N164">
-        <v>2.75</v>
-      </c>
-      <c r="O164">
-        <v>4</v>
-      </c>
       <c r="P164">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
         <v>1.85</v>
@@ -15103,13 +15103,13 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15118,7 +15118,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.15</v>
+        <v>3.333</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15127,10 +15127,10 @@
         <v>1</v>
       </c>
       <c r="AB164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527615</v>
+        <v>6527773</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M165">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N165">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527616</v>
+        <v>6527778</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,49 +15239,49 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>52</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L166">
+        <v>3.8</v>
+      </c>
+      <c r="M166">
+        <v>1.95</v>
+      </c>
+      <c r="N166">
+        <v>3.3</v>
+      </c>
+      <c r="O166">
+        <v>4</v>
+      </c>
+      <c r="P166">
+        <v>2</v>
+      </c>
+      <c r="Q166">
+        <v>0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.825</v>
+      </c>
+      <c r="S166">
+        <v>2.025</v>
+      </c>
+      <c r="T166">
         <v>3.25</v>
-      </c>
-      <c r="M166">
-        <v>2.8</v>
-      </c>
-      <c r="N166">
-        <v>2.2</v>
-      </c>
-      <c r="O166">
-        <v>3.3</v>
-      </c>
-      <c r="P166">
-        <v>3.2</v>
-      </c>
-      <c r="Q166">
-        <v>-0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.95</v>
-      </c>
-      <c r="S166">
-        <v>1.9</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
       </c>
       <c r="U166">
         <v>1.925</v>
@@ -15290,7 +15290,7 @@
         <v>1.925</v>
       </c>
       <c r="W166">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527910</v>
+        <v>6527616</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K168">
+        <v>2.5</v>
+      </c>
+      <c r="L168">
+        <v>3.25</v>
+      </c>
+      <c r="M168">
+        <v>2.8</v>
+      </c>
+      <c r="N168">
+        <v>2.2</v>
+      </c>
+      <c r="O168">
         <v>3.3</v>
       </c>
-      <c r="L168">
-        <v>3.6</v>
-      </c>
-      <c r="M168">
-        <v>2.05</v>
-      </c>
-      <c r="N168">
-        <v>3.4</v>
-      </c>
-      <c r="O168">
-        <v>3.6</v>
-      </c>
       <c r="P168">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527617</v>
+        <v>6527910</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,40 +15521,40 @@
         <v>50</v>
       </c>
       <c r="K169">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
         <v>3.6</v>
       </c>
       <c r="M169">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="N169">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O169">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15563,19 +15563,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6527778</v>
+        <v>6527617</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L171">
+        <v>3.6</v>
+      </c>
+      <c r="M171">
+        <v>1.8</v>
+      </c>
+      <c r="N171">
+        <v>5.25</v>
+      </c>
+      <c r="O171">
         <v>3.8</v>
       </c>
-      <c r="M171">
-        <v>1.95</v>
-      </c>
-      <c r="N171">
-        <v>3.3</v>
-      </c>
-      <c r="O171">
-        <v>4</v>
-      </c>
       <c r="P171">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z171">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6527773</v>
+        <v>6527615</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,76 +15773,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K172">
+        <v>1.6</v>
+      </c>
+      <c r="L172">
+        <v>4.1</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+      <c r="N172">
+        <v>1.833</v>
+      </c>
+      <c r="O172">
         <v>3.75</v>
       </c>
-      <c r="L172">
-        <v>3.8</v>
-      </c>
-      <c r="M172">
+      <c r="P172">
+        <v>4.333</v>
+      </c>
+      <c r="Q172">
+        <v>-0.5</v>
+      </c>
+      <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2.05</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
         <v>1.85</v>
       </c>
-      <c r="N172">
-        <v>3.6</v>
-      </c>
-      <c r="O172">
-        <v>3.8</v>
-      </c>
-      <c r="P172">
-        <v>1.85</v>
-      </c>
-      <c r="Q172">
-        <v>0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.975</v>
-      </c>
-      <c r="S172">
-        <v>1.875</v>
-      </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>1.825</v>
-      </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>0.8</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z172">
-        <v>-1</v>
-      </c>
-      <c r="AA172">
-        <v>0.875</v>
-      </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
       <c r="AC172">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7624503</v>
+        <v>7624504</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
+        <v>2.55</v>
+      </c>
+      <c r="L177">
         <v>3.2</v>
       </c>
-      <c r="L177">
-        <v>3.25</v>
-      </c>
       <c r="M177">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N177">
         <v>3</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S177">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y177">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7624504</v>
+        <v>7624503</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
         <v>3</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7624984</v>
+        <v>7624505</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,55 +16485,55 @@
         <v>45346.125</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L180">
+        <v>3.4</v>
+      </c>
+      <c r="M180">
         <v>3.5</v>
       </c>
-      <c r="M180">
-        <v>3.6</v>
-      </c>
       <c r="N180">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O180">
         <v>3.3</v>
       </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
         <v>2.25</v>
       </c>
       <c r="U180">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16548,13 +16548,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7624505</v>
+        <v>7624984</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,55 +16574,55 @@
         <v>45346.125</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>51</v>
       </c>
       <c r="K181">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N181">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O181">
         <v>3.3</v>
       </c>
       <c r="P181">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16637,13 +16637,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,46 +16841,46 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K184">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="L184">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M184">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P184">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,46 +16915,46 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="L185">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M185">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="N185">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -17007,28 +17007,28 @@
         <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17051,7 +17051,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7744593</v>
+        <v>7744592</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17063,31 +17063,31 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K187">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O187">
         <v>3.5</v>
       </c>
       <c r="P187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
         <v>2.05</v>
@@ -17096,13 +17096,13 @@
         <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17125,7 +17125,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624511</v>
+        <v>7744593</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17137,40 +17137,40 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2.1</v>
+      </c>
+      <c r="N188">
         <v>3.3</v>
       </c>
-      <c r="M188">
-        <v>2.875</v>
-      </c>
-      <c r="N188">
-        <v>2.3</v>
-      </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
         <v>2.025</v>
@@ -17199,7 +17199,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7744592</v>
+        <v>7624511</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17211,46 +17211,46 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K189">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M189">
-        <v>5.2</v>
+        <v>2.875</v>
       </c>
       <c r="N189">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17300,31 +17300,31 @@
         <v>2.8</v>
       </c>
       <c r="N190">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
         <v>2.875</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17374,22 +17374,22 @@
         <v>2.35</v>
       </c>
       <c r="N191">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
         <v>2.5</v>
@@ -17436,7 +17436,7 @@
         <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K192">
         <v>2.1</v>
@@ -17448,31 +17448,31 @@
         <v>3.3</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17522,31 +17522,31 @@
         <v>7</v>
       </c>
       <c r="N193">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="O193">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P193">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q193">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -130,19 +130,19 @@
     <t>Yokohama FMarinos</t>
   </si>
   <si>
-    <t>Cerezo Osaka</t>
+    <t>Sagan Tosu</t>
   </si>
   <si>
-    <t>Sagan Tosu</t>
+    <t>Cerezo Osaka</t>
   </si>
   <si>
     <t>Albirex Niigata</t>
   </si>
   <si>
-    <t>Kashima Antlers</t>
+    <t>Gamba Osaka</t>
   </si>
   <si>
-    <t>Gamba Osaka</t>
+    <t>Kashima Antlers</t>
   </si>
   <si>
     <t>Kawasaki Frontale</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,7 +824,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6173840</v>
+        <v>6173841</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6173841</v>
+        <v>6173840</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6173844</v>
+        <v>6173845</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,37 +1803,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
         <v>2.025</v>
@@ -1845,13 +1845,13 @@
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1860,16 +1860,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6173845</v>
+        <v>6173844</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,37 +1892,37 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
         <v>2.025</v>
@@ -1934,13 +1934,13 @@
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1949,16 +1949,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2159,7 +2159,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6173852</v>
+        <v>6173850</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,76 +2334,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.85</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2.4</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>-0.5</v>
       </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
-      <c r="W21">
-        <v>0.95</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>0.95</v>
-      </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173853</v>
+        <v>6173852</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,10 +2423,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2438,43 +2438,43 @@
         <v>52</v>
       </c>
       <c r="K22">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
         <v>1.875</v>
       </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2483,13 +2483,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6173850</v>
+        <v>6173851</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,76 +2601,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2.15</v>
+      </c>
+      <c r="O24">
+        <v>3.5</v>
+      </c>
+      <c r="P24">
+        <v>3.25</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>2.5</v>
+      </c>
+      <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>2.25</v>
       </c>
-      <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>2.15</v>
-      </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.85</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>2.4</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173851</v>
+        <v>6173853</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,73 +2690,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
         <v>3.3</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -3046,7 +3046,7 @@
         <v>45107.29166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6173859</v>
+        <v>6173857</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,76 +3135,76 @@
         <v>45108.25</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N30">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
+        <v>1.975</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>2.5</v>
       </c>
-      <c r="U30">
-        <v>1.95</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
-      <c r="W30">
-        <v>1.625</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6173857</v>
+        <v>6173859</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,76 +3313,76 @@
         <v>45108.25</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N32">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3405,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6173861</v>
+        <v>6173862</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,76 +3491,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L34">
+        <v>3.8</v>
+      </c>
+      <c r="M34">
         <v>3.3</v>
       </c>
-      <c r="M34">
-        <v>3.6</v>
-      </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3568,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173862</v>
+        <v>6173861</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3580,76 +3580,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3669,7 +3669,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -4028,7 +4028,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173868</v>
+        <v>6173870</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>8.5</v>
       </c>
       <c r="N41">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q41">
+        <v>-1.25</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>1.8</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>1.825</v>
+      </c>
+      <c r="V41">
+        <v>2.025</v>
+      </c>
+      <c r="W41">
+        <v>0.45</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>1.05</v>
+      </c>
+      <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
+        <v>0.4125</v>
+      </c>
+      <c r="AC41">
         <v>-0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.875</v>
-      </c>
-      <c r="V41">
-        <v>1.975</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>2.5</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
-      <c r="AC41">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4292,7 +4292,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6173872</v>
+        <v>6173868</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,49 +4381,49 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
         <v>1.875</v>
@@ -4432,25 +4432,25 @@
         <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6173870</v>
+        <v>6173872</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,58 +4470,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>52</v>
       </c>
       <c r="K45">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L45">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="N45">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4530,16 +4530,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,10 +4559,10 @@
         <v>45115.3125</v>
       </c>
       <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
         <v>39</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173881</v>
+        <v>6173876</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M50">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N50">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W50">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173877</v>
+        <v>6173881</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51">
+        <v>1.533</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>5.5</v>
+      </c>
+      <c r="N51">
+        <v>1.533</v>
+      </c>
+      <c r="O51">
+        <v>4.333</v>
+      </c>
+      <c r="P51">
+        <v>5.75</v>
+      </c>
+      <c r="Q51">
+        <v>-1</v>
+      </c>
+      <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>1.85</v>
+      </c>
+      <c r="W51">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K51">
-        <v>2.3</v>
-      </c>
-      <c r="L51">
-        <v>3.5</v>
-      </c>
-      <c r="M51">
-        <v>2.75</v>
-      </c>
-      <c r="N51">
-        <v>2.4</v>
-      </c>
-      <c r="O51">
-        <v>3.2</v>
-      </c>
-      <c r="P51">
-        <v>3.1</v>
-      </c>
-      <c r="Q51">
-        <v>-0.25</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.925</v>
-      </c>
-      <c r="V51">
-        <v>1.925</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>2.1</v>
-      </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173879</v>
+        <v>6173880</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,58 +5093,58 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>52</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>2.25</v>
+      </c>
+      <c r="N52">
         <v>3.4</v>
       </c>
-      <c r="M52">
-        <v>3.4</v>
-      </c>
-      <c r="N52">
-        <v>2.1</v>
-      </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5153,16 +5153,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173880</v>
+        <v>6173879</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,58 +5182,58 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>52</v>
       </c>
       <c r="K53">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
+        <v>2.1</v>
+      </c>
+      <c r="O53">
         <v>3.4</v>
       </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5242,16 +5242,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6173876</v>
+        <v>6173878</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5271,73 +5271,73 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L54">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N54">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O54">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5348,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6173878</v>
+        <v>6173877</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5360,76 +5360,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L55">
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6173883</v>
+        <v>6173882</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,10 +5538,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5553,43 +5553,43 @@
         <v>52</v>
       </c>
       <c r="K57">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>2.1</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5607,7 +5607,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6173882</v>
+        <v>6173883</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,10 +5627,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5642,43 +5642,43 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="L58">
+        <v>3.75</v>
+      </c>
+      <c r="M58">
+        <v>4.5</v>
+      </c>
+      <c r="N58">
+        <v>1.909</v>
+      </c>
+      <c r="O58">
         <v>3.5</v>
       </c>
-      <c r="M58">
-        <v>1.75</v>
-      </c>
-      <c r="N58">
-        <v>3.1</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
       <c r="P58">
+        <v>4.333</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
         <v>2.25</v>
       </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
+      <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>2.025</v>
-      </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>2.1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5687,16 +5687,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.875</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
-      <c r="AC58">
-        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>45144.25</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6174608</v>
+        <v>6173889</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
+        <v>2.7</v>
+      </c>
+      <c r="N61">
+        <v>2.6</v>
+      </c>
+      <c r="O61">
+        <v>3.2</v>
+      </c>
+      <c r="P61">
         <v>2.875</v>
-      </c>
-      <c r="N61">
-        <v>2.55</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
-      <c r="P61">
-        <v>2.55</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173889</v>
+        <v>6173886</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,55 +5983,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>51</v>
       </c>
       <c r="K62">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N62">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6040,19 +6040,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.875</v>
+        <v>4.25</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6173886</v>
+        <v>6173887</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,55 +6072,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>51</v>
       </c>
       <c r="K63">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N63">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6129,19 +6129,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>4.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6161,7 +6161,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -6238,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6173887</v>
+        <v>6174608</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6250,37 +6250,37 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -6292,34 +6292,34 @@
         <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6342,7 +6342,7 @@
         <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6173892</v>
+        <v>6173894</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,76 +6517,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X68">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6173893</v>
+        <v>6173892</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>2.7</v>
+      </c>
+      <c r="L69">
+        <v>3.25</v>
+      </c>
+      <c r="M69">
+        <v>2.45</v>
+      </c>
+      <c r="N69">
+        <v>2.6</v>
+      </c>
+      <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
+        <v>2.8</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69">
-        <v>1.8</v>
-      </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>4</v>
-      </c>
-      <c r="N69">
-        <v>2.05</v>
-      </c>
-      <c r="O69">
-        <v>3.6</v>
-      </c>
-      <c r="P69">
-        <v>3.4</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6173894</v>
+        <v>6173893</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,10 +6695,10 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6710,43 +6710,43 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
         <v>3.4</v>
       </c>
-      <c r="P70">
-        <v>4.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W70">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6755,16 +6755,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6876,7 +6876,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6173897</v>
+        <v>6173896</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6962,58 +6962,58 @@
         <v>45151.25</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O73">
         <v>3.1</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7022,16 +7022,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6173896</v>
+        <v>6173897</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,58 +7051,58 @@
         <v>45151.25</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
         <v>3.1</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7111,16 +7111,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7318,10 +7318,10 @@
         <v>45157.25</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6173903</v>
+        <v>6173901</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,76 +7407,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N78">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O78">
         <v>3.4</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>1.8</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.925</v>
+      </c>
+      <c r="V78">
+        <v>1.925</v>
+      </c>
+      <c r="W78">
+        <v>2.5</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
+        <v>1.05</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
+        <v>0.4625</v>
+      </c>
+      <c r="AC78">
         <v>-0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.95</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>1.975</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>2.4</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
-      <c r="AC78">
-        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6173904</v>
+        <v>6173903</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,40 +7496,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
         <v>1.95</v>
@@ -7547,25 +7547,25 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6173901</v>
+        <v>6173902</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7585,58 +7585,58 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>52</v>
       </c>
       <c r="K80">
+        <v>2.15</v>
+      </c>
+      <c r="L80">
+        <v>3.4</v>
+      </c>
+      <c r="M80">
         <v>3.2</v>
       </c>
-      <c r="L80">
+      <c r="N80">
+        <v>1.95</v>
+      </c>
+      <c r="O80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>2.15</v>
-      </c>
-      <c r="N80">
-        <v>3.5</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
       <c r="P80">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7645,16 +7645,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6173902</v>
+        <v>6173904</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,73 +7674,73 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>52</v>
       </c>
       <c r="K81">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
+        <v>3.25</v>
+      </c>
+      <c r="M81">
+        <v>2.875</v>
+      </c>
+      <c r="N81">
+        <v>2.2</v>
+      </c>
+      <c r="O81">
+        <v>3.3</v>
+      </c>
+      <c r="P81">
         <v>3.4</v>
       </c>
-      <c r="M81">
-        <v>3.2</v>
-      </c>
-      <c r="N81">
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
         <v>1.95</v>
       </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>3.8</v>
-      </c>
-      <c r="Q81">
-        <v>-0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.925</v>
-      </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
+        <v>1.2</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
         <v>0.95</v>
       </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.925</v>
-      </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7855,7 +7855,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>45164.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6173911</v>
+        <v>6173914</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,76 +8208,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N87">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6173915</v>
+        <v>6173913</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,73 +8297,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>50</v>
+      </c>
+      <c r="K88">
+        <v>1.95</v>
+      </c>
+      <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>3.6</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>4</v>
+      </c>
+      <c r="P88">
+        <v>4</v>
+      </c>
+      <c r="Q88">
+        <v>-0.75</v>
+      </c>
+      <c r="R88">
+        <v>2.025</v>
+      </c>
+      <c r="S88">
+        <v>1.825</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
+        <v>1.95</v>
+      </c>
+      <c r="V88">
+        <v>1.9</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
         <v>3</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88">
-        <v>2.625</v>
-      </c>
-      <c r="L88">
-        <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>2.6</v>
-      </c>
-      <c r="N88">
-        <v>2.75</v>
-      </c>
-      <c r="O88">
-        <v>3.3</v>
-      </c>
-      <c r="P88">
-        <v>2.5</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
-      </c>
-      <c r="U88">
-        <v>1.9</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
-      <c r="W88">
-        <v>1.75</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6173912</v>
+        <v>6173911</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,76 +8386,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>50</v>
       </c>
       <c r="K89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N89">
+        <v>3.3</v>
+      </c>
+      <c r="O89">
         <v>3.2</v>
       </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
       <c r="P89">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q89">
         <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
         <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6173913</v>
+        <v>6173912</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8475,10 +8475,10 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8490,58 +8490,58 @@
         <v>50</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
+        <v>2.2</v>
+      </c>
+      <c r="N90">
+        <v>3.2</v>
+      </c>
+      <c r="O90">
         <v>3.6</v>
       </c>
-      <c r="N90">
-        <v>1.8</v>
-      </c>
-      <c r="O90">
-        <v>4</v>
-      </c>
       <c r="P90">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
         <v>2.025</v>
       </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA90">
+        <v>-0.5</v>
+      </c>
+      <c r="AB90">
         <v>0.825</v>
-      </c>
-      <c r="AB90">
-        <v>0.95</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6173914</v>
+        <v>6173910</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8564,76 +8564,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K91">
+        <v>2.625</v>
+      </c>
+      <c r="L91">
+        <v>3.4</v>
+      </c>
+      <c r="M91">
+        <v>2.6</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>3.4</v>
+      </c>
+      <c r="P91">
+        <v>2.3</v>
+      </c>
+      <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>2.025</v>
+      </c>
+      <c r="T91">
+        <v>2.75</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
+        <v>1.85</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
         <v>2.4</v>
       </c>
-      <c r="L91">
-        <v>3.1</v>
-      </c>
-      <c r="M91">
-        <v>3.1</v>
-      </c>
-      <c r="N91">
-        <v>2.75</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.875</v>
-      </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>1.925</v>
-      </c>
-      <c r="V91">
-        <v>1.925</v>
-      </c>
-      <c r="W91">
-        <v>1.75</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6173910</v>
+        <v>6173915</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8656,73 +8656,73 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K92">
         <v>2.625</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
         <v>2.6</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X92">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8745,7 +8745,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6173920</v>
+        <v>6173921</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,10 +8831,10 @@
         <v>45171.25</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8846,61 +8846,61 @@
         <v>50</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="N94">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
         <v>1.875</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.975</v>
       </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>2.025</v>
-      </c>
-      <c r="V94">
-        <v>1.825</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6173921</v>
+        <v>6173920</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,10 +8920,10 @@
         <v>45171.25</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8935,61 +8935,61 @@
         <v>50</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>2.025</v>
+      </c>
+      <c r="V95">
         <v>1.825</v>
       </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA95">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6173924</v>
+        <v>6173919</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K97">
+        <v>3.75</v>
+      </c>
+      <c r="L97">
         <v>3.6</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
       </c>
       <c r="M97">
         <v>1.909</v>
       </c>
       <c r="N97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q97">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9187,7 +9187,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6173919</v>
+        <v>6173924</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,76 +9276,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
+        <v>3.6</v>
+      </c>
+      <c r="L99">
         <v>3.75</v>
-      </c>
-      <c r="L99">
-        <v>3.6</v>
       </c>
       <c r="M99">
         <v>1.909</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6173918</v>
+        <v>6173923</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,73 +9365,73 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6173923</v>
+        <v>6173918</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,73 +9454,73 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9635,7 +9635,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9810,10 +9810,10 @@
         <v>45185.25</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6173932</v>
+        <v>6173925</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,76 +9899,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N106">
+        <v>1.615</v>
+      </c>
+      <c r="O106">
+        <v>4.5</v>
+      </c>
+      <c r="P106">
+        <v>4.75</v>
+      </c>
+      <c r="Q106">
+        <v>-1</v>
+      </c>
+      <c r="R106">
         <v>2.05</v>
       </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
-      <c r="P106">
-        <v>3.4</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
         <v>2.025</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.825</v>
       </c>
-      <c r="T106">
-        <v>2.5</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
       <c r="W106">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6173925</v>
+        <v>6173933</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6173933</v>
+        <v>6173932</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,13 +10077,13 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10092,43 +10092,43 @@
         <v>52</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
         <v>3.4</v>
       </c>
-      <c r="O108">
-        <v>2.875</v>
-      </c>
-      <c r="P108">
-        <v>2.45</v>
-      </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
         <v>1.9</v>
       </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
       <c r="W108">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10137,7 +10137,7 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA108">
         <v>-1</v>
@@ -10146,7 +10146,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10255,7 +10255,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10436,7 +10436,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6173940</v>
+        <v>6173935</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N114">
-        <v>4.6</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
+        <v>3.6</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
         <v>1.75</v>
       </c>
-      <c r="Q114">
-        <v>0.75</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.925</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>3.6</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6173935</v>
+        <v>6173940</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>4.6</v>
       </c>
       <c r="O115">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
+        <v>1.75</v>
+      </c>
+      <c r="Q115">
+        <v>0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.9</v>
+      </c>
+      <c r="V115">
+        <v>1.95</v>
+      </c>
+      <c r="W115">
         <v>3.6</v>
       </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>2</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
-      <c r="T115">
-        <v>1.75</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.85</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10792,7 +10792,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>45193.125</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -11056,7 +11056,7 @@
         <v>45193.20833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11504,7 +11504,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>45199.25</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6173948</v>
+        <v>6173950</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,58 +11679,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11739,13 +11739,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6173950</v>
+        <v>6173948</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,58 +11768,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>52</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
         <v>3.6</v>
       </c>
-      <c r="M127">
-        <v>2.75</v>
-      </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,13 +11828,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12127,7 +12127,7 @@
         <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173957</v>
+        <v>6173954</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>0</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K132">
         <v>2.625</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
+        <v>2.7</v>
+      </c>
+      <c r="O132">
+        <v>3.2</v>
+      </c>
+      <c r="P132">
         <v>2.75</v>
-      </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
-      <c r="P132">
-        <v>2.7</v>
       </c>
       <c r="Q132">
         <v>0</v>
       </c>
       <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
         <v>1.9</v>
       </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>2.05</v>
-      </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173954</v>
+        <v>6173953</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,37 +12302,37 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>52</v>
       </c>
       <c r="K133">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M133">
+        <v>3.75</v>
+      </c>
+      <c r="N133">
+        <v>2.45</v>
+      </c>
+      <c r="O133">
+        <v>4.2</v>
+      </c>
+      <c r="P133">
         <v>2.5</v>
-      </c>
-      <c r="N133">
-        <v>2.7</v>
-      </c>
-      <c r="O133">
-        <v>3.2</v>
-      </c>
-      <c r="P133">
-        <v>2.75</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -12344,7 +12344,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U133">
         <v>1.9</v>
@@ -12353,7 +12353,7 @@
         <v>1.95</v>
       </c>
       <c r="W133">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12368,10 +12368,10 @@
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173953</v>
+        <v>6173957</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
         <v>1.9</v>
       </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6473046</v>
+        <v>6472889</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,76 +12925,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
         <v>36</v>
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6472889</v>
+        <v>6472890</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,37 +13103,37 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>51</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L142">
+        <v>3.4</v>
+      </c>
+      <c r="M142">
+        <v>2.3</v>
+      </c>
+      <c r="N142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>2.75</v>
-      </c>
-      <c r="N142">
+      <c r="O142">
         <v>3.4</v>
       </c>
-      <c r="O142">
-        <v>3.1</v>
-      </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
         <v>0.25</v>
@@ -13145,13 +13145,13 @@
         <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13160,7 +13160,7 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
@@ -13169,10 +13169,10 @@
         <v>1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6472887</v>
+        <v>6473046</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,67 +13192,67 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N143">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O143">
         <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
         <v>1.85</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -13261,7 +13261,7 @@
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6472890</v>
+        <v>6472887</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
         <v>1.85</v>
@@ -13335,22 +13335,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13815,7 +13815,7 @@
         <v>45241.125</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
         <v>32</v>
@@ -13904,7 +13904,7 @@
         <v>45241.125</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -13993,7 +13993,7 @@
         <v>45241.125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14174,7 +14174,7 @@
         <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P157">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504895</v>
+        <v>6504894</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,40 +14616,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>51</v>
       </c>
       <c r="K159">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
         <v>1.85</v>
@@ -14658,13 +14658,13 @@
         <v>2</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14673,7 +14673,7 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3.333</v>
+        <v>1.15</v>
       </c>
       <c r="Z159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6504894</v>
+        <v>6504986</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,13 +14705,13 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14720,40 +14720,40 @@
         <v>51</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L160">
         <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14762,16 +14762,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6504986</v>
+        <v>6501277</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,73 +14794,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K161">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
+        <v>-0.75</v>
+      </c>
+      <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>2.05</v>
+      </c>
+      <c r="V161">
+        <v>1.8</v>
+      </c>
+      <c r="W161">
+        <v>0.75</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.5125</v>
+      </c>
+      <c r="AA161">
         <v>-0.5</v>
       </c>
-      <c r="R161">
-        <v>1.9</v>
-      </c>
-      <c r="S161">
-        <v>1.95</v>
-      </c>
-      <c r="T161">
-        <v>1.75</v>
-      </c>
-      <c r="U161">
-        <v>1.75</v>
-      </c>
-      <c r="V161">
-        <v>2.05</v>
-      </c>
-      <c r="W161">
-        <v>-1</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>3.75</v>
-      </c>
-      <c r="Z161">
-        <v>-1</v>
-      </c>
-      <c r="AA161">
-        <v>0.95</v>
-      </c>
       <c r="AB161">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6501277</v>
+        <v>6504895</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,46 +14883,46 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N162">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P162">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T162">
         <v>2.5</v>
@@ -14934,25 +14934,25 @@
         <v>1.8</v>
       </c>
       <c r="W162">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z162">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6504897</v>
+        <v>6504896</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,37 +14972,37 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L163">
+        <v>3.75</v>
+      </c>
+      <c r="M163">
         <v>4.5</v>
       </c>
-      <c r="M163">
-        <v>7</v>
-      </c>
       <c r="N163">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O163">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P163">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
         <v>-1</v>
@@ -15017,31 +15017,31 @@
         <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB163">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6504896</v>
+        <v>6504897</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,37 +15061,37 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M164">
+        <v>7</v>
+      </c>
+      <c r="N164">
+        <v>1.5</v>
+      </c>
+      <c r="O164">
         <v>4.5</v>
       </c>
-      <c r="N164">
-        <v>1.533</v>
-      </c>
-      <c r="O164">
-        <v>4.333</v>
-      </c>
       <c r="P164">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q164">
         <v>-1</v>
@@ -15106,31 +15106,31 @@
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X164">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527617</v>
+        <v>6527615</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
+        <v>1.6</v>
+      </c>
+      <c r="L166">
+        <v>4.1</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>1.833</v>
+      </c>
+      <c r="O166">
+        <v>3.75</v>
+      </c>
+      <c r="P166">
         <v>4.333</v>
       </c>
-      <c r="L166">
-        <v>3.6</v>
-      </c>
-      <c r="M166">
+      <c r="Q166">
+        <v>-0.5</v>
+      </c>
+      <c r="R166">
         <v>1.8</v>
       </c>
-      <c r="N166">
-        <v>5.25</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
-      <c r="P166">
-        <v>1.615</v>
-      </c>
-      <c r="Q166">
-        <v>0.75</v>
-      </c>
-      <c r="R166">
-        <v>2.025</v>
-      </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA166">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527615</v>
+        <v>6527782</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L168">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527616</v>
+        <v>6527778</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,49 +15506,49 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>52</v>
       </c>
       <c r="K169">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
+        <v>3.8</v>
+      </c>
+      <c r="M169">
+        <v>1.95</v>
+      </c>
+      <c r="N169">
+        <v>3.3</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>2</v>
+      </c>
+      <c r="Q169">
+        <v>0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>2.025</v>
+      </c>
+      <c r="T169">
         <v>3.25</v>
-      </c>
-      <c r="M169">
-        <v>2.8</v>
-      </c>
-      <c r="N169">
-        <v>2.2</v>
-      </c>
-      <c r="O169">
-        <v>3.3</v>
-      </c>
-      <c r="P169">
-        <v>3.2</v>
-      </c>
-      <c r="Q169">
-        <v>-0.25</v>
-      </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>1.9</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
       </c>
       <c r="U169">
         <v>1.925</v>
@@ -15557,7 +15557,7 @@
         <v>1.925</v>
       </c>
       <c r="W169">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15566,16 +15566,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6527782</v>
+        <v>6527617</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,55 +15595,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>51</v>
       </c>
       <c r="K170">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N170">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15652,19 +15652,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.3</v>
+        <v>0.615</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6527910</v>
+        <v>6527616</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
         <v>0</v>
       </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K171">
+        <v>2.5</v>
+      </c>
+      <c r="L171">
+        <v>3.25</v>
+      </c>
+      <c r="M171">
+        <v>2.8</v>
+      </c>
+      <c r="N171">
+        <v>2.2</v>
+      </c>
+      <c r="O171">
         <v>3.3</v>
       </c>
-      <c r="L171">
-        <v>3.6</v>
-      </c>
-      <c r="M171">
-        <v>2.05</v>
-      </c>
-      <c r="N171">
-        <v>3.4</v>
-      </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
       <c r="P171">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6527778</v>
+        <v>6527910</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,34 +15773,34 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K172">
+        <v>3.3</v>
+      </c>
+      <c r="L172">
+        <v>3.6</v>
+      </c>
+      <c r="M172">
+        <v>2.05</v>
+      </c>
+      <c r="N172">
         <v>3.4</v>
       </c>
-      <c r="L172">
-        <v>3.8</v>
-      </c>
-      <c r="M172">
-        <v>1.95</v>
-      </c>
-      <c r="N172">
-        <v>3.3</v>
-      </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
         <v>2</v>
@@ -15809,40 +15809,40 @@
         <v>0.5</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W172">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16043,7 +16043,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16307,7 +16307,7 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
         <v>40</v>
@@ -16399,7 +16399,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7624191</v>
+        <v>7624505</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,73 +16485,73 @@
         <v>45346.125</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N180">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
         <v>1.875</v>
       </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB180">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7624505</v>
+        <v>7624191</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,73 +16574,73 @@
         <v>45346.125</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N181">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O181">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
         <v>1.975</v>
       </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.875</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,55 +16841,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J184" t="s">
         <v>51</v>
       </c>
       <c r="K184">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="L184">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M184">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="N184">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q184">
         <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
         <v>2.05</v>
       </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16898,19 +16898,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,55 +16930,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>51</v>
       </c>
       <c r="K185">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="L185">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M185">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q185">
         <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2.05</v>
-      </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16987,19 +16987,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17007,7 +17007,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7883315</v>
+        <v>7624513</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,63 +17016,686 @@
         <v>28</v>
       </c>
       <c r="E186" s="2">
-        <v>45354.16666666666</v>
+        <v>45353.04166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G186" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>51</v>
       </c>
       <c r="K186">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="N186">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
         <v>2.25</v>
       </c>
       <c r="U186">
+        <v>1.925</v>
+      </c>
+      <c r="V186">
+        <v>1.925</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>3.333</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>0.95</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7744592</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45353.08333333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
+        <v>48</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>51</v>
+      </c>
+      <c r="K187">
+        <v>1.533</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>5.2</v>
+      </c>
+      <c r="N187">
+        <v>2.2</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
+        <v>3.4</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.925</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>2.4</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.925</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7624511</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45353.08333333334</v>
+      </c>
+      <c r="F188" t="s">
+        <v>45</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>51</v>
+      </c>
+      <c r="K188">
+        <v>2.25</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.875</v>
+      </c>
+      <c r="N188">
+        <v>2.2</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
+        <v>3.4</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.875</v>
+      </c>
+      <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.875</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>2.4</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7744593</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45353.08333333334</v>
+      </c>
+      <c r="F189" t="s">
+        <v>38</v>
+      </c>
+      <c r="G189" t="s">
+        <v>44</v>
+      </c>
+      <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>52</v>
+      </c>
+      <c r="K189">
+        <v>2.9</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.6</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>2.05</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2.05</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
+        <v>1.9</v>
+      </c>
+      <c r="W189">
+        <v>2.6</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0.8</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>0.95</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7624509</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45353.125</v>
+      </c>
+      <c r="F190" t="s">
+        <v>42</v>
+      </c>
+      <c r="G190" t="s">
+        <v>39</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>50</v>
+      </c>
+      <c r="K190">
+        <v>2.1</v>
+      </c>
+      <c r="L190">
+        <v>3.2</v>
+      </c>
+      <c r="M190">
+        <v>3.3</v>
+      </c>
+      <c r="N190">
+        <v>2.25</v>
+      </c>
+      <c r="O190">
+        <v>3.25</v>
+      </c>
+      <c r="P190">
+        <v>3.3</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>2.025</v>
+      </c>
+      <c r="S190">
         <v>1.825</v>
       </c>
-      <c r="V186">
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
         <v>2.025</v>
       </c>
-      <c r="W186">
+      <c r="V190">
+        <v>1.825</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>2.25</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>-0.5</v>
+      </c>
+      <c r="AA190">
+        <v>0.4125</v>
+      </c>
+      <c r="AB190">
+        <v>-0.5</v>
+      </c>
+      <c r="AC190">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7624512</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45353.125</v>
+      </c>
+      <c r="F191" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" t="s">
+        <v>40</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>0</v>
       </c>
-      <c r="X186">
+      <c r="J191" t="s">
+        <v>52</v>
+      </c>
+      <c r="K191">
+        <v>2.375</v>
+      </c>
+      <c r="L191">
+        <v>3.2</v>
+      </c>
+      <c r="M191">
+        <v>2.8</v>
+      </c>
+      <c r="N191">
+        <v>2.625</v>
+      </c>
+      <c r="O191">
+        <v>3.25</v>
+      </c>
+      <c r="P191">
+        <v>2.75</v>
+      </c>
+      <c r="Q191">
         <v>0</v>
       </c>
-      <c r="Y186">
+      <c r="R191">
+        <v>1.875</v>
+      </c>
+      <c r="S191">
+        <v>1.975</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
+        <v>2.05</v>
+      </c>
+      <c r="V191">
+        <v>1.8</v>
+      </c>
+      <c r="W191">
+        <v>1.625</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>0.875</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7624510</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45353.125</v>
+      </c>
+      <c r="F192" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" t="s">
+        <v>35</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192" t="s">
+        <v>50</v>
+      </c>
+      <c r="K192">
+        <v>2.7</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>2.35</v>
+      </c>
+      <c r="N192">
+        <v>4.333</v>
+      </c>
+      <c r="O192">
+        <v>3.75</v>
+      </c>
+      <c r="P192">
+        <v>1.8</v>
+      </c>
+      <c r="Q192">
+        <v>0.5</v>
+      </c>
+      <c r="R192">
+        <v>2.025</v>
+      </c>
+      <c r="S192">
+        <v>1.825</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
+        <v>1.825</v>
+      </c>
+      <c r="V192">
+        <v>2.025</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>2.75</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>1.025</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7883315</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45354.16666666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>36</v>
+      </c>
+      <c r="G193" t="s">
+        <v>49</v>
+      </c>
+      <c r="K193">
+        <v>1.4</v>
+      </c>
+      <c r="L193">
+        <v>4.2</v>
+      </c>
+      <c r="M193">
+        <v>7</v>
+      </c>
+      <c r="N193">
+        <v>1.8</v>
+      </c>
+      <c r="O193">
+        <v>3.75</v>
+      </c>
+      <c r="P193">
+        <v>4.333</v>
+      </c>
+      <c r="Q193">
+        <v>-0.5</v>
+      </c>
+      <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2.05</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
+        <v>2</v>
+      </c>
+      <c r="W193">
         <v>0</v>
       </c>
-      <c r="Z186">
+      <c r="X193">
         <v>0</v>
       </c>
-      <c r="AA186">
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -139,10 +139,10 @@
     <t>Albirex Niigata</t>
   </si>
   <si>
-    <t>Gamba Osaka</t>
+    <t>Kashima Antlers</t>
   </si>
   <si>
-    <t>Kashima Antlers</t>
+    <t>Gamba Osaka</t>
   </si>
   <si>
     <t>Kawasaki Frontale</t>
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6173845</v>
+        <v>6173844</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,37 +1803,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
         <v>2.025</v>
@@ -1845,13 +1845,13 @@
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1860,16 +1860,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6173844</v>
+        <v>6173845</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,37 +1892,37 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
         <v>2.025</v>
@@ -1934,13 +1934,13 @@
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1949,16 +1949,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
         <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>45108.25</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3405,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6173861</v>
+        <v>6173862</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,76 +3491,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L34">
+        <v>3.8</v>
+      </c>
+      <c r="M34">
         <v>3.3</v>
       </c>
-      <c r="M34">
-        <v>3.6</v>
-      </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3568,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173862</v>
+        <v>6173861</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3580,76 +3580,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -5004,7 +5004,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>45144.25</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6173887</v>
+        <v>6173888</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,10 +5894,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>50</v>
       </c>
       <c r="K61">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>3.3</v>
@@ -5918,32 +5918,32 @@
         <v>3.4</v>
       </c>
       <c r="N61">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
         <v>1.9</v>
       </c>
-      <c r="V61">
-        <v>1.95</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
@@ -5951,19 +5951,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173888</v>
+        <v>6173887</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,10 +5983,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>50</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
         <v>3.3</v>
@@ -6007,32 +6007,32 @@
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P62">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6040,19 +6040,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6174608</v>
+        <v>6173886</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,76 +6072,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
+        <v>2.025</v>
+      </c>
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="V63">
-        <v>2.025</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6173886</v>
+        <v>6173889</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,55 +6161,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N64">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6218,19 +6218,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>4.25</v>
+        <v>1.875</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6173889</v>
+        <v>6174608</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6250,76 +6250,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
+        <v>2.55</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.55</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
+        <v>2.025</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
         <v>2.6</v>
       </c>
-      <c r="O65">
-        <v>3.2</v>
-      </c>
-      <c r="P65">
-        <v>2.875</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1.85</v>
-      </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
       <c r="Y65">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6174609</v>
+        <v>6173894</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,76 +6517,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6173894</v>
+        <v>6174609</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O69">
         <v>3.4</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>2.2</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.95</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.925</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-0.5</v>
-      </c>
-      <c r="AC69">
-        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6876,7 +6876,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>45157.25</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6173904</v>
+        <v>6173901</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,59 +7496,59 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>52</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.925</v>
+      </c>
+      <c r="V79">
+        <v>1.925</v>
+      </c>
+      <c r="W79">
         <v>2.5</v>
       </c>
-      <c r="U79">
-        <v>1.975</v>
-      </c>
-      <c r="V79">
-        <v>1.875</v>
-      </c>
-      <c r="W79">
-        <v>1.2</v>
-      </c>
       <c r="X79">
         <v>-1</v>
       </c>
@@ -7556,16 +7556,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7585,7 +7585,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6173901</v>
+        <v>6173904</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,58 +7674,58 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>52</v>
       </c>
       <c r="K81">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
+        <v>3.3</v>
+      </c>
+      <c r="P81">
         <v>3.4</v>
       </c>
-      <c r="P81">
-        <v>2.05</v>
-      </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7734,16 +7734,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>45164.25</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8567,7 +8567,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8745,7 +8745,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -9101,7 +9101,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9810,7 +9810,7 @@
         <v>45185.25</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6173932</v>
+        <v>6173933</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,13 +9988,13 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10003,43 +10003,43 @@
         <v>52</v>
       </c>
       <c r="K107">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L107">
+        <v>3.2</v>
+      </c>
+      <c r="M107">
+        <v>2.375</v>
+      </c>
+      <c r="N107">
         <v>3.4</v>
       </c>
-      <c r="M107">
-        <v>3.4</v>
-      </c>
-      <c r="N107">
-        <v>2.05</v>
-      </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P107">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="V107">
-        <v>1.9</v>
-      </c>
       <c r="W107">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10048,7 +10048,7 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -10057,7 +10057,7 @@
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6173933</v>
+        <v>6173932</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,13 +10077,13 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10092,43 +10092,43 @@
         <v>52</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
+        <v>2.05</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
         <v>3.4</v>
       </c>
-      <c r="O108">
-        <v>2.875</v>
-      </c>
-      <c r="P108">
-        <v>2.45</v>
-      </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
         <v>1.9</v>
       </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
       <c r="W108">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10137,7 +10137,7 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA108">
         <v>-1</v>
@@ -10146,7 +10146,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10255,7 +10255,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6173942</v>
+        <v>6173935</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,49 +10700,49 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N115">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U115">
         <v>2</v>
@@ -10751,25 +10751,25 @@
         <v>1.85</v>
       </c>
       <c r="W115">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6173935</v>
+        <v>6173942</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,49 +10789,49 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K116">
+        <v>2.1</v>
+      </c>
+      <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>3.3</v>
+      </c>
+      <c r="N116">
         <v>2.4</v>
       </c>
-      <c r="L116">
-        <v>3.1</v>
-      </c>
-      <c r="M116">
-        <v>3.1</v>
-      </c>
-      <c r="N116">
-        <v>2.375</v>
-      </c>
       <c r="O116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
         <v>2</v>
@@ -10840,25 +10840,25 @@
         <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB116">
-        <v>1</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10878,7 +10878,7 @@
         <v>45193.125</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -11056,7 +11056,7 @@
         <v>45193.20833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11504,7 +11504,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6173948</v>
+        <v>6173950</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,58 +11679,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11739,13 +11739,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6173950</v>
+        <v>6173948</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,58 +11768,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>52</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
         <v>3.6</v>
       </c>
-      <c r="M127">
-        <v>2.75</v>
-      </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,13 +11828,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11860,7 +11860,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173958</v>
+        <v>6173957</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N132">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O132">
         <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173957</v>
+        <v>6173953</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K133">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
         <v>0</v>
       </c>
       <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
+      <c r="T133">
+        <v>3.75</v>
+      </c>
+      <c r="U133">
         <v>1.9</v>
       </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>2.05</v>
-      </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173953</v>
+        <v>6173958</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,13 +12480,13 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12495,43 +12495,43 @@
         <v>52</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12540,13 +12540,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6472890</v>
+        <v>6473046</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6473046</v>
+        <v>6473051</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
         <v>1.85</v>
       </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.825</v>
-      </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6473051</v>
+        <v>6472890</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>2.3</v>
+      </c>
+      <c r="N143">
         <v>3.1</v>
       </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
-      <c r="N143">
-        <v>2.8</v>
-      </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
         <v>1.85</v>
       </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6480216</v>
+        <v>6482813</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45241.125</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L150">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N150">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13904,7 +13904,7 @@
         <v>45241.125</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6482813</v>
+        <v>6480216</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45241.125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152">
+        <v>2.15</v>
+      </c>
+      <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>3.6</v>
+      </c>
+      <c r="N152">
+        <v>2.55</v>
+      </c>
+      <c r="O152">
         <v>3</v>
       </c>
-      <c r="J152" t="s">
-        <v>50</v>
-      </c>
-      <c r="K152">
+      <c r="P152">
+        <v>3</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>1.775</v>
+      </c>
+      <c r="S152">
         <v>2.1</v>
       </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>3.3</v>
-      </c>
-      <c r="N152">
-        <v>3.1</v>
-      </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
-      <c r="P152">
-        <v>2.25</v>
-      </c>
-      <c r="Q152">
-        <v>0.25</v>
-      </c>
-      <c r="R152">
-        <v>1.875</v>
-      </c>
-      <c r="S152">
-        <v>1.975</v>
-      </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14352,7 +14352,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6504986</v>
+        <v>6504897</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M158">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N158">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q158">
+        <v>-1</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>2.025</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.925</v>
+      </c>
+      <c r="V158">
+        <v>1.925</v>
+      </c>
+      <c r="W158">
+        <v>0.5</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.825</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>0.4625</v>
+      </c>
+      <c r="AC158">
         <v>-0.5</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.95</v>
-      </c>
-      <c r="T158">
-        <v>1.75</v>
-      </c>
-      <c r="U158">
-        <v>1.75</v>
-      </c>
-      <c r="V158">
-        <v>2.05</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>3.75</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
-      <c r="AA158">
-        <v>0.95</v>
-      </c>
-      <c r="AB158">
-        <v>0.75</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504897</v>
+        <v>6504986</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,76 +14616,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
       <c r="J159" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K159">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="L159">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O159">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6501277</v>
+        <v>6504894</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,73 +14705,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K160">
+        <v>2.6</v>
+      </c>
+      <c r="L160">
+        <v>3.5</v>
+      </c>
+      <c r="M160">
+        <v>2.6</v>
+      </c>
+      <c r="N160">
+        <v>2.75</v>
+      </c>
+      <c r="O160">
+        <v>4</v>
+      </c>
+      <c r="P160">
+        <v>2.15</v>
+      </c>
+      <c r="Q160">
+        <v>0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.85</v>
+      </c>
+      <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>1.9</v>
+      </c>
+      <c r="V160">
         <v>1.95</v>
       </c>
-      <c r="L160">
-        <v>3.4</v>
-      </c>
-      <c r="M160">
-        <v>4</v>
-      </c>
-      <c r="N160">
-        <v>1.75</v>
-      </c>
-      <c r="O160">
-        <v>3.75</v>
-      </c>
-      <c r="P160">
-        <v>4.5</v>
-      </c>
-      <c r="Q160">
-        <v>-0.75</v>
-      </c>
-      <c r="R160">
-        <v>2.025</v>
-      </c>
-      <c r="S160">
-        <v>1.825</v>
-      </c>
-      <c r="T160">
-        <v>2.5</v>
-      </c>
-      <c r="U160">
-        <v>2.05</v>
-      </c>
-      <c r="V160">
-        <v>1.8</v>
-      </c>
       <c r="W160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z160">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6501896</v>
+        <v>6501277</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,76 +14794,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K161">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6504894</v>
+        <v>6501896</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,40 +14883,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>50</v>
       </c>
       <c r="K162">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>1.85</v>
@@ -14925,13 +14925,13 @@
         <v>2</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14940,7 +14940,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -14949,10 +14949,10 @@
         <v>1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527910</v>
+        <v>6527777</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,10 +15150,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15165,40 +15165,40 @@
         <v>50</v>
       </c>
       <c r="K165">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N165">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
         <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15207,19 +15207,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527773</v>
+        <v>6527615</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K166">
+        <v>1.6</v>
+      </c>
+      <c r="L166">
+        <v>4.1</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>1.833</v>
+      </c>
+      <c r="O166">
         <v>3.75</v>
       </c>
-      <c r="L166">
-        <v>3.8</v>
-      </c>
-      <c r="M166">
+      <c r="P166">
+        <v>4.333</v>
+      </c>
+      <c r="Q166">
+        <v>-0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
+        <v>2.05</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
         <v>1.85</v>
       </c>
-      <c r="N166">
-        <v>3.6</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
-      <c r="P166">
-        <v>1.85</v>
-      </c>
-      <c r="Q166">
-        <v>0.5</v>
-      </c>
-      <c r="R166">
-        <v>1.975</v>
-      </c>
-      <c r="S166">
-        <v>1.875</v>
-      </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>1.825</v>
-      </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.8</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z166">
-        <v>-1</v>
-      </c>
-      <c r="AA166">
-        <v>0.875</v>
-      </c>
-      <c r="AB166">
-        <v>-1</v>
-      </c>
       <c r="AC166">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6527615</v>
+        <v>6527617</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="L167">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z167">
+        <v>-0.5</v>
+      </c>
+      <c r="AA167">
+        <v>0.4125</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
         <v>0.8</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
-      <c r="AB167">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC167">
-        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527617</v>
+        <v>6527910</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,10 +15417,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15432,40 +15432,40 @@
         <v>50</v>
       </c>
       <c r="K168">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L168">
         <v>3.6</v>
       </c>
       <c r="M168">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="N168">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R168">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15474,19 +15474,19 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527777</v>
+        <v>6527773</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,10 +15506,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15521,34 +15521,34 @@
         <v>50</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M169">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U169">
         <v>1.825</v>
@@ -15563,13 +15563,13 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -16043,7 +16043,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,55 +16841,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="L184">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M184">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q184">
         <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2.05</v>
-      </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16898,19 +16898,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,55 +16930,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="L185">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M185">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="N185">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q185">
         <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
         <v>2.05</v>
       </c>
-      <c r="S185">
-        <v>1.8</v>
-      </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16987,19 +16987,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17375,7 +17375,7 @@
         <v>45353.125</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
         <v>40</v>
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624510</v>
+        <v>7624509</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,10 +17464,10 @@
         <v>45353.125</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17479,25 +17479,25 @@
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="N191">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O191">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
         <v>2.025</v>
@@ -17506,34 +17506,34 @@
         <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
+        <v>2.025</v>
+      </c>
+      <c r="V191">
         <v>1.825</v>
       </c>
-      <c r="V191">
-        <v>2.025</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC191">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7624509</v>
+        <v>7624510</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,10 +17553,10 @@
         <v>45353.125</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17568,25 +17568,25 @@
         <v>51</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="N192">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
         <v>2.025</v>
@@ -17595,34 +17595,34 @@
         <v>1.825</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
+        <v>1.825</v>
+      </c>
+      <c r="V192">
         <v>2.025</v>
       </c>
-      <c r="V192">
-        <v>1.825</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA192">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17734,7 +17734,7 @@
         <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744608</v>
+        <v>7744607</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,40 +18799,40 @@
         <v>45367.125</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N206">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O206">
         <v>3.3</v>
       </c>
       <c r="P206">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18844,31 +18844,31 @@
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC206">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744607</v>
+        <v>7744608</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,40 +18888,40 @@
         <v>45367.125</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="L207">
+        <v>3.25</v>
+      </c>
+      <c r="M207">
         <v>2.1</v>
       </c>
-      <c r="L207">
-        <v>3.1</v>
-      </c>
-      <c r="M207">
-        <v>3.2</v>
-      </c>
       <c r="N207">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O207">
         <v>3.3</v>
       </c>
       <c r="P207">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
         <v>2</v>
@@ -18933,31 +18933,31 @@
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W207">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19244,7 +19244,7 @@
         <v>45368.125</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
         <v>43</v>
@@ -19514,7 +19514,7 @@
         <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K214">
         <v>1.571</v>
@@ -19532,25 +19532,25 @@
         <v>4</v>
       </c>
       <c r="P214">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
         <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7744615</v>
+        <v>7744616</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,46 +19585,46 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M215">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19647,7 +19647,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7744616</v>
+        <v>7744615</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19659,46 +19659,46 @@
         <v>45381.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K216">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L216">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="N216">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19721,7 +19721,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7744617</v>
+        <v>7744620</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19733,46 +19733,46 @@
         <v>45381.125</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K217">
-        <v>1.475</v>
+        <v>1.833</v>
       </c>
       <c r="L217">
+        <v>3.5</v>
+      </c>
+      <c r="M217">
+        <v>4</v>
+      </c>
+      <c r="N217">
+        <v>1.85</v>
+      </c>
+      <c r="O217">
+        <v>3.5</v>
+      </c>
+      <c r="P217">
         <v>4.2</v>
       </c>
-      <c r="M217">
-        <v>6</v>
-      </c>
-      <c r="N217">
-        <v>1.75</v>
-      </c>
-      <c r="O217">
-        <v>4</v>
-      </c>
-      <c r="P217">
-        <v>4.5</v>
-      </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19795,7 +19795,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7744620</v>
+        <v>7744619</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19807,46 +19807,46 @@
         <v>45381.125</v>
       </c>
       <c r="F218" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G218" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K218">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L218">
         <v>3.5</v>
       </c>
       <c r="M218">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="N218">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P218">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19869,7 +19869,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7744619</v>
+        <v>7744618</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19881,31 +19881,31 @@
         <v>45381.125</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K219">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M219">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
         <v>1.925</v>
@@ -19914,13 +19914,13 @@
         <v>1.925</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19943,7 +19943,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7744618</v>
+        <v>7744617</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19955,46 +19955,46 @@
         <v>45381.125</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>1.833</v>
+        <v>1.475</v>
       </c>
       <c r="L220">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M220">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="N220">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P220">
         <v>4.5</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20044,22 +20044,22 @@
         <v>3.75</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O221">
         <v>3.4</v>
       </c>
       <c r="P221">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q221">
         <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20130,19 +20130,19 @@
         <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Albirex Niigata</t>
   </si>
   <si>
-    <t>Kashima Antlers</t>
+    <t>Gamba Osaka</t>
   </si>
   <si>
-    <t>Gamba Osaka</t>
+    <t>Kashima Antlers</t>
   </si>
   <si>
     <t>Kawasaki Frontale</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC222"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6173844</v>
+        <v>6173845</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,37 +1803,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
         <v>2.025</v>
@@ -1845,13 +1845,13 @@
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1860,16 +1860,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6173845</v>
+        <v>6173844</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,37 +1892,37 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
         <v>2.025</v>
@@ -1934,13 +1934,13 @@
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1949,16 +1949,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
         <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173851</v>
+        <v>6173849</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
+        <v>2.5</v>
+      </c>
+      <c r="L22">
+        <v>3.2</v>
+      </c>
+      <c r="M22">
+        <v>2.8</v>
+      </c>
+      <c r="N22">
         <v>2.3</v>
-      </c>
-      <c r="L22">
-        <v>3.3</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>2.15</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6173849</v>
+        <v>6173851</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,76 +2601,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
         <v>3.5</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>45108.25</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3405,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6173862</v>
+        <v>6173863</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,76 +3491,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L34">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M34">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N34">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3568,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173861</v>
+        <v>6173862</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3580,76 +3580,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L35">
+        <v>3.8</v>
+      </c>
+      <c r="M35">
         <v>3.3</v>
       </c>
-      <c r="M35">
-        <v>3.6</v>
-      </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6173863</v>
+        <v>6173861</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3669,76 +3669,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K36">
+        <v>2.1</v>
+      </c>
+      <c r="L36">
         <v>3.3</v>
       </c>
-      <c r="L36">
-        <v>3.1</v>
-      </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4028,7 +4028,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173877</v>
+        <v>6173878</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="L50">
         <v>3.5</v>
       </c>
       <c r="M50">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173879</v>
+        <v>6173877</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
         <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173878</v>
+        <v>6173876</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,73 +5093,73 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O52">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P52">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173876</v>
+        <v>6173879</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,49 +5182,49 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K53">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
         <v>2.05</v>
@@ -5233,19 +5233,19 @@
         <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>1.05</v>
@@ -5716,7 +5716,7 @@
         <v>45144.25</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6173888</v>
+        <v>6173887</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,10 +5894,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>50</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L61">
         <v>3.3</v>
@@ -5918,32 +5918,32 @@
         <v>3.4</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.9</v>
+      </c>
+      <c r="V61">
         <v>1.95</v>
       </c>
-      <c r="V61">
-        <v>1.9</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
@@ -5951,19 +5951,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173887</v>
+        <v>6173888</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,10 +5983,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>50</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>3.3</v>
@@ -6007,32 +6007,32 @@
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
         <v>1.9</v>
       </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6040,19 +6040,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6173886</v>
+        <v>6174608</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,76 +6072,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>51</v>
+      </c>
+      <c r="K63">
+        <v>2.25</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>2.875</v>
+      </c>
+      <c r="N63">
+        <v>2.55</v>
+      </c>
+      <c r="O63">
+        <v>3.6</v>
+      </c>
+      <c r="P63">
+        <v>2.55</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>4</v>
-      </c>
-      <c r="J63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63">
-        <v>1.75</v>
-      </c>
-      <c r="L63">
-        <v>3.5</v>
-      </c>
-      <c r="M63">
-        <v>4.2</v>
-      </c>
-      <c r="N63">
-        <v>1.615</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63">
-        <v>5.25</v>
-      </c>
-      <c r="Q63">
-        <v>-1</v>
-      </c>
-      <c r="R63">
-        <v>2.05</v>
-      </c>
-      <c r="S63">
-        <v>1.8</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>2.025</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y63">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>1.025</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6174608</v>
+        <v>6173886</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6250,76 +6250,76 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
+        <v>2.025</v>
+      </c>
+      <c r="V65">
         <v>1.825</v>
       </c>
-      <c r="V65">
-        <v>2.025</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6173894</v>
+        <v>6174609</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,76 +6517,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O68">
         <v>3.4</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
+        <v>2.2</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>0.825</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>0.95</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
-      <c r="Z68">
-        <v>0.925</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
-      <c r="AB68">
-        <v>-0.5</v>
-      </c>
-      <c r="AC68">
-        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6174609</v>
+        <v>6173894</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O69">
         <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6876,7 +6876,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7054,7 +7054,7 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>45157.25</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7395,7 +7395,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6173903</v>
+        <v>6173904</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7407,40 +7407,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N78">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
+        <v>3.3</v>
+      </c>
+      <c r="P78">
         <v>3.4</v>
       </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7458,25 +7458,25 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X78">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6173901</v>
+        <v>6173903</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7496,76 +7496,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K79">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O79">
         <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7585,7 +7585,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6173904</v>
+        <v>6173901</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,59 +7674,59 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>52</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L81">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N81">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
+        <v>2.75</v>
+      </c>
+      <c r="U81">
+        <v>1.925</v>
+      </c>
+      <c r="V81">
+        <v>1.925</v>
+      </c>
+      <c r="W81">
         <v>2.5</v>
       </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.875</v>
-      </c>
-      <c r="W81">
-        <v>1.2</v>
-      </c>
       <c r="X81">
         <v>-1</v>
       </c>
@@ -7734,16 +7734,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>45164.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8567,7 +8567,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8745,7 +8745,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -9101,7 +9101,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6173918</v>
+        <v>6173923</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,73 +9365,73 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6173923</v>
+        <v>6173918</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,73 +9454,73 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9810,7 +9810,7 @@
         <v>45185.25</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6173933</v>
+        <v>6173932</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,13 +9988,13 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10003,43 +10003,43 @@
         <v>52</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N107">
+        <v>2.05</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
         <v>3.4</v>
       </c>
-      <c r="O107">
-        <v>2.875</v>
-      </c>
-      <c r="P107">
-        <v>2.45</v>
-      </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.9</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10048,7 +10048,7 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -10057,7 +10057,7 @@
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6173932</v>
+        <v>6173933</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,13 +10077,13 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10092,43 +10092,43 @@
         <v>52</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>2.375</v>
+      </c>
+      <c r="N108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>3.4</v>
-      </c>
-      <c r="N108">
-        <v>2.05</v>
-      </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P108">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
         <v>1.95</v>
       </c>
-      <c r="V108">
-        <v>1.9</v>
-      </c>
       <c r="W108">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10137,7 +10137,7 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
         <v>-1</v>
@@ -10146,7 +10146,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10255,7 +10255,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10878,7 +10878,7 @@
         <v>45193.125</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -11056,7 +11056,7 @@
         <v>45193.20833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11504,7 +11504,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6173950</v>
+        <v>6173948</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,58 +11679,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
         <v>3.6</v>
       </c>
-      <c r="M126">
-        <v>2.75</v>
-      </c>
       <c r="N126">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11739,13 +11739,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6173948</v>
+        <v>6173950</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,58 +11768,58 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>52</v>
       </c>
       <c r="K127">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N127">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
         <v>1.85</v>
       </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,13 +11828,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11860,7 +11860,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173957</v>
+        <v>6173958</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s">
         <v>42</v>
       </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K132">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O132">
         <v>3.1</v>
       </c>
       <c r="P132">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173953</v>
+        <v>6173957</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N133">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q133">
         <v>0</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.9</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
       <c r="T133">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173958</v>
+        <v>6173953</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,13 +12480,13 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12495,43 +12495,43 @@
         <v>52</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12540,13 +12540,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6473046</v>
+        <v>6472890</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.85</v>
       </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.825</v>
-      </c>
-      <c r="V141">
-        <v>2.025</v>
-      </c>
       <c r="W141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6473051</v>
+        <v>6473046</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
         <v>41</v>
       </c>
-      <c r="G142" t="s">
-        <v>36</v>
-      </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N142">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X142">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6472890</v>
+        <v>6473051</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K143">
+        <v>2.4</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
         <v>3</v>
       </c>
-      <c r="L143">
-        <v>3.4</v>
-      </c>
-      <c r="M143">
-        <v>2.3</v>
-      </c>
       <c r="N143">
+        <v>2.8</v>
+      </c>
+      <c r="O143">
         <v>3.1</v>
       </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
       <c r="P143">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.85</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y143">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6490061</v>
+        <v>6480215</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K147">
         <v>3</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N147">
+        <v>3.8</v>
+      </c>
+      <c r="O147">
+        <v>3.8</v>
+      </c>
+      <c r="P147">
+        <v>1.909</v>
+      </c>
+      <c r="Q147">
+        <v>0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.8</v>
       </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
-      <c r="P147">
-        <v>2.55</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>1.85</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
-      <c r="W147">
-        <v>1.8</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6480215</v>
+        <v>6480222</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13652,25 +13652,25 @@
         <v>51</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
+        <v>3.1</v>
+      </c>
+      <c r="N148">
         <v>2.25</v>
       </c>
-      <c r="N148">
-        <v>3.8</v>
-      </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
         <v>1.975</v>
@@ -13679,34 +13679,34 @@
         <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6480222</v>
+        <v>6490061</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <v>3.4</v>
       </c>
       <c r="M149">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N149">
+        <v>2.8</v>
+      </c>
+      <c r="O149">
+        <v>3.3</v>
+      </c>
+      <c r="P149">
+        <v>2.55</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
         <v>2.25</v>
       </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>3.2</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.975</v>
-      </c>
-      <c r="S149">
-        <v>1.875</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X149">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13904,7 +13904,7 @@
         <v>45241.125</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13993,7 +13993,7 @@
         <v>45241.125</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>34</v>
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6480221</v>
+        <v>6480217</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,40 +14082,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.9</v>
@@ -14124,34 +14124,34 @@
         <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6480217</v>
+        <v>6480221</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,40 +14171,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
         <v>1.9</v>
@@ -14213,34 +14213,34 @@
         <v>1.95</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N156">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6504897</v>
+        <v>6504986</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N158">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W158">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504986</v>
+        <v>6504897</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,76 +14616,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K159">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M159">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q159">
+        <v>-1</v>
+      </c>
+      <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
+        <v>2.025</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>1.925</v>
+      </c>
+      <c r="V159">
+        <v>1.925</v>
+      </c>
+      <c r="W159">
+        <v>0.5</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>-1</v>
+      </c>
+      <c r="Z159">
+        <v>0.825</v>
+      </c>
+      <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>0.4625</v>
+      </c>
+      <c r="AC159">
         <v>-0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.9</v>
-      </c>
-      <c r="S159">
-        <v>1.95</v>
-      </c>
-      <c r="T159">
-        <v>1.75</v>
-      </c>
-      <c r="U159">
-        <v>1.75</v>
-      </c>
-      <c r="V159">
-        <v>2.05</v>
-      </c>
-      <c r="W159">
-        <v>-1</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>3.75</v>
-      </c>
-      <c r="Z159">
-        <v>-1</v>
-      </c>
-      <c r="AA159">
-        <v>0.95</v>
-      </c>
-      <c r="AB159">
-        <v>0.75</v>
-      </c>
-      <c r="AC159">
-        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6504894</v>
+        <v>6501277</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,73 +14705,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6501277</v>
+        <v>6501896</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,76 +14794,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L161">
+        <v>3.5</v>
+      </c>
+      <c r="M161">
+        <v>2.625</v>
+      </c>
+      <c r="N161">
+        <v>2.5</v>
+      </c>
+      <c r="O161">
         <v>3.4</v>
       </c>
-      <c r="M161">
-        <v>4</v>
-      </c>
-      <c r="N161">
-        <v>1.75</v>
-      </c>
-      <c r="O161">
-        <v>3.75</v>
-      </c>
       <c r="P161">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
+        <v>1.825</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>1.8</v>
       </c>
-      <c r="W161">
-        <v>0.75</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
       <c r="Z161">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6501896</v>
+        <v>6504894</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,40 +14883,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
         <v>50</v>
       </c>
       <c r="K162">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
         <v>1.85</v>
@@ -14925,13 +14925,13 @@
         <v>2</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14940,7 +14940,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -14949,10 +14949,10 @@
         <v>1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -15417,7 +15417,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
@@ -16043,7 +16043,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624512</v>
+        <v>7624510</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,67 +17375,67 @@
         <v>45353.125</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="N190">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P190">
+        <v>1.8</v>
+      </c>
+      <c r="Q190">
+        <v>0.5</v>
+      </c>
+      <c r="R190">
+        <v>2.025</v>
+      </c>
+      <c r="S190">
+        <v>1.825</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
+        <v>2.025</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
         <v>2.75</v>
       </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>1.875</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>2.05</v>
-      </c>
-      <c r="V190">
-        <v>1.8</v>
-      </c>
-      <c r="W190">
-        <v>1.625</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -17444,7 +17444,7 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17464,7 +17464,7 @@
         <v>45353.125</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
         <v>38</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7624510</v>
+        <v>7624512</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,67 +17553,67 @@
         <v>45353.125</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K192">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="N192">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O192">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P192">
+        <v>2.75</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>1.875</v>
+      </c>
+      <c r="S192">
+        <v>1.975</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>2.05</v>
+      </c>
+      <c r="V192">
         <v>1.8</v>
       </c>
-      <c r="Q192">
-        <v>0.5</v>
-      </c>
-      <c r="R192">
-        <v>2.025</v>
-      </c>
-      <c r="S192">
-        <v>1.825</v>
-      </c>
-      <c r="T192">
-        <v>2.5</v>
-      </c>
-      <c r="U192">
-        <v>1.825</v>
-      </c>
-      <c r="V192">
-        <v>2.025</v>
-      </c>
       <c r="W192">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X192">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA192">
         <v>-1</v>
@@ -17622,7 +17622,7 @@
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17719,7 +17719,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7744594</v>
+        <v>7744596</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17731,10 +17731,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17746,43 +17746,43 @@
         <v>52</v>
       </c>
       <c r="K194">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L194">
         <v>3.2</v>
       </c>
       <c r="M194">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17791,7 +17791,7 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA194">
         <v>-1</v>
@@ -17800,7 +17800,7 @@
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7744596</v>
+        <v>7744594</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,10 +17820,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17835,43 +17835,43 @@
         <v>52</v>
       </c>
       <c r="K195">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L195">
         <v>3.2</v>
       </c>
       <c r="M195">
+        <v>2.15</v>
+      </c>
+      <c r="N195">
         <v>2.8</v>
       </c>
-      <c r="N195">
-        <v>2.375</v>
-      </c>
       <c r="O195">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R195">
+        <v>1.95</v>
+      </c>
+      <c r="S195">
+        <v>1.9</v>
+      </c>
+      <c r="T195">
+        <v>2</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
         <v>2.025</v>
       </c>
-      <c r="S195">
-        <v>1.825</v>
-      </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.925</v>
-      </c>
-      <c r="V195">
-        <v>1.925</v>
-      </c>
       <c r="W195">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17880,16 +17880,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>0.95</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>1.025</v>
-      </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
-      <c r="AC195">
-        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744607</v>
+        <v>7744608</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,40 +18799,40 @@
         <v>45367.125</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>3.25</v>
+      </c>
+      <c r="M206">
         <v>2.1</v>
       </c>
-      <c r="L206">
-        <v>3.1</v>
-      </c>
-      <c r="M206">
-        <v>3.2</v>
-      </c>
       <c r="N206">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O206">
         <v>3.3</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18844,31 +18844,31 @@
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744608</v>
+        <v>7744607</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,40 +18888,40 @@
         <v>45367.125</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M207">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O207">
         <v>3.3</v>
       </c>
       <c r="P207">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
         <v>2</v>
@@ -18933,31 +18933,31 @@
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19244,7 +19244,7 @@
         <v>45368.125</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
         <v>43</v>
@@ -19492,672 +19492,6 @@
       </c>
       <c r="AC213">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>7744614</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45381.04166666666</v>
-      </c>
-      <c r="F214" t="s">
-        <v>35</v>
-      </c>
-      <c r="G214" t="s">
-        <v>42</v>
-      </c>
-      <c r="K214">
-        <v>1.571</v>
-      </c>
-      <c r="L214">
-        <v>3.75</v>
-      </c>
-      <c r="M214">
-        <v>5.5</v>
-      </c>
-      <c r="N214">
-        <v>1.5</v>
-      </c>
-      <c r="O214">
-        <v>4</v>
-      </c>
-      <c r="P214">
-        <v>7.5</v>
-      </c>
-      <c r="Q214">
-        <v>-1</v>
-      </c>
-      <c r="R214">
-        <v>1.8</v>
-      </c>
-      <c r="S214">
-        <v>2.05</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>7744616</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45381.08333333334</v>
-      </c>
-      <c r="F215" t="s">
-        <v>46</v>
-      </c>
-      <c r="G215" t="s">
-        <v>44</v>
-      </c>
-      <c r="K215">
-        <v>1.615</v>
-      </c>
-      <c r="L215">
-        <v>3.9</v>
-      </c>
-      <c r="M215">
-        <v>4.8</v>
-      </c>
-      <c r="N215">
-        <v>1.615</v>
-      </c>
-      <c r="O215">
-        <v>4.2</v>
-      </c>
-      <c r="P215">
-        <v>5</v>
-      </c>
-      <c r="Q215">
-        <v>-0.75</v>
-      </c>
-      <c r="R215">
-        <v>1.8</v>
-      </c>
-      <c r="S215">
-        <v>2.05</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>2.025</v>
-      </c>
-      <c r="V215">
-        <v>1.825</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>7744615</v>
-      </c>
-      <c r="C216" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45381.08333333334</v>
-      </c>
-      <c r="F216" t="s">
-        <v>40</v>
-      </c>
-      <c r="G216" t="s">
-        <v>34</v>
-      </c>
-      <c r="K216">
-        <v>2.15</v>
-      </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>3.25</v>
-      </c>
-      <c r="N216">
-        <v>2.4</v>
-      </c>
-      <c r="O216">
-        <v>3.2</v>
-      </c>
-      <c r="P216">
-        <v>3.1</v>
-      </c>
-      <c r="Q216">
-        <v>-0.25</v>
-      </c>
-      <c r="R216">
-        <v>2.1</v>
-      </c>
-      <c r="S216">
-        <v>1.775</v>
-      </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
-      <c r="U216">
-        <v>1.875</v>
-      </c>
-      <c r="V216">
-        <v>1.975</v>
-      </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>7744620</v>
-      </c>
-      <c r="C217" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" t="s">
-        <v>28</v>
-      </c>
-      <c r="E217" s="2">
-        <v>45381.125</v>
-      </c>
-      <c r="F217" t="s">
-        <v>43</v>
-      </c>
-      <c r="G217" t="s">
-        <v>29</v>
-      </c>
-      <c r="K217">
-        <v>1.833</v>
-      </c>
-      <c r="L217">
-        <v>3.5</v>
-      </c>
-      <c r="M217">
-        <v>4</v>
-      </c>
-      <c r="N217">
-        <v>1.85</v>
-      </c>
-      <c r="O217">
-        <v>3.5</v>
-      </c>
-      <c r="P217">
-        <v>4.2</v>
-      </c>
-      <c r="Q217">
-        <v>-0.5</v>
-      </c>
-      <c r="R217">
-        <v>1.875</v>
-      </c>
-      <c r="S217">
-        <v>1.975</v>
-      </c>
-      <c r="T217">
-        <v>2.75</v>
-      </c>
-      <c r="U217">
-        <v>1.925</v>
-      </c>
-      <c r="V217">
-        <v>1.925</v>
-      </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>7744619</v>
-      </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45381.125</v>
-      </c>
-      <c r="F218" t="s">
-        <v>48</v>
-      </c>
-      <c r="G218" t="s">
-        <v>39</v>
-      </c>
-      <c r="K218">
-        <v>1.8</v>
-      </c>
-      <c r="L218">
-        <v>3.5</v>
-      </c>
-      <c r="M218">
-        <v>4.1</v>
-      </c>
-      <c r="N218">
-        <v>1.7</v>
-      </c>
-      <c r="O218">
-        <v>3.75</v>
-      </c>
-      <c r="P218">
-        <v>5.25</v>
-      </c>
-      <c r="Q218">
-        <v>-0.75</v>
-      </c>
-      <c r="R218">
-        <v>1.925</v>
-      </c>
-      <c r="S218">
-        <v>1.925</v>
-      </c>
-      <c r="T218">
-        <v>2.25</v>
-      </c>
-      <c r="U218">
-        <v>1.8</v>
-      </c>
-      <c r="V218">
-        <v>2.05</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>7744618</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45381.125</v>
-      </c>
-      <c r="F219" t="s">
-        <v>36</v>
-      </c>
-      <c r="G219" t="s">
-        <v>32</v>
-      </c>
-      <c r="K219">
-        <v>1.833</v>
-      </c>
-      <c r="L219">
-        <v>3.3</v>
-      </c>
-      <c r="M219">
-        <v>4.25</v>
-      </c>
-      <c r="N219">
-        <v>1.95</v>
-      </c>
-      <c r="O219">
-        <v>3.2</v>
-      </c>
-      <c r="P219">
-        <v>4.5</v>
-      </c>
-      <c r="Q219">
-        <v>-0.5</v>
-      </c>
-      <c r="R219">
-        <v>1.925</v>
-      </c>
-      <c r="S219">
-        <v>1.925</v>
-      </c>
-      <c r="T219">
-        <v>2</v>
-      </c>
-      <c r="U219">
-        <v>1.925</v>
-      </c>
-      <c r="V219">
-        <v>1.925</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7744617</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45381.125</v>
-      </c>
-      <c r="F220" t="s">
-        <v>41</v>
-      </c>
-      <c r="G220" t="s">
-        <v>47</v>
-      </c>
-      <c r="K220">
-        <v>1.475</v>
-      </c>
-      <c r="L220">
-        <v>4.2</v>
-      </c>
-      <c r="M220">
-        <v>6</v>
-      </c>
-      <c r="N220">
-        <v>1.75</v>
-      </c>
-      <c r="O220">
-        <v>4</v>
-      </c>
-      <c r="P220">
-        <v>4.5</v>
-      </c>
-      <c r="Q220">
-        <v>-0.75</v>
-      </c>
-      <c r="R220">
-        <v>2.025</v>
-      </c>
-      <c r="S220">
-        <v>1.825</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>2.025</v>
-      </c>
-      <c r="V220">
-        <v>1.825</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>7744622</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45381.16666666666</v>
-      </c>
-      <c r="F221" t="s">
-        <v>38</v>
-      </c>
-      <c r="G221" t="s">
-        <v>30</v>
-      </c>
-      <c r="K221">
-        <v>1.909</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>3.75</v>
-      </c>
-      <c r="N221">
-        <v>1.95</v>
-      </c>
-      <c r="O221">
-        <v>3.4</v>
-      </c>
-      <c r="P221">
-        <v>4.2</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.95</v>
-      </c>
-      <c r="S221">
-        <v>1.9</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.975</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>7744621</v>
-      </c>
-      <c r="C222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" t="s">
-        <v>28</v>
-      </c>
-      <c r="E222" s="2">
-        <v>45381.16666666666</v>
-      </c>
-      <c r="F222" t="s">
-        <v>31</v>
-      </c>
-      <c r="G222" t="s">
-        <v>37</v>
-      </c>
-      <c r="K222">
-        <v>3</v>
-      </c>
-      <c r="L222">
-        <v>3.3</v>
-      </c>
-      <c r="M222">
-        <v>2.25</v>
-      </c>
-      <c r="N222">
-        <v>3.2</v>
-      </c>
-      <c r="O222">
-        <v>3.5</v>
-      </c>
-      <c r="P222">
-        <v>2.25</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
-      <c r="R222">
-        <v>1.875</v>
-      </c>
-      <c r="S222">
-        <v>1.975</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
-      <c r="U222">
-        <v>1.975</v>
-      </c>
-      <c r="V222">
-        <v>1.875</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
-      <c r="Z222">
-        <v>0</v>
-      </c>
-      <c r="AA222">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC232"/>
+  <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527615</v>
+        <v>6527777</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N165">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
+        <v>2.025</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
         <v>1.8</v>
       </c>
-      <c r="S165">
-        <v>2.05</v>
-      </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.85</v>
-      </c>
-      <c r="V165">
-        <v>2</v>
-      </c>
-      <c r="W165">
-        <v>0.833</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527617</v>
+        <v>6527782</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,55 +15239,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>2.75</v>
+      </c>
+      <c r="N166">
+        <v>2.8</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="M166">
-        <v>1.8</v>
-      </c>
-      <c r="N166">
-        <v>5.25</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
       <c r="P166">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="Q166">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15296,19 +15296,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.615</v>
+        <v>1.3</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6527773</v>
+        <v>6527616</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K167">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527616</v>
+        <v>6527617</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N168">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z168">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527777</v>
+        <v>6527615</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,76 +15506,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M169">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6527782</v>
+        <v>6527910</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,55 +15595,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>50</v>
       </c>
       <c r="K170">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N170">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
         <v>3.6</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15652,19 +15652,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6527910</v>
+        <v>6527773</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,10 +15684,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15699,40 +15699,40 @@
         <v>50</v>
       </c>
       <c r="K171">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L171">
+        <v>3.8</v>
+      </c>
+      <c r="M171">
+        <v>1.85</v>
+      </c>
+      <c r="N171">
         <v>3.6</v>
       </c>
-      <c r="M171">
-        <v>2.05</v>
-      </c>
-      <c r="N171">
-        <v>3.4</v>
-      </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q171">
         <v>0.5</v>
       </c>
       <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
         <v>1.875</v>
       </c>
-      <c r="S171">
-        <v>1.975</v>
-      </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15741,19 +15741,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7624504</v>
+        <v>7624503</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N177">
         <v>3</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7624503</v>
+        <v>7624504</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
+        <v>2.55</v>
+      </c>
+      <c r="L178">
         <v>3.2</v>
       </c>
-      <c r="L178">
-        <v>3.25</v>
-      </c>
       <c r="M178">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
         <v>3</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S178">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA178">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,55 +16841,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="L184">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M184">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q184">
         <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2.05</v>
-      </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16898,19 +16898,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,55 +16930,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="L185">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M185">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="N185">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q185">
         <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
         <v>2.05</v>
       </c>
-      <c r="S185">
-        <v>1.8</v>
-      </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16987,19 +16987,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17986,7 +17986,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7744598</v>
+        <v>7744599</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17998,76 +17998,76 @@
         <v>45360.125</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>51</v>
+      </c>
+      <c r="K197">
+        <v>2.25</v>
+      </c>
+      <c r="L197">
+        <v>3.1</v>
+      </c>
+      <c r="M197">
+        <v>3.4</v>
+      </c>
+      <c r="N197">
+        <v>2.6</v>
+      </c>
+      <c r="O197">
+        <v>3</v>
+      </c>
+      <c r="P197">
+        <v>3.1</v>
+      </c>
+      <c r="Q197">
         <v>0</v>
       </c>
-      <c r="J197" t="s">
-        <v>52</v>
-      </c>
-      <c r="K197">
-        <v>1.55</v>
-      </c>
-      <c r="L197">
-        <v>4</v>
-      </c>
-      <c r="M197">
-        <v>5.75</v>
-      </c>
-      <c r="N197">
-        <v>1.4</v>
-      </c>
-      <c r="O197">
-        <v>4.75</v>
-      </c>
-      <c r="P197">
-        <v>7</v>
-      </c>
-      <c r="Q197">
-        <v>-1.25</v>
-      </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W197">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18075,7 +18075,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7744599</v>
+        <v>7744598</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18087,76 +18087,76 @@
         <v>45360.125</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N198">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O198">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S198">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA198">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7744601</v>
+        <v>7744600</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,55 +18265,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>50</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L200">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -18322,19 +18322,19 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7744600</v>
+        <v>7744601</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,55 +18354,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>50</v>
       </c>
       <c r="K201">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M201">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18411,19 +18411,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744608</v>
+        <v>7744607</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,40 +18799,40 @@
         <v>45367.125</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N206">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O206">
         <v>3.3</v>
       </c>
       <c r="P206">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18844,31 +18844,31 @@
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC206">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744607</v>
+        <v>7744606</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,76 +18888,76 @@
         <v>45367.125</v>
       </c>
       <c r="F207" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K207">
+        <v>2.3</v>
+      </c>
+      <c r="L207">
+        <v>2.875</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
+      </c>
+      <c r="N207">
         <v>2.1</v>
       </c>
-      <c r="L207">
+      <c r="O207">
         <v>3.1</v>
       </c>
-      <c r="M207">
-        <v>3.2</v>
-      </c>
-      <c r="N207">
-        <v>2.25</v>
-      </c>
-      <c r="O207">
-        <v>3.3</v>
-      </c>
       <c r="P207">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7744606</v>
+        <v>7744608</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,10 +18977,10 @@
         <v>45367.125</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -18992,61 +18992,61 @@
         <v>50</v>
       </c>
       <c r="K208">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N208">
+        <v>3.5</v>
+      </c>
+      <c r="O208">
+        <v>3.3</v>
+      </c>
+      <c r="P208">
         <v>2.1</v>
       </c>
-      <c r="O208">
-        <v>3.1</v>
-      </c>
-      <c r="P208">
-        <v>4</v>
-      </c>
       <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>1.85</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.85</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>1.1</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB208">
         <v>-0.5</v>
       </c>
-      <c r="R208">
-        <v>2.1</v>
-      </c>
-      <c r="S208">
-        <v>1.775</v>
-      </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>2.05</v>
-      </c>
-      <c r="V208">
-        <v>1.8</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>3</v>
-      </c>
-      <c r="Z208">
-        <v>-1</v>
-      </c>
-      <c r="AA208">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB208">
-        <v>0</v>
-      </c>
       <c r="AC208">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -20293,746 +20293,6 @@
       </c>
       <c r="AC222">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>7744986</v>
-      </c>
-      <c r="C223" t="s">
-        <v>28</v>
-      </c>
-      <c r="D223" t="s">
-        <v>28</v>
-      </c>
-      <c r="E223" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F223" t="s">
-        <v>37</v>
-      </c>
-      <c r="G223" t="s">
-        <v>43</v>
-      </c>
-      <c r="K223">
-        <v>2.2</v>
-      </c>
-      <c r="L223">
-        <v>3.6</v>
-      </c>
-      <c r="M223">
-        <v>2.8</v>
-      </c>
-      <c r="N223">
-        <v>2.3</v>
-      </c>
-      <c r="O223">
-        <v>3.75</v>
-      </c>
-      <c r="P223">
-        <v>2.875</v>
-      </c>
-      <c r="Q223">
-        <v>-0.25</v>
-      </c>
-      <c r="R223">
-        <v>2.05</v>
-      </c>
-      <c r="S223">
-        <v>1.8</v>
-      </c>
-      <c r="T223">
-        <v>3</v>
-      </c>
-      <c r="U223">
-        <v>2</v>
-      </c>
-      <c r="V223">
-        <v>1.85</v>
-      </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <v>0</v>
-      </c>
-      <c r="Y223">
-        <v>0</v>
-      </c>
-      <c r="Z223">
-        <v>0</v>
-      </c>
-      <c r="AA223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
-        <v>7744629</v>
-      </c>
-      <c r="C224" t="s">
-        <v>28</v>
-      </c>
-      <c r="D224" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F224" t="s">
-        <v>38</v>
-      </c>
-      <c r="G224" t="s">
-        <v>46</v>
-      </c>
-      <c r="K224">
-        <v>4.333</v>
-      </c>
-      <c r="L224">
-        <v>3.75</v>
-      </c>
-      <c r="M224">
-        <v>1.666</v>
-      </c>
-      <c r="N224">
-        <v>5.5</v>
-      </c>
-      <c r="O224">
-        <v>3.8</v>
-      </c>
-      <c r="P224">
-        <v>1.666</v>
-      </c>
-      <c r="Q224">
-        <v>0.75</v>
-      </c>
-      <c r="R224">
-        <v>2.025</v>
-      </c>
-      <c r="S224">
-        <v>1.825</v>
-      </c>
-      <c r="T224">
-        <v>2.5</v>
-      </c>
-      <c r="U224">
-        <v>1.875</v>
-      </c>
-      <c r="V224">
-        <v>1.975</v>
-      </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
-      </c>
-      <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>7744627</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F225" t="s">
-        <v>42</v>
-      </c>
-      <c r="G225" t="s">
-        <v>45</v>
-      </c>
-      <c r="K225">
-        <v>2.1</v>
-      </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
-        <v>3.1</v>
-      </c>
-      <c r="N225">
-        <v>2.3</v>
-      </c>
-      <c r="O225">
-        <v>3.2</v>
-      </c>
-      <c r="P225">
-        <v>3.2</v>
-      </c>
-      <c r="Q225">
-        <v>-0.25</v>
-      </c>
-      <c r="R225">
-        <v>2</v>
-      </c>
-      <c r="S225">
-        <v>1.85</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.975</v>
-      </c>
-      <c r="V225">
-        <v>1.875</v>
-      </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
-        <v>7744628</v>
-      </c>
-      <c r="C226" t="s">
-        <v>28</v>
-      </c>
-      <c r="D226" t="s">
-        <v>28</v>
-      </c>
-      <c r="E226" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F226" t="s">
-        <v>32</v>
-      </c>
-      <c r="G226" t="s">
-        <v>41</v>
-      </c>
-      <c r="K226">
-        <v>3.1</v>
-      </c>
-      <c r="L226">
-        <v>3</v>
-      </c>
-      <c r="M226">
-        <v>2.4</v>
-      </c>
-      <c r="N226">
-        <v>3.1</v>
-      </c>
-      <c r="O226">
-        <v>3.1</v>
-      </c>
-      <c r="P226">
-        <v>2.5</v>
-      </c>
-      <c r="Q226">
-        <v>0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.775</v>
-      </c>
-      <c r="S226">
-        <v>2.1</v>
-      </c>
-      <c r="T226">
-        <v>2</v>
-      </c>
-      <c r="U226">
-        <v>2.025</v>
-      </c>
-      <c r="V226">
-        <v>1.825</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227">
-        <v>7744623</v>
-      </c>
-      <c r="C227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D227" t="s">
-        <v>28</v>
-      </c>
-      <c r="E227" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F227" t="s">
-        <v>34</v>
-      </c>
-      <c r="G227" t="s">
-        <v>39</v>
-      </c>
-      <c r="K227">
-        <v>2.375</v>
-      </c>
-      <c r="L227">
-        <v>3.2</v>
-      </c>
-      <c r="M227">
-        <v>2.9</v>
-      </c>
-      <c r="N227">
-        <v>2.45</v>
-      </c>
-      <c r="O227">
-        <v>3.25</v>
-      </c>
-      <c r="P227">
-        <v>3</v>
-      </c>
-      <c r="Q227">
-        <v>-0.25</v>
-      </c>
-      <c r="R227">
-        <v>2.05</v>
-      </c>
-      <c r="S227">
-        <v>1.8</v>
-      </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>2.025</v>
-      </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-      <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>7744624</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F228" t="s">
-        <v>48</v>
-      </c>
-      <c r="G228" t="s">
-        <v>35</v>
-      </c>
-      <c r="K228">
-        <v>2.6</v>
-      </c>
-      <c r="L228">
-        <v>3.25</v>
-      </c>
-      <c r="M228">
-        <v>2.625</v>
-      </c>
-      <c r="N228">
-        <v>3.1</v>
-      </c>
-      <c r="O228">
-        <v>3.25</v>
-      </c>
-      <c r="P228">
-        <v>2.3</v>
-      </c>
-      <c r="Q228">
-        <v>0.25</v>
-      </c>
-      <c r="R228">
-        <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
-      </c>
-      <c r="T228">
-        <v>2.25</v>
-      </c>
-      <c r="U228">
-        <v>2.025</v>
-      </c>
-      <c r="V228">
-        <v>1.825</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>7744625</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F229" t="s">
-        <v>30</v>
-      </c>
-      <c r="G229" t="s">
-        <v>49</v>
-      </c>
-      <c r="K229">
-        <v>2.25</v>
-      </c>
-      <c r="L229">
-        <v>3.25</v>
-      </c>
-      <c r="M229">
-        <v>3.1</v>
-      </c>
-      <c r="N229">
-        <v>2.4</v>
-      </c>
-      <c r="O229">
-        <v>3.1</v>
-      </c>
-      <c r="P229">
-        <v>3.25</v>
-      </c>
-      <c r="Q229">
-        <v>-0.25</v>
-      </c>
-      <c r="R229">
-        <v>2.05</v>
-      </c>
-      <c r="S229">
-        <v>1.8</v>
-      </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
-      <c r="V229">
-        <v>1.85</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230">
-        <v>7744626</v>
-      </c>
-      <c r="C230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" s="2">
-        <v>45385.29166666666</v>
-      </c>
-      <c r="F230" t="s">
-        <v>47</v>
-      </c>
-      <c r="G230" t="s">
-        <v>40</v>
-      </c>
-      <c r="K230">
-        <v>3.4</v>
-      </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
-      <c r="M230">
-        <v>2</v>
-      </c>
-      <c r="N230">
-        <v>3</v>
-      </c>
-      <c r="O230">
-        <v>3.25</v>
-      </c>
-      <c r="P230">
-        <v>2.45</v>
-      </c>
-      <c r="Q230">
-        <v>0.25</v>
-      </c>
-      <c r="R230">
-        <v>1.775</v>
-      </c>
-      <c r="S230">
-        <v>2.1</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
-        <v>1.875</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <v>0</v>
-      </c>
-      <c r="Y230">
-        <v>0</v>
-      </c>
-      <c r="Z230">
-        <v>0</v>
-      </c>
-      <c r="AA230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>7744630</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45385.3125</v>
-      </c>
-      <c r="F231" t="s">
-        <v>44</v>
-      </c>
-      <c r="G231" t="s">
-        <v>31</v>
-      </c>
-      <c r="K231">
-        <v>2.75</v>
-      </c>
-      <c r="L231">
-        <v>3.25</v>
-      </c>
-      <c r="M231">
-        <v>2.5</v>
-      </c>
-      <c r="N231">
-        <v>2.9</v>
-      </c>
-      <c r="O231">
-        <v>3.3</v>
-      </c>
-      <c r="P231">
-        <v>2.5</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>2.1</v>
-      </c>
-      <c r="S231">
-        <v>1.775</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>2.025</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>7744631</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45385.3125</v>
-      </c>
-      <c r="F232" t="s">
-        <v>29</v>
-      </c>
-      <c r="G232" t="s">
-        <v>36</v>
-      </c>
-      <c r="K232">
-        <v>3</v>
-      </c>
-      <c r="L232">
-        <v>3.2</v>
-      </c>
-      <c r="M232">
-        <v>2.3</v>
-      </c>
-      <c r="N232">
-        <v>3.2</v>
-      </c>
-      <c r="O232">
-        <v>3.25</v>
-      </c>
-      <c r="P232">
-        <v>2.375</v>
-      </c>
-      <c r="Q232">
-        <v>0.25</v>
-      </c>
-      <c r="R232">
-        <v>1.825</v>
-      </c>
-      <c r="S232">
-        <v>2.025</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.875</v>
-      </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC222"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527777</v>
+        <v>6527615</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K165">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M165">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N165">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527782</v>
+        <v>6527617</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,55 +15239,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>50</v>
       </c>
       <c r="K166">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N166">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15296,19 +15296,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.3</v>
+        <v>0.615</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6527616</v>
+        <v>6527773</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527617</v>
+        <v>6527616</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K168">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N168">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527615</v>
+        <v>6527777</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,76 +15506,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L169">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N169">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
+        <v>2.025</v>
+      </c>
+      <c r="S169">
+        <v>1.825</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.825</v>
+      </c>
+      <c r="V169">
+        <v>2.025</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>1.8</v>
       </c>
-      <c r="S169">
-        <v>2.05</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.85</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>0.833</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
       <c r="Z169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6527910</v>
+        <v>6527782</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,55 +15595,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>50</v>
       </c>
       <c r="K170">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O170">
         <v>3.6</v>
       </c>
       <c r="P170">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15652,19 +15652,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6527773</v>
+        <v>6527910</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,10 +15684,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15699,40 +15699,40 @@
         <v>50</v>
       </c>
       <c r="K171">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="N171">
+        <v>3.4</v>
+      </c>
+      <c r="O171">
         <v>3.6</v>
       </c>
-      <c r="O171">
-        <v>3.8</v>
-      </c>
       <c r="P171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q171">
         <v>0.5</v>
       </c>
       <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
         <v>1.975</v>
       </c>
-      <c r="S171">
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
         <v>1.875</v>
       </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.825</v>
-      </c>
       <c r="V171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15741,19 +15741,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7624503</v>
+        <v>7624504</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
+        <v>2.55</v>
+      </c>
+      <c r="L177">
         <v>3.2</v>
       </c>
-      <c r="L177">
-        <v>3.25</v>
-      </c>
       <c r="M177">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N177">
         <v>3</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S177">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y177">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7624504</v>
+        <v>7624503</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
         <v>3</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,55 +16841,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J184" t="s">
         <v>50</v>
       </c>
       <c r="K184">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="L184">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M184">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="N184">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q184">
         <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
         <v>2.05</v>
       </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16898,19 +16898,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,55 +16930,55 @@
         <v>45352.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>50</v>
       </c>
       <c r="K185">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="L185">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M185">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q185">
         <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2.05</v>
-      </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16987,19 +16987,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17986,7 +17986,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7744599</v>
+        <v>7744598</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17998,76 +17998,76 @@
         <v>45360.125</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L197">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O197">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18075,7 +18075,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7744598</v>
+        <v>7744599</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18087,76 +18087,76 @@
         <v>45360.125</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K198">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N198">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O198">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P198">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W198">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7744600</v>
+        <v>7744601</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,55 +18265,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
         <v>50</v>
       </c>
       <c r="K200">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M200">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N200">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -18322,19 +18322,19 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7744601</v>
+        <v>7744600</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,55 +18354,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>50</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N201">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18411,19 +18411,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744607</v>
+        <v>7744608</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,40 +18799,40 @@
         <v>45367.125</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>3.25</v>
+      </c>
+      <c r="M206">
         <v>2.1</v>
       </c>
-      <c r="L206">
-        <v>3.1</v>
-      </c>
-      <c r="M206">
-        <v>3.2</v>
-      </c>
       <c r="N206">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O206">
         <v>3.3</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18844,31 +18844,31 @@
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744606</v>
+        <v>7744607</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,76 +18888,76 @@
         <v>45367.125</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K207">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA207">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7744608</v>
+        <v>7744606</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,10 +18977,10 @@
         <v>45367.125</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -18992,40 +18992,40 @@
         <v>50</v>
       </c>
       <c r="K208">
+        <v>2.3</v>
+      </c>
+      <c r="L208">
+        <v>2.875</v>
+      </c>
+      <c r="M208">
         <v>3</v>
       </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
+      <c r="N208">
         <v>2.1</v>
       </c>
-      <c r="N208">
-        <v>3.5</v>
-      </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
+        <v>4</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
         <v>2.1</v>
       </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>2</v>
-      </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -19034,19 +19034,19 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -20293,6 +20293,376 @@
       </c>
       <c r="AC222">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7744632</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45388.08333333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>44</v>
+      </c>
+      <c r="G223" t="s">
+        <v>42</v>
+      </c>
+      <c r="K223">
+        <v>2.55</v>
+      </c>
+      <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>2.45</v>
+      </c>
+      <c r="N223">
+        <v>2.6</v>
+      </c>
+      <c r="O223">
+        <v>3.6</v>
+      </c>
+      <c r="P223">
+        <v>2.5</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>1.975</v>
+      </c>
+      <c r="S223">
+        <v>1.875</v>
+      </c>
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
+        <v>1.925</v>
+      </c>
+      <c r="V223">
+        <v>1.925</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7744636</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>46</v>
+      </c>
+      <c r="G224" t="s">
+        <v>37</v>
+      </c>
+      <c r="K224">
+        <v>1.95</v>
+      </c>
+      <c r="L224">
+        <v>3.5</v>
+      </c>
+      <c r="M224">
+        <v>3.4</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224">
+        <v>3.6</v>
+      </c>
+      <c r="P224">
+        <v>3.5</v>
+      </c>
+      <c r="Q224">
+        <v>-0.5</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
+        <v>1.9</v>
+      </c>
+      <c r="V224">
+        <v>1.95</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7744634</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" t="s">
+        <v>39</v>
+      </c>
+      <c r="K225">
+        <v>2.75</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>2.5</v>
+      </c>
+      <c r="N225">
+        <v>2.8</v>
+      </c>
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>2.55</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>1.85</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>2.025</v>
+      </c>
+      <c r="V225">
+        <v>1.825</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7744638</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45389.125</v>
+      </c>
+      <c r="F226" t="s">
+        <v>36</v>
+      </c>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="K226">
+        <v>1.55</v>
+      </c>
+      <c r="L226">
+        <v>3.8</v>
+      </c>
+      <c r="M226">
+        <v>5.25</v>
+      </c>
+      <c r="N226">
+        <v>1.571</v>
+      </c>
+      <c r="O226">
+        <v>4</v>
+      </c>
+      <c r="P226">
+        <v>5.5</v>
+      </c>
+      <c r="Q226">
+        <v>-1</v>
+      </c>
+      <c r="R226">
+        <v>2.025</v>
+      </c>
+      <c r="S226">
+        <v>1.825</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.85</v>
+      </c>
+      <c r="V226">
+        <v>2</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7744641</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45389.20833333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>41</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>3.1</v>
+      </c>
+      <c r="M227">
+        <v>2.3</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>2.375</v>
+      </c>
+      <c r="Q227">
+        <v>0.25</v>
+      </c>
+      <c r="R227">
+        <v>1.8</v>
+      </c>
+      <c r="S227">
+        <v>2.05</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.925</v>
+      </c>
+      <c r="V227">
+        <v>1.925</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6173850</v>
+        <v>6173849</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,76 +2245,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6173849</v>
+        <v>6173851</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,76 +2334,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173851</v>
+        <v>6173852</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,73 +2423,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.95</v>
-      </c>
-      <c r="AB22">
-        <v>0.875</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173852</v>
+        <v>6173850</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>2.4</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>-0.5</v>
       </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>0.95</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.95</v>
-      </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173868</v>
+        <v>6173869</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>50</v>
       </c>
       <c r="K41">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.975</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>2.025</v>
+      </c>
+      <c r="V41">
+        <v>1.825</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2.4</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.875</v>
-      </c>
-      <c r="V41">
-        <v>1.975</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>2.5</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6173869</v>
+        <v>6173868</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,76 +4203,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>50</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
+        <v>1.909</v>
+      </c>
+      <c r="O42">
+        <v>3.5</v>
+      </c>
+      <c r="P42">
+        <v>4.2</v>
+      </c>
+      <c r="Q42">
+        <v>-0.5</v>
+      </c>
+      <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
         <v>2.25</v>
       </c>
-      <c r="O42">
-        <v>3.4</v>
-      </c>
-      <c r="P42">
-        <v>3.2</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
-      <c r="R42">
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
-        <v>2.025</v>
-      </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173879</v>
+        <v>6173878</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,13 +5004,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5019,43 +5019,43 @@
         <v>52</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
+        <v>3.75</v>
+      </c>
+      <c r="O51">
+        <v>3.3</v>
+      </c>
+      <c r="P51">
         <v>2.1</v>
       </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
-      <c r="P51">
-        <v>3.5</v>
-      </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
+        <v>2.025</v>
+      </c>
+      <c r="S51">
         <v>1.825</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.825</v>
+      </c>
+      <c r="V51">
         <v>2.025</v>
       </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>2.05</v>
-      </c>
-      <c r="V51">
-        <v>1.8</v>
-      </c>
       <c r="W51">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5064,13 +5064,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>1.025</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>1.05</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173878</v>
+        <v>6173879</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,13 +5093,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5108,43 +5108,43 @@
         <v>52</v>
       </c>
       <c r="K52">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
+        <v>3.4</v>
+      </c>
+      <c r="N52">
+        <v>2.1</v>
+      </c>
+      <c r="O52">
+        <v>3.4</v>
+      </c>
+      <c r="P52">
         <v>3.5</v>
       </c>
-      <c r="M52">
-        <v>1.909</v>
-      </c>
-      <c r="N52">
-        <v>3.75</v>
-      </c>
-      <c r="O52">
-        <v>3.3</v>
-      </c>
-      <c r="P52">
-        <v>2.1</v>
-      </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
         <v>2.025</v>
       </c>
-      <c r="S52">
-        <v>1.825</v>
-      </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>2.75</v>
+        <v>1.1</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5153,13 +5153,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6174608</v>
+        <v>6173887</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,37 +5894,37 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L61">
+        <v>3.3</v>
+      </c>
+      <c r="M61">
         <v>3.4</v>
       </c>
-      <c r="M61">
-        <v>2.875</v>
-      </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5936,34 +5936,34 @@
         <v>1.925</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173887</v>
+        <v>6174608</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,37 +5983,37 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -6025,34 +6025,34 @@
         <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y62">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6173888</v>
+        <v>6173886</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,55 +6161,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
         <v>51</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6218,19 +6218,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6173886</v>
+        <v>6173888</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6250,55 +6250,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>51</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6307,19 +6307,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6950,7 +6950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6173897</v>
+        <v>6173896</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6962,58 +6962,58 @@
         <v>45151.25</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O73">
         <v>3.1</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7022,16 +7022,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6173896</v>
+        <v>6173897</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,58 +7051,58 @@
         <v>45151.25</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
         <v>3.1</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7111,16 +7111,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6473046</v>
+        <v>6472890</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,76 +12925,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>2.025</v>
-      </c>
       <c r="W140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6472890</v>
+        <v>6473046</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6472889</v>
+        <v>6472887</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,40 +13192,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
         <v>1.85</v>
@@ -13234,34 +13234,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6472887</v>
+        <v>6472889</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K144">
+        <v>2.625</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>2.75</v>
+      </c>
+      <c r="N144">
         <v>3.4</v>
       </c>
-      <c r="L144">
-        <v>3.5</v>
-      </c>
-      <c r="M144">
-        <v>2.05</v>
-      </c>
-      <c r="N144">
-        <v>3.5</v>
-      </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
         <v>1.85</v>
@@ -13323,34 +13323,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6480216</v>
+        <v>6480218</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45241.125</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K150">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L150">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M150">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N150">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O150">
         <v>3</v>
       </c>
       <c r="P150">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q150">
         <v>0</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
         <v>2</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6480218</v>
+        <v>6480216</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45241.125</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O152">
         <v>3</v>
       </c>
       <c r="P152">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T152">
         <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y152">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,76 +14349,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45254.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>50</v>
+      </c>
+      <c r="K157">
+        <v>1.7</v>
+      </c>
+      <c r="L157">
+        <v>4.2</v>
+      </c>
+      <c r="M157">
+        <v>4.333</v>
+      </c>
+      <c r="N157">
+        <v>1.65</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>5</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2.05</v>
+      </c>
+      <c r="T157">
         <v>3</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s">
-        <v>52</v>
-      </c>
-      <c r="K157">
-        <v>1.95</v>
-      </c>
-      <c r="L157">
-        <v>3.6</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>2.15</v>
-      </c>
-      <c r="O157">
-        <v>3.6</v>
-      </c>
-      <c r="P157">
-        <v>3.3</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.85</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7744593</v>
+        <v>7624511</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,73 +17197,73 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N188">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624511</v>
+        <v>7744593</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,73 +17286,73 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17719,7 +17719,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7744597</v>
+        <v>7744596</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17731,76 +17731,76 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K194">
+        <v>2.5</v>
+      </c>
+      <c r="L194">
+        <v>3.2</v>
+      </c>
+      <c r="M194">
         <v>2.8</v>
       </c>
-      <c r="L194">
-        <v>3.3</v>
-      </c>
-      <c r="M194">
-        <v>2.5</v>
-      </c>
       <c r="N194">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
+        <v>2.025</v>
+      </c>
+      <c r="S194">
         <v>1.825</v>
       </c>
-      <c r="S194">
-        <v>2.025</v>
-      </c>
       <c r="T194">
         <v>2</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17808,7 +17808,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7744596</v>
+        <v>7744597</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17820,76 +17820,76 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K195">
+        <v>2.8</v>
+      </c>
+      <c r="L195">
+        <v>3.3</v>
+      </c>
+      <c r="M195">
         <v>2.5</v>
       </c>
-      <c r="L195">
-        <v>3.2</v>
-      </c>
-      <c r="M195">
-        <v>2.8</v>
-      </c>
       <c r="N195">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O195">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
         <v>2.025</v>
       </c>
-      <c r="S195">
-        <v>1.825</v>
-      </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W195">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z195">
+        <v>-1</v>
+      </c>
+      <c r="AA195">
         <v>1.025</v>
       </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7744600</v>
+        <v>7744601</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,55 +18176,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>51</v>
       </c>
       <c r="K199">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M199">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N199">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -18233,19 +18233,19 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7744601</v>
+        <v>7744600</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,55 +18354,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>51</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N201">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18411,19 +18411,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -19766,7 +19766,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7744617</v>
+        <v>7744620</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19778,13 +19778,13 @@
         <v>45381.125</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -19793,43 +19793,43 @@
         <v>52</v>
       </c>
       <c r="K217">
-        <v>1.475</v>
+        <v>1.833</v>
       </c>
       <c r="L217">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N217">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19838,16 +19838,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA217">
+        <v>-1</v>
+      </c>
+      <c r="AB217">
+        <v>0.475</v>
+      </c>
+      <c r="AC217">
         <v>-0.5</v>
-      </c>
-      <c r="AB217">
-        <v>-1</v>
-      </c>
-      <c r="AC217">
-        <v>0.875</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19855,7 +19855,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7744620</v>
+        <v>7744618</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19867,16 +19867,16 @@
         <v>45381.125</v>
       </c>
       <c r="F218" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
         <v>52</v>
@@ -19885,40 +19885,40 @@
         <v>1.833</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M218">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="N218">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q218">
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19927,16 +19927,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7744618</v>
+        <v>7744617</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,76 +19956,76 @@
         <v>45381.125</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>52</v>
       </c>
       <c r="K219">
-        <v>1.833</v>
+        <v>1.475</v>
       </c>
       <c r="L219">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P219">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q219">
+        <v>-0.75</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>1.85</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
+        <v>1.875</v>
+      </c>
+      <c r="W219">
+        <v>0.75</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0.5</v>
+      </c>
+      <c r="AA219">
         <v>-0.5</v>
       </c>
-      <c r="R219">
-        <v>2.025</v>
-      </c>
-      <c r="S219">
-        <v>1.825</v>
-      </c>
-      <c r="T219">
-        <v>2</v>
-      </c>
-      <c r="U219">
-        <v>2.025</v>
-      </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
-      <c r="W219">
-        <v>1</v>
-      </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>1.025</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20122,7 +20122,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7744621</v>
+        <v>7744622</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20134,58 +20134,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>52</v>
       </c>
       <c r="K221">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
+        <v>3.75</v>
+      </c>
+      <c r="N221">
+        <v>2.05</v>
+      </c>
+      <c r="O221">
+        <v>3.4</v>
+      </c>
+      <c r="P221">
+        <v>3.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.5</v>
+      </c>
+      <c r="R221">
+        <v>2.025</v>
+      </c>
+      <c r="S221">
+        <v>1.825</v>
+      </c>
+      <c r="T221">
         <v>2.25</v>
       </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
-      <c r="P221">
-        <v>2.6</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>1.925</v>
-      </c>
-      <c r="S221">
-        <v>1.925</v>
-      </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20194,16 +20194,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7744622</v>
+        <v>7744621</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,58 +20223,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H222">
         <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>52</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W222">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20283,16 +20283,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC222">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21190,7 +21190,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7744632</v>
+        <v>7744633</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,49 +21199,49 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45388.08333333334</v>
+        <v>45389.04166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K233">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="N233">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q233">
         <v>0</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7744633</v>
+        <v>7744637</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21273,34 +21273,34 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45389.04166666666</v>
+        <v>45389.08333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K234">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M234">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="N234">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="O234">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R234">
         <v>2.05</v>
@@ -21309,13 +21309,13 @@
         <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21338,7 +21338,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7744637</v>
+        <v>7744636</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21350,46 +21350,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K235">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L235">
+        <v>3.5</v>
+      </c>
+      <c r="M235">
+        <v>3.4</v>
+      </c>
+      <c r="N235">
+        <v>1.95</v>
+      </c>
+      <c r="O235">
+        <v>3.6</v>
+      </c>
+      <c r="P235">
         <v>3.8</v>
       </c>
-      <c r="M235">
-        <v>6.5</v>
-      </c>
-      <c r="N235">
-        <v>1.5</v>
-      </c>
-      <c r="O235">
-        <v>4</v>
-      </c>
-      <c r="P235">
-        <v>7.5</v>
-      </c>
       <c r="Q235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21412,7 +21412,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7744634</v>
+        <v>7744635</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21424,46 +21424,46 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
+        <v>4.75</v>
+      </c>
+      <c r="N236">
+        <v>2.2</v>
+      </c>
+      <c r="O236">
+        <v>3.4</v>
+      </c>
+      <c r="P236">
+        <v>3.3</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.925</v>
+      </c>
+      <c r="S236">
+        <v>1.925</v>
+      </c>
+      <c r="T236">
         <v>2.5</v>
       </c>
-      <c r="N236">
-        <v>2.8</v>
-      </c>
-      <c r="O236">
-        <v>3.2</v>
-      </c>
-      <c r="P236">
-        <v>2.625</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>2</v>
-      </c>
-      <c r="S236">
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.85</v>
-      </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>2.025</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21486,7 +21486,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7744635</v>
+        <v>7744634</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21498,40 +21498,40 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N237">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
         <v>2.025</v>
@@ -21560,7 +21560,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7744636</v>
+        <v>7744638</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21569,43 +21569,43 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45389.08333333334</v>
+        <v>45389.125</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K238">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N238">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
         <v>1.875</v>
@@ -21673,19 +21673,19 @@
         <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21741,16 +21741,16 @@
         <v>3.2</v>
       </c>
       <c r="P240">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q240">
         <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
         <v>2</v>
@@ -21782,7 +21782,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7744638</v>
+        <v>7744641</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21791,49 +21791,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45389.125</v>
+        <v>45389.20833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K241">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N241">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21848,80 +21848,6 @@
         <v>0</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>7744641</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45389.20833333334</v>
-      </c>
-      <c r="F242" t="s">
-        <v>30</v>
-      </c>
-      <c r="G242" t="s">
-        <v>42</v>
-      </c>
-      <c r="K242">
-        <v>3</v>
-      </c>
-      <c r="L242">
-        <v>3.1</v>
-      </c>
-      <c r="M242">
-        <v>2.3</v>
-      </c>
-      <c r="N242">
-        <v>3.2</v>
-      </c>
-      <c r="O242">
-        <v>3.3</v>
-      </c>
-      <c r="P242">
-        <v>2.3</v>
-      </c>
-      <c r="Q242">
-        <v>0.25</v>
-      </c>
-      <c r="R242">
-        <v>1.8</v>
-      </c>
-      <c r="S242">
-        <v>2.05</v>
-      </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>1.925</v>
-      </c>
-      <c r="V242">
-        <v>1.925</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
         <v>0</v>
       </c>
     </row>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Japan JLeague</t>
   </si>
   <si>
-    <t>Shonan Bellmare</t>
+    <t>FC Tokyo</t>
   </si>
   <si>
-    <t>FC Tokyo</t>
+    <t>Shonan Bellmare</t>
   </si>
   <si>
     <t>Nagoya Grampus</t>
@@ -166,10 +166,10 @@
     <t>Tokyo Verdy</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6173832</v>
+        <v>6173831</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -646,70 +646,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>50</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6173831</v>
+        <v>6173832</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -735,70 +735,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>51</v>
       </c>
       <c r="K3">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>2.8</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>2.3</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>3.5</v>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1892,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2168,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>2.3</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21">
         <v>2.5</v>
@@ -2423,7 +2423,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2601,7 +2601,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>2.3</v>
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2960,7 +2960,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>1.65</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>3.6</v>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3568,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173861</v>
+        <v>6173862</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3580,76 +3580,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L35">
+        <v>3.8</v>
+      </c>
+      <c r="M35">
         <v>3.3</v>
       </c>
-      <c r="M35">
-        <v>3.6</v>
-      </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6173862</v>
+        <v>6173861</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3669,76 +3669,76 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L36">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3761,7 +3761,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>3.4</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>2.45</v>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
         <v>1.95</v>
@@ -4206,7 +4206,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
         <v>1.833</v>
@@ -4473,7 +4473,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
         <v>2.55</v>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>1.833</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>2.15</v>
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49">
         <v>1.333</v>
@@ -4915,7 +4915,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>42</v>
@@ -4927,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>2.625</v>
@@ -5182,7 +5182,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>2.3</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56">
         <v>2.45</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6173883</v>
+        <v>6173882</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,10 +5538,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5553,43 +5553,43 @@
         <v>52</v>
       </c>
       <c r="K57">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>2.1</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5607,7 +5607,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6173882</v>
+        <v>6173883</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,10 +5627,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5642,43 +5642,43 @@
         <v>52</v>
       </c>
       <c r="K58">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="L58">
+        <v>3.75</v>
+      </c>
+      <c r="M58">
+        <v>4.5</v>
+      </c>
+      <c r="N58">
+        <v>1.909</v>
+      </c>
+      <c r="O58">
         <v>3.5</v>
       </c>
-      <c r="M58">
-        <v>1.75</v>
-      </c>
-      <c r="N58">
-        <v>3.1</v>
-      </c>
-      <c r="O58">
-        <v>3.6</v>
-      </c>
       <c r="P58">
+        <v>4.333</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5</v>
+      </c>
+      <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
         <v>2.25</v>
       </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
+      <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.975</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>2.025</v>
-      </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>2.1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5687,16 +5687,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.875</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
-      <c r="AC58">
-        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5897,7 +5897,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>2.05</v>
@@ -6084,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>1.75</v>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2.4</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>2.25</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
         <v>1.666</v>
@@ -6431,7 +6431,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6440,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>2.15</v>
@@ -6695,7 +6695,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>45</v>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71">
         <v>2.7</v>
@@ -7152,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>2.3</v>
@@ -7588,7 +7588,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81">
         <v>1.666</v>
@@ -7766,7 +7766,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>3.5</v>
@@ -7941,7 +7941,7 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -7953,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <v>3.25</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8297,7 +8297,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
@@ -8309,7 +8309,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8398,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89">
         <v>1.95</v>
@@ -8487,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90">
         <v>2.625</v>
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K95">
         <v>3.2</v>
@@ -9021,7 +9021,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
         <v>3.6</v>
@@ -9276,7 +9276,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>42</v>
@@ -9288,7 +9288,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
         <v>3.75</v>
@@ -9454,7 +9454,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -9466,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9546,7 +9546,7 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K103">
         <v>1.4</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K104">
         <v>1.615</v>
@@ -9902,7 +9902,7 @@
         <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.7</v>
@@ -10178,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>3.1</v>
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10433,7 +10433,7 @@
         <v>45192.125</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>39</v>
@@ -10534,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K113">
         <v>1.85</v>
@@ -10623,7 +10623,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K114">
         <v>2.4</v>
@@ -10890,7 +10890,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10967,7 +10967,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>43</v>
@@ -10979,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
         <v>4.1</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,56 +11145,56 @@
         <v>45198.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
         <v>3.8</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2.05</v>
-      </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
@@ -11202,19 +11202,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,55 +11234,55 @@
         <v>45198.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O121">
         <v>3.8</v>
       </c>
       <c r="P121">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.8</v>
+      </c>
+      <c r="S121">
         <v>2.05</v>
       </c>
-      <c r="S121">
-        <v>1.8</v>
-      </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11291,19 +11291,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11424,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>2.9</v>
@@ -11593,7 +11593,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>1.8</v>
@@ -11857,7 +11857,7 @@
         <v>45200.125</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
@@ -12136,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12216,7 +12216,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173958</v>
+        <v>6173957</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N133">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6173957</v>
+        <v>6173958</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K134">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N134">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>2.3</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137">
         <v>1.8</v>
@@ -12759,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
         <v>1.65</v>
@@ -12925,7 +12925,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>3.4</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
         <v>2.4</v>
@@ -13115,7 +13115,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>2.625</v>
@@ -13204,7 +13204,7 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>3</v>
@@ -13370,7 +13370,7 @@
         <v>45227.125</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
@@ -13382,7 +13382,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>3.6</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K146">
         <v>3.2</v>
@@ -13548,7 +13548,7 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>31</v>
@@ -13640,7 +13640,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13738,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149">
         <v>3</v>
@@ -13827,7 +13827,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13916,7 +13916,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>2.1</v>
@@ -14005,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
         <v>2.15</v>
@@ -14183,7 +14183,7 @@
         <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.571</v>
@@ -14272,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>2.55</v>
@@ -14361,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156">
         <v>1.7</v>
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6504895</v>
+        <v>6504986</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,56 +14527,56 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
         <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
+        <v>1.75</v>
+      </c>
+      <c r="V158">
         <v>2.05</v>
       </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
@@ -14584,19 +14584,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>3.333</v>
+        <v>3.75</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504986</v>
+        <v>6504895</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,55 +14616,55 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
+        <v>3.6</v>
+      </c>
+      <c r="M159">
+        <v>4.5</v>
+      </c>
+      <c r="N159">
+        <v>1.909</v>
+      </c>
+      <c r="O159">
         <v>3.5</v>
       </c>
-      <c r="M159">
-        <v>5.5</v>
-      </c>
-      <c r="N159">
-        <v>1.85</v>
-      </c>
-      <c r="O159">
-        <v>3.2</v>
-      </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14673,19 +14673,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3.75</v>
+        <v>3.333</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14717,7 +14717,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
         <v>1.75</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6501896</v>
+        <v>6504894</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,40 +14883,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
         <v>1.85</v>
@@ -14925,13 +14925,13 @@
         <v>2</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14940,7 +14940,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -14949,10 +14949,10 @@
         <v>1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6504894</v>
+        <v>6501896</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,40 +14972,40 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F163" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
         <v>30</v>
       </c>
-      <c r="G163" t="s">
-        <v>44</v>
-      </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
         <v>1.85</v>
@@ -15014,13 +15014,13 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15029,7 +15029,7 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15038,10 +15038,10 @@
         <v>1</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527782</v>
+        <v>6527777</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,55 +15150,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N165">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
         <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15207,19 +15207,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15251,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K166">
         <v>3.3</v>
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6527778</v>
+        <v>6527782</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>50</v>
+      </c>
+      <c r="K167">
+        <v>2.4</v>
+      </c>
+      <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>2.75</v>
+      </c>
+      <c r="N167">
+        <v>2.8</v>
+      </c>
+      <c r="O167">
+        <v>3.6</v>
+      </c>
+      <c r="P167">
+        <v>2.3</v>
+      </c>
+      <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-      <c r="J167" t="s">
-        <v>52</v>
-      </c>
-      <c r="K167">
-        <v>3.4</v>
-      </c>
-      <c r="L167">
-        <v>3.8</v>
-      </c>
-      <c r="M167">
+      <c r="U167">
         <v>1.95</v>
       </c>
-      <c r="N167">
-        <v>3.3</v>
-      </c>
-      <c r="O167">
-        <v>4</v>
-      </c>
-      <c r="P167">
-        <v>2</v>
-      </c>
-      <c r="Q167">
-        <v>0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.825</v>
-      </c>
-      <c r="S167">
-        <v>2.025</v>
-      </c>
-      <c r="T167">
-        <v>3.25</v>
-      </c>
-      <c r="U167">
-        <v>1.925</v>
-      </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527777</v>
+        <v>6527778</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168">
+        <v>3.4</v>
+      </c>
+      <c r="L168">
+        <v>3.8</v>
+      </c>
+      <c r="M168">
+        <v>1.95</v>
+      </c>
+      <c r="N168">
+        <v>3.3</v>
+      </c>
+      <c r="O168">
+        <v>4</v>
+      </c>
+      <c r="P168">
+        <v>2</v>
+      </c>
+      <c r="Q168">
+        <v>0.5</v>
+      </c>
+      <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>2.025</v>
+      </c>
+      <c r="T168">
+        <v>3.25</v>
+      </c>
+      <c r="U168">
+        <v>1.925</v>
+      </c>
+      <c r="V168">
+        <v>1.925</v>
+      </c>
+      <c r="W168">
         <v>2.3</v>
       </c>
-      <c r="L168">
-        <v>3.5</v>
-      </c>
-      <c r="M168">
-        <v>2.875</v>
-      </c>
-      <c r="N168">
-        <v>2.3</v>
-      </c>
-      <c r="O168">
-        <v>3.6</v>
-      </c>
-      <c r="P168">
-        <v>2.8</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>2.025</v>
-      </c>
-      <c r="S168">
-        <v>1.825</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>2.025</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15518,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K169">
         <v>4.333</v>
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6527615</v>
+        <v>6527616</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,58 +15595,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>52</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L170">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O170">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
         <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15655,16 +15655,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6527616</v>
+        <v>6527615</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,58 +15684,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>52</v>
       </c>
       <c r="K171">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N171">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15744,16 +15744,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
         <v>3.75</v>
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -16052,7 +16052,7 @@
         <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K175">
         <v>2.4</v>
@@ -16141,7 +16141,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K176">
         <v>4.5</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7624503</v>
+        <v>7624504</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
+        <v>2.55</v>
+      </c>
+      <c r="L177">
         <v>3.2</v>
       </c>
-      <c r="L177">
-        <v>3.25</v>
-      </c>
       <c r="M177">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N177">
         <v>3</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S177">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y177">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7624504</v>
+        <v>7624503</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
         <v>3</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>45346.125</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
         <v>43</v>
@@ -16408,7 +16408,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
         <v>3.75</v>
@@ -16497,7 +16497,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16586,7 +16586,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>2.05</v>
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K182">
         <v>2.9</v>
@@ -16764,7 +16764,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K183">
         <v>5</v>
@@ -16853,7 +16853,7 @@
         <v>5</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>1.444</v>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>1.7</v>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>1.833</v>
@@ -17200,7 +17200,7 @@
         <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17209,7 +17209,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>2.25</v>
@@ -17298,7 +17298,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
         <v>1.533</v>
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K190">
         <v>2.1</v>
@@ -17553,7 +17553,7 @@
         <v>45353.125</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
         <v>35</v>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
         <v>2.7</v>
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
         <v>1.4</v>
@@ -17921,7 +17921,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>2.8</v>
@@ -18090,7 +18090,7 @@
         <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18099,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K198">
         <v>2.25</v>
@@ -18176,7 +18176,7 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
         <v>46</v>
@@ -18188,7 +18188,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K199">
         <v>3.5</v>
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
         <v>1.727</v>
@@ -18455,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K202">
         <v>2.7</v>
@@ -18535,7 +18535,7 @@
         <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18544,7 +18544,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K203">
         <v>2.3</v>
@@ -18633,7 +18633,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K204">
         <v>2.55</v>
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K205">
         <v>2.55</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744606</v>
+        <v>7744608</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,10 +18799,10 @@
         <v>45367.125</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18811,64 +18811,64 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L206">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N206">
+        <v>3.5</v>
+      </c>
+      <c r="O206">
+        <v>3.3</v>
+      </c>
+      <c r="P206">
         <v>2.1</v>
       </c>
-      <c r="O206">
-        <v>3.1</v>
-      </c>
-      <c r="P206">
-        <v>4</v>
-      </c>
       <c r="Q206">
+        <v>0.25</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.85</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>2</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>1.1</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB206">
         <v>-0.5</v>
       </c>
-      <c r="R206">
-        <v>2.1</v>
-      </c>
-      <c r="S206">
-        <v>1.775</v>
-      </c>
-      <c r="T206">
-        <v>2</v>
-      </c>
-      <c r="U206">
-        <v>2.05</v>
-      </c>
-      <c r="V206">
-        <v>1.8</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>3</v>
-      </c>
-      <c r="Z206">
-        <v>-1</v>
-      </c>
-      <c r="AA206">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB206">
-        <v>0</v>
-      </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744608</v>
+        <v>7744607</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,40 +18888,40 @@
         <v>45367.125</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M207">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O207">
         <v>3.3</v>
       </c>
       <c r="P207">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
         <v>2</v>
@@ -18933,31 +18933,31 @@
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7744607</v>
+        <v>7744606</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,76 +18977,76 @@
         <v>45367.125</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K208">
+        <v>2.3</v>
+      </c>
+      <c r="L208">
+        <v>2.875</v>
+      </c>
+      <c r="M208">
+        <v>3</v>
+      </c>
+      <c r="N208">
         <v>2.1</v>
       </c>
-      <c r="L208">
+      <c r="O208">
         <v>3.1</v>
       </c>
-      <c r="M208">
-        <v>3.2</v>
-      </c>
-      <c r="N208">
-        <v>2.25</v>
-      </c>
-      <c r="O208">
-        <v>3.3</v>
-      </c>
       <c r="P208">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W208">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19078,7 +19078,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K209">
         <v>2.75</v>
@@ -19167,7 +19167,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K210">
         <v>3.5</v>
@@ -19333,7 +19333,7 @@
         <v>45368.125</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>36</v>
@@ -19345,7 +19345,7 @@
         <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
         <v>3.1</v>
@@ -19434,7 +19434,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K213">
         <v>3.25</v>
@@ -19523,7 +19523,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K214">
         <v>1.571</v>
@@ -19612,7 +19612,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K215">
         <v>2.15</v>
@@ -19959,7 +19959,7 @@
         <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -20122,7 +20122,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7744622</v>
+        <v>7744621</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20134,58 +20134,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>52</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M221">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20194,16 +20194,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7744621</v>
+        <v>7744622</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,58 +20223,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H222">
         <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>52</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
+        <v>3.75</v>
+      </c>
+      <c r="N222">
+        <v>2.05</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>3.75</v>
+      </c>
+      <c r="Q222">
+        <v>-0.5</v>
+      </c>
+      <c r="R222">
+        <v>2.025</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
         <v>2.25</v>
       </c>
-      <c r="N222">
-        <v>2.625</v>
-      </c>
-      <c r="O222">
-        <v>3.5</v>
-      </c>
-      <c r="P222">
-        <v>2.6</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.925</v>
-      </c>
-      <c r="S222">
-        <v>1.925</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20283,16 +20283,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20324,7 +20324,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K223">
         <v>4.333</v>
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
         <v>2.375</v>
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7744626</v>
+        <v>7744624</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,40 +20579,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K226">
+        <v>2.6</v>
+      </c>
+      <c r="L226">
+        <v>3.25</v>
+      </c>
+      <c r="M226">
+        <v>2.625</v>
+      </c>
+      <c r="N226">
         <v>3.4</v>
       </c>
-      <c r="L226">
-        <v>3.6</v>
-      </c>
-      <c r="M226">
-        <v>2</v>
-      </c>
-      <c r="N226">
+      <c r="O226">
+        <v>3.25</v>
+      </c>
+      <c r="P226">
         <v>2.25</v>
       </c>
-      <c r="O226">
-        <v>3.3</v>
-      </c>
-      <c r="P226">
-        <v>3.3</v>
-      </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
         <v>1.975</v>
@@ -20630,25 +20630,25 @@
         <v>1.925</v>
       </c>
       <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
         <v>1.25</v>
       </c>
-      <c r="X226">
-        <v>-1</v>
-      </c>
-      <c r="Y226">
-        <v>-1</v>
-      </c>
       <c r="Z226">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC226">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20656,7 +20656,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7744625</v>
+        <v>7744626</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20668,40 +20668,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G227" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K227">
+        <v>3.4</v>
+      </c>
+      <c r="L227">
+        <v>3.6</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
         <v>2.25</v>
       </c>
-      <c r="L227">
-        <v>3.25</v>
-      </c>
-      <c r="M227">
-        <v>3.1</v>
-      </c>
-      <c r="N227">
-        <v>2.8</v>
-      </c>
       <c r="O227">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
         <v>1.975</v>
@@ -20713,31 +20713,31 @@
         <v>2.25</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20745,7 +20745,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7744624</v>
+        <v>7744625</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20757,10 +20757,10 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20769,28 +20769,28 @@
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K228">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L228">
         <v>3.25</v>
       </c>
       <c r="M228">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N228">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P228">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
         <v>1.975</v>
@@ -20802,10 +20802,10 @@
         <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20814,7 +20814,7 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Z228">
         <v>-1</v>
@@ -20823,7 +20823,7 @@
         <v>0.875</v>
       </c>
       <c r="AB228">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20858,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K229">
         <v>2.2</v>
@@ -20947,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K230">
         <v>2.1</v>
@@ -21012,7 +21012,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7744631</v>
+        <v>7744630</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21024,73 +21024,73 @@
         <v>45385.3125</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K231">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M231">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N231">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P231">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q231">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z231">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21101,7 +21101,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7744630</v>
+        <v>7744631</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21113,73 +21113,73 @@
         <v>45385.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K232">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L232">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O232">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC232">
         <v>-1</v>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K234">
         <v>2.7</v>
@@ -21392,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K235">
         <v>2.75</v>
@@ -21481,7 +21481,7 @@
         <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K236">
         <v>1.8</v>
@@ -21561,7 +21561,7 @@
         <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21659,7 +21659,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K238">
         <v>1.95</v>
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7744638</v>
+        <v>7744640</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,49 +21736,49 @@
         <v>45389.125</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>51</v>
+      </c>
+      <c r="K239">
+        <v>2.2</v>
+      </c>
+      <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>3.4</v>
+      </c>
+      <c r="N239">
+        <v>2.625</v>
+      </c>
+      <c r="O239">
+        <v>2.9</v>
+      </c>
+      <c r="P239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239" t="s">
-        <v>52</v>
-      </c>
-      <c r="K239">
-        <v>1.55</v>
-      </c>
-      <c r="L239">
-        <v>3.8</v>
-      </c>
-      <c r="M239">
-        <v>5.25</v>
-      </c>
-      <c r="N239">
-        <v>1.666</v>
-      </c>
-      <c r="O239">
-        <v>3.8</v>
-      </c>
-      <c r="P239">
-        <v>5</v>
-      </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U239">
         <v>1.875</v>
@@ -21787,25 +21787,25 @@
         <v>1.975</v>
       </c>
       <c r="W239">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21837,7 +21837,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K240">
         <v>2.2</v>
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7744640</v>
+        <v>7744638</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,49 +21914,49 @@
         <v>45389.125</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N241">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O241">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T241">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
         <v>1.875</v>
@@ -21965,25 +21965,25 @@
         <v>1.975</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X241">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA241">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC241">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22003,7 +22003,7 @@
         <v>45389.20833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G242" t="s">
         <v>42</v>
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7869684</v>
+        <v>7744642</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,49 +22089,49 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45392.29166666666</v>
+        <v>45394.29166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K243">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L243">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N243">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O243">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P243">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22154,7 +22154,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7744642</v>
+        <v>7744643</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22163,34 +22163,34 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45394.29166666666</v>
+        <v>45395.08333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K244">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N244">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P244">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R244">
         <v>2.025</v>
@@ -22199,13 +22199,13 @@
         <v>1.825</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22228,7 +22228,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7744647</v>
+        <v>7744645</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22240,46 +22240,46 @@
         <v>45395.08333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G245" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K245">
-        <v>4.8</v>
+        <v>2.375</v>
       </c>
       <c r="L245">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O245">
         <v>3.3</v>
       </c>
       <c r="P245">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q245">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22329,31 +22329,31 @@
         <v>2.4</v>
       </c>
       <c r="N246">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
         <v>0</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22376,7 +22376,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7744645</v>
+        <v>7744647</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22388,46 +22388,46 @@
         <v>45395.08333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>4.8</v>
       </c>
       <c r="L247">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N247">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="O247">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R247">
+        <v>1.875</v>
+      </c>
+      <c r="S247">
+        <v>1.975</v>
+      </c>
+      <c r="T247">
+        <v>2.25</v>
+      </c>
+      <c r="U247">
         <v>2.05</v>
       </c>
-      <c r="S247">
+      <c r="V247">
         <v>1.8</v>
-      </c>
-      <c r="T247">
-        <v>2.5</v>
-      </c>
-      <c r="U247">
-        <v>1.95</v>
-      </c>
-      <c r="V247">
-        <v>1.9</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22450,7 +22450,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7744643</v>
+        <v>7744650</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22459,49 +22459,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45395.08333333334</v>
+        <v>45395.125</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K248">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N248">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O248">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
         <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V248">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22524,7 +22524,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7744650</v>
+        <v>7744648</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22536,46 +22536,46 @@
         <v>45395.125</v>
       </c>
       <c r="F249" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K249">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L249">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M249">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="N249">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O249">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P249">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q249">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R249">
+        <v>1.875</v>
+      </c>
+      <c r="S249">
+        <v>1.975</v>
+      </c>
+      <c r="T249">
+        <v>2.25</v>
+      </c>
+      <c r="U249">
         <v>1.95</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.9</v>
-      </c>
-      <c r="T249">
-        <v>2.5</v>
-      </c>
-      <c r="U249">
-        <v>2.05</v>
-      </c>
-      <c r="V249">
-        <v>1.8</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7744648</v>
+        <v>7744649</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22610,37 +22610,37 @@
         <v>45395.125</v>
       </c>
       <c r="F250" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K250">
+        <v>2.6</v>
+      </c>
+      <c r="L250">
+        <v>3.4</v>
+      </c>
+      <c r="M250">
+        <v>2.6</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250">
+        <v>3.3</v>
+      </c>
+      <c r="P250">
+        <v>2.4</v>
+      </c>
+      <c r="Q250">
+        <v>0.25</v>
+      </c>
+      <c r="R250">
         <v>1.8</v>
       </c>
-      <c r="L250">
-        <v>3.3</v>
-      </c>
-      <c r="M250">
-        <v>4.8</v>
-      </c>
-      <c r="N250">
-        <v>1.85</v>
-      </c>
-      <c r="O250">
-        <v>3.25</v>
-      </c>
-      <c r="P250">
-        <v>4.5</v>
-      </c>
-      <c r="Q250">
-        <v>-0.5</v>
-      </c>
-      <c r="R250">
-        <v>1.875</v>
-      </c>
       <c r="S250">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22672,7 +22672,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7744649</v>
+        <v>7744651</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22681,49 +22681,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45395.125</v>
+        <v>45395.16666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K251">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N251">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O251">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7744651</v>
+        <v>7744652</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22755,49 +22755,49 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45395.16666666666</v>
+        <v>45396.125</v>
       </c>
       <c r="F252" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K252">
+        <v>1.615</v>
+      </c>
+      <c r="L252">
+        <v>4</v>
+      </c>
+      <c r="M252">
+        <v>5</v>
+      </c>
+      <c r="N252">
+        <v>1.75</v>
+      </c>
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
+        <v>4.75</v>
+      </c>
+      <c r="Q252">
+        <v>-0.75</v>
+      </c>
+      <c r="R252">
+        <v>2.05</v>
+      </c>
+      <c r="S252">
+        <v>1.8</v>
+      </c>
+      <c r="T252">
         <v>2.5</v>
       </c>
-      <c r="L252">
-        <v>3.3</v>
-      </c>
-      <c r="M252">
-        <v>2.75</v>
-      </c>
-      <c r="N252">
-        <v>2.6</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>2.7</v>
-      </c>
-      <c r="Q252">
-        <v>0</v>
-      </c>
-      <c r="R252">
-        <v>1.875</v>
-      </c>
-      <c r="S252">
-        <v>1.975</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22812,80 +22812,6 @@
         <v>0</v>
       </c>
       <c r="AA252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>7744652</v>
-      </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>28</v>
-      </c>
-      <c r="E253" s="2">
-        <v>45396.125</v>
-      </c>
-      <c r="F253" t="s">
-        <v>41</v>
-      </c>
-      <c r="G253" t="s">
-        <v>39</v>
-      </c>
-      <c r="K253">
-        <v>1.615</v>
-      </c>
-      <c r="L253">
-        <v>4</v>
-      </c>
-      <c r="M253">
-        <v>5</v>
-      </c>
-      <c r="N253">
-        <v>1.7</v>
-      </c>
-      <c r="O253">
-        <v>3.8</v>
-      </c>
-      <c r="P253">
-        <v>4.5</v>
-      </c>
-      <c r="Q253">
-        <v>-0.75</v>
-      </c>
-      <c r="R253">
-        <v>2</v>
-      </c>
-      <c r="S253">
-        <v>1.85</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.925</v>
-      </c>
-      <c r="V253">
-        <v>1.925</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Japan JLeague</t>
   </si>
   <si>
-    <t>FC Tokyo</t>
+    <t>Shonan Bellmare</t>
   </si>
   <si>
-    <t>Shonan Bellmare</t>
+    <t>FC Tokyo</t>
   </si>
   <si>
     <t>Nagoya Grampus</t>
@@ -130,10 +130,10 @@
     <t>Yokohama FMarinos</t>
   </si>
   <si>
-    <t>Sagan Tosu</t>
+    <t>Cerezo Osaka</t>
   </si>
   <si>
-    <t>Cerezo Osaka</t>
+    <t>Sagan Tosu</t>
   </si>
   <si>
     <t>Albirex Niigata</t>
@@ -166,10 +166,10 @@
     <t>Tokyo Verdy</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC262"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6173831</v>
+        <v>6173832</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -646,70 +646,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>50</v>
       </c>
       <c r="K2">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N2">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y2">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6173832</v>
+        <v>6173831</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -735,70 +735,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>51</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -824,7 +824,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>2.8</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>2.3</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6173841</v>
+        <v>6173840</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6173840</v>
+        <v>6173841</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1892,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2159,7 +2159,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>2.3</v>
@@ -2334,7 +2334,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173849</v>
+        <v>6173851</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173852</v>
+        <v>6173849</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,46 +2512,46 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
         <v>3.5</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2563,25 +2563,25 @@
         <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6173853</v>
+        <v>6173852</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,10 +2601,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2616,43 +2616,43 @@
         <v>52</v>
       </c>
       <c r="K24">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
       </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2661,13 +2661,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173851</v>
+        <v>6173853</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,73 +2690,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
         <v>3.3</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.3</v>
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2960,7 +2960,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3046,7 +3046,7 @@
         <v>45107.29166666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>1.65</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>3.6</v>
@@ -3491,7 +3491,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -3580,7 +3580,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3761,7 +3761,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>3.4</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>2.45</v>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>1.95</v>
@@ -4384,7 +4384,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>2.55</v>
@@ -4473,7 +4473,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4559,10 +4559,10 @@
         <v>45115.3125</v>
       </c>
       <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
         <v>38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>1.833</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48">
         <v>2.15</v>
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49">
         <v>1.333</v>
@@ -4915,7 +4915,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -5096,7 +5096,7 @@
         <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6173877</v>
+        <v>6173876</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,52 +5274,52 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M54">
         <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5328,19 +5328,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6173876</v>
+        <v>6173877</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,52 +5363,52 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L55">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
         <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O55">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5417,19 +5417,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>2.45</v>
@@ -5627,7 +5627,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6173888</v>
+        <v>6173887</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,10 +5894,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5906,10 +5906,10 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L61">
         <v>3.3</v>
@@ -5918,32 +5918,32 @@
         <v>3.4</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.9</v>
+      </c>
+      <c r="V61">
         <v>1.95</v>
       </c>
-      <c r="V61">
-        <v>1.9</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
@@ -5951,19 +5951,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173887</v>
+        <v>6173888</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,10 +5983,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5995,10 +5995,10 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>3.3</v>
@@ -6007,32 +6007,32 @@
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
+        <v>1.95</v>
+      </c>
+      <c r="V62">
         <v>1.9</v>
       </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6040,19 +6040,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6084,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
         <v>1.75</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2.25</v>
@@ -6250,7 +6250,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>2.4</v>
@@ -6342,7 +6342,7 @@
         <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>1.666</v>
@@ -6431,7 +6431,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6440,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6520,7 +6520,7 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>2.7</v>
@@ -6606,7 +6606,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71">
         <v>2.15</v>
@@ -7152,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75">
         <v>2.3</v>
@@ -7321,7 +7321,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>1.666</v>
@@ -7766,7 +7766,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7855,7 +7855,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K83">
         <v>3.5</v>
@@ -7941,7 +7941,7 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -7953,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <v>3.25</v>
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6173915</v>
+        <v>6173910</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,73 +8211,73 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>2.625</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
         <v>2.6</v>
       </c>
       <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>3.4</v>
+      </c>
+      <c r="P87">
+        <v>2.3</v>
+      </c>
+      <c r="Q87">
+        <v>0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>2.025</v>
+      </c>
+      <c r="T87">
         <v>2.75</v>
       </c>
-      <c r="O87">
-        <v>3.3</v>
-      </c>
-      <c r="P87">
-        <v>2.5</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>2</v>
-      </c>
-      <c r="S87">
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6173914</v>
+        <v>6173915</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,55 +8297,55 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>52</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
         <v>2.75</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>1.75</v>
@@ -8357,16 +8357,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8374,7 +8374,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6173913</v>
+        <v>6173914</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8386,76 +8386,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6173912</v>
+        <v>6173913</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8475,10 +8475,10 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8487,61 +8487,61 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K90">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8552,7 +8552,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6173911</v>
+        <v>6173912</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8564,76 +8564,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
+        <v>2.2</v>
+      </c>
+      <c r="N91">
+        <v>3.2</v>
+      </c>
+      <c r="O91">
+        <v>3.6</v>
+      </c>
+      <c r="P91">
         <v>2.15</v>
-      </c>
-      <c r="N91">
-        <v>3.3</v>
-      </c>
-      <c r="O91">
-        <v>3.2</v>
-      </c>
-      <c r="P91">
-        <v>2.25</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA91">
         <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6173910</v>
+        <v>6173911</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8653,67 +8653,67 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
         <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AA92">
         <v>-0.5</v>
@@ -8722,7 +8722,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>3.2</v>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>1.5</v>
@@ -9009,7 +9009,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -9187,7 +9187,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>42</v>
@@ -9199,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>3.75</v>
@@ -9276,7 +9276,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9288,7 +9288,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
         <v>3.6</v>
@@ -9454,7 +9454,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -9466,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9546,7 +9546,7 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9635,7 +9635,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>1.4</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>1.615</v>
@@ -9813,7 +9813,7 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9902,7 +9902,7 @@
         <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <v>1.7</v>
@@ -10178,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K109">
         <v>3.1</v>
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10433,10 +10433,10 @@
         <v>45192.125</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10534,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>1.85</v>
@@ -10712,7 +10712,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>2.4</v>
@@ -10792,7 +10792,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10890,7 +10890,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10967,7 +10967,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>43</v>
@@ -10979,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
         <v>4.1</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11157,7 +11157,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11246,7 +11246,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
         <v>2.1</v>
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11424,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K124">
         <v>2.9</v>
@@ -11590,10 +11590,10 @@
         <v>45199.25</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K125">
         <v>1.8</v>
@@ -11768,7 +11768,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
         <v>45</v>
@@ -11857,7 +11857,7 @@
         <v>45200.125</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
@@ -12127,7 +12127,7 @@
         <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12136,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12216,7 +12216,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
         <v>2.625</v>
@@ -12572,7 +12572,7 @@
         <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>2.3</v>
@@ -12661,7 +12661,7 @@
         <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>1.8</v>
@@ -12750,7 +12750,7 @@
         <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12759,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>1.65</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6472890</v>
+        <v>6472887</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,40 +12925,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>50</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N140">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
         <v>1.85</v>
@@ -12979,22 +12979,22 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6472887</v>
+        <v>6472889</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,13 +13014,13 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -13029,25 +13029,25 @@
         <v>51</v>
       </c>
       <c r="K141">
+        <v>2.625</v>
+      </c>
+      <c r="L141">
+        <v>3.1</v>
+      </c>
+      <c r="M141">
+        <v>2.75</v>
+      </c>
+      <c r="N141">
         <v>3.4</v>
       </c>
-      <c r="L141">
-        <v>3.5</v>
-      </c>
-      <c r="M141">
-        <v>2.05</v>
-      </c>
-      <c r="N141">
-        <v>3.5</v>
-      </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
         <v>1.85</v>
@@ -13056,34 +13056,34 @@
         <v>2</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6472889</v>
+        <v>6472890</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,37 +13103,37 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L142">
+        <v>3.4</v>
+      </c>
+      <c r="M142">
+        <v>2.3</v>
+      </c>
+      <c r="N142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>2.75</v>
-      </c>
-      <c r="N142">
+      <c r="O142">
         <v>3.4</v>
       </c>
-      <c r="O142">
-        <v>3.1</v>
-      </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
         <v>0.25</v>
@@ -13145,13 +13145,13 @@
         <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13160,7 +13160,7 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
         <v>-1</v>
@@ -13169,10 +13169,10 @@
         <v>1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13192,7 +13192,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>41</v>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>2.4</v>
@@ -13370,7 +13370,7 @@
         <v>45227.125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
@@ -13382,7 +13382,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K145">
         <v>3.6</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>3.2</v>
@@ -13548,7 +13548,7 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
         <v>31</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6480215</v>
+        <v>6480222</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13649,28 +13649,28 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
+        <v>3.1</v>
+      </c>
+      <c r="N148">
         <v>2.25</v>
       </c>
-      <c r="N148">
-        <v>3.8</v>
-      </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
         <v>1.975</v>
@@ -13679,34 +13679,34 @@
         <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6480222</v>
+        <v>6480215</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13738,28 +13738,28 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N149">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
         <v>1.975</v>
@@ -13768,34 +13768,34 @@
         <v>1.875</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6482813</v>
+        <v>6480216</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45241.125</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>50</v>
       </c>
       <c r="K150">
+        <v>2.15</v>
+      </c>
+      <c r="L150">
+        <v>3.2</v>
+      </c>
+      <c r="M150">
+        <v>3.6</v>
+      </c>
+      <c r="N150">
+        <v>2.55</v>
+      </c>
+      <c r="O150">
+        <v>3</v>
+      </c>
+      <c r="P150">
+        <v>3</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>1.775</v>
+      </c>
+      <c r="S150">
         <v>2.1</v>
       </c>
-      <c r="L150">
-        <v>3.6</v>
-      </c>
-      <c r="M150">
-        <v>3.3</v>
-      </c>
-      <c r="N150">
-        <v>3.1</v>
-      </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>2.25</v>
-      </c>
-      <c r="Q150">
-        <v>0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.875</v>
-      </c>
-      <c r="S150">
-        <v>1.975</v>
-      </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y150">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6480216</v>
+        <v>6482813</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45241.125</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
       </c>
       <c r="K151">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N151">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14005,7 +14005,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
         <v>2.45</v>
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6480221</v>
+        <v>6480217</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,40 +14082,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.9</v>
@@ -14124,34 +14124,34 @@
         <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6480217</v>
+        <v>6480221</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,40 +14171,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
         <v>1.9</v>
@@ -14213,34 +14213,34 @@
         <v>1.95</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14272,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K155">
         <v>2.55</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
         <v>1.7</v>
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6501277</v>
+        <v>6504896</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,73 +14527,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P158">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
         <v>2.025</v>
       </c>
-      <c r="S158">
-        <v>1.825</v>
-      </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB158">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504896</v>
+        <v>6501277</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,73 +14616,73 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K159">
+        <v>1.95</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
         <v>1.75</v>
       </c>
-      <c r="L159">
+      <c r="O159">
         <v>3.75</v>
       </c>
-      <c r="M159">
+      <c r="P159">
         <v>4.5</v>
       </c>
-      <c r="N159">
-        <v>1.533</v>
-      </c>
-      <c r="O159">
-        <v>4.333</v>
-      </c>
-      <c r="P159">
-        <v>6.5</v>
-      </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
         <v>1.825</v>
       </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X159">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA159">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14717,7 +14717,7 @@
         <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
         <v>1.7</v>
@@ -14883,7 +14883,7 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -14895,7 +14895,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K162">
         <v>2.6</v>
@@ -14975,7 +14975,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14984,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K163">
         <v>2.55</v>
@@ -15061,7 +15061,7 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
         <v>45</v>
@@ -15073,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
         <v>1.8</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527617</v>
+        <v>6527777</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,10 +15150,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15162,28 +15162,28 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
+        <v>2.875</v>
+      </c>
+      <c r="N165">
+        <v>2.3</v>
+      </c>
+      <c r="O165">
         <v>3.6</v>
       </c>
-      <c r="M165">
-        <v>1.8</v>
-      </c>
-      <c r="N165">
-        <v>5.25</v>
-      </c>
-      <c r="O165">
-        <v>3.8</v>
-      </c>
       <c r="P165">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
         <v>2.025</v>
@@ -15192,34 +15192,34 @@
         <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
+        <v>2.025</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
         <v>1.8</v>
       </c>
-      <c r="W165">
-        <v>-1</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>0.615</v>
-      </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6527778</v>
+        <v>6527617</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L166">
+        <v>3.6</v>
+      </c>
+      <c r="M166">
+        <v>1.8</v>
+      </c>
+      <c r="N166">
+        <v>5.25</v>
+      </c>
+      <c r="O166">
         <v>3.8</v>
       </c>
-      <c r="M166">
-        <v>1.95</v>
-      </c>
-      <c r="N166">
-        <v>3.3</v>
-      </c>
-      <c r="O166">
-        <v>4</v>
-      </c>
       <c r="P166">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R166">
+        <v>2.025</v>
+      </c>
+      <c r="S166">
         <v>1.825</v>
       </c>
-      <c r="S166">
-        <v>2.025</v>
-      </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15340,7 +15340,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K167">
         <v>2.4</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527777</v>
+        <v>6527778</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K168">
+        <v>3.4</v>
+      </c>
+      <c r="L168">
+        <v>3.8</v>
+      </c>
+      <c r="M168">
+        <v>1.95</v>
+      </c>
+      <c r="N168">
+        <v>3.3</v>
+      </c>
+      <c r="O168">
+        <v>4</v>
+      </c>
+      <c r="P168">
+        <v>2</v>
+      </c>
+      <c r="Q168">
+        <v>0.5</v>
+      </c>
+      <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>2.025</v>
+      </c>
+      <c r="T168">
+        <v>3.25</v>
+      </c>
+      <c r="U168">
+        <v>1.925</v>
+      </c>
+      <c r="V168">
+        <v>1.925</v>
+      </c>
+      <c r="W168">
         <v>2.3</v>
       </c>
-      <c r="L168">
-        <v>3.5</v>
-      </c>
-      <c r="M168">
-        <v>2.875</v>
-      </c>
-      <c r="N168">
-        <v>2.3</v>
-      </c>
-      <c r="O168">
-        <v>3.6</v>
-      </c>
-      <c r="P168">
-        <v>2.8</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>2.025</v>
-      </c>
-      <c r="S168">
-        <v>1.825</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>2.025</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15509,7 +15509,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K170">
         <v>3.3</v>
@@ -15684,7 +15684,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
         <v>43</v>
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>3.75</v>
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -16052,7 +16052,7 @@
         <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K175">
         <v>2.4</v>
@@ -16141,7 +16141,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K176">
         <v>4.5</v>
@@ -16218,7 +16218,7 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
         <v>40</v>
@@ -16230,7 +16230,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
         <v>3.2</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2.55</v>
@@ -16396,10 +16396,10 @@
         <v>45346.125</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
         <v>2.05</v>
@@ -16497,7 +16497,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K180">
         <v>2</v>
@@ -16574,7 +16574,7 @@
         <v>45346.125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>43</v>
@@ -16586,7 +16586,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>3.75</v>
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
         <v>2.9</v>
@@ -16764,7 +16764,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
         <v>5</v>
@@ -16853,7 +16853,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K184">
         <v>1.7</v>
@@ -16942,7 +16942,7 @@
         <v>5</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K185">
         <v>1.444</v>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K186">
         <v>1.833</v>
@@ -17111,7 +17111,7 @@
         <v>45</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K187">
         <v>2.25</v>
@@ -17197,7 +17197,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17298,7 +17298,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K189">
         <v>1.533</v>
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624510</v>
+        <v>7624509</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,10 +17375,10 @@
         <v>45353.125</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17387,28 +17387,28 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O190">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P190">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
         <v>2.025</v>
@@ -17417,34 +17417,34 @@
         <v>1.825</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
+        <v>2.025</v>
+      </c>
+      <c r="V190">
         <v>1.825</v>
       </c>
-      <c r="V190">
-        <v>2.025</v>
-      </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624509</v>
+        <v>7624510</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,10 +17464,10 @@
         <v>45353.125</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17476,28 +17476,28 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="N191">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O191">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P191">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
         <v>2.025</v>
@@ -17506,34 +17506,34 @@
         <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
         <v>2.025</v>
       </c>
-      <c r="V191">
-        <v>1.825</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA191">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K193">
         <v>1.4</v>
@@ -17832,7 +17832,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>2.8</v>
@@ -17986,7 +17986,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7744599</v>
+        <v>7744598</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17998,76 +17998,76 @@
         <v>45360.125</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L197">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O197">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18075,7 +18075,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7744598</v>
+        <v>7744599</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18087,76 +18087,76 @@
         <v>45360.125</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>50</v>
+      </c>
+      <c r="K198">
+        <v>2.25</v>
+      </c>
+      <c r="L198">
+        <v>3.1</v>
+      </c>
+      <c r="M198">
+        <v>3.4</v>
+      </c>
+      <c r="N198">
+        <v>2.6</v>
+      </c>
+      <c r="O198">
+        <v>3</v>
+      </c>
+      <c r="P198">
+        <v>3.1</v>
+      </c>
+      <c r="Q198">
         <v>0</v>
       </c>
-      <c r="J198" t="s">
-        <v>52</v>
-      </c>
-      <c r="K198">
-        <v>1.55</v>
-      </c>
-      <c r="L198">
-        <v>4</v>
-      </c>
-      <c r="M198">
-        <v>5.75</v>
-      </c>
-      <c r="N198">
-        <v>1.4</v>
-      </c>
-      <c r="O198">
-        <v>4.75</v>
-      </c>
-      <c r="P198">
-        <v>7</v>
-      </c>
-      <c r="Q198">
-        <v>-1.25</v>
-      </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W198">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7744602</v>
+        <v>7744601</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,49 +18176,49 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M199">
+        <v>4.5</v>
+      </c>
+      <c r="N199">
+        <v>1.85</v>
+      </c>
+      <c r="O199">
         <v>3.6</v>
       </c>
-      <c r="N199">
-        <v>2.25</v>
-      </c>
-      <c r="O199">
-        <v>3.1</v>
-      </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
         <v>1.975</v>
@@ -18227,25 +18227,25 @@
         <v>1.875</v>
       </c>
       <c r="W199">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7744601</v>
+        <v>7744602</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,49 +18265,49 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L200">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U200">
         <v>1.975</v>
@@ -18316,25 +18316,25 @@
         <v>1.875</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18354,7 +18354,7 @@
         <v>45360.16666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
         <v>46</v>
@@ -18366,7 +18366,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K201">
         <v>3.5</v>
@@ -18455,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K202">
         <v>2.7</v>
@@ -18535,7 +18535,7 @@
         <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18544,7 +18544,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K203">
         <v>2.3</v>
@@ -18633,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K204">
         <v>2.55</v>
@@ -18722,7 +18722,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K205">
         <v>2.55</v>
@@ -18799,10 +18799,10 @@
         <v>45367.125</v>
       </c>
       <c r="F206" t="s">
+        <v>39</v>
+      </c>
+      <c r="G206" t="s">
         <v>38</v>
-      </c>
-      <c r="G206" t="s">
-        <v>39</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K206">
         <v>3</v>
@@ -18900,7 +18900,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K207">
         <v>2.3</v>
@@ -19078,7 +19078,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>2.75</v>
@@ -19167,7 +19167,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K210">
         <v>3.5</v>
@@ -19333,7 +19333,7 @@
         <v>45368.125</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>36</v>
@@ -19345,7 +19345,7 @@
         <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K212">
         <v>3.1</v>
@@ -19434,7 +19434,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K213">
         <v>3.25</v>
@@ -19523,7 +19523,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K214">
         <v>1.571</v>
@@ -19612,7 +19612,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
         <v>2.15</v>
@@ -19766,7 +19766,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7744617</v>
+        <v>7744618</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19778,58 +19778,58 @@
         <v>45381.125</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>52</v>
       </c>
       <c r="K217">
-        <v>1.475</v>
+        <v>1.833</v>
       </c>
       <c r="L217">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="N217">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19838,16 +19838,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>48</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7744618</v>
+        <v>7744617</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,76 +19956,76 @@
         <v>45381.125</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>52</v>
       </c>
       <c r="K219">
-        <v>1.833</v>
+        <v>1.475</v>
       </c>
       <c r="L219">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P219">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q219">
+        <v>-0.75</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>1.85</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
+        <v>1.875</v>
+      </c>
+      <c r="W219">
+        <v>0.75</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0.5</v>
+      </c>
+      <c r="AA219">
         <v>-0.5</v>
       </c>
-      <c r="R219">
-        <v>2.025</v>
-      </c>
-      <c r="S219">
-        <v>1.825</v>
-      </c>
-      <c r="T219">
-        <v>2</v>
-      </c>
-      <c r="U219">
-        <v>2.025</v>
-      </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
-      <c r="W219">
-        <v>1</v>
-      </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>1.025</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20048,7 +20048,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20134,10 +20134,10 @@
         <v>45381.16666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7744628</v>
+        <v>7744986</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,76 +20312,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K223">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L223">
+        <v>3.6</v>
+      </c>
+      <c r="M223">
+        <v>2.8</v>
+      </c>
+      <c r="N223">
+        <v>2.7</v>
+      </c>
+      <c r="O223">
+        <v>3.75</v>
+      </c>
+      <c r="P223">
+        <v>2.4</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
+        <v>1.8</v>
+      </c>
+      <c r="T223">
         <v>3</v>
       </c>
-      <c r="M223">
-        <v>2.4</v>
-      </c>
-      <c r="N223">
-        <v>3.75</v>
-      </c>
-      <c r="O223">
-        <v>3</v>
-      </c>
-      <c r="P223">
-        <v>2.25</v>
-      </c>
-      <c r="Q223">
-        <v>0.25</v>
-      </c>
-      <c r="R223">
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
         <v>1.95</v>
       </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>1.75</v>
-      </c>
-      <c r="U223">
-        <v>1.925</v>
-      </c>
-      <c r="V223">
-        <v>1.925</v>
-      </c>
       <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
         <v>2.75</v>
       </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>-0</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
         <v>0.95</v>
-      </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
-      <c r="AB223">
-        <v>-1</v>
-      </c>
-      <c r="AC223">
-        <v>0.925</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7744986</v>
+        <v>7744629</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,10 +20401,10 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20413,64 +20413,64 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N224">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="O224">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.925</v>
+      </c>
+      <c r="V224">
+        <v>1.925</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
         <v>3</v>
       </c>
-      <c r="U224">
-        <v>1.9</v>
-      </c>
-      <c r="V224">
-        <v>1.95</v>
-      </c>
-      <c r="W224">
-        <v>-1</v>
-      </c>
-      <c r="X224">
-        <v>2.75</v>
-      </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7744629</v>
+        <v>7744628</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,49 +20490,49 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>2.4</v>
+      </c>
+      <c r="N225">
         <v>3.75</v>
       </c>
-      <c r="M225">
-        <v>1.666</v>
-      </c>
-      <c r="N225">
-        <v>6.5</v>
-      </c>
       <c r="O225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P225">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q225">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U225">
         <v>1.925</v>
@@ -20541,16 +20541,16 @@
         <v>1.925</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X225">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
         <v>-1</v>
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7744627</v>
+        <v>7744625</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>51</v>
       </c>
       <c r="K226">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M226">
         <v>3.1</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O226">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
+        <v>1.975</v>
+      </c>
+      <c r="S226">
         <v>1.875</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20656,7 +20656,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7744625</v>
+        <v>7744624</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20668,10 +20668,10 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G227" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20680,28 +20680,28 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K227">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
         <v>3.25</v>
       </c>
       <c r="M227">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N227">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O227">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P227">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
         <v>1.975</v>
@@ -20713,10 +20713,10 @@
         <v>2.25</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20725,7 +20725,7 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Z227">
         <v>-1</v>
@@ -20734,7 +20734,7 @@
         <v>0.875</v>
       </c>
       <c r="AB227">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20745,7 +20745,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7744624</v>
+        <v>7744623</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20757,76 +20757,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L228">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N228">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P228">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y228">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB228">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7744623</v>
+        <v>7744626</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,76 +20846,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O229">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q229">
         <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X229">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
         <v>-0.5</v>
       </c>
-      <c r="AA229">
-        <v>0.4</v>
-      </c>
-      <c r="AB229">
-        <v>0</v>
-      </c>
       <c r="AC229">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7744626</v>
+        <v>7744627</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,46 +20935,46 @@
         <v>45385.29166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K230">
+        <v>2.1</v>
+      </c>
+      <c r="L230">
         <v>3.4</v>
       </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
       <c r="M230">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N230">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O230">
         <v>3.3</v>
       </c>
       <c r="P230">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q230">
         <v>-0.25</v>
       </c>
       <c r="R230">
+        <v>1.875</v>
+      </c>
+      <c r="S230">
         <v>1.975</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
       </c>
       <c r="T230">
         <v>2.25</v>
@@ -20986,25 +20986,25 @@
         <v>1.925</v>
       </c>
       <c r="W230">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21036,7 +21036,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K231">
         <v>2.75</v>
@@ -21113,7 +21113,7 @@
         <v>45385.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
         <v>36</v>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K234">
         <v>2.7</v>
@@ -21383,7 +21383,7 @@
         <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21457,7 +21457,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7744634</v>
+        <v>7744636</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21469,76 +21469,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>51</v>
+      </c>
+      <c r="K236">
+        <v>1.95</v>
+      </c>
+      <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>3.4</v>
+      </c>
+      <c r="N236">
+        <v>1.727</v>
+      </c>
+      <c r="O236">
+        <v>4.2</v>
+      </c>
+      <c r="P236">
+        <v>4.2</v>
+      </c>
+      <c r="Q236">
+        <v>-0.75</v>
+      </c>
+      <c r="R236">
+        <v>1.925</v>
+      </c>
+      <c r="S236">
+        <v>1.925</v>
+      </c>
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
+        <v>1.875</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>3.2</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>0.925</v>
+      </c>
+      <c r="AB236">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
-      <c r="J236" t="s">
-        <v>50</v>
-      </c>
-      <c r="K236">
-        <v>2.75</v>
-      </c>
-      <c r="L236">
-        <v>3</v>
-      </c>
-      <c r="M236">
-        <v>2.5</v>
-      </c>
-      <c r="N236">
-        <v>2.55</v>
-      </c>
-      <c r="O236">
-        <v>3.2</v>
-      </c>
-      <c r="P236">
-        <v>2.9</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>1.8</v>
-      </c>
-      <c r="S236">
-        <v>2.05</v>
-      </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>2</v>
-      </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>1.9</v>
-      </c>
-      <c r="Z236">
-        <v>-1</v>
-      </c>
-      <c r="AA236">
-        <v>1.05</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
       <c r="AC236">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21570,7 +21570,7 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K237">
         <v>1.8</v>
@@ -21635,7 +21635,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7744636</v>
+        <v>7744634</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21647,55 +21647,55 @@
         <v>45389.08333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K238">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O238">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21704,19 +21704,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21739,7 +21739,7 @@
         <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21837,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K240">
         <v>2.2</v>
@@ -21926,7 +21926,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K241">
         <v>2.2</v>
@@ -22003,7 +22003,7 @@
         <v>45389.20833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
         <v>42</v>
@@ -22273,7 +22273,7 @@
         <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22282,7 +22282,7 @@
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K245">
         <v>1.615</v>
@@ -22371,7 +22371,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K246">
         <v>2.375</v>
@@ -22460,7 +22460,7 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K247">
         <v>3</v>
@@ -22549,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K248">
         <v>4.8</v>
@@ -22614,7 +22614,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7744649</v>
+        <v>7744650</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22626,76 +22626,76 @@
         <v>45395.125</v>
       </c>
       <c r="F249" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K249">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L249">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M249">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N249">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O249">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q249">
         <v>0</v>
       </c>
       <c r="R249">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA249">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22703,7 +22703,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7744650</v>
+        <v>7744649</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22715,76 +22715,76 @@
         <v>45395.125</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G250" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M250">
+        <v>2.6</v>
+      </c>
+      <c r="N250">
+        <v>2.9</v>
+      </c>
+      <c r="O250">
+        <v>3</v>
+      </c>
+      <c r="P250">
         <v>2.625</v>
-      </c>
-      <c r="N250">
-        <v>2.7</v>
-      </c>
-      <c r="O250">
-        <v>3.2</v>
-      </c>
-      <c r="P250">
-        <v>2.7</v>
       </c>
       <c r="Q250">
         <v>0</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V250">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W250">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z250">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC250">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22896,7 +22896,7 @@
         <v>49</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -22905,7 +22905,7 @@
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K252">
         <v>2.5</v>
@@ -22985,7 +22985,7 @@
         <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23052,672 +23052,6 @@
       </c>
       <c r="AC253">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:29">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254">
-        <v>7744653</v>
-      </c>
-      <c r="C254" t="s">
-        <v>28</v>
-      </c>
-      <c r="D254" t="s">
-        <v>28</v>
-      </c>
-      <c r="E254" s="2">
-        <v>45402.08333333334</v>
-      </c>
-      <c r="F254" t="s">
-        <v>44</v>
-      </c>
-      <c r="G254" t="s">
-        <v>35</v>
-      </c>
-      <c r="K254">
-        <v>3.8</v>
-      </c>
-      <c r="L254">
-        <v>3.5</v>
-      </c>
-      <c r="M254">
-        <v>1.833</v>
-      </c>
-      <c r="N254">
-        <v>4.75</v>
-      </c>
-      <c r="O254">
-        <v>3.8</v>
-      </c>
-      <c r="P254">
-        <v>1.727</v>
-      </c>
-      <c r="Q254">
-        <v>0.75</v>
-      </c>
-      <c r="R254">
-        <v>1.875</v>
-      </c>
-      <c r="S254">
-        <v>1.975</v>
-      </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
-      <c r="U254">
-        <v>1.85</v>
-      </c>
-      <c r="V254">
-        <v>2</v>
-      </c>
-      <c r="W254">
-        <v>0</v>
-      </c>
-      <c r="X254">
-        <v>0</v>
-      </c>
-      <c r="Y254">
-        <v>0</v>
-      </c>
-      <c r="Z254">
-        <v>0</v>
-      </c>
-      <c r="AA254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:29">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255">
-        <v>7744656</v>
-      </c>
-      <c r="C255" t="s">
-        <v>28</v>
-      </c>
-      <c r="D255" t="s">
-        <v>28</v>
-      </c>
-      <c r="E255" s="2">
-        <v>45402.08333333334</v>
-      </c>
-      <c r="F255" t="s">
-        <v>38</v>
-      </c>
-      <c r="G255" t="s">
-        <v>42</v>
-      </c>
-      <c r="K255">
-        <v>4.333</v>
-      </c>
-      <c r="L255">
-        <v>3.4</v>
-      </c>
-      <c r="M255">
-        <v>1.909</v>
-      </c>
-      <c r="N255">
-        <v>4.5</v>
-      </c>
-      <c r="O255">
-        <v>3.4</v>
-      </c>
-      <c r="P255">
-        <v>1.909</v>
-      </c>
-      <c r="Q255">
-        <v>0.5</v>
-      </c>
-      <c r="R255">
-        <v>1.975</v>
-      </c>
-      <c r="S255">
-        <v>1.875</v>
-      </c>
-      <c r="T255">
-        <v>2.25</v>
-      </c>
-      <c r="U255">
-        <v>1.825</v>
-      </c>
-      <c r="V255">
-        <v>2.025</v>
-      </c>
-      <c r="W255">
-        <v>0</v>
-      </c>
-      <c r="X255">
-        <v>0</v>
-      </c>
-      <c r="Y255">
-        <v>0</v>
-      </c>
-      <c r="Z255">
-        <v>0</v>
-      </c>
-      <c r="AA255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:29">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256">
-        <v>7744655</v>
-      </c>
-      <c r="C256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" t="s">
-        <v>28</v>
-      </c>
-      <c r="E256" s="2">
-        <v>45402.08333333334</v>
-      </c>
-      <c r="F256" t="s">
-        <v>45</v>
-      </c>
-      <c r="G256" t="s">
-        <v>40</v>
-      </c>
-      <c r="K256">
-        <v>2.3</v>
-      </c>
-      <c r="L256">
-        <v>3.4</v>
-      </c>
-      <c r="M256">
-        <v>2.75</v>
-      </c>
-      <c r="N256">
-        <v>2.625</v>
-      </c>
-      <c r="O256">
-        <v>3.3</v>
-      </c>
-      <c r="P256">
-        <v>2.7</v>
-      </c>
-      <c r="Q256">
-        <v>0</v>
-      </c>
-      <c r="R256">
-        <v>1.9</v>
-      </c>
-      <c r="S256">
-        <v>1.95</v>
-      </c>
-      <c r="T256">
-        <v>2.25</v>
-      </c>
-      <c r="U256">
-        <v>1.925</v>
-      </c>
-      <c r="V256">
-        <v>1.925</v>
-      </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-      <c r="X256">
-        <v>0</v>
-      </c>
-      <c r="Y256">
-        <v>0</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>7744658</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45402.125</v>
-      </c>
-      <c r="F257" t="s">
-        <v>32</v>
-      </c>
-      <c r="G257" t="s">
-        <v>47</v>
-      </c>
-      <c r="K257">
-        <v>2.25</v>
-      </c>
-      <c r="L257">
-        <v>3</v>
-      </c>
-      <c r="M257">
-        <v>3.2</v>
-      </c>
-      <c r="N257">
-        <v>2.3</v>
-      </c>
-      <c r="O257">
-        <v>3.1</v>
-      </c>
-      <c r="P257">
-        <v>3.4</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.975</v>
-      </c>
-      <c r="S257">
-        <v>1.875</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>1.925</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>7744657</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" t="s">
-        <v>28</v>
-      </c>
-      <c r="E258" s="2">
-        <v>45402.125</v>
-      </c>
-      <c r="F258" t="s">
-        <v>30</v>
-      </c>
-      <c r="G258" t="s">
-        <v>46</v>
-      </c>
-      <c r="K258">
-        <v>4.5</v>
-      </c>
-      <c r="L258">
-        <v>3.6</v>
-      </c>
-      <c r="M258">
-        <v>1.75</v>
-      </c>
-      <c r="N258">
-        <v>4</v>
-      </c>
-      <c r="O258">
-        <v>3.6</v>
-      </c>
-      <c r="P258">
-        <v>1.909</v>
-      </c>
-      <c r="Q258">
-        <v>0.5</v>
-      </c>
-      <c r="R258">
-        <v>1.95</v>
-      </c>
-      <c r="S258">
-        <v>1.9</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>2</v>
-      </c>
-      <c r="V258">
-        <v>1.85</v>
-      </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-      <c r="X258">
-        <v>0</v>
-      </c>
-      <c r="Y258">
-        <v>0</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-      <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>7744659</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45402.16666666666</v>
-      </c>
-      <c r="F259" t="s">
-        <v>36</v>
-      </c>
-      <c r="G259" t="s">
-        <v>41</v>
-      </c>
-      <c r="K259">
-        <v>1.909</v>
-      </c>
-      <c r="L259">
-        <v>3.4</v>
-      </c>
-      <c r="M259">
-        <v>4.333</v>
-      </c>
-      <c r="N259">
-        <v>1.909</v>
-      </c>
-      <c r="O259">
-        <v>3.5</v>
-      </c>
-      <c r="P259">
-        <v>4.333</v>
-      </c>
-      <c r="Q259">
-        <v>-0.5</v>
-      </c>
-      <c r="R259">
-        <v>1.925</v>
-      </c>
-      <c r="S259">
-        <v>1.925</v>
-      </c>
-      <c r="T259">
-        <v>2.25</v>
-      </c>
-      <c r="U259">
-        <v>1.825</v>
-      </c>
-      <c r="V259">
-        <v>2.025</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>7744660</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="2">
-        <v>45402.16666666666</v>
-      </c>
-      <c r="F260" t="s">
-        <v>43</v>
-      </c>
-      <c r="G260" t="s">
-        <v>49</v>
-      </c>
-      <c r="K260">
-        <v>1.8</v>
-      </c>
-      <c r="L260">
-        <v>3.5</v>
-      </c>
-      <c r="M260">
-        <v>4</v>
-      </c>
-      <c r="N260">
-        <v>1.95</v>
-      </c>
-      <c r="O260">
-        <v>3.6</v>
-      </c>
-      <c r="P260">
-        <v>3.8</v>
-      </c>
-      <c r="Q260">
-        <v>-0.5</v>
-      </c>
-      <c r="R260">
-        <v>1.95</v>
-      </c>
-      <c r="S260">
-        <v>1.9</v>
-      </c>
-      <c r="T260">
-        <v>2.5</v>
-      </c>
-      <c r="U260">
-        <v>2</v>
-      </c>
-      <c r="V260">
-        <v>1.85</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>7744662</v>
-      </c>
-      <c r="C261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" t="s">
-        <v>28</v>
-      </c>
-      <c r="E261" s="2">
-        <v>45403.125</v>
-      </c>
-      <c r="F261" t="s">
-        <v>31</v>
-      </c>
-      <c r="G261" t="s">
-        <v>39</v>
-      </c>
-      <c r="K261">
-        <v>2.3</v>
-      </c>
-      <c r="L261">
-        <v>3.4</v>
-      </c>
-      <c r="M261">
-        <v>2.75</v>
-      </c>
-      <c r="N261">
-        <v>2.875</v>
-      </c>
-      <c r="O261">
-        <v>3.3</v>
-      </c>
-      <c r="P261">
-        <v>2.5</v>
-      </c>
-      <c r="Q261">
-        <v>0</v>
-      </c>
-      <c r="R261">
-        <v>2.05</v>
-      </c>
-      <c r="S261">
-        <v>1.8</v>
-      </c>
-      <c r="T261">
-        <v>2.25</v>
-      </c>
-      <c r="U261">
-        <v>2.05</v>
-      </c>
-      <c r="V261">
-        <v>1.8</v>
-      </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-      <c r="X261">
-        <v>0</v>
-      </c>
-      <c r="Y261">
-        <v>0</v>
-      </c>
-      <c r="Z261">
-        <v>0</v>
-      </c>
-      <c r="AA261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262">
-        <v>7744661</v>
-      </c>
-      <c r="C262" t="s">
-        <v>28</v>
-      </c>
-      <c r="D262" t="s">
-        <v>28</v>
-      </c>
-      <c r="E262" s="2">
-        <v>45403.125</v>
-      </c>
-      <c r="F262" t="s">
-        <v>29</v>
-      </c>
-      <c r="G262" t="s">
-        <v>48</v>
-      </c>
-      <c r="K262">
-        <v>2.5</v>
-      </c>
-      <c r="L262">
-        <v>3.4</v>
-      </c>
-      <c r="M262">
-        <v>2.5</v>
-      </c>
-      <c r="N262">
-        <v>3.2</v>
-      </c>
-      <c r="O262">
-        <v>3.4</v>
-      </c>
-      <c r="P262">
-        <v>2.25</v>
-      </c>
-      <c r="Q262">
-        <v>0.25</v>
-      </c>
-      <c r="R262">
-        <v>1.9</v>
-      </c>
-      <c r="S262">
-        <v>1.95</v>
-      </c>
-      <c r="T262">
-        <v>2.25</v>
-      </c>
-      <c r="U262">
-        <v>1.95</v>
-      </c>
-      <c r="V262">
-        <v>1.9</v>
-      </c>
-      <c r="W262">
-        <v>0</v>
-      </c>
-      <c r="X262">
-        <v>0</v>
-      </c>
-      <c r="Y262">
-        <v>0</v>
-      </c>
-      <c r="Z262">
-        <v>0</v>
-      </c>
-      <c r="AA262">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -97,34 +97,34 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7744674</t>
+    <t>7744683</t>
   </si>
   <si>
-    <t>7744673</t>
+    <t>7744682</t>
   </si>
   <si>
-    <t>7744679</t>
+    <t>7744684</t>
   </si>
   <si>
-    <t>7744678</t>
+    <t>7744687</t>
   </si>
   <si>
-    <t>7744676</t>
+    <t>7744686</t>
   </si>
   <si>
-    <t>7744675</t>
+    <t>7744685</t>
   </si>
   <si>
-    <t>7744677</t>
+    <t>7744688</t>
   </si>
   <si>
-    <t>7744680</t>
+    <t>7744689</t>
   </si>
   <si>
-    <t>7744987</t>
+    <t>7744690</t>
   </si>
   <si>
-    <t>7744681</t>
+    <t>7744988</t>
   </si>
   <si>
     <t>Japan JLeague</t>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173851</v>
+        <v>6173853</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -2384,73 +2384,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="K22">
         <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -2461,7 +2461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173849</v>
+        <v>6173851</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2470,76 +2470,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J23">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
         <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
         <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
         <v>2.5</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6173850</v>
+        <v>6173849</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2556,76 +2556,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J24">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L24">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T24">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2633,7 +2633,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173853</v>
+        <v>6173850</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2642,58 +2642,58 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>
       </c>
       <c r="J25">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K25">
         <v>3.3</v>
       </c>
       <c r="L25">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O25">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
         <v>2.25</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.625</v>
+        <v>2.4</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2702,16 +2702,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -4009,7 +4009,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173871</v>
+        <v>6173872</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -4018,58 +4018,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>61</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="K41">
+        <v>3.3</v>
+      </c>
+      <c r="L41">
+        <v>2.2</v>
+      </c>
+      <c r="M41">
+        <v>2.9</v>
+      </c>
+      <c r="N41">
         <v>3.4</v>
       </c>
-      <c r="L41">
-        <v>3.75</v>
-      </c>
-      <c r="M41">
-        <v>1.8</v>
-      </c>
-      <c r="N41">
-        <v>3.6</v>
-      </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="P41">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S41">
         <v>2.5</v>
       </c>
       <c r="T41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4078,16 +4078,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4095,7 +4095,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6173872</v>
+        <v>6173871</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -4104,58 +4104,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>61</v>
       </c>
       <c r="J42">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="K42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R42">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
         <v>2.5</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4164,16 +4164,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4869,7 +4869,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173878</v>
+        <v>6173881</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -4878,10 +4878,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4893,43 +4893,43 @@
         <v>61</v>
       </c>
       <c r="J51">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="K51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="M51">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="N51">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O51">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="P51">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q51">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>2.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4938,16 +4938,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4955,7 +4955,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173880</v>
+        <v>6173876</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -4964,76 +4964,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J52">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O52">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="P52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
         <v>2.25</v>
       </c>
       <c r="T52">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5041,7 +5041,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173879</v>
+        <v>6173880</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -5050,58 +5050,58 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>61</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>2.25</v>
+      </c>
+      <c r="M53">
         <v>3.4</v>
       </c>
-      <c r="L53">
-        <v>3.4</v>
-      </c>
-      <c r="M53">
-        <v>2.1</v>
-      </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="P53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T53">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5110,16 +5110,16 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5127,7 +5127,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6173876</v>
+        <v>6173879</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -5136,49 +5136,49 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J54">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K54">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L54">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N54">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T54">
         <v>2.05</v>
@@ -5187,19 +5187,19 @@
         <v>1.8</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>1.05</v>
@@ -5213,7 +5213,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6173881</v>
+        <v>6173878</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5222,10 +5222,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5237,43 +5237,43 @@
         <v>61</v>
       </c>
       <c r="J55">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="M55">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="N55">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="P55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>0.5329999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5282,16 +5282,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -7191,7 +7191,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6173902</v>
+        <v>6173901</v>
       </c>
       <c r="C78" t="s">
         <v>37</v>
@@ -7200,76 +7200,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
         <v>61</v>
       </c>
       <c r="J78">
+        <v>3.2</v>
+      </c>
+      <c r="K78">
+        <v>3.5</v>
+      </c>
+      <c r="L78">
         <v>2.15</v>
       </c>
-      <c r="K78">
+      <c r="M78">
+        <v>3.5</v>
+      </c>
+      <c r="N78">
         <v>3.4</v>
       </c>
-      <c r="L78">
-        <v>3.2</v>
-      </c>
-      <c r="M78">
-        <v>1.95</v>
-      </c>
-      <c r="N78">
-        <v>3.5</v>
-      </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P78">
+        <v>0.25</v>
+      </c>
+      <c r="Q78">
+        <v>2.05</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2.75</v>
+      </c>
+      <c r="T78">
+        <v>1.925</v>
+      </c>
+      <c r="U78">
+        <v>1.925</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>1.05</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>0.4625</v>
+      </c>
+      <c r="AB78">
         <v>-0.5</v>
-      </c>
-      <c r="Q78">
-        <v>1.925</v>
-      </c>
-      <c r="R78">
-        <v>1.925</v>
-      </c>
-      <c r="S78">
-        <v>2.5</v>
-      </c>
-      <c r="T78">
-        <v>1.9</v>
-      </c>
-      <c r="U78">
-        <v>1.95</v>
-      </c>
-      <c r="V78">
-        <v>0.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>0.925</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7363,7 +7363,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6173901</v>
+        <v>6173902</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
@@ -7372,58 +7372,58 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
         <v>61</v>
       </c>
       <c r="J80">
+        <v>2.15</v>
+      </c>
+      <c r="K80">
+        <v>3.4</v>
+      </c>
+      <c r="L80">
         <v>3.2</v>
       </c>
-      <c r="K80">
+      <c r="M80">
+        <v>1.95</v>
+      </c>
+      <c r="N80">
         <v>3.5</v>
       </c>
-      <c r="L80">
-        <v>2.15</v>
-      </c>
-      <c r="M80">
-        <v>3.5</v>
-      </c>
-      <c r="N80">
-        <v>3.4</v>
-      </c>
       <c r="O80">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q80">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7432,16 +7432,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -9599,7 +9599,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6173925</v>
+        <v>6173933</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
@@ -9608,76 +9608,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J106">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L106">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="P106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q106">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="T106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9771,7 +9771,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6173933</v>
+        <v>6173925</v>
       </c>
       <c r="C108" t="s">
         <v>37</v>
@@ -9780,76 +9780,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J108">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="K108">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="N108">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="O108">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q108">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="T108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -10803,7 +10803,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C120" t="s">
         <v>37</v>
@@ -10812,56 +10812,56 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
         <v>60</v>
       </c>
       <c r="J120">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
         <v>3.8</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
+        <v>2.05</v>
+      </c>
+      <c r="R120">
         <v>1.8</v>
       </c>
-      <c r="R120">
-        <v>2.05</v>
-      </c>
       <c r="S120">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
       <c r="V120">
         <v>-1</v>
       </c>
@@ -10869,19 +10869,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10889,7 +10889,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C121" t="s">
         <v>37</v>
@@ -10898,55 +10898,55 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121" t="s">
         <v>60</v>
       </c>
       <c r="J121">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N121">
         <v>3.8</v>
       </c>
       <c r="O121">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
+        <v>1.8</v>
+      </c>
+      <c r="R121">
         <v>2.05</v>
       </c>
-      <c r="R121">
-        <v>1.8</v>
-      </c>
       <c r="S121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V121">
         <v>-1</v>
@@ -10955,19 +10955,19 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11921,7 +11921,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173954</v>
+        <v>6173953</v>
       </c>
       <c r="C133" t="s">
         <v>37</v>
@@ -11930,37 +11930,37 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="s">
         <v>61</v>
       </c>
       <c r="J133">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K133">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>2.45</v>
+      </c>
+      <c r="N133">
+        <v>4.2</v>
+      </c>
+      <c r="O133">
         <v>2.5</v>
-      </c>
-      <c r="M133">
-        <v>2.7</v>
-      </c>
-      <c r="N133">
-        <v>3.2</v>
-      </c>
-      <c r="O133">
-        <v>2.75</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>1.95</v>
       </c>
       <c r="S133">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T133">
         <v>1.9</v>
@@ -11981,7 +11981,7 @@
         <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -11996,10 +11996,10 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12007,7 +12007,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6173953</v>
+        <v>6173957</v>
       </c>
       <c r="C134" t="s">
         <v>37</v>
@@ -12016,76 +12016,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F134" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J134">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M134">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O134">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P134">
         <v>0</v>
       </c>
       <c r="Q134">
+        <v>1.95</v>
+      </c>
+      <c r="R134">
         <v>1.9</v>
       </c>
-      <c r="R134">
-        <v>1.95</v>
-      </c>
       <c r="S134">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12093,7 +12093,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173957</v>
+        <v>6173954</v>
       </c>
       <c r="C135" t="s">
         <v>37</v>
@@ -12102,76 +12102,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J135">
         <v>2.625</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L135">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M135">
+        <v>2.7</v>
+      </c>
+      <c r="N135">
+        <v>3.2</v>
+      </c>
+      <c r="O135">
         <v>2.75</v>
       </c>
-      <c r="N135">
-        <v>3.1</v>
-      </c>
-      <c r="O135">
-        <v>2.7</v>
-      </c>
       <c r="P135">
         <v>0</v>
       </c>
       <c r="Q135">
+        <v>1.9</v>
+      </c>
+      <c r="R135">
         <v>1.95</v>
       </c>
-      <c r="R135">
+      <c r="S135">
+        <v>2.5</v>
+      </c>
+      <c r="T135">
         <v>1.9</v>
       </c>
-      <c r="S135">
-        <v>2.25</v>
-      </c>
-      <c r="T135">
-        <v>2.05</v>
-      </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12695,7 +12695,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6472890</v>
+        <v>6472887</v>
       </c>
       <c r="C142" t="s">
         <v>37</v>
@@ -12704,40 +12704,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J142">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L142">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P142">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q142">
         <v>1.85</v>
@@ -12758,22 +12758,22 @@
         <v>-1</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X142">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12781,7 +12781,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6472887</v>
+        <v>6472890</v>
       </c>
       <c r="C143" t="s">
         <v>37</v>
@@ -12790,40 +12790,40 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
         <v>3.4</v>
       </c>
-      <c r="K143">
-        <v>3.5</v>
-      </c>
       <c r="L143">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M143">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P143">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -12844,22 +12844,22 @@
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -19833,7 +19833,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7744625</v>
+        <v>7744626</v>
       </c>
       <c r="C225" t="s">
         <v>37</v>
@@ -19842,40 +19842,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F225" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J225">
+        <v>3.4</v>
+      </c>
+      <c r="K225">
+        <v>3.6</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
         <v>2.25</v>
       </c>
-      <c r="K225">
-        <v>3.25</v>
-      </c>
-      <c r="L225">
-        <v>3.1</v>
-      </c>
-      <c r="M225">
-        <v>2.8</v>
-      </c>
       <c r="N225">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O225">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q225">
         <v>1.975</v>
@@ -19887,31 +19887,31 @@
         <v>2.25</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19919,7 +19919,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7744627</v>
+        <v>7744628</v>
       </c>
       <c r="C226" t="s">
         <v>37</v>
@@ -19928,49 +19928,49 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E226" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J226">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K226">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L226">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M226">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N226">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="P226">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R226">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
         <v>1.925</v>
@@ -19979,19 +19979,19 @@
         <v>1.925</v>
       </c>
       <c r="V226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W226">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z226">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
         <v>-1</v>
@@ -20005,7 +20005,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7744628</v>
+        <v>7744624</v>
       </c>
       <c r="C227" t="s">
         <v>37</v>
@@ -20014,34 +20014,34 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F227" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G227">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J227">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K227">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N227">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O227">
         <v>2.25</v>
@@ -20050,13 +20050,13 @@
         <v>0.25</v>
       </c>
       <c r="Q227">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T227">
         <v>1.925</v>
@@ -20065,25 +20065,25 @@
         <v>1.925</v>
       </c>
       <c r="V227">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20091,7 +20091,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7744626</v>
+        <v>7744625</v>
       </c>
       <c r="C228" t="s">
         <v>37</v>
@@ -20100,40 +20100,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J228">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="K228">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L228">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M228">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N228">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="P228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q228">
         <v>1.975</v>
@@ -20145,31 +20145,31 @@
         <v>2.25</v>
       </c>
       <c r="T228">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB228">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20263,7 +20263,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7744624</v>
+        <v>7744627</v>
       </c>
       <c r="C230" t="s">
         <v>37</v>
@@ -20272,46 +20272,46 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J230">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K230">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L230">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="M230">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="N230">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O230">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q230">
+        <v>1.875</v>
+      </c>
+      <c r="R230">
         <v>1.975</v>
-      </c>
-      <c r="R230">
-        <v>1.875</v>
       </c>
       <c r="S230">
         <v>2.25</v>
@@ -20326,22 +20326,22 @@
         <v>-1</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X230">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z230">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
         <v>0.925</v>
-      </c>
-      <c r="AB230">
-        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20865,7 +20865,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7744637</v>
+        <v>7744636</v>
       </c>
       <c r="C237" t="s">
         <v>37</v>
@@ -20874,76 +20874,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J237">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="K237">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N237">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O237">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P237">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q237">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T237">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y237">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB237">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20951,7 +20951,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7744636</v>
+        <v>7744637</v>
       </c>
       <c r="C238" t="s">
         <v>37</v>
@@ -20960,76 +20960,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J238">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M238">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="N238">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O238">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q238">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T238">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z238">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21123,7 +21123,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7744639</v>
+        <v>7744640</v>
       </c>
       <c r="C240" t="s">
         <v>37</v>
@@ -21132,76 +21132,76 @@
         <v>45389.125</v>
       </c>
       <c r="E240" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F240" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G240">
         <v>0</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J240">
         <v>2.2</v>
       </c>
       <c r="K240">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L240">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N240">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O240">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S240">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T240">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U240">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
         <v>-1</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X240">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z240">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21209,7 +21209,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7744640</v>
+        <v>7744639</v>
       </c>
       <c r="C241" t="s">
         <v>37</v>
@@ -21218,76 +21218,76 @@
         <v>45389.125</v>
       </c>
       <c r="E241" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J241">
         <v>2.2</v>
       </c>
       <c r="K241">
+        <v>3.25</v>
+      </c>
+      <c r="L241">
+        <v>3.25</v>
+      </c>
+      <c r="M241">
+        <v>2.375</v>
+      </c>
+      <c r="N241">
         <v>3.2</v>
       </c>
-      <c r="L241">
-        <v>3.4</v>
-      </c>
-      <c r="M241">
-        <v>2.625</v>
-      </c>
-      <c r="N241">
-        <v>2.9</v>
-      </c>
       <c r="O241">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q241">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R241">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V241">
         <v>-1</v>
       </c>
       <c r="W241">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -22929,7 +22929,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7744662</v>
+        <v>7744661</v>
       </c>
       <c r="C261" t="s">
         <v>37</v>
@@ -22938,73 +22938,73 @@
         <v>45403.125</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J261">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K261">
         <v>3.4</v>
       </c>
       <c r="L261">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M261">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N261">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O261">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P261">
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>2.25</v>
+      </c>
+      <c r="T261">
+        <v>2.025</v>
+      </c>
+      <c r="U261">
+        <v>1.825</v>
+      </c>
+      <c r="V261">
+        <v>-1</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
         <v>1.8</v>
       </c>
-      <c r="S261">
-        <v>1.75</v>
-      </c>
-      <c r="T261">
-        <v>1.775</v>
-      </c>
-      <c r="U261">
-        <v>2.1</v>
-      </c>
-      <c r="V261">
-        <v>1.9</v>
-      </c>
-      <c r="W261">
-        <v>-1</v>
-      </c>
-      <c r="X261">
-        <v>-1</v>
-      </c>
       <c r="Y261">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA261">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB261">
         <v>-1</v>
@@ -23015,7 +23015,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7744661</v>
+        <v>7744662</v>
       </c>
       <c r="C262" t="s">
         <v>37</v>
@@ -23024,73 +23024,73 @@
         <v>45403.125</v>
       </c>
       <c r="E262" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F262" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J262">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K262">
         <v>3.4</v>
       </c>
       <c r="L262">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M262">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N262">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O262">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P262">
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S262">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T262">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="U262">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V262">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z262">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB262">
         <v>-1</v>
@@ -23703,7 +23703,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7744671</v>
+        <v>7744670</v>
       </c>
       <c r="C270" t="s">
         <v>37</v>
@@ -23712,76 +23712,76 @@
         <v>45410.125</v>
       </c>
       <c r="E270" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F270" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J270">
+        <v>2.2</v>
+      </c>
+      <c r="K270">
+        <v>3.2</v>
+      </c>
+      <c r="L270">
+        <v>3.4</v>
+      </c>
+      <c r="M270">
+        <v>1.85</v>
+      </c>
+      <c r="N270">
+        <v>3.4</v>
+      </c>
+      <c r="O270">
+        <v>4.333</v>
+      </c>
+      <c r="P270">
+        <v>-0.5</v>
+      </c>
+      <c r="Q270">
+        <v>1.875</v>
+      </c>
+      <c r="R270">
+        <v>1.975</v>
+      </c>
+      <c r="S270">
+        <v>2.25</v>
+      </c>
+      <c r="T270">
+        <v>2.05</v>
+      </c>
+      <c r="U270">
         <v>1.8</v>
       </c>
-      <c r="K270">
-        <v>3.5</v>
-      </c>
-      <c r="L270">
-        <v>4.5</v>
-      </c>
-      <c r="M270">
-        <v>1.666</v>
-      </c>
-      <c r="N270">
-        <v>4</v>
-      </c>
-      <c r="O270">
-        <v>5</v>
-      </c>
-      <c r="P270">
-        <v>-0.75</v>
-      </c>
-      <c r="Q270">
-        <v>1.825</v>
-      </c>
-      <c r="R270">
-        <v>2.025</v>
-      </c>
-      <c r="S270">
-        <v>2.5</v>
-      </c>
-      <c r="T270">
-        <v>1.875</v>
-      </c>
-      <c r="U270">
-        <v>1.975</v>
-      </c>
       <c r="V270">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W270">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z270">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -23875,7 +23875,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7744670</v>
+        <v>7744671</v>
       </c>
       <c r="C272" t="s">
         <v>37</v>
@@ -23884,76 +23884,76 @@
         <v>45410.125</v>
       </c>
       <c r="E272" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272">
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J272">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K272">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L272">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M272">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="N272">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O272">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P272">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q272">
+        <v>1.825</v>
+      </c>
+      <c r="R272">
+        <v>2.025</v>
+      </c>
+      <c r="S272">
+        <v>2.5</v>
+      </c>
+      <c r="T272">
         <v>1.875</v>
       </c>
-      <c r="R272">
+      <c r="U272">
         <v>1.975</v>
       </c>
-      <c r="S272">
-        <v>2.25</v>
-      </c>
-      <c r="T272">
-        <v>2.05</v>
-      </c>
-      <c r="U272">
-        <v>1.8</v>
-      </c>
       <c r="V272">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA272">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -23967,49 +23967,49 @@
         <v>37</v>
       </c>
       <c r="D273" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.04166666666</v>
       </c>
       <c r="E273" t="s">
+        <v>55</v>
+      </c>
+      <c r="F273" t="s">
         <v>49</v>
       </c>
-      <c r="F273" t="s">
-        <v>44</v>
-      </c>
       <c r="J273">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="K273">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L273">
+        <v>6.5</v>
+      </c>
+      <c r="M273">
+        <v>1.571</v>
+      </c>
+      <c r="N273">
+        <v>3.75</v>
+      </c>
+      <c r="O273">
+        <v>6.5</v>
+      </c>
+      <c r="P273">
+        <v>-1</v>
+      </c>
+      <c r="Q273">
+        <v>2.05</v>
+      </c>
+      <c r="R273">
         <v>1.8</v>
-      </c>
-      <c r="M273">
-        <v>5</v>
-      </c>
-      <c r="N273">
-        <v>3.6</v>
-      </c>
-      <c r="O273">
-        <v>1.75</v>
-      </c>
-      <c r="P273">
-        <v>0.75</v>
-      </c>
-      <c r="Q273">
-        <v>1.85</v>
-      </c>
-      <c r="R273">
-        <v>2</v>
       </c>
       <c r="S273">
         <v>2.25</v>
       </c>
       <c r="T273">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U273">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V273">
         <v>0</v>
@@ -24032,49 +24032,49 @@
         <v>37</v>
       </c>
       <c r="D274" s="2">
-        <v>45415.08333333334</v>
+        <v>45418.04166666666</v>
       </c>
       <c r="E274" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F274" t="s">
         <v>56</v>
       </c>
       <c r="J274">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K274">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L274">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M274">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N274">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O274">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P274">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q274">
+        <v>2.05</v>
+      </c>
+      <c r="R274">
+        <v>1.8</v>
+      </c>
+      <c r="S274">
+        <v>2.25</v>
+      </c>
+      <c r="T274">
+        <v>1.975</v>
+      </c>
+      <c r="U274">
         <v>1.875</v>
-      </c>
-      <c r="R274">
-        <v>1.975</v>
-      </c>
-      <c r="S274">
-        <v>3</v>
-      </c>
-      <c r="T274">
-        <v>2</v>
-      </c>
-      <c r="U274">
-        <v>1.85</v>
       </c>
       <c r="V274">
         <v>0</v>
@@ -24097,49 +24097,49 @@
         <v>37</v>
       </c>
       <c r="D275" s="2">
-        <v>45415.125</v>
+        <v>45418.04513888889</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F275" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J275">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="K275">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L275">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M275">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N275">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O275">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="P275">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q275">
+        <v>2.025</v>
+      </c>
+      <c r="R275">
         <v>1.825</v>
-      </c>
-      <c r="R275">
-        <v>2.025</v>
       </c>
       <c r="S275">
         <v>2.25</v>
       </c>
       <c r="T275">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U275">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V275">
         <v>0</v>
@@ -24162,49 +24162,49 @@
         <v>37</v>
       </c>
       <c r="D276" s="2">
-        <v>45415.125</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E276" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J276">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="K276">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M276">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N276">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O276">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="P276">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q276">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R276">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T276">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
         <v>0</v>
@@ -24227,49 +24227,49 @@
         <v>37</v>
       </c>
       <c r="D277" s="2">
-        <v>45415.125</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E277" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F277" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J277">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="K277">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L277">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="M277">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N277">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O277">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P277">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q277">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R277">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
         <v>2.25</v>
       </c>
       <c r="T277">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U277">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V277">
         <v>0</v>
@@ -24292,49 +24292,49 @@
         <v>37</v>
       </c>
       <c r="D278" s="2">
-        <v>45415.125</v>
+        <v>45418.08333333334</v>
       </c>
       <c r="E278" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F278" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J278">
+        <v>2.3</v>
+      </c>
+      <c r="K278">
+        <v>3.4</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>2.3</v>
+      </c>
+      <c r="N278">
+        <v>3.4</v>
+      </c>
+      <c r="O278">
+        <v>3</v>
+      </c>
+      <c r="P278">
+        <v>-0.25</v>
+      </c>
+      <c r="Q278">
+        <v>2.05</v>
+      </c>
+      <c r="R278">
         <v>1.8</v>
       </c>
-      <c r="K278">
-        <v>3.166</v>
-      </c>
-      <c r="L278">
-        <v>4.5</v>
-      </c>
-      <c r="M278">
-        <v>1.7</v>
-      </c>
-      <c r="N278">
-        <v>3.6</v>
-      </c>
-      <c r="O278">
-        <v>5.25</v>
-      </c>
-      <c r="P278">
-        <v>-0.75</v>
-      </c>
-      <c r="Q278">
-        <v>1.9</v>
-      </c>
-      <c r="R278">
-        <v>1.95</v>
-      </c>
       <c r="S278">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T278">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U278">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V278">
         <v>0</v>
@@ -24357,49 +24357,49 @@
         <v>37</v>
       </c>
       <c r="D279" s="2">
-        <v>45415.125</v>
+        <v>45418.125</v>
       </c>
       <c r="E279" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F279" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J279">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="K279">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L279">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M279">
+        <v>1.5</v>
+      </c>
+      <c r="N279">
+        <v>4.333</v>
+      </c>
+      <c r="O279">
+        <v>6.5</v>
+      </c>
+      <c r="P279">
+        <v>-1</v>
+      </c>
+      <c r="Q279">
+        <v>1.825</v>
+      </c>
+      <c r="R279">
+        <v>2.025</v>
+      </c>
+      <c r="S279">
         <v>2.5</v>
       </c>
-      <c r="N279">
-        <v>3.25</v>
-      </c>
-      <c r="O279">
-        <v>2.9</v>
-      </c>
-      <c r="P279">
-        <v>-0.25</v>
-      </c>
-      <c r="Q279">
-        <v>2.125</v>
-      </c>
-      <c r="R279">
-        <v>1.75</v>
-      </c>
-      <c r="S279">
-        <v>2.25</v>
-      </c>
       <c r="T279">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U279">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V279">
         <v>0</v>
@@ -24422,49 +24422,49 @@
         <v>37</v>
       </c>
       <c r="D280" s="2">
-        <v>45415.16666666666</v>
+        <v>45418.16666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F280" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J280">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K280">
         <v>3</v>
       </c>
       <c r="L280">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M280">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N280">
         <v>3</v>
       </c>
       <c r="O280">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P280">
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R280">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S280">
         <v>2</v>
       </c>
       <c r="T280">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U280">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -24487,43 +24487,43 @@
         <v>37</v>
       </c>
       <c r="D281" s="2">
-        <v>45415.16666666666</v>
+        <v>45418.16666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J281">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K281">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L281">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M281">
+        <v>1.95</v>
+      </c>
+      <c r="N281">
+        <v>3.5</v>
+      </c>
+      <c r="O281">
+        <v>3.75</v>
+      </c>
+      <c r="P281">
+        <v>-0.5</v>
+      </c>
+      <c r="Q281">
+        <v>1.975</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
         <v>2.5</v>
-      </c>
-      <c r="N281">
-        <v>3.3</v>
-      </c>
-      <c r="O281">
-        <v>2.8</v>
-      </c>
-      <c r="P281">
-        <v>0</v>
-      </c>
-      <c r="Q281">
-        <v>1.825</v>
-      </c>
-      <c r="R281">
-        <v>2.025</v>
-      </c>
-      <c r="S281">
-        <v>2.25</v>
       </c>
       <c r="T281">
         <v>1.85</v>
@@ -24552,49 +24552,49 @@
         <v>37</v>
       </c>
       <c r="D282" s="2">
-        <v>45415.29166666666</v>
+        <v>45418.20833333334</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F282" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J282">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="K282">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L282">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="M282">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="N282">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O282">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="P282">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q282">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R282">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S282">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V282">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -97,13 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7744694</t>
+    <t>7744692</t>
   </si>
   <si>
     <t>7744693</t>
   </si>
   <si>
-    <t>7744692</t>
+    <t>7744694</t>
   </si>
   <si>
     <t>7744695</t>
@@ -25687,46 +25687,46 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F293" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J293">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="K293">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L293">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="M293">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N293">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O293">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P293">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q293">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R293">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T293">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -25767,22 +25767,22 @@
         <v>4</v>
       </c>
       <c r="M294">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N294">
         <v>3.75</v>
       </c>
       <c r="O294">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P294">
         <v>-0.5</v>
       </c>
       <c r="Q294">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S294">
         <v>2.5</v>
@@ -25817,46 +25817,46 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E295" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F295" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J295">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="K295">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L295">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="M295">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N295">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O295">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="P295">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q295">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R295">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T295">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U295">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V295">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0.5</v>
       </c>
       <c r="Q296">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R296">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S296">
         <v>2.5</v>
@@ -25962,31 +25962,31 @@
         <v>4.2</v>
       </c>
       <c r="M297">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N297">
         <v>4</v>
       </c>
       <c r="O297">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P297">
         <v>-0.75</v>
       </c>
       <c r="Q297">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
         <v>3</v>
       </c>
       <c r="T297">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U297">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V297">
         <v>0</v>
@@ -26027,7 +26027,7 @@
         <v>2.25</v>
       </c>
       <c r="M298">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N298">
         <v>3.2</v>
@@ -26048,10 +26048,10 @@
         <v>2.25</v>
       </c>
       <c r="T298">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U298">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V298">
         <v>0</v>
@@ -26113,10 +26113,10 @@
         <v>2</v>
       </c>
       <c r="T299">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U299">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>2.8</v>
       </c>
       <c r="M300">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
         <v>3.1</v>
@@ -26169,19 +26169,19 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S300">
         <v>2.25</v>
       </c>
       <c r="T300">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V300">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -112,13 +112,13 @@
     <t>7744712</t>
   </si>
   <si>
-    <t>7744716</t>
+    <t>7744715</t>
   </si>
   <si>
     <t>7744717</t>
   </si>
   <si>
-    <t>7744715</t>
+    <t>7744716</t>
   </si>
   <si>
     <t>7744719</t>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6173853</v>
+        <v>6173854</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -2212,76 +2212,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N20">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O20">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q20">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6173851</v>
+        <v>6173853</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -2298,73 +2298,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J21">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="K21">
         <v>3.3</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M21">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2461,7 +2461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173854</v>
+        <v>6173851</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2470,16 +2470,16 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>60</v>
@@ -2488,37 +2488,37 @@
         <v>2.3</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
         <v>-1</v>
@@ -2527,19 +2527,19 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3063,7 +3063,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6173858</v>
+        <v>6173859</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -3072,10 +3072,10 @@
         <v>45108.25</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3087,31 +3087,31 @@
         <v>61</v>
       </c>
       <c r="J30">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M30">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
         <v>2.5</v>
@@ -3123,7 +3123,7 @@
         <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3132,7 +3132,7 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z30">
         <v>-1</v>
@@ -3149,7 +3149,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6173859</v>
+        <v>6173858</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -3158,10 +3158,10 @@
         <v>45108.25</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3173,31 +3173,31 @@
         <v>61</v>
       </c>
       <c r="J31">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="K31">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
         <v>2.5</v>
@@ -3209,7 +3209,7 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.625</v>
+        <v>2.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3218,7 +3218,7 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z31">
         <v>-1</v>
@@ -4783,7 +4783,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173879</v>
+        <v>6173880</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
@@ -4792,58 +4792,58 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>61</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>2.25</v>
+      </c>
+      <c r="M50">
         <v>3.4</v>
       </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.1</v>
-      </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="P50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T50">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4852,16 +4852,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4869,7 +4869,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173880</v>
+        <v>6173877</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -4878,76 +4878,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J51">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N51">
         <v>3.2</v>
       </c>
       <c r="O51">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
         <v>2.25</v>
       </c>
       <c r="T51">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
+        <v>0.8</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.925</v>
-      </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
-      <c r="AA51">
-        <v>-0.5</v>
-      </c>
-      <c r="AB51">
-        <v>0.45</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5041,7 +5041,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173877</v>
+        <v>6173879</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -5050,76 +5050,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J53">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>2.1</v>
+      </c>
+      <c r="N53">
+        <v>3.4</v>
+      </c>
+      <c r="O53">
         <v>3.5</v>
-      </c>
-      <c r="L53">
-        <v>2.75</v>
-      </c>
-      <c r="M53">
-        <v>2.4</v>
-      </c>
-      <c r="N53">
-        <v>3.2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
       </c>
       <c r="P53">
         <v>-0.25</v>
       </c>
       <c r="Q53">
+        <v>1.825</v>
+      </c>
+      <c r="R53">
+        <v>2.025</v>
+      </c>
+      <c r="S53">
+        <v>2.5</v>
+      </c>
+      <c r="T53">
         <v>2.05</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>1.8</v>
       </c>
-      <c r="S53">
-        <v>2.25</v>
-      </c>
-      <c r="T53">
-        <v>1.925</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
       <c r="V53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -8223,7 +8223,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6173911</v>
+        <v>6173915</v>
       </c>
       <c r="C90" t="s">
         <v>37</v>
@@ -8232,76 +8232,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J90">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="K90">
         <v>3.3</v>
       </c>
       <c r="L90">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="M90">
+        <v>2.75</v>
+      </c>
+      <c r="N90">
         <v>3.3</v>
       </c>
-      <c r="N90">
-        <v>3.2</v>
-      </c>
       <c r="O90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
         <v>1.85</v>
-      </c>
-      <c r="R90">
-        <v>2</v>
       </c>
       <c r="S90">
         <v>2.25</v>
       </c>
       <c r="T90">
+        <v>1.9</v>
+      </c>
+      <c r="U90">
         <v>1.95</v>
       </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
       <c r="V90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8309,7 +8309,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6173912</v>
+        <v>6173911</v>
       </c>
       <c r="C91" t="s">
         <v>37</v>
@@ -8318,76 +8318,76 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
         <v>59</v>
       </c>
       <c r="J91">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K91">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L91">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M91">
+        <v>3.3</v>
+      </c>
+      <c r="N91">
         <v>3.2</v>
       </c>
-      <c r="N91">
-        <v>3.6</v>
-      </c>
       <c r="O91">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P91">
         <v>0.25</v>
       </c>
       <c r="Q91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
         <v>-1</v>
       </c>
       <c r="W91">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="Z91">
         <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8395,7 +8395,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6173915</v>
+        <v>6173912</v>
       </c>
       <c r="C92" t="s">
         <v>37</v>
@@ -8404,73 +8404,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J92">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="K92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L92">
+        <v>2.2</v>
+      </c>
+      <c r="M92">
+        <v>3.2</v>
+      </c>
+      <c r="N92">
+        <v>3.6</v>
+      </c>
+      <c r="O92">
+        <v>2.15</v>
+      </c>
+      <c r="P92">
+        <v>0.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.975</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
+        <v>2.5</v>
+      </c>
+      <c r="T92">
+        <v>1.825</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
+        <v>-1</v>
+      </c>
+      <c r="W92">
         <v>2.6</v>
       </c>
-      <c r="M92">
-        <v>2.75</v>
-      </c>
-      <c r="N92">
-        <v>3.3</v>
-      </c>
-      <c r="O92">
-        <v>2.5</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>2</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.9</v>
-      </c>
-      <c r="U92">
-        <v>1.95</v>
-      </c>
-      <c r="V92">
-        <v>1.75</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -10803,7 +10803,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C120" t="s">
         <v>37</v>
@@ -10812,56 +10812,56 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
         <v>60</v>
       </c>
       <c r="J120">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
         <v>3.8</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
+        <v>2.05</v>
+      </c>
+      <c r="R120">
         <v>1.8</v>
       </c>
-      <c r="R120">
-        <v>2.05</v>
-      </c>
       <c r="S120">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
       <c r="V120">
         <v>-1</v>
       </c>
@@ -10869,19 +10869,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10889,7 +10889,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C121" t="s">
         <v>37</v>
@@ -10898,55 +10898,55 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121" t="s">
         <v>60</v>
       </c>
       <c r="J121">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N121">
         <v>3.8</v>
       </c>
       <c r="O121">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
+        <v>1.8</v>
+      </c>
+      <c r="R121">
         <v>2.05</v>
       </c>
-      <c r="R121">
-        <v>1.8</v>
-      </c>
       <c r="S121">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V121">
         <v>-1</v>
@@ -10955,19 +10955,19 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11835,7 +11835,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173957</v>
+        <v>6173953</v>
       </c>
       <c r="C132" t="s">
         <v>37</v>
@@ -11844,76 +11844,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J132">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K132">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O132">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P132">
         <v>0</v>
       </c>
       <c r="Q132">
+        <v>1.9</v>
+      </c>
+      <c r="R132">
         <v>1.95</v>
       </c>
-      <c r="R132">
+      <c r="S132">
+        <v>3.75</v>
+      </c>
+      <c r="T132">
         <v>1.9</v>
       </c>
-      <c r="S132">
-        <v>2.25</v>
-      </c>
-      <c r="T132">
-        <v>2.05</v>
-      </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -12007,7 +12007,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6173954</v>
+        <v>6173957</v>
       </c>
       <c r="C134" t="s">
         <v>37</v>
@@ -12016,76 +12016,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J134">
         <v>2.625</v>
       </c>
       <c r="K134">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M134">
+        <v>2.75</v>
+      </c>
+      <c r="N134">
+        <v>3.1</v>
+      </c>
+      <c r="O134">
         <v>2.7</v>
       </c>
-      <c r="N134">
-        <v>3.2</v>
-      </c>
-      <c r="O134">
-        <v>2.75</v>
-      </c>
       <c r="P134">
         <v>0</v>
       </c>
       <c r="Q134">
+        <v>1.95</v>
+      </c>
+      <c r="R134">
         <v>1.9</v>
       </c>
-      <c r="R134">
-        <v>1.95</v>
-      </c>
       <c r="S134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
+        <v>-1</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
         <v>1.7</v>
       </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
       <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12093,7 +12093,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173953</v>
+        <v>6173954</v>
       </c>
       <c r="C135" t="s">
         <v>37</v>
@@ -12102,37 +12102,37 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
         <v>61</v>
       </c>
       <c r="J135">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="K135">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N135">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -12144,7 +12144,7 @@
         <v>1.95</v>
       </c>
       <c r="S135">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T135">
         <v>1.9</v>
@@ -12153,7 +12153,7 @@
         <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12168,10 +12168,10 @@
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12523,7 +12523,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6472890</v>
+        <v>6473046</v>
       </c>
       <c r="C140" t="s">
         <v>37</v>
@@ -12532,76 +12532,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J140">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="K140">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L140">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N140">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O140">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
         <v>1.85</v>
       </c>
-      <c r="R140">
-        <v>2</v>
-      </c>
       <c r="S140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12609,7 +12609,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6473046</v>
+        <v>6472890</v>
       </c>
       <c r="C141" t="s">
         <v>37</v>
@@ -12618,76 +12618,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J141">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="M141">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>2.75</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>2.5</v>
-      </c>
-      <c r="T141">
-        <v>1.825</v>
-      </c>
-      <c r="U141">
-        <v>2.025</v>
-      </c>
       <c r="V141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12781,7 +12781,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6473051</v>
+        <v>6472887</v>
       </c>
       <c r="C143" t="s">
         <v>37</v>
@@ -12790,76 +12790,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
         <v>59</v>
       </c>
       <c r="J143">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K143">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N143">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.85</v>
       </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
       <c r="V143">
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12867,7 +12867,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6472887</v>
+        <v>6473051</v>
       </c>
       <c r="C144" t="s">
         <v>37</v>
@@ -12876,76 +12876,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
         <v>59</v>
       </c>
       <c r="J144">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L144">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O144">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q144">
+        <v>1.975</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
         <v>1.85</v>
       </c>
-      <c r="R144">
-        <v>2</v>
-      </c>
-      <c r="S144">
-        <v>2.75</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V144">
         <v>-1</v>
       </c>
       <c r="W144">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13469,7 +13469,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6480218</v>
+        <v>6482813</v>
       </c>
       <c r="C151" t="s">
         <v>37</v>
@@ -13478,55 +13478,55 @@
         <v>45241.125</v>
       </c>
       <c r="E151" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151" t="s">
         <v>60</v>
       </c>
       <c r="J151">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="K151">
+        <v>3.6</v>
+      </c>
+      <c r="L151">
         <v>3.3</v>
       </c>
-      <c r="L151">
-        <v>2.9</v>
-      </c>
       <c r="M151">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q151">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T151">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V151">
         <v>-1</v>
@@ -13535,16 +13535,16 @@
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
         <v>-1</v>
@@ -13555,7 +13555,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6482813</v>
+        <v>6480218</v>
       </c>
       <c r="C152" t="s">
         <v>37</v>
@@ -13564,56 +13564,56 @@
         <v>45241.125</v>
       </c>
       <c r="E152" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="s">
         <v>60</v>
       </c>
       <c r="J152">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="K152">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M152">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N152">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O152">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P152">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q152">
+        <v>1.925</v>
+      </c>
+      <c r="R152">
+        <v>1.925</v>
+      </c>
+      <c r="S152">
+        <v>2</v>
+      </c>
+      <c r="T152">
+        <v>1.975</v>
+      </c>
+      <c r="U152">
         <v>1.875</v>
       </c>
-      <c r="R152">
-        <v>1.975</v>
-      </c>
-      <c r="S152">
-        <v>2.5</v>
-      </c>
-      <c r="T152">
-        <v>1.825</v>
-      </c>
-      <c r="U152">
-        <v>2.025</v>
-      </c>
       <c r="V152">
         <v>-1</v>
       </c>
@@ -13621,16 +13621,16 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
+        <v>0.925</v>
+      </c>
+      <c r="AA152">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA152">
-        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
@@ -14243,7 +14243,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6504896</v>
+        <v>6504895</v>
       </c>
       <c r="C160" t="s">
         <v>37</v>
@@ -14252,76 +14252,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J160">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L160">
         <v>4.5</v>
       </c>
       <c r="M160">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="N160">
+        <v>3.5</v>
+      </c>
+      <c r="O160">
         <v>4.333</v>
       </c>
-      <c r="O160">
-        <v>6.5</v>
-      </c>
       <c r="P160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T160">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
         <v>-1</v>
       </c>
       <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
         <v>3.333</v>
       </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14329,7 +14329,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6501896</v>
+        <v>6504896</v>
       </c>
       <c r="C161" t="s">
         <v>37</v>
@@ -14338,76 +14338,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J161">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="K161">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L161">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="M161">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N161">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O161">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
         <v>-1</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X161">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14415,7 +14415,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6504895</v>
+        <v>6501896</v>
       </c>
       <c r="C162" t="s">
         <v>37</v>
@@ -14424,10 +14424,10 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14439,25 +14439,25 @@
         <v>60</v>
       </c>
       <c r="J162">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="M162">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O162">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P162">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q162">
         <v>1.85</v>
@@ -14469,20 +14469,20 @@
         <v>2.5</v>
       </c>
       <c r="T162">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>1.8</v>
       </c>
-      <c r="V162">
-        <v>-1</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
-      <c r="X162">
-        <v>3.333</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14931,7 +14931,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527910</v>
+        <v>6527773</v>
       </c>
       <c r="C168" t="s">
         <v>37</v>
@@ -14940,10 +14940,10 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14955,40 +14955,40 @@
         <v>60</v>
       </c>
       <c r="J168">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K168">
+        <v>3.8</v>
+      </c>
+      <c r="L168">
+        <v>1.85</v>
+      </c>
+      <c r="M168">
         <v>3.6</v>
       </c>
-      <c r="L168">
-        <v>2.05</v>
-      </c>
-      <c r="M168">
-        <v>3.4</v>
-      </c>
       <c r="N168">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P168">
         <v>0.5</v>
       </c>
       <c r="Q168">
+        <v>1.975</v>
+      </c>
+      <c r="R168">
         <v>1.875</v>
       </c>
-      <c r="R168">
-        <v>1.975</v>
-      </c>
       <c r="S168">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
         <v>-1</v>
@@ -14997,19 +14997,19 @@
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15017,7 +15017,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527616</v>
+        <v>6527782</v>
       </c>
       <c r="C169" t="s">
         <v>37</v>
@@ -15026,76 +15026,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J169">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K169">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
+        <v>2.75</v>
+      </c>
+      <c r="M169">
         <v>2.8</v>
       </c>
-      <c r="M169">
-        <v>2.2</v>
-      </c>
       <c r="N169">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q169">
+        <v>1.85</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>3</v>
+      </c>
+      <c r="T169">
         <v>1.95</v>
       </c>
-      <c r="R169">
+      <c r="U169">
         <v>1.9</v>
       </c>
-      <c r="S169">
-        <v>2.5</v>
-      </c>
-      <c r="T169">
-        <v>1.925</v>
-      </c>
-      <c r="U169">
-        <v>1.925</v>
-      </c>
       <c r="V169">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15103,7 +15103,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6527773</v>
+        <v>6527615</v>
       </c>
       <c r="C170" t="s">
         <v>37</v>
@@ -15112,76 +15112,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J170">
+        <v>1.6</v>
+      </c>
+      <c r="K170">
+        <v>4.1</v>
+      </c>
+      <c r="L170">
+        <v>5</v>
+      </c>
+      <c r="M170">
+        <v>1.833</v>
+      </c>
+      <c r="N170">
         <v>3.75</v>
       </c>
-      <c r="K170">
-        <v>3.8</v>
-      </c>
-      <c r="L170">
+      <c r="O170">
+        <v>4.333</v>
+      </c>
+      <c r="P170">
+        <v>-0.5</v>
+      </c>
+      <c r="Q170">
+        <v>1.8</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>2.5</v>
+      </c>
+      <c r="T170">
         <v>1.85</v>
       </c>
-      <c r="M170">
-        <v>3.6</v>
-      </c>
-      <c r="N170">
-        <v>3.8</v>
-      </c>
-      <c r="O170">
-        <v>1.85</v>
-      </c>
-      <c r="P170">
-        <v>0.5</v>
-      </c>
-      <c r="Q170">
-        <v>1.975</v>
-      </c>
-      <c r="R170">
-        <v>1.875</v>
-      </c>
-      <c r="S170">
-        <v>3</v>
-      </c>
-      <c r="T170">
-        <v>1.825</v>
-      </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>0.8</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.875</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15189,7 +15189,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6527782</v>
+        <v>6527910</v>
       </c>
       <c r="C171" t="s">
         <v>37</v>
@@ -15198,55 +15198,55 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E171" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
         <v>60</v>
       </c>
       <c r="J171">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L171">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
         <v>3.6</v>
       </c>
       <c r="O171">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S171">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
         <v>-1</v>
@@ -15255,19 +15255,19 @@
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15275,7 +15275,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6527615</v>
+        <v>6527616</v>
       </c>
       <c r="C172" t="s">
         <v>37</v>
@@ -15284,58 +15284,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
         <v>61</v>
       </c>
       <c r="J172">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K172">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M172">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N172">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q172">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
         <v>2.5</v>
       </c>
       <c r="T172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15344,16 +15344,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -16135,7 +16135,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7624187</v>
+        <v>7624508</v>
       </c>
       <c r="C182" t="s">
         <v>37</v>
@@ -16144,76 +16144,76 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G182">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J182">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="K182">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L182">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="M182">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N182">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O182">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q182">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA182">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16221,7 +16221,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624508</v>
+        <v>7624187</v>
       </c>
       <c r="C183" t="s">
         <v>37</v>
@@ -16230,76 +16230,76 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F183" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J183">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="K183">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L183">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="M183">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N183">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="P183">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q183">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T183">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U183">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.925</v>
+      </c>
+      <c r="AA183">
+        <v>0.5125</v>
+      </c>
+      <c r="AB183">
         <v>-0.5</v>
-      </c>
-      <c r="Z183">
-        <v>0.4875</v>
-      </c>
-      <c r="AA183">
-        <v>0</v>
-      </c>
-      <c r="AB183">
-        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16565,7 +16565,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7744592</v>
+        <v>7624511</v>
       </c>
       <c r="C187" t="s">
         <v>37</v>
@@ -16574,34 +16574,34 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F187" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
         <v>60</v>
       </c>
       <c r="J187">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="K187">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L187">
-        <v>5.2</v>
+        <v>2.875</v>
       </c>
       <c r="M187">
         <v>2.2</v>
       </c>
       <c r="N187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
         <v>3.4</v>
@@ -16610,19 +16610,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
         <v>2.25</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
         <v>-1</v>
@@ -16637,13 +16637,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16651,7 +16651,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624511</v>
+        <v>7744592</v>
       </c>
       <c r="C188" t="s">
         <v>37</v>
@@ -16660,34 +16660,34 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="s">
         <v>60</v>
       </c>
       <c r="J188">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="K188">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L188">
-        <v>2.875</v>
+        <v>5.2</v>
       </c>
       <c r="M188">
         <v>2.2</v>
       </c>
       <c r="N188">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O188">
         <v>3.4</v>
@@ -16696,19 +16696,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R188">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
         <v>2.25</v>
       </c>
       <c r="T188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
         <v>-1</v>
@@ -16723,13 +16723,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17253,7 +17253,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7744594</v>
+        <v>7744597</v>
       </c>
       <c r="C195" t="s">
         <v>37</v>
@@ -17262,76 +17262,76 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F195" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J195">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K195">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L195">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M195">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N195">
         <v>3.1</v>
       </c>
       <c r="O195">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P195">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S195">
         <v>2</v>
       </c>
       <c r="T195">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17339,7 +17339,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7744597</v>
+        <v>7744594</v>
       </c>
       <c r="C196" t="s">
         <v>37</v>
@@ -17348,76 +17348,76 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J196">
+        <v>3.5</v>
+      </c>
+      <c r="K196">
+        <v>3.2</v>
+      </c>
+      <c r="L196">
+        <v>2.15</v>
+      </c>
+      <c r="M196">
         <v>2.8</v>
-      </c>
-      <c r="K196">
-        <v>3.3</v>
-      </c>
-      <c r="L196">
-        <v>2.5</v>
-      </c>
-      <c r="M196">
-        <v>3.1</v>
       </c>
       <c r="N196">
         <v>3.1</v>
       </c>
       <c r="O196">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P196">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q196">
+        <v>1.95</v>
+      </c>
+      <c r="R196">
+        <v>1.9</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
         <v>1.825</v>
       </c>
-      <c r="R196">
+      <c r="U196">
         <v>2.025</v>
       </c>
-      <c r="S196">
-        <v>2</v>
-      </c>
-      <c r="T196">
-        <v>1.775</v>
-      </c>
-      <c r="U196">
-        <v>2.1</v>
-      </c>
       <c r="V196">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
         <v>1.025</v>
-      </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>1.1</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17597,7 +17597,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7744600</v>
+        <v>7744602</v>
       </c>
       <c r="C199" t="s">
         <v>37</v>
@@ -17606,73 +17606,73 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J199">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="K199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L199">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N199">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O199">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q199">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
         <v>-1</v>
@@ -17683,7 +17683,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7744602</v>
+        <v>7744601</v>
       </c>
       <c r="C200" t="s">
         <v>37</v>
@@ -17692,49 +17692,49 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F200" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J200">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="K200">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L200">
+        <v>4.5</v>
+      </c>
+      <c r="M200">
+        <v>1.85</v>
+      </c>
+      <c r="N200">
         <v>3.6</v>
       </c>
-      <c r="M200">
-        <v>2.25</v>
-      </c>
-      <c r="N200">
-        <v>3.1</v>
-      </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P200">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T200">
         <v>1.975</v>
@@ -17743,25 +17743,25 @@
         <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17769,7 +17769,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7744601</v>
+        <v>7744600</v>
       </c>
       <c r="C201" t="s">
         <v>37</v>
@@ -17778,55 +17778,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="s">
         <v>60</v>
       </c>
       <c r="J201">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L201">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="M201">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="N201">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O201">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P201">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
         <v>-1</v>
@@ -17835,19 +17835,19 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -18199,7 +18199,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744608</v>
+        <v>7744606</v>
       </c>
       <c r="C206" t="s">
         <v>37</v>
@@ -18208,10 +18208,10 @@
         <v>45367.125</v>
       </c>
       <c r="E206" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18223,40 +18223,40 @@
         <v>60</v>
       </c>
       <c r="J206">
+        <v>2.3</v>
+      </c>
+      <c r="K206">
+        <v>2.875</v>
+      </c>
+      <c r="L206">
         <v>3</v>
       </c>
-      <c r="K206">
-        <v>3.25</v>
-      </c>
-      <c r="L206">
+      <c r="M206">
         <v>2.1</v>
       </c>
-      <c r="M206">
-        <v>3.5</v>
-      </c>
       <c r="N206">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O206">
+        <v>4</v>
+      </c>
+      <c r="P206">
+        <v>-0.5</v>
+      </c>
+      <c r="Q206">
         <v>2.1</v>
       </c>
-      <c r="P206">
-        <v>0.25</v>
-      </c>
-      <c r="Q206">
-        <v>2</v>
-      </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
         <v>-1</v>
@@ -18265,19 +18265,19 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB206">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18285,7 +18285,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744606</v>
+        <v>7744608</v>
       </c>
       <c r="C207" t="s">
         <v>37</v>
@@ -18294,10 +18294,10 @@
         <v>45367.125</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18309,61 +18309,61 @@
         <v>60</v>
       </c>
       <c r="J207">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K207">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M207">
+        <v>3.5</v>
+      </c>
+      <c r="N207">
+        <v>3.3</v>
+      </c>
+      <c r="O207">
         <v>2.1</v>
       </c>
-      <c r="N207">
-        <v>3.1</v>
-      </c>
-      <c r="O207">
-        <v>4</v>
-      </c>
       <c r="P207">
+        <v>0.25</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>2.25</v>
+      </c>
+      <c r="T207">
+        <v>1.85</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
+        <v>-1</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>1.1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA207">
         <v>-0.5</v>
       </c>
-      <c r="Q207">
-        <v>2.1</v>
-      </c>
-      <c r="R207">
-        <v>1.775</v>
-      </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
-      <c r="T207">
-        <v>2.05</v>
-      </c>
-      <c r="U207">
-        <v>1.8</v>
-      </c>
-      <c r="V207">
-        <v>-1</v>
-      </c>
-      <c r="W207">
-        <v>-1</v>
-      </c>
-      <c r="X207">
-        <v>3</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
-      <c r="Z207">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA207">
-        <v>0</v>
-      </c>
       <c r="AB207">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -19145,7 +19145,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7744618</v>
+        <v>7744620</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -19154,16 +19154,16 @@
         <v>45381.125</v>
       </c>
       <c r="E217" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="s">
         <v>61</v>
@@ -19172,40 +19172,40 @@
         <v>1.833</v>
       </c>
       <c r="K217">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L217">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
         <v>-0.5</v>
       </c>
       <c r="Q217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19214,16 +19214,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19231,7 +19231,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7744617</v>
+        <v>7744618</v>
       </c>
       <c r="C218" t="s">
         <v>37</v>
@@ -19240,58 +19240,58 @@
         <v>45381.125</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="s">
         <v>61</v>
       </c>
       <c r="J218">
-        <v>1.475</v>
+        <v>1.833</v>
       </c>
       <c r="K218">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L218">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="M218">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O218">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q218">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R218">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19300,16 +19300,16 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19317,7 +19317,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7744620</v>
+        <v>7744619</v>
       </c>
       <c r="C219" t="s">
         <v>37</v>
@@ -19326,40 +19326,40 @@
         <v>45381.125</v>
       </c>
       <c r="E219" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G219">
         <v>3</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="s">
         <v>61</v>
       </c>
       <c r="J219">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K219">
         <v>3.5</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M219">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="N219">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P219">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q219">
         <v>1.95</v>
@@ -19368,16 +19368,16 @@
         <v>1.9</v>
       </c>
       <c r="S219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19392,10 +19392,10 @@
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19403,7 +19403,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7744619</v>
+        <v>7744617</v>
       </c>
       <c r="C220" t="s">
         <v>37</v>
@@ -19412,58 +19412,58 @@
         <v>45381.125</v>
       </c>
       <c r="E220" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="s">
         <v>61</v>
       </c>
       <c r="J220">
-        <v>1.8</v>
+        <v>1.475</v>
       </c>
       <c r="K220">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L220">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="M220">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N220">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O220">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P220">
         <v>-0.75</v>
       </c>
       <c r="Q220">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
         <v>2.5</v>
       </c>
       <c r="T220">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -19472,16 +19472,16 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19489,7 +19489,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7744622</v>
+        <v>7744621</v>
       </c>
       <c r="C221" t="s">
         <v>37</v>
@@ -19498,58 +19498,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G221">
         <v>2</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="s">
         <v>61</v>
       </c>
       <c r="J221">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="K221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M221">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P221">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q221">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U221">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -19558,16 +19558,16 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19575,7 +19575,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7744621</v>
+        <v>7744622</v>
       </c>
       <c r="C222" t="s">
         <v>37</v>
@@ -19584,58 +19584,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="s">
         <v>61</v>
       </c>
       <c r="J222">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="K222">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L222">
+        <v>3.75</v>
+      </c>
+      <c r="M222">
+        <v>2.05</v>
+      </c>
+      <c r="N222">
+        <v>3.4</v>
+      </c>
+      <c r="O222">
+        <v>3.75</v>
+      </c>
+      <c r="P222">
+        <v>-0.5</v>
+      </c>
+      <c r="Q222">
+        <v>2.025</v>
+      </c>
+      <c r="R222">
+        <v>1.825</v>
+      </c>
+      <c r="S222">
         <v>2.25</v>
       </c>
-      <c r="M222">
-        <v>2.625</v>
-      </c>
-      <c r="N222">
-        <v>3.5</v>
-      </c>
-      <c r="O222">
-        <v>2.6</v>
-      </c>
-      <c r="P222">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>1.925</v>
-      </c>
-      <c r="R222">
-        <v>1.925</v>
-      </c>
-      <c r="S222">
-        <v>2.5</v>
-      </c>
       <c r="T222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -19644,16 +19644,16 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19747,7 +19747,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7744629</v>
+        <v>7744628</v>
       </c>
       <c r="C224" t="s">
         <v>37</v>
@@ -19756,49 +19756,49 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J224">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="K224">
+        <v>3</v>
+      </c>
+      <c r="L224">
+        <v>2.4</v>
+      </c>
+      <c r="M224">
         <v>3.75</v>
       </c>
-      <c r="L224">
-        <v>1.666</v>
-      </c>
-      <c r="M224">
-        <v>6.5</v>
-      </c>
       <c r="N224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O224">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="P224">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q224">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T224">
         <v>1.925</v>
@@ -19807,16 +19807,16 @@
         <v>1.925</v>
       </c>
       <c r="V224">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W224">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z224">
         <v>-1</v>
@@ -20005,7 +20005,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7744625</v>
+        <v>7744629</v>
       </c>
       <c r="C227" t="s">
         <v>37</v>
@@ -20014,76 +20014,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E227" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F227" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J227">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="K227">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="M227">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N227">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O227">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227">
+        <v>1.875</v>
+      </c>
+      <c r="R227">
         <v>1.975</v>
       </c>
-      <c r="R227">
-        <v>1.875</v>
-      </c>
       <c r="S227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
         <v>-1</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X227">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20177,7 +20177,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7744627</v>
+        <v>7744625</v>
       </c>
       <c r="C229" t="s">
         <v>37</v>
@@ -20186,76 +20186,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J229">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K229">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L229">
         <v>3.1</v>
       </c>
       <c r="M229">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q229">
+        <v>1.975</v>
+      </c>
+      <c r="R229">
         <v>1.875</v>
-      </c>
-      <c r="R229">
-        <v>1.975</v>
       </c>
       <c r="S229">
         <v>2.25</v>
       </c>
       <c r="T229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
         <v>-1</v>
       </c>
       <c r="W229">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB229">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20263,7 +20263,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7744628</v>
+        <v>7744627</v>
       </c>
       <c r="C230" t="s">
         <v>37</v>
@@ -20272,49 +20272,49 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F230" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J230">
+        <v>2.1</v>
+      </c>
+      <c r="K230">
+        <v>3.4</v>
+      </c>
+      <c r="L230">
         <v>3.1</v>
       </c>
-      <c r="K230">
-        <v>3</v>
-      </c>
-      <c r="L230">
-        <v>2.4</v>
-      </c>
       <c r="M230">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N230">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O230">
+        <v>3.5</v>
+      </c>
+      <c r="P230">
+        <v>-0.25</v>
+      </c>
+      <c r="Q230">
+        <v>1.875</v>
+      </c>
+      <c r="R230">
+        <v>1.975</v>
+      </c>
+      <c r="S230">
         <v>2.25</v>
-      </c>
-      <c r="P230">
-        <v>0.25</v>
-      </c>
-      <c r="Q230">
-        <v>1.95</v>
-      </c>
-      <c r="R230">
-        <v>1.9</v>
-      </c>
-      <c r="S230">
-        <v>1.75</v>
       </c>
       <c r="T230">
         <v>1.925</v>
@@ -20323,19 +20323,19 @@
         <v>1.925</v>
       </c>
       <c r="V230">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -20349,7 +20349,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7744630</v>
+        <v>7744631</v>
       </c>
       <c r="C231" t="s">
         <v>37</v>
@@ -20358,73 +20358,73 @@
         <v>45385.3125</v>
       </c>
       <c r="E231" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J231">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K231">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L231">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M231">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N231">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O231">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="P231">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q231">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
         <v>2.25</v>
       </c>
       <c r="T231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
         <v>-1</v>
@@ -20435,7 +20435,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7744631</v>
+        <v>7744630</v>
       </c>
       <c r="C232" t="s">
         <v>37</v>
@@ -20444,73 +20444,73 @@
         <v>45385.3125</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F232" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J232">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K232">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L232">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M232">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N232">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O232">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
         <v>2.25</v>
       </c>
       <c r="T232">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y232">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB232">
         <v>-1</v>
@@ -20693,7 +20693,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7744634</v>
+        <v>7744636</v>
       </c>
       <c r="C235" t="s">
         <v>37</v>
@@ -20702,76 +20702,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="s">
         <v>60</v>
       </c>
       <c r="J235">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="K235">
+        <v>3.5</v>
+      </c>
+      <c r="L235">
+        <v>3.4</v>
+      </c>
+      <c r="M235">
+        <v>1.727</v>
+      </c>
+      <c r="N235">
+        <v>4.2</v>
+      </c>
+      <c r="O235">
+        <v>4.2</v>
+      </c>
+      <c r="P235">
+        <v>-0.75</v>
+      </c>
+      <c r="Q235">
+        <v>1.925</v>
+      </c>
+      <c r="R235">
+        <v>1.925</v>
+      </c>
+      <c r="S235">
         <v>3</v>
       </c>
-      <c r="L235">
-        <v>2.5</v>
-      </c>
-      <c r="M235">
-        <v>2.55</v>
-      </c>
-      <c r="N235">
+      <c r="T235">
+        <v>1.975</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>-1</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
         <v>3.2</v>
       </c>
-      <c r="O235">
-        <v>2.9</v>
-      </c>
-      <c r="P235">
-        <v>0</v>
-      </c>
-      <c r="Q235">
-        <v>1.8</v>
-      </c>
-      <c r="R235">
-        <v>2.05</v>
-      </c>
-      <c r="S235">
-        <v>2.25</v>
-      </c>
-      <c r="T235">
-        <v>2</v>
-      </c>
-      <c r="U235">
-        <v>1.85</v>
-      </c>
-      <c r="V235">
-        <v>-1</v>
-      </c>
-      <c r="W235">
-        <v>-1</v>
-      </c>
-      <c r="X235">
-        <v>1.9</v>
-      </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB235">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20865,7 +20865,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7744637</v>
+        <v>7744634</v>
       </c>
       <c r="C237" t="s">
         <v>37</v>
@@ -20874,76 +20874,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J237">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="K237">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L237">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M237">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="N237">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O237">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="P237">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S237">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T237">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y237">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20951,7 +20951,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7744636</v>
+        <v>7744637</v>
       </c>
       <c r="C238" t="s">
         <v>37</v>
@@ -20960,76 +20960,76 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J238">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M238">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="N238">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O238">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q238">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T238">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z238">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21037,7 +21037,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7744639</v>
+        <v>7744638</v>
       </c>
       <c r="C239" t="s">
         <v>37</v>
@@ -21046,76 +21046,76 @@
         <v>45389.125</v>
       </c>
       <c r="E239" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J239">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="K239">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L239">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M239">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="N239">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q239">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U239">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB239">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21209,7 +21209,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7744638</v>
+        <v>7744639</v>
       </c>
       <c r="C241" t="s">
         <v>37</v>
@@ -21218,76 +21218,76 @@
         <v>45389.125</v>
       </c>
       <c r="E241" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J241">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="K241">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L241">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="N241">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O241">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q241">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V241">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21725,7 +21725,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7744645</v>
+        <v>7744643</v>
       </c>
       <c r="C247" t="s">
         <v>37</v>
@@ -21734,61 +21734,61 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F247" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="s">
         <v>59</v>
       </c>
       <c r="J247">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K247">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M247">
         <v>2.2</v>
       </c>
       <c r="N247">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O247">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P247">
         <v>-0.25</v>
       </c>
       <c r="Q247">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T247">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
         <v>-1</v>
       </c>
       <c r="W247">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -21797,13 +21797,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z247">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21811,7 +21811,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7744643</v>
+        <v>7744645</v>
       </c>
       <c r="C248" t="s">
         <v>37</v>
@@ -21820,61 +21820,61 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="s">
         <v>59</v>
       </c>
       <c r="J248">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="K248">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M248">
         <v>2.2</v>
       </c>
       <c r="N248">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
         <v>-0.25</v>
       </c>
       <c r="Q248">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R248">
+        <v>1.9</v>
+      </c>
+      <c r="S248">
+        <v>2.5</v>
+      </c>
+      <c r="T248">
+        <v>2</v>
+      </c>
+      <c r="U248">
         <v>1.85</v>
       </c>
-      <c r="S248">
-        <v>2.75</v>
-      </c>
-      <c r="T248">
-        <v>1.825</v>
-      </c>
-      <c r="U248">
-        <v>2.025</v>
-      </c>
       <c r="V248">
         <v>-1</v>
       </c>
       <c r="W248">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -21883,13 +21883,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z248">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21983,7 +21983,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7744649</v>
+        <v>7744650</v>
       </c>
       <c r="C250" t="s">
         <v>37</v>
@@ -21992,76 +21992,76 @@
         <v>45395.125</v>
       </c>
       <c r="E250" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F250" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J250">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K250">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L250">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="M250">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N250">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O250">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P250">
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R250">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S250">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T250">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U250">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z250">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22069,7 +22069,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7744650</v>
+        <v>7744649</v>
       </c>
       <c r="C251" t="s">
         <v>37</v>
@@ -22078,76 +22078,76 @@
         <v>45395.125</v>
       </c>
       <c r="E251" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F251" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G251">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J251">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K251">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L251">
+        <v>2.6</v>
+      </c>
+      <c r="M251">
+        <v>2.9</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251">
         <v>2.625</v>
       </c>
-      <c r="M251">
-        <v>2.7</v>
-      </c>
-      <c r="N251">
-        <v>3.2</v>
-      </c>
-      <c r="O251">
-        <v>2.7</v>
-      </c>
       <c r="P251">
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T251">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V251">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -23703,7 +23703,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7744672</v>
+        <v>7744670</v>
       </c>
       <c r="C270" t="s">
         <v>37</v>
@@ -23712,73 +23712,73 @@
         <v>45410.125</v>
       </c>
       <c r="E270" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F270" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J270">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="K270">
         <v>3.2</v>
       </c>
       <c r="L270">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N270">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O270">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P270">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q270">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R270">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S270">
         <v>2.25</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V270">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z270">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB270">
         <v>-1</v>
@@ -23789,7 +23789,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7744671</v>
+        <v>7744672</v>
       </c>
       <c r="C271" t="s">
         <v>37</v>
@@ -23798,40 +23798,40 @@
         <v>45410.125</v>
       </c>
       <c r="E271" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F271" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G271">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J271">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="K271">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L271">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M271">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N271">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O271">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="P271">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q271">
         <v>1.825</v>
@@ -23840,22 +23840,22 @@
         <v>2.025</v>
       </c>
       <c r="S271">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T271">
+        <v>2</v>
+      </c>
+      <c r="U271">
+        <v>1.85</v>
+      </c>
+      <c r="V271">
+        <v>-1</v>
+      </c>
+      <c r="W271">
+        <v>-1</v>
+      </c>
+      <c r="X271">
         <v>1.875</v>
-      </c>
-      <c r="U271">
-        <v>1.975</v>
-      </c>
-      <c r="V271">
-        <v>-1</v>
-      </c>
-      <c r="W271">
-        <v>3</v>
-      </c>
-      <c r="X271">
-        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
@@ -23864,10 +23864,10 @@
         <v>1.025</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:28">
@@ -23875,7 +23875,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7744670</v>
+        <v>7744671</v>
       </c>
       <c r="C272" t="s">
         <v>37</v>
@@ -23884,76 +23884,76 @@
         <v>45410.125</v>
       </c>
       <c r="E272" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272">
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J272">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K272">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L272">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M272">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="N272">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O272">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P272">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q272">
+        <v>1.825</v>
+      </c>
+      <c r="R272">
+        <v>2.025</v>
+      </c>
+      <c r="S272">
+        <v>2.5</v>
+      </c>
+      <c r="T272">
         <v>1.875</v>
       </c>
-      <c r="R272">
+      <c r="U272">
         <v>1.975</v>
       </c>
-      <c r="S272">
-        <v>2.25</v>
-      </c>
-      <c r="T272">
-        <v>2.05</v>
-      </c>
-      <c r="U272">
-        <v>1.8</v>
-      </c>
       <c r="V272">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA272">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23961,7 +23961,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7744673</v>
+        <v>7744674</v>
       </c>
       <c r="C273" t="s">
         <v>37</v>
@@ -23970,10 +23970,10 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E273" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F273" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -23985,61 +23985,61 @@
         <v>59</v>
       </c>
       <c r="J273">
+        <v>4.75</v>
+      </c>
+      <c r="K273">
+        <v>3.6</v>
+      </c>
+      <c r="L273">
+        <v>1.8</v>
+      </c>
+      <c r="M273">
+        <v>4.5</v>
+      </c>
+      <c r="N273">
+        <v>3.4</v>
+      </c>
+      <c r="O273">
+        <v>1.85</v>
+      </c>
+      <c r="P273">
+        <v>0.5</v>
+      </c>
+      <c r="Q273">
+        <v>1.975</v>
+      </c>
+      <c r="R273">
+        <v>1.875</v>
+      </c>
+      <c r="S273">
+        <v>2.25</v>
+      </c>
+      <c r="T273">
         <v>1.95</v>
       </c>
-      <c r="K273">
-        <v>3.5</v>
-      </c>
-      <c r="L273">
-        <v>3.75</v>
-      </c>
-      <c r="M273">
-        <v>1.727</v>
-      </c>
-      <c r="N273">
-        <v>4.2</v>
-      </c>
-      <c r="O273">
-        <v>4.2</v>
-      </c>
-      <c r="P273">
-        <v>-0.75</v>
-      </c>
-      <c r="Q273">
-        <v>1.925</v>
-      </c>
-      <c r="R273">
-        <v>1.925</v>
-      </c>
-      <c r="S273">
-        <v>3</v>
-      </c>
-      <c r="T273">
-        <v>1.875</v>
-      </c>
       <c r="U273">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V273">
         <v>-1</v>
       </c>
       <c r="W273">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z273">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB273">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24047,7 +24047,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7744674</v>
+        <v>7744673</v>
       </c>
       <c r="C274" t="s">
         <v>37</v>
@@ -24056,10 +24056,10 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F274" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24071,61 +24071,61 @@
         <v>59</v>
       </c>
       <c r="J274">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="K274">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L274">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M274">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="N274">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O274">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="P274">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q274">
+        <v>1.925</v>
+      </c>
+      <c r="R274">
+        <v>1.925</v>
+      </c>
+      <c r="S274">
+        <v>3</v>
+      </c>
+      <c r="T274">
+        <v>1.875</v>
+      </c>
+      <c r="U274">
         <v>1.975</v>
       </c>
-      <c r="R274">
-        <v>1.875</v>
-      </c>
-      <c r="S274">
-        <v>2.25</v>
-      </c>
-      <c r="T274">
-        <v>1.95</v>
-      </c>
-      <c r="U274">
-        <v>1.9</v>
-      </c>
       <c r="V274">
         <v>-1</v>
       </c>
       <c r="W274">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
+        <v>0.925</v>
+      </c>
+      <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z274">
-        <v>-1</v>
-      </c>
-      <c r="AA274">
-        <v>-0.5</v>
-      </c>
-      <c r="AB274">
-        <v>0.45</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24133,7 +24133,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7744679</v>
+        <v>7744675</v>
       </c>
       <c r="C275" t="s">
         <v>37</v>
@@ -24142,76 +24142,76 @@
         <v>45415.125</v>
       </c>
       <c r="E275" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F275" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J275">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K275">
-        <v>3.2</v>
+        <v>3.166</v>
       </c>
       <c r="L275">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="M275">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N275">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O275">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="P275">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q275">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S275">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T275">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U275">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB275">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24219,7 +24219,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7744675</v>
+        <v>7744679</v>
       </c>
       <c r="C276" t="s">
         <v>37</v>
@@ -24228,76 +24228,76 @@
         <v>45415.125</v>
       </c>
       <c r="E276" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F276" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G276">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J276">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K276">
-        <v>3.166</v>
+        <v>3.2</v>
       </c>
       <c r="L276">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="M276">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N276">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P276">
+        <v>0.25</v>
+      </c>
+      <c r="Q276">
+        <v>1.85</v>
+      </c>
+      <c r="R276">
+        <v>2</v>
+      </c>
+      <c r="S276">
+        <v>2.25</v>
+      </c>
+      <c r="T276">
+        <v>1.975</v>
+      </c>
+      <c r="U276">
+        <v>1.875</v>
+      </c>
+      <c r="V276">
+        <v>-1</v>
+      </c>
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>1.375</v>
+      </c>
+      <c r="Y276">
+        <v>-1</v>
+      </c>
+      <c r="Z276">
+        <v>1</v>
+      </c>
+      <c r="AA276">
         <v>-0.5</v>
       </c>
-      <c r="Q276">
-        <v>1.95</v>
-      </c>
-      <c r="R276">
-        <v>1.9</v>
-      </c>
-      <c r="S276">
-        <v>2.5</v>
-      </c>
-      <c r="T276">
-        <v>2.025</v>
-      </c>
-      <c r="U276">
-        <v>1.825</v>
-      </c>
-      <c r="V276">
-        <v>0.909</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>-1</v>
-      </c>
-      <c r="Y276">
-        <v>0.95</v>
-      </c>
-      <c r="Z276">
-        <v>-1</v>
-      </c>
-      <c r="AA276">
-        <v>1.025</v>
-      </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="277" spans="1:28">
@@ -24305,7 +24305,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7744678</v>
+        <v>7744677</v>
       </c>
       <c r="C277" t="s">
         <v>37</v>
@@ -24314,76 +24314,76 @@
         <v>45415.125</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F277" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J277">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K277">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L277">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N277">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O277">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P277">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q277">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S277">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T277">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V277">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W277">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB277">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="278" spans="1:28">
@@ -24477,7 +24477,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7744677</v>
+        <v>7744678</v>
       </c>
       <c r="C279" t="s">
         <v>37</v>
@@ -24486,76 +24486,76 @@
         <v>45415.125</v>
       </c>
       <c r="E279" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J279">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K279">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L279">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M279">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="N279">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O279">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P279">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q279">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R279">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S279">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T279">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U279">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V279">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA279">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -24563,7 +24563,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7744987</v>
+        <v>7744680</v>
       </c>
       <c r="C280" t="s">
         <v>37</v>
@@ -24572,58 +24572,58 @@
         <v>45415.16666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G280">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="s">
         <v>61</v>
       </c>
       <c r="J280">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K280">
+        <v>3</v>
+      </c>
+      <c r="L280">
+        <v>3.1</v>
+      </c>
+      <c r="M280">
+        <v>2.5</v>
+      </c>
+      <c r="N280">
+        <v>2.875</v>
+      </c>
+      <c r="O280">
         <v>3.3</v>
-      </c>
-      <c r="L280">
-        <v>2.8</v>
-      </c>
-      <c r="M280">
-        <v>2.375</v>
-      </c>
-      <c r="N280">
-        <v>3.6</v>
-      </c>
-      <c r="O280">
-        <v>2.9</v>
       </c>
       <c r="P280">
         <v>-0.25</v>
       </c>
       <c r="Q280">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="R280">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S280">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T280">
+        <v>1.825</v>
+      </c>
+      <c r="U280">
         <v>2.025</v>
       </c>
-      <c r="U280">
-        <v>1.825</v>
-      </c>
       <c r="V280">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="W280">
         <v>-1</v>
@@ -24632,16 +24632,16 @@
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
+        <v>-1</v>
+      </c>
+      <c r="AB280">
         <v>1.025</v>
-      </c>
-      <c r="AB280">
-        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -24649,7 +24649,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7744680</v>
+        <v>7744987</v>
       </c>
       <c r="C281" t="s">
         <v>37</v>
@@ -24658,58 +24658,58 @@
         <v>45415.16666666666</v>
       </c>
       <c r="E281" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F281" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="s">
         <v>61</v>
       </c>
       <c r="J281">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K281">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L281">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M281">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N281">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O281">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P281">
         <v>-0.25</v>
       </c>
       <c r="Q281">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="R281">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S281">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="T281">
+        <v>2.025</v>
+      </c>
+      <c r="U281">
         <v>1.825</v>
       </c>
-      <c r="U281">
-        <v>2.025</v>
-      </c>
       <c r="V281">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="W281">
         <v>-1</v>
@@ -24718,16 +24718,16 @@
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="Z281">
         <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB281">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -26455,7 +26455,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7744702</v>
+        <v>7744703</v>
       </c>
       <c r="C302" t="s">
         <v>37</v>
@@ -26464,76 +26464,76 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E302" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F302" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J302">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="K302">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L302">
         <v>3</v>
       </c>
       <c r="M302">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N302">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="O302">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P302">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q302">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R302">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S302">
         <v>2.25</v>
       </c>
       <c r="T302">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W302">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:28">
@@ -26541,7 +26541,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7744703</v>
+        <v>7744707</v>
       </c>
       <c r="C303" t="s">
         <v>37</v>
@@ -26550,73 +26550,73 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E303" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I303" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J303">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K303">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L303">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M303">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="N303">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O303">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P303">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q303">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T303">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U303">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V303">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y303">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA303">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB303">
         <v>-1</v>
@@ -26627,7 +26627,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7744707</v>
+        <v>7744706</v>
       </c>
       <c r="C304" t="s">
         <v>37</v>
@@ -26636,76 +26636,76 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J304">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="K304">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L304">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M304">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="N304">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O304">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P304">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q304">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R304">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T304">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U304">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V304">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA304">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="305" spans="1:28">
@@ -26713,7 +26713,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7744706</v>
+        <v>7744704</v>
       </c>
       <c r="C305" t="s">
         <v>37</v>
@@ -26722,58 +26722,58 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="s">
         <v>61</v>
       </c>
       <c r="J305">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="K305">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L305">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="M305">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N305">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O305">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="P305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q305">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R305">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S305">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T305">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>0.5329999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="W305">
         <v>-1</v>
@@ -26782,16 +26782,16 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB305">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:28">
@@ -26799,7 +26799,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7744705</v>
+        <v>7744708</v>
       </c>
       <c r="C306" t="s">
         <v>37</v>
@@ -26808,58 +26808,58 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F306" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G306">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="s">
         <v>61</v>
       </c>
       <c r="J306">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="K306">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L306">
+        <v>1.8</v>
+      </c>
+      <c r="M306">
+        <v>3.8</v>
+      </c>
+      <c r="N306">
+        <v>3.8</v>
+      </c>
+      <c r="O306">
+        <v>1.909</v>
+      </c>
+      <c r="P306">
+        <v>0.5</v>
+      </c>
+      <c r="Q306">
+        <v>1.925</v>
+      </c>
+      <c r="R306">
+        <v>1.925</v>
+      </c>
+      <c r="S306">
         <v>3</v>
       </c>
-      <c r="M306">
-        <v>2.45</v>
-      </c>
-      <c r="N306">
-        <v>3.2</v>
-      </c>
-      <c r="O306">
-        <v>2.875</v>
-      </c>
-      <c r="P306">
-        <v>0</v>
-      </c>
-      <c r="Q306">
-        <v>1.775</v>
-      </c>
-      <c r="R306">
-        <v>2.1</v>
-      </c>
-      <c r="S306">
-        <v>2.25</v>
-      </c>
       <c r="T306">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U306">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V306">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -26868,13 +26868,13 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB306">
         <v>-1</v>
@@ -26885,7 +26885,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7744704</v>
+        <v>7744702</v>
       </c>
       <c r="C307" t="s">
         <v>37</v>
@@ -26894,76 +26894,76 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F307" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307" t="s">
+        <v>59</v>
+      </c>
+      <c r="J307">
+        <v>2.45</v>
+      </c>
+      <c r="K307">
+        <v>3.1</v>
+      </c>
+      <c r="L307">
         <v>3</v>
       </c>
-      <c r="H307">
-        <v>1</v>
-      </c>
-      <c r="I307" t="s">
-        <v>61</v>
-      </c>
-      <c r="J307">
-        <v>2.55</v>
-      </c>
-      <c r="K307">
-        <v>3.4</v>
-      </c>
-      <c r="L307">
+      <c r="M307">
         <v>2.625</v>
       </c>
-      <c r="M307">
-        <v>2.5</v>
-      </c>
       <c r="N307">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O307">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P307">
         <v>0</v>
       </c>
       <c r="Q307">
+        <v>1.875</v>
+      </c>
+      <c r="R307">
+        <v>1.975</v>
+      </c>
+      <c r="S307">
+        <v>2.25</v>
+      </c>
+      <c r="T307">
+        <v>2.05</v>
+      </c>
+      <c r="U307">
         <v>1.8</v>
       </c>
-      <c r="R307">
-        <v>2.05</v>
-      </c>
-      <c r="S307">
-        <v>2.75</v>
-      </c>
-      <c r="T307">
-        <v>1.85</v>
-      </c>
-      <c r="U307">
-        <v>2</v>
-      </c>
       <c r="V307">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="Z307">
+        <v>0</v>
+      </c>
+      <c r="AA307">
+        <v>-1</v>
+      </c>
+      <c r="AB307">
         <v>0.8</v>
-      </c>
-      <c r="Z307">
-        <v>-1</v>
-      </c>
-      <c r="AA307">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:28">
@@ -26971,7 +26971,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7744708</v>
+        <v>7744701</v>
       </c>
       <c r="C308" t="s">
         <v>37</v>
@@ -26980,58 +26980,58 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F308" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G308">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="s">
         <v>61</v>
       </c>
       <c r="J308">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="K308">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L308">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="M308">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="N308">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O308">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P308">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R308">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S308">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T308">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U308">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
-        <v>2.8</v>
+        <v>0.95</v>
       </c>
       <c r="W308">
         <v>-1</v>
@@ -27040,13 +27040,13 @@
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z308">
         <v>-1</v>
       </c>
       <c r="AA308">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB308">
         <v>-1</v>
@@ -27057,7 +27057,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7744701</v>
+        <v>7744705</v>
       </c>
       <c r="C309" t="s">
         <v>37</v>
@@ -27066,13 +27066,13 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F309" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -27081,43 +27081,43 @@
         <v>61</v>
       </c>
       <c r="J309">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K309">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L309">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M309">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="N309">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O309">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P309">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q309">
+        <v>1.775</v>
+      </c>
+      <c r="R309">
+        <v>2.1</v>
+      </c>
+      <c r="S309">
+        <v>2.25</v>
+      </c>
+      <c r="T309">
         <v>1.975</v>
       </c>
-      <c r="R309">
+      <c r="U309">
         <v>1.875</v>
       </c>
-      <c r="S309">
-        <v>2.5</v>
-      </c>
-      <c r="T309">
-        <v>2</v>
-      </c>
-      <c r="U309">
-        <v>1.85</v>
-      </c>
       <c r="V309">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -27126,13 +27126,13 @@
         <v>-1</v>
       </c>
       <c r="Y309">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z309">
+        <v>-1</v>
+      </c>
+      <c r="AA309">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z309">
-        <v>-1</v>
-      </c>
-      <c r="AA309">
-        <v>1</v>
       </c>
       <c r="AB309">
         <v>-1</v>
@@ -27339,31 +27339,31 @@
         <v>2.6</v>
       </c>
       <c r="M312">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N312">
         <v>3</v>
       </c>
       <c r="O312">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P312">
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S312">
         <v>2</v>
       </c>
       <c r="T312">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U312">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V312">
         <v>0</v>
@@ -27404,31 +27404,31 @@
         <v>2.25</v>
       </c>
       <c r="M313">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N313">
         <v>3.2</v>
       </c>
       <c r="O313">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P313">
         <v>0.25</v>
       </c>
       <c r="Q313">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R313">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S313">
         <v>2.25</v>
       </c>
       <c r="T313">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U313">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V313">
         <v>0</v>
@@ -27649,46 +27649,46 @@
         <v>45431.125</v>
       </c>
       <c r="E317" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F317" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J317">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="K317">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L317">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M317">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N317">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O317">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P317">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q317">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S317">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T317">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
         <v>0</v>
@@ -27779,46 +27779,46 @@
         <v>45431.125</v>
       </c>
       <c r="E319" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J319">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="K319">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L319">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M319">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N319">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O319">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="P319">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q319">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R319">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S319">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T319">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -112,13 +112,13 @@
     <t>7744725</t>
   </si>
   <si>
+    <t>7744728</t>
+  </si>
+  <si>
     <t>7744727</t>
   </si>
   <si>
     <t>7744726</t>
-  </si>
-  <si>
-    <t>7744728</t>
   </si>
   <si>
     <t>7744729</t>
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173851</v>
+        <v>6173852</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2467,73 +2467,73 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J23">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
         <v>3.5</v>
       </c>
       <c r="O23">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
         <v>2.5</v>
       </c>
       <c r="T23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.95</v>
-      </c>
-      <c r="AA23">
-        <v>0.875</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2544,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6173850</v>
+        <v>6173851</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2553,76 +2553,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K24">
         <v>3.3</v>
       </c>
       <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>2.15</v>
+      </c>
+      <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>-0.25</v>
+      </c>
+      <c r="Q24">
+        <v>1.9</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>2.5</v>
+      </c>
+      <c r="T24">
+        <v>1.875</v>
+      </c>
+      <c r="U24">
+        <v>1.975</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>2.25</v>
       </c>
-      <c r="M24">
-        <v>3.4</v>
-      </c>
-      <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>2.15</v>
-      </c>
-      <c r="P24">
-        <v>0.25</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>1.85</v>
-      </c>
-      <c r="S24">
-        <v>2.25</v>
-      </c>
-      <c r="T24">
-        <v>1.85</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>2.4</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173852</v>
+        <v>6173850</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2639,76 +2639,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>60</v>
       </c>
       <c r="J25">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L25">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M25">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="P25">
+        <v>0.25</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>2.25</v>
+      </c>
+      <c r="T25">
+        <v>1.85</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>2.4</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>-0.5</v>
       </c>
-      <c r="Q25">
-        <v>1.975</v>
-      </c>
-      <c r="R25">
-        <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>2.5</v>
-      </c>
-      <c r="T25">
-        <v>1.95</v>
-      </c>
-      <c r="U25">
-        <v>1.9</v>
-      </c>
-      <c r="V25">
-        <v>0.95</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z25">
-        <v>-1</v>
-      </c>
-      <c r="AA25">
-        <v>0.95</v>
-      </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -4780,7 +4780,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173876</v>
+        <v>6173880</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
@@ -4789,76 +4789,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50">
+        <v>3.2</v>
+      </c>
+      <c r="K50">
         <v>3</v>
       </c>
-      <c r="I50" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50">
-        <v>2.625</v>
-      </c>
-      <c r="K50">
-        <v>2.875</v>
-      </c>
       <c r="L50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="M50">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
         <v>2.25</v>
       </c>
       <c r="T50">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4866,7 +4866,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173881</v>
+        <v>6173879</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -4875,13 +4875,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4890,43 +4890,43 @@
         <v>60</v>
       </c>
       <c r="J51">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L51">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O51">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4935,16 +4935,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5038,7 +5038,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6173879</v>
+        <v>6173881</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -5047,13 +5047,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5062,43 +5062,43 @@
         <v>60</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M53">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="N53">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P53">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5107,16 +5107,16 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5210,7 +5210,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6173880</v>
+        <v>6173876</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
@@ -5219,76 +5219,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J55">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="P55">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
         <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5812,7 +5812,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6173889</v>
+        <v>6173888</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
@@ -5821,10 +5821,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5836,40 +5836,40 @@
         <v>59</v>
       </c>
       <c r="J62">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K62">
+        <v>3.3</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.2</v>
+      </c>
+      <c r="N62">
+        <v>3.4</v>
+      </c>
+      <c r="O62">
         <v>3.2</v>
       </c>
-      <c r="L62">
-        <v>2.7</v>
-      </c>
-      <c r="M62">
-        <v>2.6</v>
-      </c>
-      <c r="N62">
-        <v>3.2</v>
-      </c>
-      <c r="O62">
-        <v>2.875</v>
-      </c>
       <c r="P62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
         <v>-1</v>
@@ -5878,19 +5878,19 @@
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5898,7 +5898,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6173888</v>
+        <v>6173889</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
@@ -5907,10 +5907,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5922,61 +5922,61 @@
         <v>59</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2.25</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
+        <v>-1</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>1.875</v>
       </c>
-      <c r="S63">
-        <v>2.5</v>
-      </c>
-      <c r="T63">
-        <v>1.95</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>-1</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>2.2</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6173887</v>
+        <v>6173886</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
@@ -5993,55 +5993,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64" t="s">
         <v>59</v>
       </c>
       <c r="J64">
+        <v>1.75</v>
+      </c>
+      <c r="K64">
+        <v>3.5</v>
+      </c>
+      <c r="L64">
+        <v>4.2</v>
+      </c>
+      <c r="M64">
+        <v>1.615</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>5.25</v>
+      </c>
+      <c r="P64">
+        <v>-1</v>
+      </c>
+      <c r="Q64">
         <v>2.05</v>
       </c>
-      <c r="K64">
-        <v>3.3</v>
-      </c>
-      <c r="L64">
-        <v>3.4</v>
-      </c>
-      <c r="M64">
-        <v>2.625</v>
-      </c>
-      <c r="N64">
-        <v>3.25</v>
-      </c>
-      <c r="O64">
-        <v>2.7</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>1.925</v>
-      </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T64">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
         <v>-1</v>
@@ -6050,19 +6050,19 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>1.7</v>
+        <v>4.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6070,7 +6070,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6173886</v>
+        <v>6173887</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -6079,55 +6079,55 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>59</v>
       </c>
       <c r="J65">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L65">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="P65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
         <v>-1</v>
@@ -6136,19 +6136,19 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>4.25</v>
+        <v>1.7</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -8736,7 +8736,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6173924</v>
+        <v>6173919</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -8745,76 +8745,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J96">
+        <v>3.75</v>
+      </c>
+      <c r="K96">
         <v>3.6</v>
-      </c>
-      <c r="K96">
-        <v>3.75</v>
       </c>
       <c r="L96">
         <v>1.909</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="P96">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q96">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8822,7 +8822,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6173919</v>
+        <v>6173917</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
@@ -8831,49 +8831,49 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O97">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P97">
         <v>0.25</v>
       </c>
       <c r="Q97">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R97">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T97">
         <v>1.925</v>
@@ -8882,25 +8882,25 @@
         <v>1.925</v>
       </c>
       <c r="V97">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W97">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
         <v>0.925</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8908,7 +8908,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6173917</v>
+        <v>6173924</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -8917,76 +8917,76 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K98">
+        <v>3.75</v>
+      </c>
+      <c r="L98">
+        <v>1.909</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98">
         <v>4</v>
       </c>
-      <c r="L98">
-        <v>2.1</v>
-      </c>
-      <c r="M98">
+      <c r="O98">
+        <v>1.8</v>
+      </c>
+      <c r="P98">
+        <v>0.75</v>
+      </c>
+      <c r="Q98">
+        <v>1.875</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>2.75</v>
       </c>
-      <c r="N98">
-        <v>3.8</v>
-      </c>
-      <c r="O98">
-        <v>2.25</v>
-      </c>
-      <c r="P98">
-        <v>0.25</v>
-      </c>
-      <c r="Q98">
-        <v>1.8</v>
-      </c>
-      <c r="R98">
-        <v>2.05</v>
-      </c>
-      <c r="S98">
-        <v>3</v>
-      </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -10284,7 +10284,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6173935</v>
+        <v>6173940</v>
       </c>
       <c r="C114" t="s">
         <v>36</v>
@@ -10293,76 +10293,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J114">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K114">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M114">
-        <v>2.375</v>
+        <v>4.6</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="O114">
+        <v>1.75</v>
+      </c>
+      <c r="P114">
+        <v>0.75</v>
+      </c>
+      <c r="Q114">
+        <v>1.925</v>
+      </c>
+      <c r="R114">
+        <v>1.925</v>
+      </c>
+      <c r="S114">
+        <v>2.5</v>
+      </c>
+      <c r="T114">
+        <v>1.9</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
         <v>3.6</v>
       </c>
-      <c r="P114">
-        <v>-0.25</v>
-      </c>
-      <c r="Q114">
-        <v>2</v>
-      </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.75</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.85</v>
-      </c>
-      <c r="V114">
-        <v>-1</v>
-      </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10370,7 +10370,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6173940</v>
+        <v>6173935</v>
       </c>
       <c r="C115" t="s">
         <v>36</v>
@@ -10379,76 +10379,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J115">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>4.6</v>
+        <v>2.375</v>
       </c>
       <c r="N115">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="O115">
+        <v>3.6</v>
+      </c>
+      <c r="P115">
+        <v>-0.25</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.75</v>
       </c>
-      <c r="P115">
-        <v>0.75</v>
-      </c>
-      <c r="Q115">
-        <v>1.925</v>
-      </c>
-      <c r="R115">
-        <v>1.925</v>
-      </c>
-      <c r="S115">
-        <v>2.5</v>
-      </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>3.6</v>
+        <v>-1</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10800,7 +10800,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -10809,55 +10809,55 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" t="s">
         <v>59</v>
       </c>
       <c r="J120">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
         <v>3.8</v>
       </c>
       <c r="O120">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q120">
+        <v>1.8</v>
+      </c>
+      <c r="R120">
         <v>2.05</v>
       </c>
-      <c r="R120">
-        <v>1.8</v>
-      </c>
       <c r="S120">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V120">
         <v>-1</v>
@@ -10866,19 +10866,19 @@
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10886,7 +10886,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -10895,56 +10895,56 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="s">
         <v>59</v>
       </c>
       <c r="J121">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K121">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
         <v>3.8</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q121">
+        <v>2.05</v>
+      </c>
+      <c r="R121">
         <v>1.8</v>
       </c>
-      <c r="R121">
-        <v>2.05</v>
-      </c>
       <c r="S121">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
         <v>1.85</v>
       </c>
-      <c r="U121">
-        <v>2</v>
-      </c>
       <c r="V121">
         <v>-1</v>
       </c>
@@ -10952,19 +10952,19 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB121">
-        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11832,7 +11832,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173957</v>
+        <v>6173954</v>
       </c>
       <c r="C132" t="s">
         <v>36</v>
@@ -11841,76 +11841,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J132">
         <v>2.625</v>
       </c>
       <c r="K132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M132">
+        <v>2.7</v>
+      </c>
+      <c r="N132">
+        <v>3.2</v>
+      </c>
+      <c r="O132">
         <v>2.75</v>
       </c>
-      <c r="N132">
-        <v>3.1</v>
-      </c>
-      <c r="O132">
-        <v>2.7</v>
-      </c>
       <c r="P132">
         <v>0</v>
       </c>
       <c r="Q132">
+        <v>1.9</v>
+      </c>
+      <c r="R132">
         <v>1.95</v>
       </c>
-      <c r="R132">
+      <c r="S132">
+        <v>2.5</v>
+      </c>
+      <c r="T132">
         <v>1.9</v>
       </c>
-      <c r="S132">
-        <v>2.25</v>
-      </c>
-      <c r="T132">
-        <v>2.05</v>
-      </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11918,7 +11918,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173958</v>
+        <v>6173957</v>
       </c>
       <c r="C133" t="s">
         <v>36</v>
@@ -11927,76 +11927,76 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J133">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
         <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="P133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
         <v>2.25</v>
       </c>
       <c r="T133">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12004,7 +12004,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6173953</v>
+        <v>6173958</v>
       </c>
       <c r="C134" t="s">
         <v>36</v>
@@ -12013,13 +12013,13 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12028,43 +12028,43 @@
         <v>60</v>
       </c>
       <c r="J134">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N134">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O134">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12073,13 +12073,13 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12090,7 +12090,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6173954</v>
+        <v>6173953</v>
       </c>
       <c r="C135" t="s">
         <v>36</v>
@@ -12099,37 +12099,37 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="s">
         <v>60</v>
       </c>
       <c r="J135">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="K135">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L135">
+        <v>3.75</v>
+      </c>
+      <c r="M135">
+        <v>2.45</v>
+      </c>
+      <c r="N135">
+        <v>4.2</v>
+      </c>
+      <c r="O135">
         <v>2.5</v>
-      </c>
-      <c r="M135">
-        <v>2.7</v>
-      </c>
-      <c r="N135">
-        <v>3.2</v>
-      </c>
-      <c r="O135">
-        <v>2.75</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T135">
         <v>1.9</v>
@@ -12150,7 +12150,7 @@
         <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12165,10 +12165,10 @@
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12520,7 +12520,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6472889</v>
+        <v>6473046</v>
       </c>
       <c r="C140" t="s">
         <v>36</v>
@@ -12529,76 +12529,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J140">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="K140">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L140">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N140">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O140">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
         <v>1.85</v>
       </c>
-      <c r="R140">
-        <v>2</v>
-      </c>
       <c r="S140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12606,7 +12606,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6473046</v>
+        <v>6472889</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -12615,76 +12615,76 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J141">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M141">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T141">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -13122,7 +13122,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6480222</v>
+        <v>6490061</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -13131,76 +13131,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J147">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K147">
         <v>3.4</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>3.3</v>
+      </c>
+      <c r="O147">
+        <v>2.55</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>1.85</v>
+      </c>
+      <c r="S147">
         <v>2.25</v>
       </c>
-      <c r="N147">
-        <v>3.4</v>
-      </c>
-      <c r="O147">
-        <v>3.2</v>
-      </c>
-      <c r="P147">
-        <v>-0.25</v>
-      </c>
-      <c r="Q147">
-        <v>1.975</v>
-      </c>
-      <c r="R147">
-        <v>1.875</v>
-      </c>
-      <c r="S147">
-        <v>2.5</v>
-      </c>
       <c r="T147">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z147">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13208,7 +13208,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6490061</v>
+        <v>6480215</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -13217,76 +13217,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J148">
         <v>3</v>
       </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M148">
+        <v>3.8</v>
+      </c>
+      <c r="N148">
+        <v>3.8</v>
+      </c>
+      <c r="O148">
+        <v>1.909</v>
+      </c>
+      <c r="P148">
+        <v>0.5</v>
+      </c>
+      <c r="Q148">
+        <v>1.975</v>
+      </c>
+      <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>3</v>
+      </c>
+      <c r="T148">
+        <v>1.9</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>-1</v>
+      </c>
+      <c r="W148">
         <v>2.8</v>
       </c>
-      <c r="N148">
-        <v>3.3</v>
-      </c>
-      <c r="O148">
-        <v>2.55</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>2</v>
-      </c>
-      <c r="R148">
-        <v>1.85</v>
-      </c>
-      <c r="S148">
-        <v>2.25</v>
-      </c>
-      <c r="T148">
-        <v>1.85</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.8</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13294,7 +13294,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6480215</v>
+        <v>6480222</v>
       </c>
       <c r="C149" t="s">
         <v>36</v>
@@ -13303,10 +13303,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13318,25 +13318,25 @@
         <v>58</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L149">
+        <v>3.1</v>
+      </c>
+      <c r="M149">
         <v>2.25</v>
       </c>
-      <c r="M149">
-        <v>3.8</v>
-      </c>
       <c r="N149">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O149">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P149">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q149">
         <v>1.975</v>
@@ -13345,34 +13345,34 @@
         <v>1.875</v>
       </c>
       <c r="S149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T149">
+        <v>1.95</v>
+      </c>
+      <c r="U149">
         <v>1.9</v>
       </c>
-      <c r="U149">
-        <v>1.95</v>
-      </c>
       <c r="V149">
         <v>-1</v>
       </c>
       <c r="W149">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13380,7 +13380,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6480216</v>
+        <v>6482813</v>
       </c>
       <c r="C150" t="s">
         <v>36</v>
@@ -13389,76 +13389,76 @@
         <v>45241.125</v>
       </c>
       <c r="E150" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J150">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K150">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M150">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q150">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R150">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
         <v>-1</v>
       </c>
       <c r="W150">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13466,7 +13466,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6482813</v>
+        <v>6480218</v>
       </c>
       <c r="C151" t="s">
         <v>36</v>
@@ -13475,56 +13475,56 @@
         <v>45241.125</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
         <v>59</v>
       </c>
       <c r="J151">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="K151">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L151">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M151">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N151">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P151">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q151">
+        <v>1.925</v>
+      </c>
+      <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>1.975</v>
+      </c>
+      <c r="U151">
         <v>1.875</v>
       </c>
-      <c r="R151">
-        <v>1.975</v>
-      </c>
-      <c r="S151">
-        <v>2.5</v>
-      </c>
-      <c r="T151">
-        <v>1.825</v>
-      </c>
-      <c r="U151">
-        <v>2.025</v>
-      </c>
       <c r="V151">
         <v>-1</v>
       </c>
@@ -13532,16 +13532,16 @@
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
+        <v>0.925</v>
+      </c>
+      <c r="AA151">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA151">
-        <v>0.825</v>
       </c>
       <c r="AB151">
         <v>-1</v>
@@ -13552,7 +13552,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6480218</v>
+        <v>6480216</v>
       </c>
       <c r="C152" t="s">
         <v>36</v>
@@ -13561,76 +13561,76 @@
         <v>45241.125</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J152">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="K152">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L152">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N152">
         <v>3</v>
       </c>
       <c r="O152">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P152">
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S152">
         <v>2</v>
       </c>
       <c r="T152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
         <v>-1</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X152">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z152">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13638,7 +13638,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6480221</v>
+        <v>6480217</v>
       </c>
       <c r="C153" t="s">
         <v>36</v>
@@ -13647,40 +13647,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J153">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="K153">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M153">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N153">
         <v>4</v>
       </c>
       <c r="O153">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
         <v>1.9</v>
@@ -13689,34 +13689,34 @@
         <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T153">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13724,7 +13724,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6480217</v>
+        <v>6480221</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -13733,40 +13733,40 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J154">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K154">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L154">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M154">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N154">
         <v>4</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P154">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -13775,34 +13775,34 @@
         <v>1.95</v>
       </c>
       <c r="S154">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -14240,7 +14240,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6504897</v>
+        <v>6504896</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
@@ -14249,37 +14249,37 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J160">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="K160">
+        <v>3.75</v>
+      </c>
+      <c r="L160">
         <v>4.5</v>
       </c>
-      <c r="L160">
-        <v>7</v>
-      </c>
       <c r="M160">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="N160">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O160">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P160">
         <v>-1</v>
@@ -14294,31 +14294,31 @@
         <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14326,7 +14326,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6504896</v>
+        <v>6504897</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
@@ -14335,37 +14335,37 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J161">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L161">
+        <v>7</v>
+      </c>
+      <c r="M161">
+        <v>1.5</v>
+      </c>
+      <c r="N161">
         <v>4.5</v>
       </c>
-      <c r="M161">
-        <v>1.533</v>
-      </c>
-      <c r="N161">
-        <v>4.333</v>
-      </c>
       <c r="O161">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P161">
         <v>-1</v>
@@ -14380,31 +14380,31 @@
         <v>2.75</v>
       </c>
       <c r="T161">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W161">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14670,7 +14670,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527778</v>
+        <v>6527615</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -14679,13 +14679,13 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -14694,43 +14694,43 @@
         <v>60</v>
       </c>
       <c r="J165">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="K165">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L165">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="M165">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N165">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O165">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="P165">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q165">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>2.3</v>
+        <v>0.833</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -14739,13 +14739,13 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
         <v>-1</v>
@@ -14842,7 +14842,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6527615</v>
+        <v>6527910</v>
       </c>
       <c r="C167" t="s">
         <v>36</v>
@@ -14851,76 +14851,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J167">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="K167">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L167">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M167">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O167">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="P167">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q167">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R167">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14928,7 +14928,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527910</v>
+        <v>6527778</v>
       </c>
       <c r="C168" t="s">
         <v>36</v>
@@ -14937,34 +14937,34 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J168">
+        <v>3.4</v>
+      </c>
+      <c r="K168">
+        <v>3.8</v>
+      </c>
+      <c r="L168">
+        <v>1.95</v>
+      </c>
+      <c r="M168">
         <v>3.3</v>
       </c>
-      <c r="K168">
-        <v>3.6</v>
-      </c>
-      <c r="L168">
-        <v>2.05</v>
-      </c>
-      <c r="M168">
-        <v>3.4</v>
-      </c>
       <c r="N168">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O168">
         <v>2</v>
@@ -14973,40 +14973,40 @@
         <v>0.5</v>
       </c>
       <c r="Q168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T168">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15014,7 +15014,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527777</v>
+        <v>6527616</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
@@ -15023,76 +15023,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J169">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K169">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L169">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M169">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N169">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
         <v>-0.25</v>
       </c>
       <c r="Q169">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T169">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15272,7 +15272,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6527616</v>
+        <v>6527777</v>
       </c>
       <c r="C172" t="s">
         <v>36</v>
@@ -15281,76 +15281,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J172">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K172">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
+        <v>2.875</v>
+      </c>
+      <c r="M172">
+        <v>2.3</v>
+      </c>
+      <c r="N172">
+        <v>3.6</v>
+      </c>
+      <c r="O172">
         <v>2.8</v>
-      </c>
-      <c r="M172">
-        <v>2.2</v>
-      </c>
-      <c r="N172">
-        <v>3.3</v>
-      </c>
-      <c r="O172">
-        <v>3.2</v>
       </c>
       <c r="P172">
         <v>-0.25</v>
       </c>
       <c r="Q172">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T172">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -16820,7 +16820,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624510</v>
+        <v>7624512</v>
       </c>
       <c r="C190" t="s">
         <v>36</v>
@@ -16829,67 +16829,67 @@
         <v>45353.125</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J190">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="K190">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L190">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N190">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O190">
+        <v>2.75</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>1.875</v>
+      </c>
+      <c r="R190">
+        <v>1.975</v>
+      </c>
+      <c r="S190">
+        <v>2.25</v>
+      </c>
+      <c r="T190">
+        <v>2.05</v>
+      </c>
+      <c r="U190">
         <v>1.8</v>
       </c>
-      <c r="P190">
-        <v>0.5</v>
-      </c>
-      <c r="Q190">
-        <v>2.025</v>
-      </c>
-      <c r="R190">
-        <v>1.825</v>
-      </c>
-      <c r="S190">
-        <v>2.5</v>
-      </c>
-      <c r="T190">
-        <v>1.825</v>
-      </c>
-      <c r="U190">
-        <v>2.025</v>
-      </c>
       <c r="V190">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="Z190">
         <v>-1</v>
@@ -16898,7 +16898,7 @@
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16906,7 +16906,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624512</v>
+        <v>7624509</v>
       </c>
       <c r="C191" t="s">
         <v>36</v>
@@ -16915,76 +16915,76 @@
         <v>45353.125</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J191">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K191">
         <v>3.2</v>
       </c>
       <c r="L191">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N191">
         <v>3.25</v>
       </c>
       <c r="O191">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q191">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
         <v>2.25</v>
       </c>
       <c r="T191">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -16992,7 +16992,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7624509</v>
+        <v>7624510</v>
       </c>
       <c r="C192" t="s">
         <v>36</v>
@@ -17001,10 +17001,10 @@
         <v>45353.125</v>
       </c>
       <c r="E192" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17016,25 +17016,25 @@
         <v>58</v>
       </c>
       <c r="J192">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K192">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="M192">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N192">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O192">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="P192">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q192">
         <v>2.025</v>
@@ -17043,34 +17043,34 @@
         <v>1.825</v>
       </c>
       <c r="S192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T192">
+        <v>1.825</v>
+      </c>
+      <c r="U192">
         <v>2.025</v>
       </c>
-      <c r="U192">
-        <v>1.825</v>
-      </c>
       <c r="V192">
         <v>-1</v>
       </c>
       <c r="W192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z192">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -18282,7 +18282,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744607</v>
+        <v>7744608</v>
       </c>
       <c r="C207" t="s">
         <v>36</v>
@@ -18291,40 +18291,40 @@
         <v>45367.125</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J207">
+        <v>3</v>
+      </c>
+      <c r="K207">
+        <v>3.25</v>
+      </c>
+      <c r="L207">
         <v>2.1</v>
       </c>
-      <c r="K207">
-        <v>3.1</v>
-      </c>
-      <c r="L207">
-        <v>3.2</v>
-      </c>
       <c r="M207">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N207">
         <v>3.3</v>
       </c>
       <c r="O207">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="P207">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -18336,31 +18336,31 @@
         <v>2.25</v>
       </c>
       <c r="T207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA207">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18368,7 +18368,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7744608</v>
+        <v>7744607</v>
       </c>
       <c r="C208" t="s">
         <v>36</v>
@@ -18377,40 +18377,40 @@
         <v>45367.125</v>
       </c>
       <c r="E208" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F208" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J208">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="K208">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L208">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N208">
         <v>3.3</v>
       </c>
       <c r="O208">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="P208">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -18422,31 +18422,31 @@
         <v>2.25</v>
       </c>
       <c r="T208">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z208">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB208">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -19142,7 +19142,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7744619</v>
+        <v>7744620</v>
       </c>
       <c r="C217" t="s">
         <v>36</v>
@@ -19151,40 +19151,40 @@
         <v>45381.125</v>
       </c>
       <c r="E217" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G217">
         <v>3</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="s">
         <v>60</v>
       </c>
       <c r="J217">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K217">
         <v>3.5</v>
       </c>
       <c r="L217">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N217">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -19193,16 +19193,16 @@
         <v>1.9</v>
       </c>
       <c r="S217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19217,10 +19217,10 @@
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19314,7 +19314,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7744620</v>
+        <v>7744619</v>
       </c>
       <c r="C219" t="s">
         <v>36</v>
@@ -19323,40 +19323,40 @@
         <v>45381.125</v>
       </c>
       <c r="E219" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G219">
         <v>3</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="s">
         <v>60</v>
       </c>
       <c r="J219">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K219">
         <v>3.5</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M219">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="N219">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P219">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q219">
         <v>1.95</v>
@@ -19365,16 +19365,16 @@
         <v>1.9</v>
       </c>
       <c r="S219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19389,10 +19389,10 @@
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19486,7 +19486,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7744621</v>
+        <v>7744622</v>
       </c>
       <c r="C221" t="s">
         <v>36</v>
@@ -19495,58 +19495,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>2</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="s">
         <v>60</v>
       </c>
       <c r="J221">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="K221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>2.05</v>
+      </c>
+      <c r="N221">
+        <v>3.4</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>-0.5</v>
+      </c>
+      <c r="Q221">
+        <v>2.025</v>
+      </c>
+      <c r="R221">
+        <v>1.825</v>
+      </c>
+      <c r="S221">
         <v>2.25</v>
       </c>
-      <c r="M221">
-        <v>2.625</v>
-      </c>
-      <c r="N221">
-        <v>3.5</v>
-      </c>
-      <c r="O221">
-        <v>2.6</v>
-      </c>
-      <c r="P221">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>1.925</v>
-      </c>
-      <c r="R221">
-        <v>1.925</v>
-      </c>
-      <c r="S221">
-        <v>2.5</v>
-      </c>
       <c r="T221">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V221">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -19555,16 +19555,16 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19572,7 +19572,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7744622</v>
+        <v>7744621</v>
       </c>
       <c r="C222" t="s">
         <v>36</v>
@@ -19581,58 +19581,58 @@
         <v>45381.16666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="s">
         <v>60</v>
       </c>
       <c r="J222">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="K222">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M222">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P222">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q222">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>1.05</v>
+        <v>1.625</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -19641,16 +19641,16 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19658,7 +19658,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7744626</v>
+        <v>7744624</v>
       </c>
       <c r="C223" t="s">
         <v>36</v>
@@ -19667,40 +19667,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E223" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F223" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J223">
+        <v>2.6</v>
+      </c>
+      <c r="K223">
+        <v>3.25</v>
+      </c>
+      <c r="L223">
+        <v>2.625</v>
+      </c>
+      <c r="M223">
         <v>3.4</v>
       </c>
-      <c r="K223">
-        <v>3.6</v>
-      </c>
-      <c r="L223">
-        <v>2</v>
-      </c>
-      <c r="M223">
+      <c r="N223">
+        <v>3.25</v>
+      </c>
+      <c r="O223">
         <v>2.25</v>
       </c>
-      <c r="N223">
-        <v>3.3</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
       <c r="P223">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q223">
         <v>1.975</v>
@@ -19718,25 +19718,25 @@
         <v>1.925</v>
       </c>
       <c r="V223">
+        <v>-1</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
         <v>1.25</v>
       </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
       <c r="Y223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB223">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19744,7 +19744,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7744623</v>
+        <v>7744625</v>
       </c>
       <c r="C224" t="s">
         <v>36</v>
@@ -19753,76 +19753,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J224">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="K224">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L224">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N224">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O224">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P224">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T224">
+        <v>2</v>
+      </c>
+      <c r="U224">
         <v>1.85</v>
       </c>
-      <c r="U224">
-        <v>2</v>
-      </c>
       <c r="V224">
         <v>-1</v>
       </c>
       <c r="W224">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19830,7 +19830,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7744625</v>
+        <v>7744626</v>
       </c>
       <c r="C225" t="s">
         <v>36</v>
@@ -19839,40 +19839,40 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F225" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J225">
+        <v>3.4</v>
+      </c>
+      <c r="K225">
+        <v>3.6</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
         <v>2.25</v>
       </c>
-      <c r="K225">
-        <v>3.25</v>
-      </c>
-      <c r="L225">
-        <v>3.1</v>
-      </c>
-      <c r="M225">
-        <v>2.8</v>
-      </c>
       <c r="N225">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O225">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q225">
         <v>1.975</v>
@@ -19884,31 +19884,31 @@
         <v>2.25</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19916,7 +19916,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7744624</v>
+        <v>7744623</v>
       </c>
       <c r="C226" t="s">
         <v>36</v>
@@ -19925,76 +19925,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E226" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G226">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J226">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="K226">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L226">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="M226">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N226">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O226">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="P226">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q226">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S226">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T226">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V226">
         <v>-1</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X226">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA226">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20002,7 +20002,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7744627</v>
+        <v>7744628</v>
       </c>
       <c r="C227" t="s">
         <v>36</v>
@@ -20011,49 +20011,49 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E227" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J227">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K227">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M227">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N227">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="P227">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q227">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R227">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T227">
         <v>1.925</v>
@@ -20062,19 +20062,19 @@
         <v>1.925</v>
       </c>
       <c r="V227">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W227">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z227">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
         <v>-1</v>
@@ -20088,7 +20088,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7744628</v>
+        <v>7744986</v>
       </c>
       <c r="C228" t="s">
         <v>36</v>
@@ -20097,76 +20097,76 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J228">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K228">
+        <v>3.6</v>
+      </c>
+      <c r="L228">
+        <v>2.8</v>
+      </c>
+      <c r="M228">
+        <v>2.7</v>
+      </c>
+      <c r="N228">
+        <v>3.75</v>
+      </c>
+      <c r="O228">
+        <v>2.4</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>2.05</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
         <v>3</v>
       </c>
-      <c r="L228">
-        <v>2.4</v>
-      </c>
-      <c r="M228">
-        <v>3.75</v>
-      </c>
-      <c r="N228">
-        <v>3</v>
-      </c>
-      <c r="O228">
-        <v>2.25</v>
-      </c>
-      <c r="P228">
-        <v>0.25</v>
-      </c>
-      <c r="Q228">
+      <c r="T228">
+        <v>1.9</v>
+      </c>
+      <c r="U228">
         <v>1.95</v>
       </c>
-      <c r="R228">
-        <v>1.9</v>
-      </c>
-      <c r="S228">
-        <v>1.75</v>
-      </c>
-      <c r="T228">
-        <v>1.925</v>
-      </c>
-      <c r="U228">
-        <v>1.925</v>
-      </c>
       <c r="V228">
+        <v>-1</v>
+      </c>
+      <c r="W228">
         <v>2.75</v>
       </c>
-      <c r="W228">
-        <v>-1</v>
-      </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
         <v>0.95</v>
-      </c>
-      <c r="Z228">
-        <v>-1</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
-      </c>
-      <c r="AB228">
-        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -20174,7 +20174,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7744986</v>
+        <v>7744629</v>
       </c>
       <c r="C229" t="s">
         <v>36</v>
@@ -20183,10 +20183,10 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F229" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20198,61 +20198,61 @@
         <v>58</v>
       </c>
       <c r="J229">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="K229">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L229">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N229">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O229">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="P229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q229">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
+        <v>2.5</v>
+      </c>
+      <c r="T229">
+        <v>1.925</v>
+      </c>
+      <c r="U229">
+        <v>1.925</v>
+      </c>
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
         <v>3</v>
       </c>
-      <c r="T229">
-        <v>1.9</v>
-      </c>
-      <c r="U229">
-        <v>1.95</v>
-      </c>
-      <c r="V229">
-        <v>-1</v>
-      </c>
-      <c r="W229">
-        <v>2.75</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20260,7 +20260,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7744629</v>
+        <v>7744627</v>
       </c>
       <c r="C230" t="s">
         <v>36</v>
@@ -20269,10 +20269,10 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -20284,25 +20284,25 @@
         <v>58</v>
       </c>
       <c r="J230">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K230">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L230">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="M230">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="N230">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O230">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q230">
         <v>1.875</v>
@@ -20311,7 +20311,7 @@
         <v>1.975</v>
       </c>
       <c r="S230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T230">
         <v>1.925</v>
@@ -20323,16 +20323,16 @@
         <v>-1</v>
       </c>
       <c r="W230">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA230">
         <v>-1</v>
@@ -21636,7 +21636,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7744645</v>
+        <v>7744646</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -21645,76 +21645,76 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E246" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F246" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J246">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="K246">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M246">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N246">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
         <v>-0.25</v>
       </c>
       <c r="Q246">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S246">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T246">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U246">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V246">
         <v>-1</v>
       </c>
       <c r="W246">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21722,7 +21722,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7744646</v>
+        <v>7744645</v>
       </c>
       <c r="C247" t="s">
         <v>36</v>
@@ -21731,76 +21731,76 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J247">
+        <v>2.375</v>
+      </c>
+      <c r="K247">
+        <v>3.25</v>
+      </c>
+      <c r="L247">
         <v>3</v>
       </c>
-      <c r="K247">
-        <v>3.2</v>
-      </c>
-      <c r="L247">
-        <v>2.4</v>
-      </c>
       <c r="M247">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N247">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O247">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
         <v>-0.25</v>
       </c>
       <c r="Q247">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R247">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T247">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
         <v>-1</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X247">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z247">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -22324,7 +22324,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7744655</v>
+        <v>7744656</v>
       </c>
       <c r="C254" t="s">
         <v>36</v>
@@ -22333,76 +22333,76 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J254">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="K254">
         <v>3.4</v>
       </c>
       <c r="L254">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="M254">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O254">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="P254">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q254">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S254">
         <v>2.25</v>
       </c>
       <c r="T254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V254">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z254">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22410,7 +22410,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7744653</v>
+        <v>7744655</v>
       </c>
       <c r="C255" t="s">
         <v>36</v>
@@ -22419,76 +22419,76 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J255">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="K255">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="M255">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N255">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O255">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="P255">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q255">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S255">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
         <v>-1</v>
       </c>
       <c r="W255">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y255">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22496,7 +22496,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7744656</v>
+        <v>7744653</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
@@ -22505,76 +22505,76 @@
         <v>45402.08333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F256" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256" t="s">
+        <v>58</v>
+      </c>
+      <c r="J256">
+        <v>3.8</v>
+      </c>
+      <c r="K256">
+        <v>3.5</v>
+      </c>
+      <c r="L256">
+        <v>1.833</v>
+      </c>
+      <c r="M256">
+        <v>4.333</v>
+      </c>
+      <c r="N256">
         <v>4</v>
       </c>
-      <c r="H256">
-        <v>2</v>
-      </c>
-      <c r="I256" t="s">
-        <v>60</v>
-      </c>
-      <c r="J256">
-        <v>4.333</v>
-      </c>
-      <c r="K256">
-        <v>3.4</v>
-      </c>
-      <c r="L256">
-        <v>1.909</v>
-      </c>
-      <c r="M256">
-        <v>4.75</v>
-      </c>
-      <c r="N256">
-        <v>3.6</v>
-      </c>
       <c r="O256">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P256">
         <v>0.75</v>
       </c>
       <c r="Q256">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R256">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S256">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T256">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U256">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V256">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -24130,7 +24130,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7744678</v>
+        <v>7744677</v>
       </c>
       <c r="C275" t="s">
         <v>36</v>
@@ -24139,76 +24139,76 @@
         <v>45415.125</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F275" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J275">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K275">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L275">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M275">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N275">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O275">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P275">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q275">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R275">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S275">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T275">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U275">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V275">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W275">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z275">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB275">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24216,7 +24216,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7744679</v>
+        <v>7744676</v>
       </c>
       <c r="C276" t="s">
         <v>36</v>
@@ -24225,76 +24225,76 @@
         <v>45415.125</v>
       </c>
       <c r="E276" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F276" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J276">
+        <v>2.15</v>
+      </c>
+      <c r="K276">
+        <v>3.3</v>
+      </c>
+      <c r="L276">
         <v>3.1</v>
       </c>
-      <c r="K276">
-        <v>3.2</v>
-      </c>
-      <c r="L276">
-        <v>2.2</v>
-      </c>
       <c r="M276">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="N276">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O276">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P276">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q276">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S276">
         <v>2.25</v>
       </c>
       <c r="T276">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U276">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB276">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:28">
@@ -24388,7 +24388,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7744677</v>
+        <v>7744679</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
@@ -24397,76 +24397,76 @@
         <v>45415.125</v>
       </c>
       <c r="E278" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J278">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K278">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L278">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M278">
+        <v>3.2</v>
+      </c>
+      <c r="N278">
+        <v>3.2</v>
+      </c>
+      <c r="O278">
         <v>2.375</v>
       </c>
-      <c r="N278">
-        <v>3.3</v>
-      </c>
-      <c r="O278">
-        <v>3</v>
-      </c>
       <c r="P278">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q278">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R278">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S278">
         <v>2.25</v>
       </c>
       <c r="T278">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U278">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V278">
+        <v>-1</v>
+      </c>
+      <c r="W278">
+        <v>-1</v>
+      </c>
+      <c r="X278">
         <v>1.375</v>
       </c>
-      <c r="W278">
-        <v>-1</v>
-      </c>
-      <c r="X278">
-        <v>-1</v>
-      </c>
       <c r="Y278">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA278">
         <v>-0.5</v>
       </c>
       <c r="AB278">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24474,7 +24474,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7744676</v>
+        <v>7744678</v>
       </c>
       <c r="C279" t="s">
         <v>36</v>
@@ -24483,40 +24483,40 @@
         <v>45415.125</v>
       </c>
       <c r="E279" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J279">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="K279">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L279">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M279">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="N279">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P279">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q279">
         <v>1.95</v>
@@ -24525,34 +24525,34 @@
         <v>1.9</v>
       </c>
       <c r="S279">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T279">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA279">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -25076,7 +25076,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7744685</v>
+        <v>7744686</v>
       </c>
       <c r="C286" t="s">
         <v>36</v>
@@ -25085,55 +25085,55 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E286" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I286" t="s">
         <v>59</v>
       </c>
       <c r="J286">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K286">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M286">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N286">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O286">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="P286">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q286">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R286">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S286">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T286">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V286">
         <v>-1</v>
@@ -25142,19 +25142,19 @@
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA286">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
       <c r="AB286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25162,7 +25162,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7744687</v>
+        <v>7744685</v>
       </c>
       <c r="C287" t="s">
         <v>36</v>
@@ -25171,76 +25171,76 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E287" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F287" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G287">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J287">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="K287">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L287">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M287">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N287">
         <v>3.4</v>
       </c>
       <c r="O287">
+        <v>2.8</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+      <c r="Q287">
+        <v>1.8</v>
+      </c>
+      <c r="R287">
         <v>2.05</v>
       </c>
-      <c r="P287">
-        <v>0.25</v>
-      </c>
-      <c r="Q287">
-        <v>2.05</v>
-      </c>
-      <c r="R287">
+      <c r="S287">
+        <v>2.75</v>
+      </c>
+      <c r="T287">
+        <v>1.95</v>
+      </c>
+      <c r="U287">
+        <v>1.9</v>
+      </c>
+      <c r="V287">
+        <v>-1</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
         <v>1.8</v>
       </c>
-      <c r="S287">
-        <v>2</v>
-      </c>
-      <c r="T287">
-        <v>1.75</v>
-      </c>
-      <c r="U287">
-        <v>2.05</v>
-      </c>
-      <c r="V287">
-        <v>-1</v>
-      </c>
-      <c r="W287">
-        <v>2.4</v>
-      </c>
-      <c r="X287">
-        <v>-1</v>
-      </c>
       <c r="Y287">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
+        <v>1.05</v>
+      </c>
+      <c r="AA287">
+        <v>0.475</v>
+      </c>
+      <c r="AB287">
         <v>-0.5</v>
-      </c>
-      <c r="AA287">
-        <v>0</v>
-      </c>
-      <c r="AB287">
-        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -25248,7 +25248,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7744686</v>
+        <v>7744687</v>
       </c>
       <c r="C288" t="s">
         <v>36</v>
@@ -25257,76 +25257,76 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E288" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F288" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J288">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K288">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L288">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M288">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N288">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O288">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P288">
         <v>0.25</v>
       </c>
       <c r="Q288">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S288">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="U288">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V288">
         <v>-1</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X288">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="Z288">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA288">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:28">
@@ -25678,7 +25678,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7744694</v>
+        <v>7744693</v>
       </c>
       <c r="C293" t="s">
         <v>36</v>
@@ -25687,13 +25687,13 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F293" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H293">
         <v>3</v>
@@ -25702,40 +25702,40 @@
         <v>59</v>
       </c>
       <c r="J293">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K293">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L293">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="M293">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N293">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="P293">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q293">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="R293">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T293">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U293">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V293">
         <v>-1</v>
@@ -25744,16 +25744,16 @@
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB293">
         <v>-1</v>
@@ -25764,7 +25764,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7744693</v>
+        <v>7744694</v>
       </c>
       <c r="C294" t="s">
         <v>36</v>
@@ -25773,13 +25773,13 @@
         <v>45423.08333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F294" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -25788,41 +25788,41 @@
         <v>59</v>
       </c>
       <c r="J294">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K294">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M294">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N294">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O294">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="P294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q294">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S294">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T294">
+        <v>2</v>
+      </c>
+      <c r="U294">
         <v>1.85</v>
       </c>
-      <c r="U294">
-        <v>2</v>
-      </c>
       <c r="V294">
         <v>-1</v>
       </c>
@@ -25830,16 +25830,16 @@
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA294">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB294">
         <v>-1</v>
@@ -26452,7 +26452,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7744702</v>
+        <v>7744700</v>
       </c>
       <c r="C302" t="s">
         <v>36</v>
@@ -26461,76 +26461,76 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E302" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F302" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302">
         <v>0</v>
       </c>
       <c r="I302" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J302">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="K302">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L302">
         <v>3</v>
       </c>
       <c r="M302">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N302">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O302">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q302">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R302">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S302">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T302">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U302">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W302">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
         <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="303" spans="1:28">
@@ -26538,7 +26538,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7744700</v>
+        <v>7744702</v>
       </c>
       <c r="C303" t="s">
         <v>36</v>
@@ -26547,76 +26547,76 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E303" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F303" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H303">
         <v>0</v>
       </c>
       <c r="I303" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J303">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="K303">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L303">
         <v>3</v>
       </c>
       <c r="M303">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N303">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P303">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q303">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R303">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S303">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T303">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA303">
         <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="304" spans="1:28">
@@ -26710,7 +26710,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7744703</v>
+        <v>7744704</v>
       </c>
       <c r="C305" t="s">
         <v>36</v>
@@ -26719,13 +26719,13 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F305" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -26734,25 +26734,25 @@
         <v>60</v>
       </c>
       <c r="J305">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="K305">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L305">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M305">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N305">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O305">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P305">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q305">
         <v>1.8</v>
@@ -26761,16 +26761,16 @@
         <v>2.05</v>
       </c>
       <c r="S305">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T305">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="W305">
         <v>-1</v>
@@ -26785,7 +26785,7 @@
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB305">
         <v>-1</v>
@@ -26796,7 +26796,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7744704</v>
+        <v>7744705</v>
       </c>
       <c r="C306" t="s">
         <v>36</v>
@@ -26805,10 +26805,10 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F306" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G306">
         <v>3</v>
@@ -26820,43 +26820,43 @@
         <v>60</v>
       </c>
       <c r="J306">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="K306">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L306">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M306">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N306">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O306">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P306">
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R306">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S306">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T306">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U306">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -26865,13 +26865,13 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB306">
         <v>-1</v>
@@ -26882,7 +26882,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7744705</v>
+        <v>7744706</v>
       </c>
       <c r="C307" t="s">
         <v>36</v>
@@ -26891,58 +26891,58 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F307" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="s">
         <v>60</v>
       </c>
       <c r="J307">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="K307">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L307">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M307">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="N307">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O307">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="P307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q307">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R307">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S307">
         <v>2.25</v>
       </c>
       <c r="T307">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U307">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V307">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -26951,16 +26951,16 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA307">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="308" spans="1:28">
@@ -26968,7 +26968,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7744706</v>
+        <v>7744707</v>
       </c>
       <c r="C308" t="s">
         <v>36</v>
@@ -26977,76 +26977,76 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G308">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I308" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J308">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="K308">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L308">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M308">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="N308">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O308">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P308">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q308">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R308">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T308">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U308">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V308">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -27054,7 +27054,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7744707</v>
+        <v>7744708</v>
       </c>
       <c r="C309" t="s">
         <v>36</v>
@@ -27063,73 +27063,73 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F309" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G309">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J309">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="K309">
         <v>3.75</v>
       </c>
       <c r="L309">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="M309">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="N309">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O309">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="P309">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q309">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R309">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S309">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T309">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U309">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z309">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB309">
         <v>-1</v>
@@ -27140,7 +27140,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7744708</v>
+        <v>7744703</v>
       </c>
       <c r="C310" t="s">
         <v>36</v>
@@ -27149,49 +27149,49 @@
         <v>45427.29166666666</v>
       </c>
       <c r="E310" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G310">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="s">
         <v>60</v>
       </c>
       <c r="J310">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="K310">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L310">
+        <v>3</v>
+      </c>
+      <c r="M310">
         <v>1.8</v>
       </c>
-      <c r="M310">
-        <v>3.8</v>
-      </c>
       <c r="N310">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O310">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="P310">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q310">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R310">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S310">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T310">
         <v>2.025</v>
@@ -27200,7 +27200,7 @@
         <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="W310">
         <v>-1</v>
@@ -27209,7 +27209,7 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z310">
         <v>-1</v>
@@ -28208,10 +28208,10 @@
         <v>0.25</v>
       </c>
       <c r="Q322">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R322">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S322">
         <v>2.5</v>
@@ -28261,22 +28261,22 @@
         <v>3</v>
       </c>
       <c r="M323">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N323">
         <v>3.2</v>
       </c>
       <c r="O323">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P323">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q323">
+        <v>1.775</v>
+      </c>
+      <c r="R323">
         <v>2.1</v>
-      </c>
-      <c r="R323">
-        <v>1.775</v>
       </c>
       <c r="S323">
         <v>2.5</v>
@@ -28403,10 +28403,10 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R325">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S325">
         <v>2</v>
@@ -28506,46 +28506,46 @@
         <v>45438.125</v>
       </c>
       <c r="E327" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F327" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J327">
+        <v>4.333</v>
+      </c>
+      <c r="K327">
+        <v>3.2</v>
+      </c>
+      <c r="L327">
+        <v>1.909</v>
+      </c>
+      <c r="M327">
+        <v>4.333</v>
+      </c>
+      <c r="N327">
+        <v>3.3</v>
+      </c>
+      <c r="O327">
+        <v>1.9</v>
+      </c>
+      <c r="P327">
+        <v>0.5</v>
+      </c>
+      <c r="Q327">
+        <v>1.9</v>
+      </c>
+      <c r="R327">
         <v>1.95</v>
-      </c>
-      <c r="K327">
-        <v>3.25</v>
-      </c>
-      <c r="L327">
-        <v>4.1</v>
-      </c>
-      <c r="M327">
-        <v>2</v>
-      </c>
-      <c r="N327">
-        <v>3.2</v>
-      </c>
-      <c r="O327">
-        <v>3.9</v>
-      </c>
-      <c r="P327">
-        <v>-0.5</v>
-      </c>
-      <c r="Q327">
-        <v>2.025</v>
-      </c>
-      <c r="R327">
-        <v>1.825</v>
       </c>
       <c r="S327">
         <v>2.25</v>
       </c>
       <c r="T327">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U327">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V327">
         <v>0</v>
@@ -28571,46 +28571,46 @@
         <v>45438.125</v>
       </c>
       <c r="E328" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F328" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J328">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K328">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L328">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="M328">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N328">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="P328">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q328">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="R328">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S328">
         <v>2.25</v>
       </c>
       <c r="T328">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V328">
         <v>0</v>
@@ -28636,46 +28636,46 @@
         <v>45438.125</v>
       </c>
       <c r="E329" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F329" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J329">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="K329">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L329">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M329">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N329">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O329">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q329">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R329">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S329">
         <v>2.25</v>
       </c>
       <c r="T329">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U329">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -115,10 +115,10 @@
     <t>7744732</t>
   </si>
   <si>
-    <t>7744734</t>
+    <t>7744733</t>
   </si>
   <si>
-    <t>7744733</t>
+    <t>7744734</t>
   </si>
   <si>
     <t>7744735</t>
@@ -2510,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6173851</v>
+        <v>6173853</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2519,79 +2519,79 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
         <v>3.3</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O22">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="P22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2602,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6173853</v>
+        <v>6173851</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -2611,79 +2611,79 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="M23">
         <v>3.3</v>
       </c>
       <c r="N23">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="P23">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>1.95</v>
+      </c>
+      <c r="U23">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>1.975</v>
       </c>
-      <c r="U23">
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>2.25</v>
       </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>1.85</v>
-      </c>
-      <c r="X23">
-        <v>1.625</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
       <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>0.95</v>
+      </c>
+      <c r="AC23">
         <v>0.875</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
       </c>
       <c r="AD23">
         <v>-1</v>
@@ -3338,7 +3338,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6173858</v>
+        <v>6173859</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -3347,10 +3347,10 @@
         <v>45108.25</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3368,31 +3368,31 @@
         <v>64</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U31">
         <v>2.5</v>
@@ -3404,7 +3404,7 @@
         <v>1.9</v>
       </c>
       <c r="X31">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3413,7 +3413,7 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3430,7 +3430,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6173859</v>
+        <v>6173858</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -3439,10 +3439,10 @@
         <v>45108.25</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3460,31 +3460,31 @@
         <v>64</v>
       </c>
       <c r="L32">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U32">
         <v>2.5</v>
@@ -3496,7 +3496,7 @@
         <v>1.9</v>
       </c>
       <c r="X32">
-        <v>1.625</v>
+        <v>2.8</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3505,7 +3505,7 @@
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3614,7 +3614,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6173862</v>
+        <v>6173861</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
@@ -3623,82 +3623,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M34">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N34">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O34">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R34">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U34">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
         <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3706,7 +3706,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173861</v>
+        <v>6173863</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
@@ -3715,82 +3715,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L35">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
+        <v>2.3</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
         <v>3.6</v>
       </c>
-      <c r="O35">
-        <v>2.1</v>
-      </c>
-      <c r="P35">
-        <v>3.4</v>
-      </c>
       <c r="Q35">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="R35">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U35">
         <v>2.5</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3798,7 +3798,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6173863</v>
+        <v>6173862</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -3807,82 +3807,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>3.8</v>
+      </c>
+      <c r="N36">
         <v>3.3</v>
       </c>
-      <c r="M36">
-        <v>3.1</v>
-      </c>
-      <c r="N36">
-        <v>2.3</v>
-      </c>
       <c r="O36">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="R36">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4350,7 +4350,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6173869</v>
+        <v>6173871</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
@@ -4359,55 +4359,55 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L42">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V42">
         <v>2.025</v>
@@ -4416,19 +4416,19 @@
         <v>1.825</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4442,7 +4442,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6173871</v>
+        <v>6173869</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
@@ -4451,55 +4451,55 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L43">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="M43">
+        <v>3.1</v>
+      </c>
+      <c r="N43">
+        <v>2.8</v>
+      </c>
+      <c r="O43">
+        <v>2.25</v>
+      </c>
+      <c r="P43">
         <v>3.4</v>
       </c>
-      <c r="N43">
-        <v>3.75</v>
-      </c>
-      <c r="O43">
-        <v>1.8</v>
-      </c>
-      <c r="P43">
-        <v>3.6</v>
-      </c>
       <c r="Q43">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="R43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
         <v>2.025</v>
@@ -4508,19 +4508,19 @@
         <v>1.825</v>
       </c>
       <c r="X43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5178,7 +5178,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173879</v>
+        <v>6173878</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -5187,13 +5187,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5202,49 +5202,49 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>64</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
+        <v>3.75</v>
+      </c>
+      <c r="P51">
+        <v>3.3</v>
+      </c>
+      <c r="Q51">
         <v>2.1</v>
       </c>
-      <c r="P51">
-        <v>3.4</v>
-      </c>
-      <c r="Q51">
-        <v>3.5</v>
-      </c>
       <c r="R51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
+        <v>2.025</v>
+      </c>
+      <c r="T51">
         <v>1.825</v>
       </c>
-      <c r="T51">
+      <c r="U51">
+        <v>2.25</v>
+      </c>
+      <c r="V51">
+        <v>1.825</v>
+      </c>
+      <c r="W51">
         <v>2.025</v>
       </c>
-      <c r="U51">
-        <v>2.5</v>
-      </c>
-      <c r="V51">
-        <v>2.05</v>
-      </c>
-      <c r="W51">
-        <v>1.8</v>
-      </c>
       <c r="X51">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5253,13 +5253,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
+        <v>1.025</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1.05</v>
       </c>
       <c r="AD51">
         <v>-1</v>
@@ -5270,7 +5270,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173878</v>
+        <v>6173879</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
@@ -5279,13 +5279,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5294,49 +5294,49 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
         <v>64</v>
       </c>
       <c r="L52">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="M52">
+        <v>3.4</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
+        <v>2.1</v>
+      </c>
+      <c r="P52">
+        <v>3.4</v>
+      </c>
+      <c r="Q52">
         <v>3.5</v>
       </c>
-      <c r="N52">
-        <v>1.909</v>
-      </c>
-      <c r="O52">
-        <v>3.75</v>
-      </c>
-      <c r="P52">
-        <v>3.3</v>
-      </c>
-      <c r="Q52">
-        <v>2.1</v>
-      </c>
       <c r="R52">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S52">
+        <v>1.825</v>
+      </c>
+      <c r="T52">
         <v>2.025</v>
       </c>
-      <c r="T52">
-        <v>1.825</v>
-      </c>
       <c r="U52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X52">
-        <v>2.75</v>
+        <v>1.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5345,13 +5345,13 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AD52">
         <v>-1</v>
@@ -8490,7 +8490,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6173911</v>
+        <v>6173910</v>
       </c>
       <c r="C87" t="s">
         <v>40</v>
@@ -8499,16 +8499,16 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8520,52 +8520,52 @@
         <v>63</v>
       </c>
       <c r="L87">
+        <v>2.625</v>
+      </c>
+      <c r="M87">
         <v>3.4</v>
       </c>
-      <c r="M87">
-        <v>3.3</v>
-      </c>
       <c r="N87">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R87">
         <v>0.25</v>
       </c>
       <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>2.025</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
         <v>1.85</v>
       </c>
-      <c r="T87">
-        <v>2</v>
-      </c>
-      <c r="U87">
-        <v>2.25</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
-      <c r="W87">
-        <v>1.9</v>
-      </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB87">
         <v>-0.5</v>
@@ -8574,7 +8574,7 @@
         <v>-1</v>
       </c>
       <c r="AD87">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8674,7 +8674,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6173910</v>
+        <v>6173911</v>
       </c>
       <c r="C89" t="s">
         <v>40</v>
@@ -8683,16 +8683,16 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -8704,52 +8704,52 @@
         <v>63</v>
       </c>
       <c r="L89">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N89">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R89">
         <v>0.25</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB89">
         <v>-0.5</v>
@@ -8758,7 +8758,7 @@
         <v>-1</v>
       </c>
       <c r="AD89">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -14102,7 +14102,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6480215</v>
+        <v>6480222</v>
       </c>
       <c r="C148" t="s">
         <v>40</v>
@@ -14111,10 +14111,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -14132,25 +14132,25 @@
         <v>63</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
+        <v>3.1</v>
+      </c>
+      <c r="O148">
         <v>2.25</v>
       </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q148">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="R148">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S148">
         <v>1.975</v>
@@ -14159,34 +14159,34 @@
         <v>1.875</v>
       </c>
       <c r="U148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
         <v>1.9</v>
       </c>
-      <c r="W148">
-        <v>1.95</v>
-      </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14194,7 +14194,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6480222</v>
+        <v>6480215</v>
       </c>
       <c r="C149" t="s">
         <v>40</v>
@@ -14203,10 +14203,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -14224,25 +14224,25 @@
         <v>63</v>
       </c>
       <c r="L149">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N149">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O149">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="R149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S149">
         <v>1.975</v>
@@ -14251,34 +14251,34 @@
         <v>1.875</v>
       </c>
       <c r="U149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
         <v>1.95</v>
       </c>
-      <c r="W149">
-        <v>1.9</v>
-      </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14286,7 +14286,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6482813</v>
+        <v>6480218</v>
       </c>
       <c r="C150" t="s">
         <v>40</v>
@@ -14295,62 +14295,62 @@
         <v>45241.125</v>
       </c>
       <c r="E150" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
         <v>62</v>
       </c>
       <c r="L150">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="M150">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N150">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O150">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P150">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q150">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="R150">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>1.925</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>1.975</v>
+      </c>
+      <c r="W150">
         <v>1.875</v>
       </c>
-      <c r="T150">
-        <v>1.975</v>
-      </c>
-      <c r="U150">
-        <v>2.5</v>
-      </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
-      <c r="W150">
-        <v>2.025</v>
-      </c>
       <c r="X150">
         <v>-1</v>
       </c>
@@ -14358,16 +14358,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
+        <v>0.925</v>
+      </c>
+      <c r="AC150">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC150">
-        <v>0.825</v>
       </c>
       <c r="AD150">
         <v>-1</v>
@@ -14470,7 +14470,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6480218</v>
+        <v>6482813</v>
       </c>
       <c r="C152" t="s">
         <v>40</v>
@@ -14479,61 +14479,61 @@
         <v>45241.125</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G152">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K152" t="s">
         <v>62</v>
       </c>
       <c r="L152">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="M152">
+        <v>3.6</v>
+      </c>
+      <c r="N152">
         <v>3.3</v>
       </c>
-      <c r="N152">
-        <v>2.9</v>
-      </c>
       <c r="O152">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="R152">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14542,16 +14542,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD152">
         <v>-1</v>
@@ -14838,7 +14838,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6501895</v>
+        <v>6504987</v>
       </c>
       <c r="C156" t="s">
         <v>40</v>
@@ -14847,82 +14847,82 @@
         <v>45254.29166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L156">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="M156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O156">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q156">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="R156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD156">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14930,7 +14930,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6504987</v>
+        <v>6501895</v>
       </c>
       <c r="C157" t="s">
         <v>40</v>
@@ -14939,82 +14939,82 @@
         <v>45254.29166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" t="s">
+        <v>63</v>
+      </c>
+      <c r="L157">
+        <v>1.7</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>4.333</v>
+      </c>
+      <c r="O157">
+        <v>1.65</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>5</v>
+      </c>
+      <c r="R157">
+        <v>-0.75</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>2.05</v>
+      </c>
+      <c r="U157">
         <v>3</v>
       </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157" t="s">
-        <v>64</v>
-      </c>
-      <c r="L157">
-        <v>1.95</v>
-      </c>
-      <c r="M157">
-        <v>3.6</v>
-      </c>
-      <c r="N157">
-        <v>3.75</v>
-      </c>
-      <c r="O157">
-        <v>2.15</v>
-      </c>
-      <c r="P157">
-        <v>3.6</v>
-      </c>
-      <c r="Q157">
-        <v>3.3</v>
-      </c>
-      <c r="R157">
-        <v>-0.25</v>
-      </c>
-      <c r="S157">
-        <v>1.85</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>2.75</v>
-      </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X157">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC157">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD157">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15022,7 +15022,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6504896</v>
+        <v>6504897</v>
       </c>
       <c r="C158" t="s">
         <v>40</v>
@@ -15031,43 +15031,43 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L158">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
+        <v>7</v>
+      </c>
+      <c r="O158">
+        <v>1.5</v>
+      </c>
+      <c r="P158">
         <v>4.5</v>
       </c>
-      <c r="O158">
-        <v>1.533</v>
-      </c>
-      <c r="P158">
-        <v>4.333</v>
-      </c>
       <c r="Q158">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="R158">
         <v>-1</v>
@@ -15082,31 +15082,31 @@
         <v>2.75</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y158">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AD158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15114,7 +15114,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6504897</v>
+        <v>6504896</v>
       </c>
       <c r="C159" t="s">
         <v>40</v>
@@ -15123,43 +15123,43 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L159">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="M159">
+        <v>3.75</v>
+      </c>
+      <c r="N159">
         <v>4.5</v>
       </c>
-      <c r="N159">
-        <v>7</v>
-      </c>
       <c r="O159">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="P159">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R159">
         <v>-1</v>
@@ -15174,31 +15174,31 @@
         <v>2.75</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X159">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AD159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15206,7 +15206,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6501277</v>
+        <v>6504986</v>
       </c>
       <c r="C160" t="s">
         <v>40</v>
@@ -15215,79 +15215,79 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160">
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L160">
+        <v>1.7</v>
+      </c>
+      <c r="M160">
+        <v>3.5</v>
+      </c>
+      <c r="N160">
+        <v>5.5</v>
+      </c>
+      <c r="O160">
+        <v>1.85</v>
+      </c>
+      <c r="P160">
+        <v>3.2</v>
+      </c>
+      <c r="Q160">
+        <v>4.75</v>
+      </c>
+      <c r="R160">
+        <v>-0.5</v>
+      </c>
+      <c r="S160">
+        <v>1.9</v>
+      </c>
+      <c r="T160">
         <v>1.95</v>
       </c>
-      <c r="M160">
-        <v>3.4</v>
-      </c>
-      <c r="N160">
-        <v>4</v>
-      </c>
-      <c r="O160">
+      <c r="U160">
         <v>1.75</v>
       </c>
-      <c r="P160">
+      <c r="V160">
+        <v>1.75</v>
+      </c>
+      <c r="W160">
+        <v>2.05</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
         <v>3.75</v>
       </c>
-      <c r="Q160">
-        <v>4.5</v>
-      </c>
-      <c r="R160">
-        <v>-0.75</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
-      </c>
-      <c r="T160">
-        <v>1.825</v>
-      </c>
-      <c r="U160">
-        <v>2.5</v>
-      </c>
-      <c r="V160">
-        <v>2.05</v>
-      </c>
-      <c r="W160">
-        <v>1.8</v>
-      </c>
-      <c r="X160">
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>0.95</v>
+      </c>
+      <c r="AC160">
         <v>0.75</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>-1</v>
-      </c>
-      <c r="AA160">
-        <v>0.5125</v>
-      </c>
-      <c r="AB160">
-        <v>-0.5</v>
-      </c>
-      <c r="AC160">
-        <v>1.05</v>
       </c>
       <c r="AD160">
         <v>-1</v>
@@ -15298,7 +15298,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6504986</v>
+        <v>6501277</v>
       </c>
       <c r="C161" t="s">
         <v>40</v>
@@ -15307,79 +15307,79 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G161">
         <v>2</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161">
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L161">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="M161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O161">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q161">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="R161">
+        <v>-0.75</v>
+      </c>
+      <c r="S161">
+        <v>2.025</v>
+      </c>
+      <c r="T161">
+        <v>1.825</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>2.05</v>
+      </c>
+      <c r="W161">
+        <v>1.8</v>
+      </c>
+      <c r="X161">
+        <v>0.75</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>0.5125</v>
+      </c>
+      <c r="AB161">
         <v>-0.5</v>
       </c>
-      <c r="S161">
-        <v>1.9</v>
-      </c>
-      <c r="T161">
-        <v>1.95</v>
-      </c>
-      <c r="U161">
-        <v>1.75</v>
-      </c>
-      <c r="V161">
-        <v>1.75</v>
-      </c>
-      <c r="W161">
-        <v>2.05</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
-      <c r="Z161">
-        <v>3.75</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>0.95</v>
-      </c>
       <c r="AC161">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AD161">
         <v>-1</v>
@@ -15390,7 +15390,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6501896</v>
+        <v>6504894</v>
       </c>
       <c r="C162" t="s">
         <v>40</v>
@@ -15399,19 +15399,19 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -15420,25 +15420,25 @@
         <v>62</v>
       </c>
       <c r="L162">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M162">
         <v>3.5</v>
       </c>
       <c r="N162">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O162">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="P162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q162">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="R162">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S162">
         <v>1.85</v>
@@ -15447,13 +15447,13 @@
         <v>2</v>
       </c>
       <c r="U162">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -15471,10 +15471,10 @@
         <v>1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15482,7 +15482,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6504894</v>
+        <v>6504895</v>
       </c>
       <c r="C163" t="s">
         <v>40</v>
@@ -15491,46 +15491,46 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="s">
         <v>62</v>
       </c>
       <c r="L163">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="M163">
+        <v>3.6</v>
+      </c>
+      <c r="N163">
+        <v>4.5</v>
+      </c>
+      <c r="O163">
+        <v>1.909</v>
+      </c>
+      <c r="P163">
         <v>3.5</v>
       </c>
-      <c r="N163">
-        <v>2.6</v>
-      </c>
-      <c r="O163">
-        <v>2.75</v>
-      </c>
-      <c r="P163">
-        <v>4</v>
-      </c>
       <c r="Q163">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="R163">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S163">
         <v>1.85</v>
@@ -15539,13 +15539,13 @@
         <v>2</v>
       </c>
       <c r="U163">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W163">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15554,7 +15554,7 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1.15</v>
+        <v>3.333</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -15563,10 +15563,10 @@
         <v>1</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15574,7 +15574,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6504895</v>
+        <v>6501896</v>
       </c>
       <c r="C164" t="s">
         <v>40</v>
@@ -15583,10 +15583,10 @@
         <v>45255.08333333334</v>
       </c>
       <c r="E164" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15598,31 +15598,31 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" t="s">
         <v>62</v>
       </c>
       <c r="L164">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="M164">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="O164">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="R164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S164">
         <v>1.85</v>
@@ -15634,20 +15634,20 @@
         <v>2.5</v>
       </c>
       <c r="V164">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
+        <v>1.825</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>1.8</v>
       </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>3.333</v>
-      </c>
       <c r="AA164">
         <v>-1</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -17414,7 +17414,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C184" t="s">
         <v>40</v>
@@ -17423,61 +17423,61 @@
         <v>45352.29166666666</v>
       </c>
       <c r="E184" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K184" t="s">
         <v>62</v>
       </c>
       <c r="L184">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="M184">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="O184">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R184">
         <v>-0.75</v>
       </c>
       <c r="S184">
+        <v>1.8</v>
+      </c>
+      <c r="T184">
         <v>2.05</v>
       </c>
-      <c r="T184">
-        <v>1.8</v>
-      </c>
       <c r="U184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V184">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -17486,19 +17486,19 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17506,7 +17506,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C185" t="s">
         <v>40</v>
@@ -17515,61 +17515,61 @@
         <v>45352.29166666666</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F185" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K185" t="s">
         <v>62</v>
       </c>
       <c r="L185">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="N185">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="O185">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q185">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R185">
         <v>-0.75</v>
       </c>
       <c r="S185">
+        <v>2.05</v>
+      </c>
+      <c r="T185">
         <v>1.8</v>
       </c>
-      <c r="T185">
-        <v>2.05</v>
-      </c>
       <c r="U185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -17578,19 +17578,19 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17690,7 +17690,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7744592</v>
+        <v>7624511</v>
       </c>
       <c r="C187" t="s">
         <v>40</v>
@@ -17699,19 +17699,19 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F187" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -17720,19 +17720,19 @@
         <v>62</v>
       </c>
       <c r="L187">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N187">
-        <v>5.2</v>
+        <v>2.875</v>
       </c>
       <c r="O187">
         <v>2.2</v>
       </c>
       <c r="P187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -17741,19 +17741,19 @@
         <v>-0.25</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
         <v>2.25</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17768,13 +17768,13 @@
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17782,7 +17782,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624511</v>
+        <v>7744592</v>
       </c>
       <c r="C188" t="s">
         <v>40</v>
@@ -17791,19 +17791,19 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -17812,19 +17812,19 @@
         <v>62</v>
       </c>
       <c r="L188">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="M188">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N188">
-        <v>2.875</v>
+        <v>5.2</v>
       </c>
       <c r="O188">
         <v>2.2</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -17833,19 +17833,19 @@
         <v>-0.25</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U188">
         <v>2.25</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17860,13 +17860,13 @@
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17966,7 +17966,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624510</v>
+        <v>7624509</v>
       </c>
       <c r="C190" t="s">
         <v>40</v>
@@ -17975,10 +17975,10 @@
         <v>45353.125</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -17996,25 +17996,25 @@
         <v>63</v>
       </c>
       <c r="L190">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M190">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N190">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="P190">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q190">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="R190">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S190">
         <v>2.025</v>
@@ -18023,34 +18023,34 @@
         <v>1.825</v>
       </c>
       <c r="U190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V190">
+        <v>2.025</v>
+      </c>
+      <c r="W190">
         <v>1.825</v>
       </c>
-      <c r="W190">
-        <v>2.025</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD190">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18058,7 +18058,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624509</v>
+        <v>7624510</v>
       </c>
       <c r="C191" t="s">
         <v>40</v>
@@ -18067,10 +18067,10 @@
         <v>45353.125</v>
       </c>
       <c r="E191" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F191" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18088,25 +18088,25 @@
         <v>63</v>
       </c>
       <c r="L191">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N191">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="O191">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q191">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="R191">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S191">
         <v>2.025</v>
@@ -18115,34 +18115,34 @@
         <v>1.825</v>
       </c>
       <c r="U191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V191">
+        <v>1.825</v>
+      </c>
+      <c r="W191">
         <v>2.025</v>
       </c>
-      <c r="W191">
-        <v>1.825</v>
-      </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB191">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18426,7 +18426,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7744596</v>
+        <v>7744594</v>
       </c>
       <c r="C195" t="s">
         <v>40</v>
@@ -18435,10 +18435,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -18447,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -18456,43 +18456,43 @@
         <v>64</v>
       </c>
       <c r="L195">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
         <v>3.2</v>
       </c>
       <c r="N195">
+        <v>2.15</v>
+      </c>
+      <c r="O195">
         <v>2.8</v>
       </c>
-      <c r="O195">
-        <v>2.375</v>
-      </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q195">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="R195">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>1.9</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.825</v>
+      </c>
+      <c r="W195">
         <v>2.025</v>
       </c>
-      <c r="T195">
-        <v>1.825</v>
-      </c>
-      <c r="U195">
-        <v>2</v>
-      </c>
-      <c r="V195">
-        <v>1.925</v>
-      </c>
-      <c r="W195">
-        <v>1.925</v>
-      </c>
       <c r="X195">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -18501,16 +18501,16 @@
         <v>-1</v>
       </c>
       <c r="AA195">
+        <v>0.95</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
+      </c>
+      <c r="AD195">
         <v>1.025</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
-      <c r="AC195">
-        <v>-1</v>
-      </c>
-      <c r="AD195">
-        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18518,7 +18518,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7744594</v>
+        <v>7744596</v>
       </c>
       <c r="C196" t="s">
         <v>40</v>
@@ -18527,10 +18527,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F196" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -18548,43 +18548,43 @@
         <v>64</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M196">
         <v>3.2</v>
       </c>
       <c r="N196">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O196">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="P196">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q196">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R196">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U196">
         <v>2</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X196">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -18593,7 +18593,7 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB196">
         <v>-1</v>
@@ -18602,7 +18602,7 @@
         <v>-1</v>
       </c>
       <c r="AD196">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18610,7 +18610,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7744598</v>
+        <v>7744599</v>
       </c>
       <c r="C197" t="s">
         <v>40</v>
@@ -18619,82 +18619,82 @@
         <v>45360.125</v>
       </c>
       <c r="E197" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L197">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N197">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="O197">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="P197">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q197">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="R197">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U197">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X197">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18702,7 +18702,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7744599</v>
+        <v>7744598</v>
       </c>
       <c r="C198" t="s">
         <v>40</v>
@@ -18711,82 +18711,82 @@
         <v>45360.125</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L198">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="O198">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q198">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U198">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="V198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18794,7 +18794,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7744600</v>
+        <v>7744601</v>
       </c>
       <c r="C199" t="s">
         <v>40</v>
@@ -18803,16 +18803,16 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18824,40 +18824,40 @@
         <v>62</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="M199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N199">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q199">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="R199">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18866,19 +18866,19 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18978,7 +18978,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7744601</v>
+        <v>7744600</v>
       </c>
       <c r="C201" t="s">
         <v>40</v>
@@ -18987,16 +18987,16 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -19008,40 +19008,40 @@
         <v>62</v>
       </c>
       <c r="L201">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N201">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="O201">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="R201">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -19050,19 +19050,19 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -21186,7 +21186,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7744627</v>
+        <v>7744626</v>
       </c>
       <c r="C225" t="s">
         <v>40</v>
@@ -21195,13 +21195,13 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F225" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -21213,34 +21213,34 @@
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L225">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N225">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O225">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P225">
         <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R225">
         <v>-0.25</v>
       </c>
       <c r="S225">
+        <v>1.975</v>
+      </c>
+      <c r="T225">
         <v>1.875</v>
-      </c>
-      <c r="T225">
-        <v>1.975</v>
       </c>
       <c r="U225">
         <v>2.25</v>
@@ -21252,25 +21252,25 @@
         <v>1.925</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y225">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
         <v>-0.5</v>
       </c>
-      <c r="AB225">
-        <v>0.4875</v>
-      </c>
-      <c r="AC225">
-        <v>-1</v>
-      </c>
       <c r="AD225">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21278,7 +21278,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7744625</v>
+        <v>7744627</v>
       </c>
       <c r="C226" t="s">
         <v>40</v>
@@ -21287,82 +21287,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F226" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L226">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M226">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N226">
         <v>3.1</v>
       </c>
       <c r="O226">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q226">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="R226">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S226">
+        <v>1.875</v>
+      </c>
+      <c r="T226">
         <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>1.875</v>
       </c>
       <c r="U226">
         <v>2.25</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z226">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21370,7 +21370,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7744626</v>
+        <v>7744625</v>
       </c>
       <c r="C227" t="s">
         <v>40</v>
@@ -21379,46 +21379,46 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E227" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F227" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
       <c r="K227" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="M227">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N227">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P227">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q227">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="R227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S227">
         <v>1.975</v>
@@ -21430,31 +21430,31 @@
         <v>2.25</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X227">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA227">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD227">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21554,7 +21554,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7744986</v>
+        <v>7744628</v>
       </c>
       <c r="C229" t="s">
         <v>40</v>
@@ -21563,13 +21563,13 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -21581,64 +21581,64 @@
         <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L229">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="M229">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q229">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R229">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U229">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y229">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
         <v>-1</v>
       </c>
       <c r="AD229">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21646,7 +21646,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7744628</v>
+        <v>7744986</v>
       </c>
       <c r="C230" t="s">
         <v>40</v>
@@ -21655,13 +21655,13 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21673,64 +21673,64 @@
         <v>0</v>
       </c>
       <c r="K230" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L230">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M230">
+        <v>3.6</v>
+      </c>
+      <c r="N230">
+        <v>2.8</v>
+      </c>
+      <c r="O230">
+        <v>2.7</v>
+      </c>
+      <c r="P230">
+        <v>3.75</v>
+      </c>
+      <c r="Q230">
+        <v>2.4</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>2.05</v>
+      </c>
+      <c r="T230">
+        <v>1.8</v>
+      </c>
+      <c r="U230">
         <v>3</v>
       </c>
-      <c r="N230">
-        <v>2.4</v>
-      </c>
-      <c r="O230">
-        <v>3.75</v>
-      </c>
-      <c r="P230">
-        <v>3</v>
-      </c>
-      <c r="Q230">
-        <v>2.25</v>
-      </c>
-      <c r="R230">
-        <v>0.25</v>
-      </c>
-      <c r="S230">
+      <c r="V230">
+        <v>1.9</v>
+      </c>
+      <c r="W230">
         <v>1.95</v>
       </c>
-      <c r="T230">
-        <v>1.9</v>
-      </c>
-      <c r="U230">
-        <v>1.75</v>
-      </c>
-      <c r="V230">
-        <v>1.925</v>
-      </c>
-      <c r="W230">
-        <v>1.925</v>
-      </c>
       <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
         <v>2.75</v>
       </c>
-      <c r="Y230">
-        <v>-1</v>
-      </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
+      </c>
+      <c r="AD230">
         <v>0.95</v>
-      </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
-      <c r="AC230">
-        <v>-1</v>
-      </c>
-      <c r="AD230">
-        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -22106,7 +22106,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7744634</v>
+        <v>7744637</v>
       </c>
       <c r="C235" t="s">
         <v>40</v>
@@ -22115,16 +22115,16 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -22133,64 +22133,64 @@
         <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L235">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N235">
+        <v>6.5</v>
+      </c>
+      <c r="O235">
+        <v>1.5</v>
+      </c>
+      <c r="P235">
+        <v>4</v>
+      </c>
+      <c r="Q235">
+        <v>7.5</v>
+      </c>
+      <c r="R235">
+        <v>-1.25</v>
+      </c>
+      <c r="S235">
+        <v>2.1</v>
+      </c>
+      <c r="T235">
+        <v>1.775</v>
+      </c>
+      <c r="U235">
         <v>2.5</v>
       </c>
-      <c r="O235">
-        <v>2.55</v>
-      </c>
-      <c r="P235">
-        <v>3.2</v>
-      </c>
-      <c r="Q235">
-        <v>2.9</v>
-      </c>
-      <c r="R235">
-        <v>0</v>
-      </c>
-      <c r="S235">
-        <v>1.8</v>
-      </c>
-      <c r="T235">
-        <v>2.05</v>
-      </c>
-      <c r="U235">
-        <v>2.25</v>
-      </c>
       <c r="V235">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
         <v>-1</v>
       </c>
       <c r="AD235">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22290,7 +22290,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7744637</v>
+        <v>7744634</v>
       </c>
       <c r="C237" t="s">
         <v>40</v>
@@ -22299,16 +22299,16 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -22317,64 +22317,64 @@
         <v>0</v>
       </c>
       <c r="K237" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L237">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="M237">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O237">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q237">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="R237">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U237">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W237">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X237">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA237">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC237">
         <v>-1</v>
       </c>
       <c r="AD237">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22566,7 +22566,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7744640</v>
+        <v>7744639</v>
       </c>
       <c r="C240" t="s">
         <v>40</v>
@@ -22575,82 +22575,82 @@
         <v>45389.125</v>
       </c>
       <c r="E240" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G240">
         <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L240">
         <v>2.2</v>
       </c>
       <c r="M240">
+        <v>3.25</v>
+      </c>
+      <c r="N240">
+        <v>3.25</v>
+      </c>
+      <c r="O240">
+        <v>2.375</v>
+      </c>
+      <c r="P240">
         <v>3.2</v>
       </c>
-      <c r="N240">
-        <v>3.4</v>
-      </c>
-      <c r="O240">
-        <v>2.625</v>
-      </c>
-      <c r="P240">
-        <v>2.9</v>
-      </c>
       <c r="Q240">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC240">
         <v>-1</v>
       </c>
       <c r="AD240">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22658,7 +22658,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7744639</v>
+        <v>7744640</v>
       </c>
       <c r="C241" t="s">
         <v>40</v>
@@ -22667,82 +22667,82 @@
         <v>45389.125</v>
       </c>
       <c r="E241" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L241">
         <v>2.2</v>
       </c>
       <c r="M241">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="P241">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q241">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R241">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T241">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="U241">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z241">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB241">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC241">
         <v>-1</v>
       </c>
       <c r="AD241">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -23026,7 +23026,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7744645</v>
+        <v>7744647</v>
       </c>
       <c r="C245" t="s">
         <v>40</v>
@@ -23035,10 +23035,10 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -23047,7 +23047,7 @@
         <v>1</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -23056,61 +23056,61 @@
         <v>63</v>
       </c>
       <c r="L245">
-        <v>2.375</v>
+        <v>4.8</v>
       </c>
       <c r="M245">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O245">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="P245">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q245">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="R245">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T245">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD245">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23118,7 +23118,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7744646</v>
+        <v>7744645</v>
       </c>
       <c r="C246" t="s">
         <v>40</v>
@@ -23127,13 +23127,13 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E246" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -23145,64 +23145,64 @@
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L246">
+        <v>2.375</v>
+      </c>
+      <c r="M246">
+        <v>3.25</v>
+      </c>
+      <c r="N246">
         <v>3</v>
       </c>
-      <c r="M246">
-        <v>3.2</v>
-      </c>
-      <c r="N246">
-        <v>2.4</v>
-      </c>
       <c r="O246">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P246">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q246">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R246">
         <v>-0.25</v>
       </c>
       <c r="S246">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W246">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z246">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB246">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC246">
         <v>-1</v>
       </c>
       <c r="AD246">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:30">
@@ -23302,7 +23302,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7744647</v>
+        <v>7744646</v>
       </c>
       <c r="C248" t="s">
         <v>40</v>
@@ -23311,82 +23311,82 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
         <v>1</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L248">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N248">
+        <v>2.4</v>
+      </c>
+      <c r="O248">
+        <v>2.45</v>
+      </c>
+      <c r="P248">
+        <v>3.1</v>
+      </c>
+      <c r="Q248">
+        <v>3.1</v>
+      </c>
+      <c r="R248">
+        <v>-0.25</v>
+      </c>
+      <c r="S248">
+        <v>2.1</v>
+      </c>
+      <c r="T248">
+        <v>1.775</v>
+      </c>
+      <c r="U248">
+        <v>2</v>
+      </c>
+      <c r="V248">
         <v>1.8</v>
       </c>
-      <c r="O248">
-        <v>5.5</v>
-      </c>
-      <c r="P248">
-        <v>3.4</v>
-      </c>
-      <c r="Q248">
-        <v>1.7</v>
-      </c>
-      <c r="R248">
-        <v>0.75</v>
-      </c>
-      <c r="S248">
-        <v>1.85</v>
-      </c>
-      <c r="T248">
-        <v>2</v>
-      </c>
-      <c r="U248">
-        <v>2</v>
-      </c>
-      <c r="V248">
-        <v>1.825</v>
-      </c>
       <c r="W248">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA248">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD248">
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -24130,7 +24130,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7744657</v>
+        <v>7744658</v>
       </c>
       <c r="C257" t="s">
         <v>40</v>
@@ -24139,82 +24139,82 @@
         <v>45402.125</v>
       </c>
       <c r="E257" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257">
         <v>0</v>
       </c>
       <c r="J257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L257">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M257">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O257">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P257">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q257">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="R257">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S257">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U257">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z257">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
         <v>-0.5</v>
       </c>
       <c r="AB257">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24222,7 +24222,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7744658</v>
+        <v>7744657</v>
       </c>
       <c r="C258" t="s">
         <v>40</v>
@@ -24231,82 +24231,82 @@
         <v>45402.125</v>
       </c>
       <c r="E258" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F258" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258">
         <v>0</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K258" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L258">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="M258">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N258">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O258">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="P258">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q258">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="R258">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T258">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U258">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V258">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA258">
         <v>-0.5</v>
       </c>
       <c r="AB258">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AC258">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24866,7 +24866,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7744665</v>
+        <v>7744666</v>
       </c>
       <c r="C265" t="s">
         <v>40</v>
@@ -24875,16 +24875,16 @@
         <v>45409.08333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F265" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -24893,37 +24893,37 @@
         <v>0</v>
       </c>
       <c r="K265" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L265">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="M265">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N265">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="O265">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="P265">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q265">
+        <v>7</v>
+      </c>
+      <c r="R265">
+        <v>-1.25</v>
+      </c>
+      <c r="S265">
+        <v>1.975</v>
+      </c>
+      <c r="T265">
+        <v>1.875</v>
+      </c>
+      <c r="U265">
         <v>2.75</v>
-      </c>
-      <c r="R265">
-        <v>0</v>
-      </c>
-      <c r="S265">
-        <v>1.925</v>
-      </c>
-      <c r="T265">
-        <v>1.925</v>
-      </c>
-      <c r="U265">
-        <v>2.25</v>
       </c>
       <c r="V265">
         <v>1.975</v>
@@ -24932,25 +24932,25 @@
         <v>1.875</v>
       </c>
       <c r="X265">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA265">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD265">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24958,7 +24958,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7744666</v>
+        <v>7744665</v>
       </c>
       <c r="C266" t="s">
         <v>40</v>
@@ -24967,16 +24967,16 @@
         <v>45409.08333333334</v>
       </c>
       <c r="E266" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F266" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -24985,37 +24985,37 @@
         <v>0</v>
       </c>
       <c r="K266" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L266">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="M266">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N266">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="O266">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q266">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="R266">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S266">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T266">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U266">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V266">
         <v>1.975</v>
@@ -25024,25 +25024,25 @@
         <v>1.875</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB266">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD266">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -25326,7 +25326,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7744671</v>
+        <v>7744672</v>
       </c>
       <c r="C270" t="s">
         <v>40</v>
@@ -25335,16 +25335,16 @@
         <v>45410.125</v>
       </c>
       <c r="E270" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F270" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -25353,28 +25353,28 @@
         <v>1</v>
       </c>
       <c r="K270" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L270">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M270">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N270">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O270">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P270">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q270">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="R270">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S270">
         <v>1.825</v>
@@ -25383,22 +25383,22 @@
         <v>2.025</v>
       </c>
       <c r="U270">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V270">
+        <v>2</v>
+      </c>
+      <c r="W270">
+        <v>1.85</v>
+      </c>
+      <c r="X270">
+        <v>-1</v>
+      </c>
+      <c r="Y270">
+        <v>-1</v>
+      </c>
+      <c r="Z270">
         <v>1.875</v>
-      </c>
-      <c r="W270">
-        <v>1.975</v>
-      </c>
-      <c r="X270">
-        <v>-1</v>
-      </c>
-      <c r="Y270">
-        <v>3</v>
-      </c>
-      <c r="Z270">
-        <v>-1</v>
       </c>
       <c r="AA270">
         <v>-1</v>
@@ -25407,10 +25407,10 @@
         <v>1.025</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25418,7 +25418,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7744672</v>
+        <v>7744671</v>
       </c>
       <c r="C271" t="s">
         <v>40</v>
@@ -25427,16 +25427,16 @@
         <v>45410.125</v>
       </c>
       <c r="E271" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F271" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G271">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -25445,28 +25445,28 @@
         <v>1</v>
       </c>
       <c r="K271" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L271">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M271">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N271">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O271">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="P271">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q271">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="R271">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S271">
         <v>1.825</v>
@@ -25475,22 +25475,22 @@
         <v>2.025</v>
       </c>
       <c r="U271">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V271">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W271">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z271">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
         <v>-1</v>
@@ -25499,10 +25499,10 @@
         <v>1.025</v>
       </c>
       <c r="AC271">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD271">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25602,7 +25602,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7744674</v>
+        <v>7744673</v>
       </c>
       <c r="C273" t="s">
         <v>40</v>
@@ -25611,10 +25611,10 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E273" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -25632,61 +25632,61 @@
         <v>63</v>
       </c>
       <c r="L273">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="M273">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N273">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="O273">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="P273">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q273">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="R273">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S273">
+        <v>1.925</v>
+      </c>
+      <c r="T273">
+        <v>1.925</v>
+      </c>
+      <c r="U273">
+        <v>3</v>
+      </c>
+      <c r="V273">
+        <v>1.875</v>
+      </c>
+      <c r="W273">
         <v>1.975</v>
       </c>
-      <c r="T273">
-        <v>1.875</v>
-      </c>
-      <c r="U273">
-        <v>2.25</v>
-      </c>
-      <c r="V273">
-        <v>1.95</v>
-      </c>
-      <c r="W273">
-        <v>1.9</v>
-      </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z273">
         <v>-1</v>
       </c>
       <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
+        <v>0.925</v>
+      </c>
+      <c r="AC273">
+        <v>-1</v>
+      </c>
+      <c r="AD273">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB273">
-        <v>-1</v>
-      </c>
-      <c r="AC273">
-        <v>-0.5</v>
-      </c>
-      <c r="AD273">
-        <v>0.45</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25694,7 +25694,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7744673</v>
+        <v>7744674</v>
       </c>
       <c r="C274" t="s">
         <v>40</v>
@@ -25703,10 +25703,10 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F274" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -25724,61 +25724,61 @@
         <v>63</v>
       </c>
       <c r="L274">
+        <v>4.75</v>
+      </c>
+      <c r="M274">
+        <v>3.6</v>
+      </c>
+      <c r="N274">
+        <v>1.8</v>
+      </c>
+      <c r="O274">
+        <v>4.5</v>
+      </c>
+      <c r="P274">
+        <v>3.4</v>
+      </c>
+      <c r="Q274">
+        <v>1.85</v>
+      </c>
+      <c r="R274">
+        <v>0.5</v>
+      </c>
+      <c r="S274">
+        <v>1.975</v>
+      </c>
+      <c r="T274">
+        <v>1.875</v>
+      </c>
+      <c r="U274">
+        <v>2.25</v>
+      </c>
+      <c r="V274">
         <v>1.95</v>
       </c>
-      <c r="M274">
-        <v>3.5</v>
-      </c>
-      <c r="N274">
-        <v>3.75</v>
-      </c>
-      <c r="O274">
-        <v>1.727</v>
-      </c>
-      <c r="P274">
-        <v>4.2</v>
-      </c>
-      <c r="Q274">
-        <v>4.2</v>
-      </c>
-      <c r="R274">
-        <v>-0.75</v>
-      </c>
-      <c r="S274">
-        <v>1.925</v>
-      </c>
-      <c r="T274">
-        <v>1.925</v>
-      </c>
-      <c r="U274">
-        <v>3</v>
-      </c>
-      <c r="V274">
-        <v>1.875</v>
-      </c>
       <c r="W274">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z274">
         <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB274">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD274">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25786,7 +25786,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7744677</v>
+        <v>7744675</v>
       </c>
       <c r="C275" t="s">
         <v>40</v>
@@ -25795,19 +25795,19 @@
         <v>45415.125</v>
       </c>
       <c r="E275" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F275" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -25816,43 +25816,43 @@
         <v>64</v>
       </c>
       <c r="L275">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M275">
-        <v>3.25</v>
+        <v>3.166</v>
       </c>
       <c r="N275">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O275">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="P275">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R275">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S275">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T275">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U275">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V275">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W275">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X275">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Y275">
         <v>-1</v>
@@ -25861,16 +25861,16 @@
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB275">
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD275">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:30">
@@ -25878,7 +25878,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7744679</v>
+        <v>7744678</v>
       </c>
       <c r="C276" t="s">
         <v>40</v>
@@ -25887,16 +25887,16 @@
         <v>45415.125</v>
       </c>
       <c r="E276" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F276" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25905,64 +25905,64 @@
         <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L276">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M276">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N276">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O276">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="P276">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q276">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="R276">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U276">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V276">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W276">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z276">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD276">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -25970,7 +25970,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7744678</v>
+        <v>7744676</v>
       </c>
       <c r="C277" t="s">
         <v>40</v>
@@ -25979,46 +25979,46 @@
         <v>45415.125</v>
       </c>
       <c r="E277" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K277" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L277">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M277">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N277">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O277">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="P277">
+        <v>3.5</v>
+      </c>
+      <c r="Q277">
         <v>3.8</v>
       </c>
-      <c r="Q277">
-        <v>4.75</v>
-      </c>
       <c r="R277">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S277">
         <v>1.95</v>
@@ -26027,34 +26027,34 @@
         <v>1.9</v>
       </c>
       <c r="U277">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W277">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y277">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD277">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -26062,7 +26062,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7744675</v>
+        <v>7744677</v>
       </c>
       <c r="C278" t="s">
         <v>40</v>
@@ -26071,19 +26071,19 @@
         <v>45415.125</v>
       </c>
       <c r="E278" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -26092,61 +26092,61 @@
         <v>64</v>
       </c>
       <c r="L278">
+        <v>2.4</v>
+      </c>
+      <c r="M278">
+        <v>3.25</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278">
+        <v>2.375</v>
+      </c>
+      <c r="P278">
+        <v>3.3</v>
+      </c>
+      <c r="Q278">
+        <v>3</v>
+      </c>
+      <c r="R278">
+        <v>-0.25</v>
+      </c>
+      <c r="S278">
+        <v>2.05</v>
+      </c>
+      <c r="T278">
         <v>1.8</v>
       </c>
-      <c r="M278">
-        <v>3.166</v>
-      </c>
-      <c r="N278">
-        <v>4.5</v>
-      </c>
-      <c r="O278">
-        <v>1.909</v>
-      </c>
-      <c r="P278">
-        <v>3.5</v>
-      </c>
-      <c r="Q278">
-        <v>4.2</v>
-      </c>
-      <c r="R278">
+      <c r="U278">
+        <v>2.25</v>
+      </c>
+      <c r="V278">
+        <v>2.05</v>
+      </c>
+      <c r="W278">
+        <v>1.8</v>
+      </c>
+      <c r="X278">
+        <v>1.375</v>
+      </c>
+      <c r="Y278">
+        <v>-1</v>
+      </c>
+      <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
+        <v>1.05</v>
+      </c>
+      <c r="AB278">
+        <v>-1</v>
+      </c>
+      <c r="AC278">
         <v>-0.5</v>
       </c>
-      <c r="S278">
-        <v>1.95</v>
-      </c>
-      <c r="T278">
-        <v>1.9</v>
-      </c>
-      <c r="U278">
-        <v>2.5</v>
-      </c>
-      <c r="V278">
-        <v>2.025</v>
-      </c>
-      <c r="W278">
-        <v>1.825</v>
-      </c>
-      <c r="X278">
-        <v>0.909</v>
-      </c>
-      <c r="Y278">
-        <v>-1</v>
-      </c>
-      <c r="Z278">
-        <v>-1</v>
-      </c>
-      <c r="AA278">
-        <v>0.95</v>
-      </c>
-      <c r="AB278">
-        <v>-1</v>
-      </c>
-      <c r="AC278">
-        <v>1.025</v>
-      </c>
       <c r="AD278">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -26154,7 +26154,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7744676</v>
+        <v>7744679</v>
       </c>
       <c r="C279" t="s">
         <v>40</v>
@@ -26163,82 +26163,82 @@
         <v>45415.125</v>
       </c>
       <c r="E279" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F279" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L279">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="M279">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N279">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O279">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="P279">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q279">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="R279">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U279">
         <v>2.25</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W279">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC279">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD279">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -31085,46 +31085,46 @@
         <v>45444.125</v>
       </c>
       <c r="E334" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L334">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="M334">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N334">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="O334">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="P334">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q334">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R334">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S334">
+        <v>1.975</v>
+      </c>
+      <c r="T334">
         <v>1.875</v>
-      </c>
-      <c r="T334">
-        <v>1.975</v>
       </c>
       <c r="U334">
         <v>2.25</v>
       </c>
       <c r="V334">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W334">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X334">
         <v>0</v>
@@ -31150,46 +31150,46 @@
         <v>45444.125</v>
       </c>
       <c r="E335" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F335" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L335">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="M335">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O335">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="P335">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q335">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="R335">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S335">
+        <v>1.875</v>
+      </c>
+      <c r="T335">
         <v>1.975</v>
-      </c>
-      <c r="T335">
-        <v>1.875</v>
       </c>
       <c r="U335">
         <v>2.25</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W335">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X335">
         <v>0</v>

--- a/Japan JLeague/Japan JLeague.xlsx
+++ b/Japan JLeague/Japan JLeague.xlsx
@@ -2415,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6173854</v>
+        <v>6173851</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2424,22 +2424,22 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>62</v>
@@ -2448,37 +2448,37 @@
         <v>2.3</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
         <v>3</v>
       </c>
       <c r="O21">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2487,19 +2487,19 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2783,7 +2783,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6173851</v>
+        <v>6173854</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -2792,22 +2792,22 @@
         <v>45101.29166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>62</v>
@@ -2816,38 +2816,38 @@
         <v>2.3</v>
       </c>
       <c r="M25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
         <v>3</v>
       </c>
       <c r="O25">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q25">
+        <v>3.2</v>
+      </c>
+      <c r="R25">
+        <v>-0.5</v>
+      </c>
+      <c r="S25">
+        <v>2.05</v>
+      </c>
+      <c r="T25">
+        <v>1.8</v>
+      </c>
+      <c r="U25">
         <v>3.25</v>
       </c>
-      <c r="R25">
-        <v>-0.25</v>
-      </c>
-      <c r="S25">
+      <c r="V25">
+        <v>1.95</v>
+      </c>
+      <c r="W25">
         <v>1.9</v>
       </c>
-      <c r="T25">
-        <v>1.95</v>
-      </c>
-      <c r="U25">
-        <v>2.5</v>
-      </c>
-      <c r="V25">
-        <v>1.875</v>
-      </c>
-      <c r="W25">
-        <v>1.975</v>
-      </c>
       <c r="X25">
         <v>-1</v>
       </c>
@@ -2855,19 +2855,19 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3335,7 +3335,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6173857</v>
+        <v>6173859</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -3344,82 +3344,82 @@
         <v>45108.25</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L31">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="M31">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N31">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O31">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q31">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R31">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3427,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6173859</v>
+        <v>6173857</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -3436,82 +3436,82 @@
         <v>45108.25</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L32">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="M32">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O32">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="P32">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q32">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U32">
+        <v>2.25</v>
+      </c>
+      <c r="V32">
+        <v>1.875</v>
+      </c>
+      <c r="W32">
+        <v>1.975</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>2.5</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
-      <c r="W32">
-        <v>1.9</v>
-      </c>
-      <c r="X32">
-        <v>1.625</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC32">
         <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3611,7 +3611,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6173861</v>
+        <v>6173863</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -3620,82 +3620,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
+        <v>2.3</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
         <v>3.6</v>
       </c>
-      <c r="O34">
-        <v>2.1</v>
-      </c>
-      <c r="P34">
-        <v>3.4</v>
-      </c>
       <c r="Q34">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="R34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U34">
         <v>2.5</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X34">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3703,7 +3703,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6173862</v>
+        <v>6173861</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
@@ -3712,82 +3712,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M35">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O35">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U35">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
       </c>
       <c r="AD35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3795,7 +3795,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6173863</v>
+        <v>6173862</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -3804,82 +3804,82 @@
         <v>45108.29166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>3.8</v>
+      </c>
+      <c r="N36">
         <v>3.3</v>
       </c>
-      <c r="M36">
-        <v>3.1</v>
-      </c>
-      <c r="N36">
-        <v>2.3</v>
-      </c>
       <c r="O36">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="R36">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4255,7 +4255,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173872</v>
+        <v>6173870</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -4264,64 +4264,64 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>63</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="M41">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q41">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X41">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="Y41">
         <v>-1</v>
@@ -4330,16 +4330,16 @@
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AD41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4347,7 +4347,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6173870</v>
+        <v>6173872</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -4356,64 +4356,64 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>63</v>
       </c>
       <c r="L42">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N42">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="P42">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="R42">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S42">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X42">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4422,16 +4422,16 @@
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AD42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -5083,7 +5083,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6173878</v>
+        <v>6173877</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
@@ -5092,82 +5092,82 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L50">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="M50">
         <v>3.5</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q50">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R50">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U50">
         <v>2.25</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X50">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5175,7 +5175,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6173879</v>
+        <v>6173878</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -5184,13 +5184,13 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5199,49 +5199,49 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>63</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
+        <v>3.75</v>
+      </c>
+      <c r="P51">
+        <v>3.3</v>
+      </c>
+      <c r="Q51">
         <v>2.1</v>
       </c>
-      <c r="P51">
-        <v>3.4</v>
-      </c>
-      <c r="Q51">
-        <v>3.5</v>
-      </c>
       <c r="R51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
+        <v>2.025</v>
+      </c>
+      <c r="T51">
         <v>1.825</v>
       </c>
-      <c r="T51">
+      <c r="U51">
+        <v>2.25</v>
+      </c>
+      <c r="V51">
+        <v>1.825</v>
+      </c>
+      <c r="W51">
         <v>2.025</v>
       </c>
-      <c r="U51">
-        <v>2.5</v>
-      </c>
-      <c r="V51">
-        <v>2.05</v>
-      </c>
-      <c r="W51">
-        <v>1.8</v>
-      </c>
       <c r="X51">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5250,13 +5250,13 @@
         <v>-1</v>
       </c>
       <c r="AA51">
+        <v>1.025</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1.05</v>
       </c>
       <c r="AD51">
         <v>-1</v>
@@ -5267,7 +5267,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6173877</v>
+        <v>6173879</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
@@ -5276,82 +5276,82 @@
         <v>45123.29166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L52">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M52">
+        <v>3.4</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
+        <v>2.1</v>
+      </c>
+      <c r="P52">
+        <v>3.4</v>
+      </c>
+      <c r="Q52">
         <v>3.5</v>
-      </c>
-      <c r="N52">
-        <v>2.75</v>
-      </c>
-      <c r="O52">
-        <v>2.4</v>
-      </c>
-      <c r="P52">
-        <v>3.2</v>
-      </c>
-      <c r="Q52">
-        <v>3.1</v>
       </c>
       <c r="R52">
         <v>-0.25</v>
       </c>
       <c r="S52">
+        <v>1.825</v>
+      </c>
+      <c r="T52">
+        <v>2.025</v>
+      </c>
+      <c r="U52">
+        <v>2.5</v>
+      </c>
+      <c r="V52">
         <v>2.05</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>1.8</v>
       </c>
-      <c r="U52">
-        <v>2.25</v>
-      </c>
-      <c r="V52">
-        <v>1.925</v>
-      </c>
-      <c r="W52">
-        <v>1.925</v>
-      </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -6279,7 +6279,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6173888</v>
+        <v>6173889</v>
       </c>
       <c r="C63" t="s">
         <v>39</v>
@@ -6288,10 +6288,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6309,61 +6309,61 @@
         <v>62</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O63">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q63">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="R63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>2.25</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>1.85</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>1.875</v>
       </c>
-      <c r="U63">
-        <v>2.5</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
-      <c r="W63">
-        <v>1.9</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>2.2</v>
-      </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>-1</v>
       </c>
       <c r="AD63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6371,7 +6371,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6173889</v>
+        <v>6174608</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -6380,82 +6380,82 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L64">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M64">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O64">
+        <v>2.55</v>
+      </c>
+      <c r="P64">
+        <v>3.6</v>
+      </c>
+      <c r="Q64">
+        <v>2.55</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1.925</v>
+      </c>
+      <c r="T64">
+        <v>1.925</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>2.025</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>2.6</v>
       </c>
-      <c r="P64">
-        <v>3.2</v>
-      </c>
-      <c r="Q64">
-        <v>2.875</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>1.85</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>2.25</v>
-      </c>
-      <c r="V64">
-        <v>2</v>
-      </c>
-      <c r="W64">
-        <v>1.85</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
       <c r="Z64">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
         <v>-1</v>
       </c>
       <c r="AD64">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6463,7 +6463,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6174608</v>
+        <v>6173888</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -6472,82 +6472,82 @@
         <v>45144.29166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M65">
+        <v>3.3</v>
+      </c>
+      <c r="N65">
         <v>3.4</v>
       </c>
-      <c r="N65">
-        <v>2.875</v>
-      </c>
       <c r="O65">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
         <v>-1</v>
       </c>
       <c r="AD65">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -8487,7 +8487,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6173914</v>
+        <v>6173915</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
@@ -8496,61 +8496,61 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="s">
         <v>63</v>
       </c>
       <c r="L87">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="M87">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N87">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O87">
         <v>2.75</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X87">
         <v>1.75</v>
@@ -8562,16 +8562,16 @@
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8579,7 +8579,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6173915</v>
+        <v>6173914</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
@@ -8588,61 +8588,61 @@
         <v>45164.29166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
         <v>63</v>
       </c>
       <c r="L88">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="M88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N88">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O88">
         <v>2.75</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U88">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X88">
         <v>1.75</v>
@@ -8654,16 +8654,16 @@
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD88">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -11523,7 +11523,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6174610</v>
+        <v>6173946</v>
       </c>
       <c r="C120" t="s">
         <v>39</v>
@@ -11532,61 +11532,61 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K120" t="s">
         <v>62</v>
       </c>
       <c r="L120">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O120">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P120">
         <v>3.8</v>
       </c>
       <c r="Q120">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
         <v>2.05</v>
       </c>
-      <c r="T120">
-        <v>1.8</v>
-      </c>
       <c r="U120">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11595,19 +11595,19 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11615,7 +11615,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6173946</v>
+        <v>6174610</v>
       </c>
       <c r="C121" t="s">
         <v>39</v>
@@ -11624,62 +11624,62 @@
         <v>45198.29166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121" t="s">
         <v>62</v>
       </c>
       <c r="L121">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M121">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="P121">
         <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="R121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
+        <v>2.05</v>
+      </c>
+      <c r="T121">
         <v>1.8</v>
       </c>
-      <c r="T121">
-        <v>2.05</v>
-      </c>
       <c r="U121">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
         <v>1.85</v>
       </c>
-      <c r="W121">
-        <v>2</v>
-      </c>
       <c r="X121">
         <v>-1</v>
       </c>
@@ -11687,19 +11687,19 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
+        <v>-1</v>
+      </c>
+      <c r="AD121">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD121">
-        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -12627,7 +12627,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6173953</v>
+        <v>6173958</v>
       </c>
       <c r="C132" t="s">
         <v>39</v>
@@ -12636,19 +12636,19 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F132" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -12657,43 +12657,43 @@
         <v>63</v>
       </c>
       <c r="L132">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O132">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="P132">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q132">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U132">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X132">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12702,13 +12702,13 @@
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD132">
         <v>-1</v>
@@ -12719,7 +12719,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6173958</v>
+        <v>6173953</v>
       </c>
       <c r="C133" t="s">
         <v>39</v>
@@ -12728,19 +12728,19 @@
         <v>45220.08333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F133" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -12749,43 +12749,43 @@
         <v>63</v>
       </c>
       <c r="L133">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O133">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="R133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U133">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X133">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12794,13 +12794,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD133">
         <v>-1</v>
@@ -13363,7 +13363,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6473046</v>
+        <v>6472889</v>
       </c>
       <c r="C140" t="s">
         <v>39</v>
@@ -13372,82 +13372,82 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L140">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O140">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="R140">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>-1</v>
       </c>
       <c r="AD140">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13455,7 +13455,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6472890</v>
+        <v>6472887</v>
       </c>
       <c r="C141" t="s">
         <v>39</v>
@@ -13464,46 +13464,46 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R141">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S141">
         <v>1.85</v>
@@ -13524,22 +13524,22 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z141">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13547,7 +13547,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6472887</v>
+        <v>6473046</v>
       </c>
       <c r="C142" t="s">
         <v>39</v>
@@ -13556,16 +13556,16 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G142">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13574,55 +13574,55 @@
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="P142">
         <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="R142">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S142">
+        <v>2</v>
+      </c>
+      <c r="T142">
         <v>1.85</v>
       </c>
-      <c r="T142">
-        <v>2</v>
-      </c>
       <c r="U142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y142">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
@@ -13631,7 +13631,7 @@
         <v>-1</v>
       </c>
       <c r="AD142">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13639,7 +13639,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6472889</v>
+        <v>6472890</v>
       </c>
       <c r="C143" t="s">
         <v>39</v>
@@ -13648,43 +13648,43 @@
         <v>45227.08333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K143" t="s">
         <v>62</v>
       </c>
       <c r="L143">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M143">
+        <v>3.4</v>
+      </c>
+      <c r="N143">
+        <v>2.3</v>
+      </c>
+      <c r="O143">
         <v>3.1</v>
       </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
-      <c r="O143">
+      <c r="P143">
         <v>3.4</v>
       </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
       <c r="Q143">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="R143">
         <v>0.25</v>
@@ -13696,13 +13696,13 @@
         <v>2</v>
       </c>
       <c r="U143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13711,7 +13711,7 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -13720,10 +13720,10 @@
         <v>1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -15663,7 +15663,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6527773</v>
+        <v>6527782</v>
       </c>
       <c r="C165" t="s">
         <v>39</v>
@@ -15672,16 +15672,16 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F165" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15693,40 +15693,40 @@
         <v>62</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N165">
+        <v>2.75</v>
+      </c>
+      <c r="O165">
+        <v>2.8</v>
+      </c>
+      <c r="P165">
+        <v>3.6</v>
+      </c>
+      <c r="Q165">
+        <v>2.3</v>
+      </c>
+      <c r="R165">
+        <v>0.25</v>
+      </c>
+      <c r="S165">
         <v>1.85</v>
       </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>3.8</v>
-      </c>
-      <c r="Q165">
-        <v>1.85</v>
-      </c>
-      <c r="R165">
-        <v>0.5</v>
-      </c>
-      <c r="S165">
-        <v>1.975</v>
-      </c>
       <c r="T165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U165">
         <v>3</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15735,19 +15735,19 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC165">
         <v>-1</v>
       </c>
       <c r="AD165">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15939,7 +15939,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6527782</v>
+        <v>6527773</v>
       </c>
       <c r="C168" t="s">
         <v>39</v>
@@ -15948,16 +15948,16 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15969,40 +15969,40 @@
         <v>62</v>
       </c>
       <c r="L168">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N168">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O168">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q168">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="R168">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U168">
         <v>3</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -16011,19 +16011,19 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC168">
         <v>-1</v>
       </c>
       <c r="AD168">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16031,7 +16031,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6527616</v>
+        <v>6527615</v>
       </c>
       <c r="C169" t="s">
         <v>39</v>
@@ -16040,19 +16040,19 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -16061,43 +16061,43 @@
         <v>63</v>
       </c>
       <c r="L169">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="M169">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="N169">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O169">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="P169">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q169">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="R169">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U169">
         <v>2.5</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X169">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="Y169">
         <v>-1</v>
@@ -16106,16 +16106,16 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD169">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16307,7 +16307,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6527615</v>
+        <v>6527616</v>
       </c>
       <c r="C172" t="s">
         <v>39</v>
@@ -16316,19 +16316,19 @@
         <v>45263.08333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -16337,43 +16337,43 @@
         <v>63</v>
       </c>
       <c r="L172">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="M172">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O172">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="P172">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q172">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="R172">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U172">
         <v>2.5</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X172">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -16382,16 +16382,16 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -17227,7 +17227,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7624187</v>
+        <v>7624508</v>
       </c>
       <c r="C182" t="s">
         <v>39</v>
@@ -17236,82 +17236,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G182">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M182">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="P182">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="R182">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U182">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W182">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AC182">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AD182">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17319,7 +17319,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624508</v>
+        <v>7624187</v>
       </c>
       <c r="C183" t="s">
         <v>39</v>
@@ -17328,82 +17328,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L183">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N183">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="O183">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q183">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="R183">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V183">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W183">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>0.925</v>
+      </c>
+      <c r="AC183">
+        <v>0.5125</v>
+      </c>
+      <c r="AD183">
         <v>-0.5</v>
-      </c>
-      <c r="AB183">
-        <v>0.4875</v>
-      </c>
-      <c r="AC183">
-        <v>0</v>
-      </c>
-      <c r="AD183">
-        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17411,7 +17411,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624190</v>
+        <v>7624192</v>
       </c>
       <c r="C184" t="s">
         <v>39</v>
@@ -17420,61 +17420,61 @@
         <v>45352.29166666666</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K184" t="s">
         <v>62</v>
       </c>
       <c r="L184">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="M184">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>4.333</v>
+        <v>6.2</v>
       </c>
       <c r="O184">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q184">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R184">
         <v>-0.75</v>
       </c>
       <c r="S184">
+        <v>1.8</v>
+      </c>
+      <c r="T184">
         <v>2.05</v>
       </c>
-      <c r="T184">
-        <v>1.8</v>
-      </c>
       <c r="U184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V184">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -17483,19 +17483,19 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17503,7 +17503,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624192</v>
+        <v>7624190</v>
       </c>
       <c r="C185" t="s">
         <v>39</v>
@@ -17512,61 +17512,61 @@
         <v>45352.29166666666</v>
       </c>
       <c r="E185" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K185" t="s">
         <v>62</v>
       </c>
       <c r="L185">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="N185">
-        <v>6.2</v>
+        <v>4.333</v>
       </c>
       <c r="O185">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q185">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R185">
         <v>-0.75</v>
       </c>
       <c r="S185">
+        <v>2.05</v>
+      </c>
+      <c r="T185">
         <v>1.8</v>
       </c>
-      <c r="T185">
-        <v>2.05</v>
-      </c>
       <c r="U185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -17575,19 +17575,19 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17687,7 +17687,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7624511</v>
+        <v>7744593</v>
       </c>
       <c r="C187" t="s">
         <v>39</v>
@@ -17696,79 +17696,79 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L187">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="M187">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N187">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O187">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q187">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="R187">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S187">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD187">
         <v>-1</v>
@@ -17779,7 +17779,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7744593</v>
+        <v>7624511</v>
       </c>
       <c r="C188" t="s">
         <v>39</v>
@@ -17788,79 +17788,79 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F188" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L188">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N188">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q188">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="R188">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X188">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD188">
         <v>-1</v>
@@ -18331,7 +18331,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7744597</v>
+        <v>7744596</v>
       </c>
       <c r="C194" t="s">
         <v>39</v>
@@ -18340,82 +18340,82 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L194">
+        <v>2.5</v>
+      </c>
+      <c r="M194">
+        <v>3.2</v>
+      </c>
+      <c r="N194">
         <v>2.8</v>
       </c>
-      <c r="M194">
-        <v>3.3</v>
-      </c>
-      <c r="N194">
-        <v>2.5</v>
-      </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P194">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q194">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R194">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S194">
+        <v>2.025</v>
+      </c>
+      <c r="T194">
         <v>1.825</v>
       </c>
-      <c r="T194">
-        <v>2.025</v>
-      </c>
       <c r="U194">
         <v>2</v>
       </c>
       <c r="V194">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
         <v>-1</v>
       </c>
       <c r="AD194">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18423,7 +18423,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7744596</v>
+        <v>7744597</v>
       </c>
       <c r="C195" t="s">
         <v>39</v>
@@ -18432,82 +18432,82 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L195">
+        <v>2.8</v>
+      </c>
+      <c r="M195">
+        <v>3.3</v>
+      </c>
+      <c r="N195">
         <v>2.5</v>
       </c>
-      <c r="M195">
-        <v>3.2</v>
-      </c>
-      <c r="N195">
-        <v>2.8</v>
-      </c>
       <c r="O195">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q195">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="R195">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S195">
+        <v>1.825</v>
+      </c>
+      <c r="T195">
         <v>2.025</v>
       </c>
-      <c r="T195">
-        <v>1.825</v>
-      </c>
       <c r="U195">
         <v>2</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W195">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="X195">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
         <v>1.025</v>
       </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
       <c r="AC195">
         <v>-1</v>
       </c>
       <c r="AD195">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18607,7 +18607,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7744598</v>
+        <v>7744599</v>
       </c>
       <c r="C197" t="s">
         <v>39</v>
@@ -18616,82 +18616,82 @@
         <v>45360.125</v>
       </c>
       <c r="E197" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L197">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N197">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="O197">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="P197">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q197">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="R197">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U197">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X197">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18699,7 +18699,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7744599</v>
+        <v>7744598</v>
       </c>
       <c r="C198" t="s">
         <v>39</v>
@@ -18708,82 +18708,82 @@
         <v>45360.125</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L198">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="O198">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q198">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U198">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="V198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18883,7 +18883,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7744601</v>
+        <v>7744602</v>
       </c>
       <c r="C200" t="s">
         <v>39</v>
@@ -18892,55 +18892,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L200">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="M200">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N200">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O200">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="P200">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q200">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="R200">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U200">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V200">
         <v>1.975</v>
@@ -18949,25 +18949,25 @@
         <v>1.875</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18975,7 +18975,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7744602</v>
+        <v>7744601</v>
       </c>
       <c r="C201" t="s">
         <v>39</v>
@@ -18984,55 +18984,55 @@
         <v>45360.16666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F201" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L201">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="M201">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N201">
+        <v>4.5</v>
+      </c>
+      <c r="O201">
+        <v>1.85</v>
+      </c>
+      <c r="P201">
         <v>3.6</v>
       </c>
-      <c r="O201">
-        <v>2.25</v>
-      </c>
-      <c r="P201">
-        <v>3.1</v>
-      </c>
       <c r="Q201">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="R201">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V201">
         <v>1.975</v>
@@ -19041,25 +19041,25 @@
         <v>1.875</v>
       </c>
       <c r="X201">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC201">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19435,7 +19435,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7744607</v>
+        <v>7744608</v>
       </c>
       <c r="C206" t="s">
         <v>39</v>
@@ -19444,46 +19444,46 @@
         <v>45367.125</v>
       </c>
       <c r="E206" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>3.25</v>
+      </c>
+      <c r="N206">
         <v>2.1</v>
       </c>
-      <c r="M206">
-        <v>3.1</v>
-      </c>
-      <c r="N206">
-        <v>3.2</v>
-      </c>
       <c r="O206">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
         <v>3.3</v>
       </c>
       <c r="Q206">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="R206">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S206">
         <v>2</v>
@@ -19495,31 +19495,31 @@
         <v>2.25</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X206">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19527,7 +19527,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7744608</v>
+        <v>7744606</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
@@ -19536,10 +19536,10 @@
         <v>45367.125</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -19551,46 +19551,46 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" t="s">
         <v>62</v>
       </c>
       <c r="L207">
+        <v>2.3</v>
+      </c>
+      <c r="M207">
+        <v>2.875</v>
+      </c>
+      <c r="N207">
         <v>3</v>
       </c>
-      <c r="M207">
-        <v>3.25</v>
-      </c>
-      <c r="N207">
+      <c r="O207">
         <v>2.1</v>
       </c>
-      <c r="O207">
-        <v>3.5</v>
-      </c>
       <c r="P207">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q207">
+        <v>4</v>
+      </c>
+      <c r="R207">
+        <v>-0.5</v>
+      </c>
+      <c r="S207">
         <v>2.1</v>
       </c>
-      <c r="R207">
-        <v>0.25</v>
-      </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
       <c r="T207">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -19599,19 +19599,19 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC207">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD207">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19619,7 +19619,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7744606</v>
+        <v>7744607</v>
       </c>
       <c r="C208" t="s">
         <v>39</v>
@@ -19628,82 +19628,82 @@
         <v>45367.125</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L208">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M208">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O208">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R208">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S208">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V208">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB208">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD208">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -20447,7 +20447,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7744619</v>
+        <v>7744620</v>
       </c>
       <c r="C217" t="s">
         <v>39</v>
@@ -20456,46 +20456,46 @@
         <v>45381.125</v>
       </c>
       <c r="E217" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G217">
         <v>3</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="s">
         <v>63</v>
       </c>
       <c r="L217">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="M217">
         <v>3.5</v>
       </c>
       <c r="N217">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O217">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="P217">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q217">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="R217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S217">
         <v>1.95</v>
@@ -20504,16 +20504,16 @@
         <v>1.9</v>
       </c>
       <c r="U217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X217">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="Y217">
         <v>-1</v>
@@ -20528,10 +20528,10 @@
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AD217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20539,7 +20539,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7744620</v>
+        <v>7744619</v>
       </c>
       <c r="C218" t="s">
         <v>39</v>
@@ -20548,46 +20548,46 @@
         <v>45381.125</v>
       </c>
       <c r="E218" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G218">
         <v>3</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="s">
         <v>63</v>
       </c>
       <c r="L218">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="M218">
         <v>3.5</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O218">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="P218">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q218">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="R218">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S218">
         <v>1.95</v>
@@ -20596,16 +20596,16 @@
         <v>1.9</v>
       </c>
       <c r="U218">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X218">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="Y218">
         <v>-1</v>
@@ -20620,10 +20620,10 @@
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AD218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20999,7 +20999,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7744624</v>
+        <v>7744623</v>
       </c>
       <c r="C223" t="s">
         <v>39</v>
@@ -21008,82 +21008,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E223" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223">
         <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L223">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="M223">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N223">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O223">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="P223">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q223">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R223">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U223">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z223">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC223">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21091,7 +21091,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7744629</v>
+        <v>7744624</v>
       </c>
       <c r="C224" t="s">
         <v>39</v>
@@ -21100,55 +21100,55 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F224" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L224">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="M224">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N224">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O224">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P224">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q224">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="R224">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S224">
+        <v>1.975</v>
+      </c>
+      <c r="T224">
         <v>1.875</v>
       </c>
-      <c r="T224">
-        <v>1.975</v>
-      </c>
       <c r="U224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V224">
         <v>1.925</v>
@@ -21160,22 +21160,22 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA224">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
         <v>0.875</v>
       </c>
-      <c r="AB224">
-        <v>-1</v>
-      </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD224">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21183,7 +21183,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7744623</v>
+        <v>7744629</v>
       </c>
       <c r="C225" t="s">
         <v>39</v>
@@ -21192,82 +21192,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F225" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="s">
         <v>61</v>
       </c>
       <c r="L225">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M225">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O225">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P225">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q225">
+        <v>1.55</v>
+      </c>
+      <c r="R225">
+        <v>1</v>
+      </c>
+      <c r="S225">
+        <v>1.875</v>
+      </c>
+      <c r="T225">
+        <v>1.975</v>
+      </c>
+      <c r="U225">
+        <v>2.5</v>
+      </c>
+      <c r="V225">
+        <v>1.925</v>
+      </c>
+      <c r="W225">
+        <v>1.925</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
         <v>3</v>
       </c>
-      <c r="R225">
-        <v>-0.25</v>
-      </c>
-      <c r="S225">
-        <v>2.05</v>
-      </c>
-      <c r="T225">
-        <v>1.8</v>
-      </c>
-      <c r="U225">
-        <v>2</v>
-      </c>
-      <c r="V225">
-        <v>1.85</v>
-      </c>
-      <c r="W225">
-        <v>2</v>
-      </c>
-      <c r="X225">
-        <v>-1</v>
-      </c>
-      <c r="Y225">
-        <v>2.2</v>
-      </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB225">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD225">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21459,7 +21459,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7744625</v>
+        <v>7744628</v>
       </c>
       <c r="C228" t="s">
         <v>39</v>
@@ -21468,82 +21468,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>2.4</v>
+      </c>
+      <c r="O228">
+        <v>3.75</v>
+      </c>
+      <c r="P228">
+        <v>3</v>
+      </c>
+      <c r="Q228">
         <v>2.25</v>
       </c>
-      <c r="M228">
-        <v>3.25</v>
-      </c>
-      <c r="N228">
-        <v>3.1</v>
-      </c>
-      <c r="O228">
-        <v>2.8</v>
-      </c>
-      <c r="P228">
-        <v>3.1</v>
-      </c>
-      <c r="Q228">
-        <v>2.7</v>
-      </c>
       <c r="R228">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U228">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD228">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21551,7 +21551,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7744628</v>
+        <v>7744625</v>
       </c>
       <c r="C229" t="s">
         <v>39</v>
@@ -21560,82 +21560,82 @@
         <v>45385.29166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F229" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G229">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L229">
+        <v>2.25</v>
+      </c>
+      <c r="M229">
+        <v>3.25</v>
+      </c>
+      <c r="N229">
         <v>3.1</v>
       </c>
-      <c r="M229">
-        <v>3</v>
-      </c>
-      <c r="N229">
-        <v>2.4</v>
-      </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P229">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q229">
+        <v>2.7</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
+        <v>1.875</v>
+      </c>
+      <c r="U229">
         <v>2.25</v>
       </c>
-      <c r="R229">
-        <v>0.25</v>
-      </c>
-      <c r="S229">
-        <v>1.95</v>
-      </c>
-      <c r="T229">
-        <v>1.9</v>
-      </c>
-      <c r="U229">
-        <v>1.75</v>
-      </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X229">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD229">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -22103,7 +22103,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7744635</v>
+        <v>7744634</v>
       </c>
       <c r="C235" t="s">
         <v>39</v>
@@ -22112,16 +22112,16 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F235" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -22133,41 +22133,41 @@
         <v>62</v>
       </c>
       <c r="L235">
+        <v>2.75</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>2.5</v>
+      </c>
+      <c r="O235">
+        <v>2.55</v>
+      </c>
+      <c r="P235">
+        <v>3.2</v>
+      </c>
+      <c r="Q235">
+        <v>2.9</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
         <v>1.8</v>
       </c>
-      <c r="M235">
-        <v>3.4</v>
-      </c>
-      <c r="N235">
-        <v>4.75</v>
-      </c>
-      <c r="O235">
+      <c r="T235">
+        <v>2.05</v>
+      </c>
+      <c r="U235">
         <v>2.25</v>
       </c>
-      <c r="P235">
-        <v>3.4</v>
-      </c>
-      <c r="Q235">
-        <v>3.2</v>
-      </c>
-      <c r="R235">
-        <v>-0.25</v>
-      </c>
-      <c r="S235">
-        <v>2</v>
-      </c>
-      <c r="T235">
+      <c r="V235">
+        <v>2</v>
+      </c>
+      <c r="W235">
         <v>1.85</v>
       </c>
-      <c r="U235">
-        <v>2.5</v>
-      </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
-      <c r="W235">
-        <v>1.875</v>
-      </c>
       <c r="X235">
         <v>-1</v>
       </c>
@@ -22175,19 +22175,19 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
+        <v>1.05</v>
+      </c>
+      <c r="AC235">
+        <v>-1</v>
+      </c>
+      <c r="AD235">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC235">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22195,7 +22195,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7744634</v>
+        <v>7744635</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -22204,16 +22204,16 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F236" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -22225,40 +22225,40 @@
         <v>62</v>
       </c>
       <c r="L236">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N236">
+        <v>4.75</v>
+      </c>
+      <c r="O236">
+        <v>2.25</v>
+      </c>
+      <c r="P236">
+        <v>3.4</v>
+      </c>
+      <c r="Q236">
+        <v>3.2</v>
+      </c>
+      <c r="R236">
+        <v>-0.25</v>
+      </c>
+      <c r="S236">
+        <v>2</v>
+      </c>
+      <c r="T236">
+        <v>1.85</v>
+      </c>
+      <c r="U236">
         <v>2.5</v>
       </c>
-      <c r="O236">
-        <v>2.55</v>
-      </c>
-      <c r="P236">
-        <v>3.2</v>
-      </c>
-      <c r="Q236">
-        <v>2.9</v>
-      </c>
-      <c r="R236">
-        <v>0</v>
-      </c>
-      <c r="S236">
-        <v>1.8</v>
-      </c>
-      <c r="T236">
-        <v>2.05</v>
-      </c>
-      <c r="U236">
-        <v>2.25</v>
-      </c>
       <c r="V236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -22267,19 +22267,19 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22471,7 +22471,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7744639</v>
+        <v>7744638</v>
       </c>
       <c r="C239" t="s">
         <v>39</v>
@@ -22480,82 +22480,82 @@
         <v>45389.125</v>
       </c>
       <c r="E239" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F239" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L239">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="M239">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N239">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="O239">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="P239">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD239">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22563,7 +22563,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7744638</v>
+        <v>7744639</v>
       </c>
       <c r="C240" t="s">
         <v>39</v>
@@ -22572,82 +22572,82 @@
         <v>45389.125</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F240" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G240">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L240">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="M240">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N240">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O240">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="P240">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q240">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R240">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X240">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC240">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD240">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -23023,7 +23023,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7744647</v>
+        <v>7744646</v>
       </c>
       <c r="C245" t="s">
         <v>39</v>
@@ -23032,82 +23032,82 @@
         <v>45395.08333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>1</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L245">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N245">
+        <v>2.4</v>
+      </c>
+      <c r="O245">
+        <v>2.45</v>
+      </c>
+      <c r="P245">
+        <v>3.1</v>
+      </c>
+      <c r="Q245">
+        <v>3.1</v>
+      </c>
+      <c r="R245">
+        <v>-0.25</v>
+      </c>
+      <c r="S245">
+        <v>2.1</v>
+      </c>
+      <c r="T245">
+        <v>1.775</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
         <v>1.8</v>
       </c>
-      <c r="O245">
-        <v>5.5</v>
-      </c>
-      <c r="P245">
-        <v>3.4</v>
-      </c>
-      <c r="Q245">
-        <v>1.7</v>
-      </c>
-      <c r="R245">
-        <v>0.75</v>
-      </c>
-      <c r="S245">
-        <v>1.85</v>
-      </c>
-      <c r="T245">
-        <v>2</v>
-      </c>
-      <c r="U245">
-        <v>2</v>
-      </c>
-      <c r="V245">
-        <v>1.825</v>
-      </c>
       <c r="W245">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>2.1</v>